--- a/mapping/PLC_Certification_Chassis.xlsx
+++ b/mapping/PLC_Certification_Chassis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Internal connections" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="589">
   <si>
     <t>PLC Connector Pin</t>
   </si>
@@ -1788,6 +1788,9 @@
   </si>
   <si>
     <t>cold_IA2v;cryo_IA5v</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2347,6 +2350,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2732,9 +2738,9 @@
   </sheetPr>
   <dimension ref="A1:T364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G206" sqref="G206"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I345" sqref="I345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15849,8 +15855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16019,7 +16025,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="149" t="s">
         <v>428</v>
       </c>
       <c r="B10" s="49">
@@ -16029,11 +16035,11 @@
       <c r="C10" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="148" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76"/>
-      <c r="F10" s="148" t="s">
+      <c r="F10" s="149" t="s">
         <v>384</v>
       </c>
       <c r="G10" s="49">
@@ -16042,10 +16048,10 @@
       <c r="H10" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="I10" s="149" t="s">
+      <c r="I10" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="K10" s="148" t="s">
+      <c r="K10" s="149" t="s">
         <v>432</v>
       </c>
       <c r="L10" s="49">
@@ -16055,14 +16061,14 @@
       <c r="M10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="148" t="s">
+      <c r="N10" s="149" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="76">
         <f>COUNTIF(M:M,M10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="148" t="s">
+      <c r="P10" s="149" t="s">
         <v>381</v>
       </c>
       <c r="Q10" s="49">
@@ -16071,7 +16077,7 @@
       <c r="R10" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="S10" s="146" t="s">
+      <c r="S10" s="147" t="s">
         <v>441</v>
       </c>
       <c r="U10" s="73" t="s">
@@ -16082,7 +16088,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="148"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="49">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -16090,17 +16096,17 @@
       <c r="C11" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="148"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="49">
         <v>2</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="I11" s="149"/>
-      <c r="K11" s="148"/>
+      <c r="I11" s="150"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="49">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -16108,19 +16114,19 @@
       <c r="M11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="148"/>
+      <c r="N11" s="149"/>
       <c r="O11" s="76">
         <f t="shared" ref="O11:O74" si="0">COUNTIF(M:M,M11)</f>
         <v>1</v>
       </c>
-      <c r="P11" s="148"/>
+      <c r="P11" s="149"/>
       <c r="Q11" s="49">
         <v>2</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="S11" s="146"/>
+      <c r="S11" s="147"/>
       <c r="U11" s="73" t="s">
         <v>475</v>
       </c>
@@ -16129,7 +16135,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="148"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="49">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -16137,17 +16143,17 @@
       <c r="C12" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="147"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="76"/>
-      <c r="F12" s="148"/>
+      <c r="F12" s="149"/>
       <c r="G12" s="49">
         <v>3</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="I12" s="149"/>
-      <c r="K12" s="148"/>
+      <c r="I12" s="150"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="49">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -16155,19 +16161,19 @@
       <c r="M12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N12" s="148"/>
+      <c r="N12" s="149"/>
       <c r="O12" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P12" s="148"/>
+      <c r="P12" s="149"/>
       <c r="Q12" s="49">
         <v>3</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="S12" s="146"/>
+      <c r="S12" s="147"/>
       <c r="U12" s="73" t="s">
         <v>475</v>
       </c>
@@ -16176,7 +16182,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="148"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="49">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -16184,17 +16190,17 @@
       <c r="C13" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="147"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="148"/>
+      <c r="F13" s="149"/>
       <c r="G13" s="49">
         <v>4</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="I13" s="149"/>
-      <c r="K13" s="148"/>
+      <c r="I13" s="150"/>
+      <c r="K13" s="149"/>
       <c r="L13" s="49">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -16202,19 +16208,19 @@
       <c r="M13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="N13" s="148"/>
+      <c r="N13" s="149"/>
       <c r="O13" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="148"/>
+      <c r="P13" s="149"/>
       <c r="Q13" s="49">
         <v>4</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="S13" s="146"/>
+      <c r="S13" s="147"/>
       <c r="U13" s="73" t="s">
         <v>475</v>
       </c>
@@ -16223,7 +16229,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="148"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="49">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>56</v>
@@ -16231,17 +16237,17 @@
       <c r="C14" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="147"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="76"/>
-      <c r="F14" s="148"/>
+      <c r="F14" s="149"/>
       <c r="G14" s="49">
         <v>5</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I14" s="149"/>
-      <c r="K14" s="148"/>
+      <c r="I14" s="150"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="49">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -16249,19 +16255,19 @@
       <c r="M14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="N14" s="148"/>
+      <c r="N14" s="149"/>
       <c r="O14" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P14" s="148"/>
+      <c r="P14" s="149"/>
       <c r="Q14" s="49">
         <v>5</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="S14" s="146"/>
+      <c r="S14" s="147"/>
       <c r="U14" s="73" t="s">
         <v>475</v>
       </c>
@@ -16270,25 +16276,25 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="148"/>
-      <c r="B15" s="49">
+      <c r="A15" s="149"/>
+      <c r="B15" s="77">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
-        <v>57</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="147"/>
+        <v>58</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="148"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="148"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="49">
         <v>6</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="I15" s="149"/>
-      <c r="K15" s="148"/>
+      <c r="I15" s="150"/>
+      <c r="K15" s="149"/>
       <c r="L15" s="49">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -16296,28 +16302,28 @@
       <c r="M15" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N15" s="148"/>
+      <c r="N15" s="149"/>
       <c r="O15" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="148"/>
+      <c r="P15" s="149"/>
       <c r="Q15" s="49">
         <v>6</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="S15" s="146"/>
+      <c r="S15" s="147"/>
       <c r="U15" s="73" t="s">
         <v>475</v>
       </c>
       <c r="V15" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="148"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="49">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>61</v>
@@ -16325,17 +16331,17 @@
       <c r="C16" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D16" s="147"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="148"/>
+      <c r="F16" s="149"/>
       <c r="G16" s="49">
         <v>7</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="I16" s="149"/>
-      <c r="K16" s="148"/>
+      <c r="I16" s="150"/>
+      <c r="K16" s="149"/>
       <c r="L16" s="49">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -16343,19 +16349,19 @@
       <c r="M16" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N16" s="148"/>
+      <c r="N16" s="149"/>
       <c r="O16" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="148"/>
+      <c r="P16" s="149"/>
       <c r="Q16" s="49">
         <v>7</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="S16" s="146"/>
+      <c r="S16" s="147"/>
       <c r="U16" s="73" t="s">
         <v>475</v>
       </c>
@@ -16364,25 +16370,25 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="148"/>
-      <c r="B17" s="77">
+      <c r="A17" s="149"/>
+      <c r="B17" s="146">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
-        <v>58</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="147"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="148"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="148"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="49">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="I17" s="149"/>
-      <c r="K17" s="148"/>
+      <c r="I17" s="150"/>
+      <c r="K17" s="149"/>
       <c r="L17" s="49">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>33</v>
@@ -16390,19 +16396,19 @@
       <c r="M17" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N17" s="148"/>
+      <c r="N17" s="149"/>
       <c r="O17" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="148"/>
+      <c r="P17" s="149"/>
       <c r="Q17" s="49">
         <v>8</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S17" s="146"/>
+      <c r="S17" s="147"/>
       <c r="U17" s="73" t="s">
         <v>475</v>
       </c>
@@ -16411,7 +16417,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="148"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="49">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -16419,17 +16425,17 @@
       <c r="C18" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="147"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="148"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="49">
         <v>9</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="I18" s="149"/>
-      <c r="K18" s="148"/>
+      <c r="I18" s="150"/>
+      <c r="K18" s="149"/>
       <c r="L18" s="49">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -16437,19 +16443,19 @@
       <c r="M18" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="N18" s="148"/>
+      <c r="N18" s="149"/>
       <c r="O18" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="148"/>
+      <c r="P18" s="149"/>
       <c r="Q18" s="49">
         <v>9</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="S18" s="146"/>
+      <c r="S18" s="147"/>
       <c r="U18" s="73" t="s">
         <v>475</v>
       </c>
@@ -16458,7 +16464,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="49">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -16466,17 +16472,17 @@
       <c r="C19" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="147"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="148"/>
+      <c r="F19" s="149"/>
       <c r="G19" s="49">
         <v>10</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="I19" s="149"/>
-      <c r="K19" s="148"/>
+      <c r="I19" s="150"/>
+      <c r="K19" s="149"/>
       <c r="L19" s="49">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -16484,19 +16490,19 @@
       <c r="M19" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N19" s="148"/>
+      <c r="N19" s="149"/>
       <c r="O19" s="76">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P19" s="148"/>
+      <c r="P19" s="149"/>
       <c r="Q19" s="49">
         <v>10</v>
       </c>
       <c r="R19" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="S19" s="146"/>
+      <c r="S19" s="147"/>
       <c r="U19" s="73" t="s">
         <v>475</v>
       </c>
@@ -16505,7 +16511,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="148"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="49">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>41</v>
@@ -16513,17 +16519,17 @@
       <c r="C20" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="147"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="148"/>
+      <c r="F20" s="149"/>
       <c r="G20" s="49">
         <v>11</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="I20" s="149"/>
-      <c r="K20" s="148"/>
+      <c r="I20" s="150"/>
+      <c r="K20" s="149"/>
       <c r="L20" s="49">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>43</v>
@@ -16531,19 +16537,19 @@
       <c r="M20" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="N20" s="148"/>
+      <c r="N20" s="149"/>
       <c r="O20" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P20" s="148"/>
+      <c r="P20" s="149"/>
       <c r="Q20" s="49">
         <v>11</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="S20" s="146"/>
+      <c r="S20" s="147"/>
       <c r="U20" s="73" t="s">
         <v>475</v>
       </c>
@@ -16552,7 +16558,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="49">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -16560,17 +16566,17 @@
       <c r="C21" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="147"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="76"/>
-      <c r="F21" s="148"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="49">
         <v>12</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="I21" s="149"/>
-      <c r="K21" s="148"/>
+      <c r="I21" s="150"/>
+      <c r="K21" s="149"/>
       <c r="L21" s="77">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -16578,19 +16584,19 @@
       <c r="M21" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N21" s="148"/>
+      <c r="N21" s="149"/>
       <c r="O21" s="76">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P21" s="148"/>
+      <c r="P21" s="149"/>
       <c r="Q21" s="49">
         <v>12</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="S21" s="146"/>
+      <c r="S21" s="147"/>
       <c r="U21" s="73" t="s">
         <v>475</v>
       </c>
@@ -16599,7 +16605,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="148"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="49">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -16607,17 +16613,17 @@
       <c r="C22" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="147"/>
+      <c r="D22" s="148"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="148"/>
+      <c r="F22" s="149"/>
       <c r="G22" s="49">
         <v>13</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="I22" s="149"/>
-      <c r="K22" s="148"/>
+      <c r="I22" s="150"/>
+      <c r="K22" s="149"/>
       <c r="L22" s="49">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -16625,19 +16631,19 @@
       <c r="M22" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N22" s="148"/>
+      <c r="N22" s="149"/>
       <c r="O22" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P22" s="148"/>
+      <c r="P22" s="149"/>
       <c r="Q22" s="49">
         <v>13</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="S22" s="146"/>
+      <c r="S22" s="147"/>
       <c r="U22" s="73" t="s">
         <v>475</v>
       </c>
@@ -16646,7 +16652,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="148"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="49">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -16654,17 +16660,17 @@
       <c r="C23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="147"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="148"/>
+      <c r="F23" s="149"/>
       <c r="G23" s="49">
         <v>14</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="I23" s="149"/>
-      <c r="K23" s="148"/>
+      <c r="I23" s="150"/>
+      <c r="K23" s="149"/>
       <c r="L23" s="49">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -16672,19 +16678,19 @@
       <c r="M23" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="N23" s="148"/>
+      <c r="N23" s="149"/>
       <c r="O23" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P23" s="148"/>
+      <c r="P23" s="149"/>
       <c r="Q23" s="49">
         <v>14</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="S23" s="146"/>
+      <c r="S23" s="147"/>
       <c r="U23" s="73" t="s">
         <v>478</v>
       </c>
@@ -16693,7 +16699,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="49">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -16701,17 +16707,17 @@
       <c r="C24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="147"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="148"/>
+      <c r="F24" s="149"/>
       <c r="G24" s="49">
         <v>15</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="I24" s="149"/>
-      <c r="K24" s="148"/>
+      <c r="I24" s="150"/>
+      <c r="K24" s="149"/>
       <c r="L24" s="49">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -16719,19 +16725,19 @@
       <c r="M24" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N24" s="148"/>
+      <c r="N24" s="149"/>
       <c r="O24" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P24" s="148"/>
+      <c r="P24" s="149"/>
       <c r="Q24" s="49">
         <v>15</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="S24" s="146"/>
+      <c r="S24" s="147"/>
       <c r="U24" s="73" t="s">
         <v>478</v>
       </c>
@@ -16740,7 +16746,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="148"/>
+      <c r="A25" s="149"/>
       <c r="B25" s="49">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -16748,17 +16754,17 @@
       <c r="C25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="147"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="76"/>
-      <c r="F25" s="148"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="49">
         <v>16</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="K25" s="148"/>
+      <c r="I25" s="150"/>
+      <c r="K25" s="149"/>
       <c r="L25" s="49">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -16766,19 +16772,19 @@
       <c r="M25" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="N25" s="148"/>
+      <c r="N25" s="149"/>
       <c r="O25" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="148"/>
+      <c r="P25" s="149"/>
       <c r="Q25" s="49">
         <v>16</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="S25" s="146"/>
+      <c r="S25" s="147"/>
       <c r="U25" s="73" t="s">
         <v>478</v>
       </c>
@@ -16787,7 +16793,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="148"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="49">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -16795,17 +16801,17 @@
       <c r="C26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="147"/>
+      <c r="D26" s="148"/>
       <c r="E26" s="76"/>
-      <c r="F26" s="148"/>
+      <c r="F26" s="149"/>
       <c r="G26" s="49">
         <v>17</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="I26" s="149"/>
-      <c r="K26" s="148"/>
+      <c r="I26" s="150"/>
+      <c r="K26" s="149"/>
       <c r="L26" s="49">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -16813,19 +16819,19 @@
       <c r="M26" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N26" s="148"/>
+      <c r="N26" s="149"/>
       <c r="O26" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P26" s="148"/>
+      <c r="P26" s="149"/>
       <c r="Q26" s="49">
         <v>17</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="S26" s="146"/>
+      <c r="S26" s="147"/>
       <c r="U26" s="73" t="s">
         <v>475</v>
       </c>
@@ -16834,7 +16840,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="148"/>
+      <c r="A27" s="149"/>
       <c r="B27" s="49">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -16842,17 +16848,17 @@
       <c r="C27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="147"/>
+      <c r="D27" s="148"/>
       <c r="E27" s="76"/>
-      <c r="F27" s="148"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="49">
         <v>18</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="I27" s="149"/>
-      <c r="K27" s="148"/>
+      <c r="I27" s="150"/>
+      <c r="K27" s="149"/>
       <c r="L27" s="49">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -16860,19 +16866,19 @@
       <c r="M27" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="N27" s="148"/>
+      <c r="N27" s="149"/>
       <c r="O27" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="148"/>
+      <c r="P27" s="149"/>
       <c r="Q27" s="49">
         <v>18</v>
       </c>
       <c r="R27" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="S27" s="146"/>
+      <c r="S27" s="147"/>
       <c r="U27" s="73" t="s">
         <v>475</v>
       </c>
@@ -16882,7 +16888,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="148"/>
+      <c r="A28" s="149"/>
       <c r="B28" s="49">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -16890,17 +16896,17 @@
       <c r="C28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="147"/>
+      <c r="D28" s="148"/>
       <c r="E28" s="76"/>
-      <c r="F28" s="148"/>
+      <c r="F28" s="149"/>
       <c r="G28" s="49">
         <v>19</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="I28" s="149"/>
-      <c r="K28" s="148"/>
+      <c r="I28" s="150"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="79">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>75</v>
@@ -16908,19 +16914,19 @@
       <c r="M28" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="N28" s="148"/>
+      <c r="N28" s="149"/>
       <c r="O28" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P28" s="148"/>
+      <c r="P28" s="149"/>
       <c r="Q28" s="49">
         <v>19</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="S28" s="146"/>
+      <c r="S28" s="147"/>
       <c r="U28" s="73" t="s">
         <v>475</v>
       </c>
@@ -16930,7 +16936,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="148"/>
+      <c r="A29" s="149"/>
       <c r="B29" s="49">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>44</v>
@@ -16938,17 +16944,17 @@
       <c r="C29" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="147"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="76"/>
-      <c r="F29" s="148"/>
+      <c r="F29" s="149"/>
       <c r="G29" s="49">
         <v>20</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="I29" s="149"/>
-      <c r="K29" s="148"/>
+      <c r="I29" s="150"/>
+      <c r="K29" s="149"/>
       <c r="L29" s="49">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>77</v>
@@ -16956,19 +16962,19 @@
       <c r="M29" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="N29" s="148"/>
+      <c r="N29" s="149"/>
       <c r="O29" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P29" s="148"/>
+      <c r="P29" s="149"/>
       <c r="Q29" s="49">
         <v>20</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="S29" s="146"/>
+      <c r="S29" s="147"/>
       <c r="U29" s="73" t="s">
         <v>475</v>
       </c>
@@ -16977,7 +16983,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="148"/>
+      <c r="A30" s="149"/>
       <c r="B30" s="49">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>45</v>
@@ -16985,17 +16991,17 @@
       <c r="C30" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="147"/>
+      <c r="D30" s="148"/>
       <c r="E30" s="76"/>
-      <c r="F30" s="148"/>
+      <c r="F30" s="149"/>
       <c r="G30" s="49">
         <v>21</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="I30" s="149"/>
-      <c r="K30" s="148"/>
+      <c r="I30" s="150"/>
+      <c r="K30" s="149"/>
       <c r="L30" s="49">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>78</v>
@@ -17003,22 +17009,25 @@
       <c r="M30" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="N30" s="148"/>
+      <c r="N30" s="149"/>
       <c r="O30" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P30" s="148"/>
+      <c r="P30" s="149"/>
       <c r="Q30" s="49">
         <v>21</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="S30" s="146"/>
+      <c r="S30" s="147"/>
+      <c r="U30" s="49" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="148"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="49">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -17026,17 +17035,17 @@
       <c r="C31" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D31" s="147"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="76"/>
-      <c r="F31" s="148"/>
+      <c r="F31" s="149"/>
       <c r="G31" s="49">
         <v>22</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="I31" s="149"/>
-      <c r="K31" s="148"/>
+      <c r="I31" s="150"/>
+      <c r="K31" s="149"/>
       <c r="L31" s="49">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -17044,83 +17053,86 @@
       <c r="M31" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="N31" s="148"/>
+      <c r="N31" s="149"/>
       <c r="O31" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P31" s="148"/>
+      <c r="P31" s="149"/>
       <c r="Q31" s="49">
         <v>22</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S31" s="146"/>
+      <c r="S31" s="147"/>
+      <c r="U31" s="49" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="148"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="147"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="76"/>
-      <c r="F32" s="148"/>
+      <c r="F32" s="149"/>
       <c r="G32" s="49">
         <v>23</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="I32" s="149"/>
-      <c r="K32" s="148"/>
+      <c r="I32" s="150"/>
+      <c r="K32" s="149"/>
       <c r="L32" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N32" s="148"/>
+      <c r="N32" s="149"/>
       <c r="O32" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="148"/>
+      <c r="P32" s="149"/>
       <c r="Q32" s="49">
         <v>23</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S32" s="146"/>
+      <c r="S32" s="147"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="148"/>
-      <c r="D33" s="147"/>
+      <c r="A33" s="149"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="76"/>
-      <c r="F33" s="148"/>
+      <c r="F33" s="149"/>
       <c r="G33" s="49">
         <v>24</v>
       </c>
-      <c r="I33" s="149"/>
-      <c r="K33" s="148"/>
-      <c r="N33" s="148"/>
+      <c r="I33" s="150"/>
+      <c r="K33" s="149"/>
+      <c r="N33" s="149"/>
       <c r="O33" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="148"/>
+      <c r="P33" s="149"/>
       <c r="Q33" s="49">
         <v>24</v>
       </c>
-      <c r="S33" s="146"/>
+      <c r="S33" s="147"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="148"/>
+      <c r="A34" s="149"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="147"/>
+      <c r="D34" s="148"/>
       <c r="E34" s="76"/>
       <c r="F34" s="47"/>
-      <c r="K34" s="148"/>
-      <c r="N34" s="148"/>
+      <c r="K34" s="149"/>
+      <c r="N34" s="149"/>
       <c r="O34" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17128,13 +17140,13 @@
       <c r="P34" s="47"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="148"/>
+      <c r="A35" s="149"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="147"/>
+      <c r="D35" s="148"/>
       <c r="E35" s="76"/>
       <c r="F35" s="47"/>
-      <c r="K35" s="148"/>
-      <c r="N35" s="148"/>
+      <c r="K35" s="149"/>
+      <c r="N35" s="149"/>
       <c r="O35" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17142,7 +17154,7 @@
       <c r="P35" s="47"/>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="148"/>
+      <c r="A36" s="149"/>
       <c r="B36" s="49">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -17150,9 +17162,9 @@
       <c r="C36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="76"/>
-      <c r="F36" s="148" t="s">
+      <c r="F36" s="149" t="s">
         <v>385</v>
       </c>
       <c r="G36" s="49">
@@ -17161,10 +17173,10 @@
       <c r="H36" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="I36" s="149" t="s">
+      <c r="I36" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="K36" s="148"/>
+      <c r="K36" s="149"/>
       <c r="L36" s="49">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -17172,12 +17184,12 @@
       <c r="M36" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="N36" s="148"/>
+      <c r="N36" s="149"/>
       <c r="O36" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P36" s="148" t="s">
+      <c r="P36" s="149" t="s">
         <v>382</v>
       </c>
       <c r="Q36" s="49">
@@ -17186,7 +17198,7 @@
       <c r="R36" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="S36" s="146" t="s">
+      <c r="S36" s="147" t="s">
         <v>440</v>
       </c>
       <c r="U36" s="73" t="s">
@@ -17197,7 +17209,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="148"/>
+      <c r="A37" s="149"/>
       <c r="B37" s="49">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -17205,17 +17217,17 @@
       <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="147"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="148"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="49">
         <v>2</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="I37" s="149"/>
-      <c r="K37" s="148"/>
+      <c r="I37" s="150"/>
+      <c r="K37" s="149"/>
       <c r="L37" s="49">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -17223,19 +17235,19 @@
       <c r="M37" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="N37" s="148"/>
+      <c r="N37" s="149"/>
       <c r="O37" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P37" s="148"/>
+      <c r="P37" s="149"/>
       <c r="Q37" s="49">
         <v>2</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="S37" s="146"/>
+      <c r="S37" s="147"/>
       <c r="U37" s="73" t="s">
         <v>474</v>
       </c>
@@ -17244,7 +17256,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="148"/>
+      <c r="A38" s="149"/>
       <c r="B38" s="49">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>3</v>
@@ -17252,17 +17264,17 @@
       <c r="C38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="147"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="148"/>
+      <c r="F38" s="149"/>
       <c r="G38" s="49">
         <v>3</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="I38" s="149"/>
-      <c r="K38" s="148"/>
+      <c r="I38" s="150"/>
+      <c r="K38" s="149"/>
       <c r="L38" s="81">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>3</v>
@@ -17270,19 +17282,19 @@
       <c r="M38" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="N38" s="148"/>
+      <c r="N38" s="149"/>
       <c r="O38" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P38" s="148"/>
+      <c r="P38" s="149"/>
       <c r="Q38" s="49">
         <v>3</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="S38" s="146"/>
+      <c r="S38" s="147"/>
       <c r="U38" s="73" t="s">
         <v>474</v>
       </c>
@@ -17291,7 +17303,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="148"/>
+      <c r="A39" s="149"/>
       <c r="B39" s="49">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>4</v>
@@ -17299,17 +17311,17 @@
       <c r="C39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="147"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="148"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="49">
         <v>4</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="I39" s="149"/>
-      <c r="K39" s="148"/>
+      <c r="I39" s="150"/>
+      <c r="K39" s="149"/>
       <c r="L39" s="81">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>4</v>
@@ -17317,19 +17329,19 @@
       <c r="M39" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="148"/>
+      <c r="N39" s="149"/>
       <c r="O39" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P39" s="148"/>
+      <c r="P39" s="149"/>
       <c r="Q39" s="49">
         <v>4</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="S39" s="146"/>
+      <c r="S39" s="147"/>
       <c r="U39" s="73" t="s">
         <v>474</v>
       </c>
@@ -17338,7 +17350,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="148"/>
+      <c r="A40" s="149"/>
       <c r="B40" s="49">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>64</v>
@@ -17346,17 +17358,17 @@
       <c r="C40" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D40" s="147"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="148"/>
+      <c r="F40" s="149"/>
       <c r="G40" s="49">
         <v>5</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="I40" s="149"/>
-      <c r="K40" s="148"/>
+      <c r="I40" s="150"/>
+      <c r="K40" s="149"/>
       <c r="L40" s="81">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -17364,19 +17376,19 @@
       <c r="M40" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N40" s="148"/>
+      <c r="N40" s="149"/>
       <c r="O40" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P40" s="148"/>
+      <c r="P40" s="149"/>
       <c r="Q40" s="49">
         <v>5</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="S40" s="146"/>
+      <c r="S40" s="147"/>
       <c r="U40" s="73" t="s">
         <v>475</v>
       </c>
@@ -17385,7 +17397,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="148"/>
+      <c r="A41" s="149"/>
       <c r="B41" s="49">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>65</v>
@@ -17393,17 +17405,17 @@
       <c r="C41" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="147"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="148"/>
+      <c r="F41" s="149"/>
       <c r="G41" s="49">
         <v>6</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="I41" s="149"/>
-      <c r="K41" s="148"/>
+      <c r="I41" s="150"/>
+      <c r="K41" s="149"/>
       <c r="L41" s="81">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>35</v>
@@ -17411,19 +17423,19 @@
       <c r="M41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="N41" s="148"/>
+      <c r="N41" s="149"/>
       <c r="O41" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P41" s="148"/>
+      <c r="P41" s="149"/>
       <c r="Q41" s="49">
         <v>6</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="S41" s="146"/>
+      <c r="S41" s="147"/>
       <c r="U41" s="73" t="s">
         <v>475</v>
       </c>
@@ -17432,7 +17444,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="148"/>
+      <c r="A42" s="149"/>
       <c r="B42" s="49">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>100</v>
@@ -17440,17 +17452,17 @@
       <c r="C42" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D42" s="147"/>
+      <c r="D42" s="148"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="148"/>
+      <c r="F42" s="149"/>
       <c r="G42" s="49">
         <v>7</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="I42" s="149"/>
-      <c r="K42" s="148"/>
+      <c r="I42" s="150"/>
+      <c r="K42" s="149"/>
       <c r="L42" s="49">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>36</v>
@@ -17458,19 +17470,19 @@
       <c r="M42" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N42" s="148"/>
+      <c r="N42" s="149"/>
       <c r="O42" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P42" s="148"/>
+      <c r="P42" s="149"/>
       <c r="Q42" s="49">
         <v>7</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="S42" s="146"/>
+      <c r="S42" s="147"/>
       <c r="U42" s="73" t="s">
         <v>475</v>
       </c>
@@ -17479,7 +17491,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="148"/>
+      <c r="A43" s="149"/>
       <c r="B43" s="49">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>63</v>
@@ -17487,17 +17499,17 @@
       <c r="C43" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="147"/>
+      <c r="D43" s="148"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="148"/>
+      <c r="F43" s="149"/>
       <c r="G43" s="49">
         <v>8</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="I43" s="149"/>
-      <c r="K43" s="148"/>
+      <c r="I43" s="150"/>
+      <c r="K43" s="149"/>
       <c r="L43" s="49">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>57</v>
@@ -17505,19 +17517,19 @@
       <c r="M43" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="148"/>
+      <c r="N43" s="149"/>
       <c r="O43" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P43" s="148"/>
+      <c r="P43" s="149"/>
       <c r="Q43" s="49">
         <v>8</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="S43" s="146"/>
+      <c r="S43" s="147"/>
       <c r="U43" s="73" t="s">
         <v>475</v>
       </c>
@@ -17526,7 +17538,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="148"/>
+      <c r="A44" s="149"/>
       <c r="B44" s="49">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>25</v>
@@ -17534,17 +17546,17 @@
       <c r="C44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="147"/>
+      <c r="D44" s="148"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="148"/>
+      <c r="F44" s="149"/>
       <c r="G44" s="49">
         <v>9</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="I44" s="149"/>
-      <c r="K44" s="148"/>
+      <c r="I44" s="150"/>
+      <c r="K44" s="149"/>
       <c r="L44" s="49">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -17552,19 +17564,19 @@
       <c r="M44" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="148"/>
+      <c r="N44" s="149"/>
       <c r="O44" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P44" s="148"/>
+      <c r="P44" s="149"/>
       <c r="Q44" s="49">
         <v>9</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="S44" s="146"/>
+      <c r="S44" s="147"/>
       <c r="U44" s="73" t="s">
         <v>475</v>
       </c>
@@ -17573,7 +17585,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="148"/>
+      <c r="A45" s="149"/>
       <c r="B45" s="49">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>26</v>
@@ -17581,17 +17593,17 @@
       <c r="C45" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="147"/>
+      <c r="D45" s="148"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="148"/>
+      <c r="F45" s="149"/>
       <c r="G45" s="49">
         <v>10</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="I45" s="149"/>
-      <c r="K45" s="148"/>
+      <c r="I45" s="150"/>
+      <c r="K45" s="149"/>
       <c r="L45" s="49">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -17599,19 +17611,19 @@
       <c r="M45" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N45" s="148"/>
+      <c r="N45" s="149"/>
       <c r="O45" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P45" s="148"/>
+      <c r="P45" s="149"/>
       <c r="Q45" s="49">
         <v>10</v>
       </c>
       <c r="R45" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="S45" s="146"/>
+      <c r="S45" s="147"/>
       <c r="U45" s="73" t="s">
         <v>478</v>
       </c>
@@ -17620,7 +17632,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="148"/>
+      <c r="A46" s="149"/>
       <c r="B46" s="49">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>27</v>
@@ -17628,17 +17640,17 @@
       <c r="C46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="147"/>
+      <c r="D46" s="148"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="148"/>
+      <c r="F46" s="149"/>
       <c r="G46" s="49">
         <v>11</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="I46" s="149"/>
-      <c r="K46" s="148"/>
+      <c r="I46" s="150"/>
+      <c r="K46" s="149"/>
       <c r="L46" s="49">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -17646,19 +17658,19 @@
       <c r="M46" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="N46" s="148"/>
+      <c r="N46" s="149"/>
       <c r="O46" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P46" s="148"/>
+      <c r="P46" s="149"/>
       <c r="Q46" s="49">
         <v>11</v>
       </c>
       <c r="R46" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="S46" s="146"/>
+      <c r="S46" s="147"/>
       <c r="U46" s="73" t="s">
         <v>478</v>
       </c>
@@ -17667,7 +17679,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="148"/>
+      <c r="A47" s="149"/>
       <c r="B47" s="49">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>28</v>
@@ -17675,17 +17687,17 @@
       <c r="C47" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="147"/>
+      <c r="D47" s="148"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="148"/>
+      <c r="F47" s="149"/>
       <c r="G47" s="49">
         <v>12</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="I47" s="149"/>
-      <c r="K47" s="148"/>
+      <c r="I47" s="150"/>
+      <c r="K47" s="149"/>
       <c r="L47" s="49">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>61</v>
@@ -17693,19 +17705,19 @@
       <c r="M47" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="N47" s="148"/>
+      <c r="N47" s="149"/>
       <c r="O47" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P47" s="148"/>
+      <c r="P47" s="149"/>
       <c r="Q47" s="49">
         <v>12</v>
       </c>
       <c r="R47" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="S47" s="146"/>
+      <c r="S47" s="147"/>
       <c r="U47" s="73" t="s">
         <v>475</v>
       </c>
@@ -17714,7 +17726,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="148"/>
+      <c r="A48" s="149"/>
       <c r="B48" s="49">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>29</v>
@@ -17722,17 +17734,17 @@
       <c r="C48" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="147"/>
+      <c r="D48" s="148"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="148"/>
+      <c r="F48" s="149"/>
       <c r="G48" s="49">
         <v>13</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="I48" s="149"/>
-      <c r="K48" s="148"/>
+      <c r="I48" s="150"/>
+      <c r="K48" s="149"/>
       <c r="L48" s="49">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>62</v>
@@ -17740,19 +17752,19 @@
       <c r="M48" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="N48" s="148"/>
+      <c r="N48" s="149"/>
       <c r="O48" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P48" s="148"/>
+      <c r="P48" s="149"/>
       <c r="Q48" s="49">
         <v>13</v>
       </c>
       <c r="R48" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="S48" s="146"/>
+      <c r="S48" s="147"/>
       <c r="U48" s="73" t="s">
         <v>475</v>
       </c>
@@ -17761,7 +17773,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="148"/>
+      <c r="A49" s="149"/>
       <c r="B49" s="49">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>30</v>
@@ -17769,17 +17781,17 @@
       <c r="C49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="147"/>
+      <c r="D49" s="148"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="148"/>
+      <c r="F49" s="149"/>
       <c r="G49" s="49">
         <v>14</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="I49" s="149"/>
-      <c r="K49" s="148"/>
+      <c r="I49" s="150"/>
+      <c r="K49" s="149"/>
       <c r="L49" s="49">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>63</v>
@@ -17787,19 +17799,19 @@
       <c r="M49" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="N49" s="148"/>
+      <c r="N49" s="149"/>
       <c r="O49" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P49" s="148"/>
+      <c r="P49" s="149"/>
       <c r="Q49" s="49">
         <v>14</v>
       </c>
       <c r="R49" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="S49" s="146"/>
+      <c r="S49" s="147"/>
       <c r="U49" s="73" t="s">
         <v>475</v>
       </c>
@@ -17808,7 +17820,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="148"/>
+      <c r="A50" s="149"/>
       <c r="B50" s="49">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>31</v>
@@ -17816,17 +17828,17 @@
       <c r="C50" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="147"/>
+      <c r="D50" s="148"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="148"/>
+      <c r="F50" s="149"/>
       <c r="G50" s="49">
         <v>15</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="I50" s="149"/>
-      <c r="K50" s="148"/>
+      <c r="I50" s="150"/>
+      <c r="K50" s="149"/>
       <c r="L50" s="49">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>64</v>
@@ -17834,19 +17846,19 @@
       <c r="M50" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N50" s="148"/>
+      <c r="N50" s="149"/>
       <c r="O50" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P50" s="148"/>
+      <c r="P50" s="149"/>
       <c r="Q50" s="49">
         <v>15</v>
       </c>
       <c r="R50" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="S50" s="146"/>
+      <c r="S50" s="147"/>
       <c r="U50" s="73" t="s">
         <v>475</v>
       </c>
@@ -17855,7 +17867,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="148"/>
+      <c r="A51" s="149"/>
       <c r="B51" s="49">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>18</v>
@@ -17863,17 +17875,17 @@
       <c r="C51" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D51" s="147"/>
+      <c r="D51" s="148"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="148"/>
+      <c r="F51" s="149"/>
       <c r="G51" s="49">
         <v>16</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="I51" s="149"/>
-      <c r="K51" s="148"/>
+      <c r="I51" s="150"/>
+      <c r="K51" s="149"/>
       <c r="L51" s="49">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>65</v>
@@ -17881,99 +17893,102 @@
       <c r="M51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="N51" s="148"/>
+      <c r="N51" s="149"/>
       <c r="O51" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P51" s="148"/>
+      <c r="P51" s="149"/>
       <c r="Q51" s="49">
         <v>16</v>
       </c>
       <c r="R51" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S51" s="146"/>
+      <c r="S51" s="147"/>
+      <c r="U51" s="49" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="148"/>
+      <c r="A52" s="149"/>
       <c r="B52" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="147"/>
+      <c r="D52" s="148"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="148"/>
+      <c r="F52" s="149"/>
       <c r="G52" s="49">
         <v>17</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="I52" s="149"/>
-      <c r="K52" s="148"/>
+      <c r="I52" s="150"/>
+      <c r="K52" s="149"/>
       <c r="L52" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N52" s="148"/>
+      <c r="N52" s="149"/>
       <c r="O52" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P52" s="148"/>
+      <c r="P52" s="149"/>
       <c r="Q52" s="49">
         <v>17</v>
       </c>
       <c r="R52" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S52" s="146"/>
+      <c r="S52" s="147"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="148"/>
-      <c r="D53" s="147"/>
+      <c r="A53" s="149"/>
+      <c r="D53" s="148"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="148"/>
+      <c r="F53" s="149"/>
       <c r="G53" s="49">
         <v>18</v>
       </c>
-      <c r="I53" s="149"/>
-      <c r="K53" s="148"/>
-      <c r="N53" s="148"/>
+      <c r="I53" s="150"/>
+      <c r="K53" s="149"/>
+      <c r="N53" s="149"/>
       <c r="O53" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="148"/>
+      <c r="P53" s="149"/>
       <c r="Q53" s="49">
         <v>18</v>
       </c>
-      <c r="S53" s="146"/>
+      <c r="S53" s="147"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="148"/>
+      <c r="A54" s="149"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="147"/>
+      <c r="D54" s="148"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="148"/>
+      <c r="F54" s="149"/>
       <c r="G54" s="49">
         <v>19</v>
       </c>
-      <c r="I54" s="149"/>
-      <c r="K54" s="148"/>
-      <c r="N54" s="148"/>
+      <c r="I54" s="150"/>
+      <c r="K54" s="149"/>
+      <c r="N54" s="149"/>
       <c r="O54" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P54" s="148"/>
+      <c r="P54" s="149"/>
       <c r="Q54" s="49">
         <v>19</v>
       </c>
-      <c r="S54" s="146"/>
+      <c r="S54" s="147"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="148"/>
+      <c r="A55" s="149"/>
       <c r="B55" s="49">
         <f>VLOOKUP(C55,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>99</v>
@@ -17981,17 +17996,17 @@
       <c r="C55" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="147"/>
+      <c r="D55" s="148"/>
       <c r="E55" s="76"/>
-      <c r="F55" s="148"/>
+      <c r="F55" s="149"/>
       <c r="G55" s="49">
         <v>20</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="I55" s="149"/>
-      <c r="K55" s="148"/>
+      <c r="I55" s="150"/>
+      <c r="K55" s="149"/>
       <c r="L55" s="49">
         <f>VLOOKUP(M55,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>25</v>
@@ -17999,19 +18014,19 @@
       <c r="M55" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="N55" s="148"/>
+      <c r="N55" s="149"/>
       <c r="O55" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P55" s="148"/>
+      <c r="P55" s="149"/>
       <c r="Q55" s="49">
         <v>20</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="S55" s="146"/>
+      <c r="S55" s="147"/>
       <c r="U55" s="73" t="s">
         <v>475</v>
       </c>
@@ -18020,13 +18035,13 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="148"/>
+      <c r="A56" s="149"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="147"/>
+      <c r="D56" s="148"/>
       <c r="E56" s="76"/>
       <c r="F56" s="47"/>
-      <c r="K56" s="148"/>
-      <c r="N56" s="148"/>
+      <c r="K56" s="149"/>
+      <c r="N56" s="149"/>
       <c r="O56" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18034,13 +18049,13 @@
       <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="148"/>
+      <c r="A57" s="149"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="147"/>
+      <c r="D57" s="148"/>
       <c r="E57" s="76"/>
       <c r="F57" s="47"/>
-      <c r="K57" s="148"/>
-      <c r="N57" s="148"/>
+      <c r="K57" s="149"/>
+      <c r="N57" s="149"/>
       <c r="O57" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18048,7 +18063,7 @@
       <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="148"/>
+      <c r="A58" s="149"/>
       <c r="B58" s="49">
         <f>VLOOKUP(C58,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>5</v>
@@ -18056,9 +18071,9 @@
       <c r="C58" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="147"/>
+      <c r="D58" s="148"/>
       <c r="E58" s="76"/>
-      <c r="F58" s="148" t="s">
+      <c r="F58" s="149" t="s">
         <v>386</v>
       </c>
       <c r="G58" s="49">
@@ -18067,10 +18082,10 @@
       <c r="H58" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="I58" s="149" t="s">
+      <c r="I58" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="K58" s="148"/>
+      <c r="K58" s="149"/>
       <c r="L58" s="49">
         <f>VLOOKUP(M58,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>5</v>
@@ -18078,12 +18093,12 @@
       <c r="M58" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="N58" s="148"/>
+      <c r="N58" s="149"/>
       <c r="O58" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P58" s="148" t="s">
+      <c r="P58" s="149" t="s">
         <v>383</v>
       </c>
       <c r="Q58" s="49">
@@ -18092,7 +18107,7 @@
       <c r="R58" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="S58" s="146" t="s">
+      <c r="S58" s="147" t="s">
         <v>439</v>
       </c>
       <c r="U58" s="73" t="s">
@@ -18103,7 +18118,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="148"/>
+      <c r="A59" s="149"/>
       <c r="B59" s="49">
         <f>VLOOKUP(C59,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>6</v>
@@ -18111,17 +18126,17 @@
       <c r="C59" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="147"/>
+      <c r="D59" s="148"/>
       <c r="E59" s="76"/>
-      <c r="F59" s="148"/>
+      <c r="F59" s="149"/>
       <c r="G59" s="49">
         <v>2</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="I59" s="149"/>
-      <c r="K59" s="148"/>
+      <c r="I59" s="150"/>
+      <c r="K59" s="149"/>
       <c r="L59" s="49">
         <f>VLOOKUP(M59,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>6</v>
@@ -18129,19 +18144,19 @@
       <c r="M59" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="N59" s="148"/>
+      <c r="N59" s="149"/>
       <c r="O59" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P59" s="148"/>
+      <c r="P59" s="149"/>
       <c r="Q59" s="49">
         <v>2</v>
       </c>
       <c r="R59" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="S59" s="146"/>
+      <c r="S59" s="147"/>
       <c r="U59" s="73" t="s">
         <v>474</v>
       </c>
@@ -18150,7 +18165,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" s="148"/>
+      <c r="A60" s="149"/>
       <c r="B60" s="49">
         <f>VLOOKUP(C60,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>7</v>
@@ -18158,17 +18173,17 @@
       <c r="C60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="147"/>
+      <c r="D60" s="148"/>
       <c r="E60" s="76"/>
-      <c r="F60" s="148"/>
+      <c r="F60" s="149"/>
       <c r="G60" s="49">
         <v>3</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="I60" s="149"/>
-      <c r="K60" s="148"/>
+      <c r="I60" s="150"/>
+      <c r="K60" s="149"/>
       <c r="L60" s="49">
         <f>VLOOKUP(M60,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>7</v>
@@ -18176,19 +18191,19 @@
       <c r="M60" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="N60" s="148"/>
+      <c r="N60" s="149"/>
       <c r="O60" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P60" s="148"/>
+      <c r="P60" s="149"/>
       <c r="Q60" s="49">
         <v>3</v>
       </c>
       <c r="R60" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="S60" s="146"/>
+      <c r="S60" s="147"/>
       <c r="U60" s="73" t="s">
         <v>474</v>
       </c>
@@ -18197,7 +18212,7 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="148"/>
+      <c r="A61" s="149"/>
       <c r="B61" s="49">
         <f>VLOOKUP(C61,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>8</v>
@@ -18205,17 +18220,17 @@
       <c r="C61" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="147"/>
+      <c r="D61" s="148"/>
       <c r="E61" s="76"/>
-      <c r="F61" s="148"/>
+      <c r="F61" s="149"/>
       <c r="G61" s="49">
         <v>4</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="I61" s="149"/>
-      <c r="K61" s="148"/>
+      <c r="I61" s="150"/>
+      <c r="K61" s="149"/>
       <c r="L61" s="49">
         <f>VLOOKUP(M61,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>8</v>
@@ -18223,19 +18238,19 @@
       <c r="M61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="N61" s="148"/>
+      <c r="N61" s="149"/>
       <c r="O61" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P61" s="148"/>
+      <c r="P61" s="149"/>
       <c r="Q61" s="49">
         <v>4</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="S61" s="146"/>
+      <c r="S61" s="147"/>
       <c r="U61" s="73" t="s">
         <v>474</v>
       </c>
@@ -18244,7 +18259,7 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="148"/>
+      <c r="A62" s="149"/>
       <c r="B62" s="49">
         <f>VLOOKUP(C62,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>68</v>
@@ -18252,17 +18267,17 @@
       <c r="C62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D62" s="147"/>
+      <c r="D62" s="148"/>
       <c r="E62" s="76"/>
-      <c r="F62" s="148"/>
+      <c r="F62" s="149"/>
       <c r="G62" s="49">
         <v>5</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="I62" s="149"/>
-      <c r="K62" s="148"/>
+      <c r="I62" s="150"/>
+      <c r="K62" s="149"/>
       <c r="L62" s="49">
         <f>VLOOKUP(M62,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>37</v>
@@ -18270,19 +18285,19 @@
       <c r="M62" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="N62" s="148"/>
+      <c r="N62" s="149"/>
       <c r="O62" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P62" s="148"/>
+      <c r="P62" s="149"/>
       <c r="Q62" s="49">
         <v>5</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="S62" s="146"/>
+      <c r="S62" s="147"/>
       <c r="U62" s="73" t="s">
         <v>475</v>
       </c>
@@ -18291,7 +18306,7 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="148"/>
+      <c r="A63" s="149"/>
       <c r="B63" s="49">
         <f>VLOOKUP(C63,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>72</v>
@@ -18299,17 +18314,17 @@
       <c r="C63" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D63" s="147"/>
+      <c r="D63" s="148"/>
       <c r="E63" s="76"/>
-      <c r="F63" s="148"/>
+      <c r="F63" s="149"/>
       <c r="G63" s="49">
         <v>6</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="I63" s="149"/>
-      <c r="K63" s="148"/>
+      <c r="I63" s="150"/>
+      <c r="K63" s="149"/>
       <c r="L63" s="49">
         <f>VLOOKUP(M63,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>38</v>
@@ -18317,19 +18332,19 @@
       <c r="M63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="N63" s="148"/>
+      <c r="N63" s="149"/>
       <c r="O63" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P63" s="148"/>
+      <c r="P63" s="149"/>
       <c r="Q63" s="49">
         <v>6</v>
       </c>
       <c r="R63" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="S63" s="146"/>
+      <c r="S63" s="147"/>
       <c r="U63" s="73" t="s">
         <v>475</v>
       </c>
@@ -18338,7 +18353,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="148"/>
+      <c r="A64" s="149"/>
       <c r="B64" s="49">
         <f>VLOOKUP(C64,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>67</v>
@@ -18346,17 +18361,17 @@
       <c r="C64" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="147"/>
+      <c r="D64" s="148"/>
       <c r="E64" s="76"/>
-      <c r="F64" s="148"/>
+      <c r="F64" s="149"/>
       <c r="G64" s="49">
         <v>7</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="I64" s="149"/>
-      <c r="K64" s="148"/>
+      <c r="I64" s="150"/>
+      <c r="K64" s="149"/>
       <c r="L64" s="49">
         <f>VLOOKUP(M64,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>66</v>
@@ -18364,19 +18379,19 @@
       <c r="M64" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="N64" s="148"/>
+      <c r="N64" s="149"/>
       <c r="O64" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P64" s="148"/>
+      <c r="P64" s="149"/>
       <c r="Q64" s="49">
         <v>7</v>
       </c>
       <c r="R64" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="S64" s="146"/>
+      <c r="S64" s="147"/>
       <c r="U64" s="73" t="s">
         <v>475</v>
       </c>
@@ -18385,7 +18400,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="148"/>
+      <c r="A65" s="149"/>
       <c r="B65" s="49">
         <f>VLOOKUP(C65,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>71</v>
@@ -18393,17 +18408,17 @@
       <c r="C65" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="147"/>
+      <c r="D65" s="148"/>
       <c r="E65" s="76"/>
-      <c r="F65" s="148"/>
+      <c r="F65" s="149"/>
       <c r="G65" s="49">
         <v>8</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="I65" s="149"/>
-      <c r="K65" s="148"/>
+      <c r="I65" s="150"/>
+      <c r="K65" s="149"/>
       <c r="L65" s="49">
         <f>VLOOKUP(M65,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>67</v>
@@ -18411,19 +18426,19 @@
       <c r="M65" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="N65" s="148"/>
+      <c r="N65" s="149"/>
       <c r="O65" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P65" s="148"/>
+      <c r="P65" s="149"/>
       <c r="Q65" s="49">
         <v>8</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="S65" s="146"/>
+      <c r="S65" s="147"/>
       <c r="U65" s="73" t="s">
         <v>475</v>
       </c>
@@ -18432,7 +18447,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="148"/>
+      <c r="A66" s="149"/>
       <c r="B66" s="49">
         <f>VLOOKUP(C66,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>32</v>
@@ -18440,17 +18455,17 @@
       <c r="C66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="147"/>
+      <c r="D66" s="148"/>
       <c r="E66" s="76"/>
-      <c r="F66" s="148"/>
+      <c r="F66" s="149"/>
       <c r="G66" s="49">
         <v>9</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="I66" s="149"/>
-      <c r="K66" s="148"/>
+      <c r="I66" s="150"/>
+      <c r="K66" s="149"/>
       <c r="L66" s="49">
         <f>VLOOKUP(M66,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>68</v>
@@ -18458,19 +18473,19 @@
       <c r="M66" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="N66" s="148"/>
+      <c r="N66" s="149"/>
       <c r="O66" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P66" s="148"/>
+      <c r="P66" s="149"/>
       <c r="Q66" s="49">
         <v>9</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="S66" s="146"/>
+      <c r="S66" s="147"/>
       <c r="U66" s="73" t="s">
         <v>478</v>
       </c>
@@ -18479,7 +18494,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="148"/>
+      <c r="A67" s="149"/>
       <c r="B67" s="49">
         <f>VLOOKUP(C67,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>33</v>
@@ -18487,17 +18502,17 @@
       <c r="C67" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="147"/>
+      <c r="D67" s="148"/>
       <c r="E67" s="76"/>
-      <c r="F67" s="148"/>
+      <c r="F67" s="149"/>
       <c r="G67" s="49">
         <v>10</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="I67" s="149"/>
-      <c r="K67" s="148"/>
+      <c r="I67" s="150"/>
+      <c r="K67" s="149"/>
       <c r="L67" s="49">
         <f>VLOOKUP(M67,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>69</v>
@@ -18505,19 +18520,19 @@
       <c r="M67" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="N67" s="148"/>
+      <c r="N67" s="149"/>
       <c r="O67" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P67" s="148"/>
+      <c r="P67" s="149"/>
       <c r="Q67" s="49">
         <v>10</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="S67" s="146"/>
+      <c r="S67" s="147"/>
       <c r="U67" s="73" t="s">
         <v>478</v>
       </c>
@@ -18526,7 +18541,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="148"/>
+      <c r="A68" s="149"/>
       <c r="B68" s="49">
         <f>VLOOKUP(C68,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>34</v>
@@ -18534,17 +18549,17 @@
       <c r="C68" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="147"/>
+      <c r="D68" s="148"/>
       <c r="E68" s="76"/>
-      <c r="F68" s="148"/>
+      <c r="F68" s="149"/>
       <c r="G68" s="49">
         <v>11</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="I68" s="149"/>
-      <c r="K68" s="148"/>
+      <c r="I68" s="150"/>
+      <c r="K68" s="149"/>
       <c r="L68" s="49">
         <f>VLOOKUP(M68,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>70</v>
@@ -18552,19 +18567,19 @@
       <c r="M68" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="N68" s="148"/>
+      <c r="N68" s="149"/>
       <c r="O68" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P68" s="148"/>
+      <c r="P68" s="149"/>
       <c r="Q68" s="49">
         <v>11</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="S68" s="146"/>
+      <c r="S68" s="147"/>
       <c r="U68" s="73" t="s">
         <v>478</v>
       </c>
@@ -18573,7 +18588,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A69" s="148"/>
+      <c r="A69" s="149"/>
       <c r="B69" s="49">
         <f>VLOOKUP(C69,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>35</v>
@@ -18581,17 +18596,17 @@
       <c r="C69" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="147"/>
+      <c r="D69" s="148"/>
       <c r="E69" s="76"/>
-      <c r="F69" s="148"/>
+      <c r="F69" s="149"/>
       <c r="G69" s="49">
         <v>12</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="I69" s="149"/>
-      <c r="K69" s="148"/>
+      <c r="I69" s="150"/>
+      <c r="K69" s="149"/>
       <c r="L69" s="49">
         <f>VLOOKUP(M69,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>71</v>
@@ -18599,19 +18614,19 @@
       <c r="M69" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="N69" s="148"/>
+      <c r="N69" s="149"/>
       <c r="O69" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P69" s="148"/>
+      <c r="P69" s="149"/>
       <c r="Q69" s="49">
         <v>12</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="S69" s="146"/>
+      <c r="S69" s="147"/>
       <c r="U69" s="73" t="s">
         <v>478</v>
       </c>
@@ -18620,7 +18635,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A70" s="148"/>
+      <c r="A70" s="149"/>
       <c r="B70" s="49">
         <f>VLOOKUP(C70,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>36</v>
@@ -18628,17 +18643,17 @@
       <c r="C70" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="147"/>
+      <c r="D70" s="148"/>
       <c r="E70" s="76"/>
-      <c r="F70" s="148"/>
+      <c r="F70" s="149"/>
       <c r="G70" s="49">
         <v>13</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="I70" s="149"/>
-      <c r="K70" s="148"/>
+      <c r="I70" s="150"/>
+      <c r="K70" s="149"/>
       <c r="L70" s="81">
         <f>VLOOKUP(M70,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>72</v>
@@ -18646,19 +18661,19 @@
       <c r="M70" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N70" s="148"/>
+      <c r="N70" s="149"/>
       <c r="O70" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P70" s="148"/>
+      <c r="P70" s="149"/>
       <c r="Q70" s="49">
         <v>13</v>
       </c>
       <c r="R70" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="S70" s="146"/>
+      <c r="S70" s="147"/>
       <c r="U70" s="73" t="s">
         <v>475</v>
       </c>
@@ -18667,7 +18682,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A71" s="148"/>
+      <c r="A71" s="149"/>
       <c r="B71" s="49">
         <f>VLOOKUP(C71,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>37</v>
@@ -18675,17 +18690,17 @@
       <c r="C71" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="147"/>
+      <c r="D71" s="148"/>
       <c r="E71" s="76"/>
-      <c r="F71" s="148"/>
+      <c r="F71" s="149"/>
       <c r="G71" s="49">
         <v>14</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="I71" s="149"/>
-      <c r="K71" s="148"/>
+      <c r="I71" s="150"/>
+      <c r="K71" s="149"/>
       <c r="L71" s="81">
         <f>VLOOKUP(M71,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>73</v>
@@ -18693,19 +18708,19 @@
       <c r="M71" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="N71" s="148"/>
+      <c r="N71" s="149"/>
       <c r="O71" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P71" s="148"/>
+      <c r="P71" s="149"/>
       <c r="Q71" s="49">
         <v>14</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="S71" s="146"/>
+      <c r="S71" s="147"/>
       <c r="U71" s="73" t="s">
         <v>475</v>
       </c>
@@ -18714,7 +18729,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="148"/>
+      <c r="A72" s="149"/>
       <c r="B72" s="49">
         <f>VLOOKUP(C72,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>38</v>
@@ -18722,17 +18737,17 @@
       <c r="C72" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="147"/>
+      <c r="D72" s="148"/>
       <c r="E72" s="76"/>
-      <c r="F72" s="148"/>
+      <c r="F72" s="149"/>
       <c r="G72" s="49">
         <v>15</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="I72" s="149"/>
-      <c r="K72" s="148"/>
+      <c r="I72" s="150"/>
+      <c r="K72" s="149"/>
       <c r="L72" s="81">
         <f>VLOOKUP(M72,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>74</v>
@@ -18740,19 +18755,19 @@
       <c r="M72" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="N72" s="148"/>
+      <c r="N72" s="149"/>
       <c r="O72" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P72" s="148"/>
+      <c r="P72" s="149"/>
       <c r="Q72" s="49">
         <v>15</v>
       </c>
       <c r="R72" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="S72" s="146"/>
+      <c r="S72" s="147"/>
       <c r="U72" s="73" t="s">
         <v>475</v>
       </c>
@@ -18761,7 +18776,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A73" s="148"/>
+      <c r="A73" s="149"/>
       <c r="B73" s="49">
         <f>VLOOKUP(C73,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>39</v>
@@ -18769,17 +18784,17 @@
       <c r="C73" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="147"/>
+      <c r="D73" s="148"/>
       <c r="E73" s="76"/>
-      <c r="F73" s="148"/>
+      <c r="F73" s="149"/>
       <c r="G73" s="49">
         <v>16</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="I73" s="149"/>
-      <c r="K73" s="148"/>
+      <c r="I73" s="150"/>
+      <c r="K73" s="149"/>
       <c r="L73" s="79">
         <f>VLOOKUP(M73,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -18787,19 +18802,19 @@
       <c r="M73" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="N73" s="148"/>
+      <c r="N73" s="149"/>
       <c r="O73" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P73" s="148"/>
+      <c r="P73" s="149"/>
       <c r="Q73" s="48">
         <v>16</v>
       </c>
       <c r="R73" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="S73" s="146"/>
+      <c r="S73" s="147"/>
       <c r="U73" s="73" t="s">
         <v>475</v>
       </c>
@@ -18808,7 +18823,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A74" s="148"/>
+      <c r="A74" s="149"/>
       <c r="B74" s="49">
         <f>VLOOKUP(C74,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>40</v>
@@ -18816,17 +18831,17 @@
       <c r="C74" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D74" s="147"/>
+      <c r="D74" s="148"/>
       <c r="E74" s="76"/>
-      <c r="F74" s="148"/>
+      <c r="F74" s="149"/>
       <c r="G74" s="49">
         <v>17</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="I74" s="149"/>
-      <c r="K74" s="148"/>
+      <c r="I74" s="150"/>
+      <c r="K74" s="149"/>
       <c r="L74" s="48">
         <f>VLOOKUP(M74,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>42</v>
@@ -18834,152 +18849,155 @@
       <c r="M74" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="N74" s="148"/>
+      <c r="N74" s="149"/>
       <c r="O74" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P74" s="148"/>
+      <c r="P74" s="149"/>
       <c r="Q74" s="49">
         <v>17</v>
       </c>
       <c r="R74" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S74" s="146"/>
+      <c r="S74" s="147"/>
+      <c r="U74" s="49" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A75" s="148"/>
+      <c r="A75" s="149"/>
       <c r="B75" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C75" s="11"/>
-      <c r="D75" s="147"/>
+      <c r="D75" s="148"/>
       <c r="E75" s="76"/>
-      <c r="F75" s="148"/>
+      <c r="F75" s="149"/>
       <c r="G75" s="49">
         <v>18</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="I75" s="149"/>
-      <c r="K75" s="148"/>
+      <c r="I75" s="150"/>
+      <c r="K75" s="149"/>
       <c r="L75" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N75" s="148"/>
+      <c r="N75" s="149"/>
       <c r="O75" s="76">
         <f t="shared" ref="O75:O79" si="1">COUNTIF(M:M,M75)</f>
         <v>0</v>
       </c>
-      <c r="P75" s="148"/>
+      <c r="P75" s="149"/>
       <c r="Q75" s="49">
         <v>18</v>
       </c>
       <c r="R75" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S75" s="146"/>
+      <c r="S75" s="147"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="148"/>
+      <c r="A76" s="149"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="147"/>
+      <c r="D76" s="148"/>
       <c r="E76" s="76"/>
-      <c r="F76" s="148"/>
+      <c r="F76" s="149"/>
       <c r="G76" s="49">
         <v>19</v>
       </c>
-      <c r="I76" s="149"/>
-      <c r="K76" s="148"/>
-      <c r="N76" s="148"/>
+      <c r="I76" s="150"/>
+      <c r="K76" s="149"/>
+      <c r="N76" s="149"/>
       <c r="O76" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P76" s="148"/>
+      <c r="P76" s="149"/>
       <c r="Q76" s="49">
         <v>19</v>
       </c>
       <c r="R76" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S76" s="146"/>
+      <c r="S76" s="147"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="148"/>
+      <c r="A77" s="149"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="147"/>
+      <c r="D77" s="148"/>
       <c r="E77" s="76"/>
-      <c r="F77" s="148"/>
+      <c r="F77" s="149"/>
       <c r="G77" s="49">
         <v>20</v>
       </c>
-      <c r="I77" s="149"/>
-      <c r="K77" s="148"/>
-      <c r="N77" s="148"/>
+      <c r="I77" s="150"/>
+      <c r="K77" s="149"/>
+      <c r="N77" s="149"/>
       <c r="O77" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P77" s="148"/>
+      <c r="P77" s="149"/>
       <c r="Q77" s="49">
         <v>20</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="146"/>
+      <c r="S77" s="147"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="148"/>
+      <c r="A78" s="149"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="147"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="76"/>
-      <c r="F78" s="148"/>
+      <c r="F78" s="149"/>
       <c r="G78" s="49">
         <v>21</v>
       </c>
-      <c r="I78" s="149"/>
-      <c r="K78" s="148"/>
-      <c r="N78" s="148"/>
+      <c r="I78" s="150"/>
+      <c r="K78" s="149"/>
+      <c r="N78" s="149"/>
       <c r="O78" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P78" s="148"/>
+      <c r="P78" s="149"/>
       <c r="Q78" s="49">
         <v>21</v>
       </c>
       <c r="R78" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="146"/>
+      <c r="S78" s="147"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="148"/>
-      <c r="D79" s="147"/>
+      <c r="A79" s="149"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="76"/>
-      <c r="F79" s="148"/>
+      <c r="F79" s="149"/>
       <c r="G79" s="49">
         <v>22</v>
       </c>
-      <c r="I79" s="149"/>
-      <c r="K79" s="148"/>
-      <c r="N79" s="148"/>
+      <c r="I79" s="150"/>
+      <c r="K79" s="149"/>
+      <c r="N79" s="149"/>
       <c r="O79" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P79" s="148"/>
+      <c r="P79" s="149"/>
       <c r="Q79" s="49">
         <v>22</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S79" s="146"/>
+      <c r="S79" s="147"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E80" s="76"/>
@@ -19017,7 +19035,7 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19250,7 +19268,7 @@
       <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="153" t="s">
         <v>429</v>
       </c>
       <c r="B10" s="142">
@@ -19260,14 +19278,14 @@
       <c r="C10" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="148" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76">
         <f>COUNTIF(C:C,C10)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="153" t="s">
+      <c r="F10" s="154" t="s">
         <v>378</v>
       </c>
       <c r="G10" s="8">
@@ -19276,10 +19294,10 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="153" t="s">
+      <c r="I10" s="154" t="s">
         <v>449</v>
       </c>
-      <c r="K10" s="148" t="s">
+      <c r="K10" s="149" t="s">
         <v>433</v>
       </c>
       <c r="L10" s="43">
@@ -19289,14 +19307,14 @@
       <c r="M10" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="148" t="s">
+      <c r="N10" s="149" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="108">
         <f>COUNTIF(L:L,L10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="148" t="s">
+      <c r="P10" s="149" t="s">
         <v>363</v>
       </c>
       <c r="Q10" s="13">
@@ -19305,7 +19323,7 @@
       <c r="R10" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="S10" s="151" t="s">
+      <c r="S10" s="152" t="s">
         <v>448</v>
       </c>
       <c r="U10" s="73" t="s">
@@ -19316,90 +19334,90 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="148"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="142" t="e">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="76">
         <f>COUNTIF(C:C,C11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="153"/>
+      <c r="F11" s="154"/>
       <c r="G11" s="8">
         <v>2</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="153"/>
-      <c r="K11" s="148"/>
+      <c r="I11" s="154"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="43" t="e">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="148"/>
+      <c r="N11" s="149"/>
       <c r="O11" s="108">
         <f t="shared" ref="O11:O44" si="0">COUNTIF(L:L,L11)</f>
         <v>3</v>
       </c>
-      <c r="P11" s="148"/>
+      <c r="P11" s="149"/>
       <c r="Q11" s="13">
         <v>2</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="S11" s="151"/>
+      <c r="S11" s="152"/>
       <c r="U11" s="73" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="142" t="e">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="147"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="76">
         <f>COUNTIF(C:C,C12)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="153"/>
+      <c r="F12" s="154"/>
       <c r="G12" s="8">
         <v>3</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="153"/>
-      <c r="K12" s="148"/>
+      <c r="I12" s="154"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="43" t="e">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="11"/>
-      <c r="N12" s="148"/>
+      <c r="N12" s="149"/>
       <c r="O12" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P12" s="148"/>
+      <c r="P12" s="149"/>
       <c r="Q12" s="13">
         <v>3</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="S12" s="151"/>
+      <c r="S12" s="152"/>
       <c r="T12" s="29"/>
       <c r="U12" s="73" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="148"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="142">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>64</v>
@@ -19407,20 +19425,20 @@
       <c r="C13" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="147"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="76">
         <f>COUNTIF(C:C,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
+      <c r="F13" s="154"/>
       <c r="G13" s="8">
         <v>4</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="153"/>
-      <c r="K13" s="148"/>
+      <c r="I13" s="154"/>
+      <c r="K13" s="149"/>
       <c r="L13" s="43">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -19428,19 +19446,19 @@
       <c r="M13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N13" s="148"/>
+      <c r="N13" s="149"/>
       <c r="O13" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="148"/>
+      <c r="P13" s="149"/>
       <c r="Q13" s="13">
         <v>4</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="S13" s="151"/>
+      <c r="S13" s="152"/>
       <c r="U13" s="73" t="s">
         <v>475</v>
       </c>
@@ -19449,86 +19467,86 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="148"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="142" t="e">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="147"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="76">
         <f>COUNTIF(C:C,C13)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="153"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="8">
         <v>5</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="153"/>
-      <c r="K14" s="148"/>
+      <c r="I14" s="154"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="43" t="e">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="11"/>
-      <c r="N14" s="148"/>
+      <c r="N14" s="149"/>
       <c r="O14" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P14" s="148"/>
+      <c r="P14" s="149"/>
       <c r="Q14" s="13">
         <v>5</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="S14" s="151"/>
+      <c r="S14" s="152"/>
       <c r="U14" s="73" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="148"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="43" t="s">
         <v>442</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="147"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="76">
         <f t="shared" ref="E15:E44" si="1">COUNTIF(C:C,C15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="153"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="8">
         <v>6</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="K15" s="148"/>
+      <c r="I15" s="154"/>
+      <c r="K15" s="149"/>
       <c r="L15" s="43" t="s">
         <v>442</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="148"/>
+      <c r="N15" s="149"/>
       <c r="O15" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P15" s="148"/>
+      <c r="P15" s="149"/>
       <c r="Q15" s="13">
         <v>6</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S15" s="151"/>
+      <c r="S15" s="152"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="148"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="4">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>52</v>
@@ -19536,20 +19554,20 @@
       <c r="C16" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="147"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F16" s="153"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="8">
         <v>7</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="153"/>
-      <c r="K16" s="148"/>
+      <c r="I16" s="154"/>
+      <c r="K16" s="149"/>
       <c r="L16" s="43">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -19557,19 +19575,19 @@
       <c r="M16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="N16" s="148"/>
+      <c r="N16" s="149"/>
       <c r="O16" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="148"/>
+      <c r="P16" s="149"/>
       <c r="Q16" s="13">
         <v>7</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="S16" s="151"/>
+      <c r="S16" s="152"/>
       <c r="U16" s="73" t="s">
         <v>475</v>
       </c>
@@ -19579,7 +19597,7 @@
       <c r="W16" s="73"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="148"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="4">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>53</v>
@@ -19587,20 +19605,20 @@
       <c r="C17" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="147"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F17" s="153"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="8">
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="153"/>
-      <c r="K17" s="148"/>
+      <c r="I17" s="154"/>
+      <c r="K17" s="149"/>
       <c r="L17" s="43">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -19608,19 +19626,19 @@
       <c r="M17" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N17" s="148"/>
+      <c r="N17" s="149"/>
       <c r="O17" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="148"/>
+      <c r="P17" s="149"/>
       <c r="Q17" s="13">
         <v>8</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="S17" s="151"/>
+      <c r="S17" s="152"/>
       <c r="U17" s="73" t="s">
         <v>475</v>
       </c>
@@ -19630,7 +19648,7 @@
       <c r="W17" s="73"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="148"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="4">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>57</v>
@@ -19638,20 +19656,20 @@
       <c r="C18" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="147"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F18" s="153"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="8">
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="153"/>
-      <c r="K18" s="148"/>
+      <c r="I18" s="154"/>
+      <c r="K18" s="149"/>
       <c r="L18" s="43">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -19659,19 +19677,19 @@
       <c r="M18" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N18" s="148"/>
+      <c r="N18" s="149"/>
       <c r="O18" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="148"/>
+      <c r="P18" s="149"/>
       <c r="Q18" s="13">
         <v>9</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="S18" s="151"/>
+      <c r="S18" s="152"/>
       <c r="U18" s="73" t="s">
         <v>475</v>
       </c>
@@ -19681,7 +19699,7 @@
       <c r="W18" s="73"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="4">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>58</v>
@@ -19689,20 +19707,20 @@
       <c r="C19" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="147"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F19" s="153"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="8">
         <v>10</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="153"/>
-      <c r="K19" s="148"/>
+      <c r="I19" s="154"/>
+      <c r="K19" s="149"/>
       <c r="L19" s="43">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -19710,19 +19728,19 @@
       <c r="M19" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="N19" s="148"/>
+      <c r="N19" s="149"/>
       <c r="O19" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P19" s="148"/>
+      <c r="P19" s="149"/>
       <c r="Q19" s="13">
         <v>10</v>
       </c>
       <c r="R19" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="S19" s="151"/>
+      <c r="S19" s="152"/>
       <c r="U19" s="73" t="s">
         <v>475</v>
       </c>
@@ -19732,9 +19750,9 @@
       <c r="W19" s="73"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148"/>
+      <c r="A20" s="149"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="147"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19743,10 +19761,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="44"/>
-      <c r="K20" s="148"/>
+      <c r="K20" s="149"/>
       <c r="L20" s="43"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="148"/>
+      <c r="N20" s="149"/>
       <c r="O20" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19756,7 +19774,7 @@
       <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="7">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>83</v>
@@ -19764,12 +19782,12 @@
       <c r="C21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="147"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F21" s="153" t="s">
+      <c r="F21" s="154" t="s">
         <v>379</v>
       </c>
       <c r="G21" s="8">
@@ -19778,10 +19796,10 @@
       <c r="H21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="153" t="s">
+      <c r="I21" s="154" t="s">
         <v>451</v>
       </c>
-      <c r="K21" s="148"/>
+      <c r="K21" s="149"/>
       <c r="L21" s="43">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -19789,12 +19807,12 @@
       <c r="M21" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N21" s="148"/>
+      <c r="N21" s="149"/>
       <c r="O21" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P21" s="148" t="s">
+      <c r="P21" s="149" t="s">
         <v>380</v>
       </c>
       <c r="Q21" s="13">
@@ -19803,7 +19821,7 @@
       <c r="R21" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="S21" s="148" t="s">
+      <c r="S21" s="149" t="s">
         <v>450</v>
       </c>
       <c r="U21" s="73" t="s">
@@ -19814,7 +19832,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="148"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="7">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>84</v>
@@ -19822,20 +19840,20 @@
       <c r="C22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="147"/>
+      <c r="D22" s="148"/>
       <c r="E22" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F22" s="153"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="8">
         <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="153"/>
-      <c r="K22" s="148"/>
+      <c r="I22" s="154"/>
+      <c r="K22" s="149"/>
       <c r="L22" s="43">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -19843,19 +19861,19 @@
       <c r="M22" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N22" s="148"/>
+      <c r="N22" s="149"/>
       <c r="O22" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P22" s="148"/>
+      <c r="P22" s="149"/>
       <c r="Q22" s="13">
         <v>2</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="S22" s="151"/>
+      <c r="S22" s="152"/>
       <c r="U22" s="73" t="s">
         <v>475</v>
       </c>
@@ -19864,7 +19882,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="148"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="4">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -19872,20 +19890,20 @@
       <c r="C23" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="147"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F23" s="153"/>
+      <c r="F23" s="154"/>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="153"/>
-      <c r="K23" s="148"/>
+      <c r="I23" s="154"/>
+      <c r="K23" s="149"/>
       <c r="L23" s="43">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -19893,19 +19911,19 @@
       <c r="M23" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N23" s="148"/>
+      <c r="N23" s="149"/>
       <c r="O23" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P23" s="148"/>
+      <c r="P23" s="149"/>
       <c r="Q23" s="13">
         <v>3</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="S23" s="151"/>
+      <c r="S23" s="152"/>
       <c r="U23" s="73" t="s">
         <v>475</v>
       </c>
@@ -19915,7 +19933,7 @@
       <c r="W23" s="73"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="4">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -19923,20 +19941,20 @@
       <c r="C24" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="147"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F24" s="153"/>
+      <c r="F24" s="154"/>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="153"/>
-      <c r="K24" s="148"/>
+      <c r="I24" s="154"/>
+      <c r="K24" s="149"/>
       <c r="L24" s="43">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -19944,19 +19962,19 @@
       <c r="M24" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="N24" s="148"/>
+      <c r="N24" s="149"/>
       <c r="O24" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P24" s="148"/>
+      <c r="P24" s="149"/>
       <c r="Q24" s="13">
         <v>4</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="S24" s="151"/>
+      <c r="S24" s="152"/>
       <c r="U24" s="73" t="s">
         <v>475</v>
       </c>
@@ -19966,7 +19984,7 @@
       <c r="W24" s="73"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148"/>
+      <c r="A25" s="149"/>
       <c r="B25" s="4">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -19974,20 +19992,20 @@
       <c r="C25" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="147"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F25" s="153"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="8">
         <v>5</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="153"/>
-      <c r="K25" s="148"/>
+      <c r="I25" s="154"/>
+      <c r="K25" s="149"/>
       <c r="L25" s="43">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -19995,19 +20013,19 @@
       <c r="M25" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N25" s="148"/>
+      <c r="N25" s="149"/>
       <c r="O25" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="148"/>
+      <c r="P25" s="149"/>
       <c r="Q25" s="13">
         <v>5</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="S25" s="151"/>
+      <c r="S25" s="152"/>
       <c r="U25" s="73" t="s">
         <v>475</v>
       </c>
@@ -20017,7 +20035,7 @@
       <c r="W25" s="73"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="148"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="4">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -20025,20 +20043,20 @@
       <c r="C26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="147"/>
+      <c r="D26" s="148"/>
       <c r="E26" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F26" s="153"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="8">
         <v>6</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="153"/>
-      <c r="K26" s="148"/>
+      <c r="I26" s="154"/>
+      <c r="K26" s="149"/>
       <c r="L26" s="43">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -20046,19 +20064,19 @@
       <c r="M26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="N26" s="148"/>
+      <c r="N26" s="149"/>
       <c r="O26" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P26" s="148"/>
+      <c r="P26" s="149"/>
       <c r="Q26" s="13">
         <v>6</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="S26" s="151"/>
+      <c r="S26" s="152"/>
       <c r="U26" s="73" t="s">
         <v>475</v>
       </c>
@@ -20068,7 +20086,7 @@
       <c r="W26" s="73"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="148"/>
+      <c r="A27" s="149"/>
       <c r="B27" s="4">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -20076,20 +20094,20 @@
       <c r="C27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="147"/>
+      <c r="D27" s="148"/>
       <c r="E27" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F27" s="153"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="8">
         <v>7</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="153"/>
-      <c r="K27" s="148"/>
+      <c r="I27" s="154"/>
+      <c r="K27" s="149"/>
       <c r="L27" s="43">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -20097,19 +20115,19 @@
       <c r="M27" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="N27" s="148"/>
+      <c r="N27" s="149"/>
       <c r="O27" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="148"/>
+      <c r="P27" s="149"/>
       <c r="Q27" s="13">
         <v>7</v>
       </c>
       <c r="R27" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="S27" s="151"/>
+      <c r="S27" s="152"/>
       <c r="U27" s="73" t="s">
         <v>475</v>
       </c>
@@ -20119,7 +20137,7 @@
       <c r="W27" s="73"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="148"/>
+      <c r="A28" s="149"/>
       <c r="B28" s="4">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -20127,20 +20145,20 @@
       <c r="C28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="147"/>
+      <c r="D28" s="148"/>
       <c r="E28" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F28" s="153"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="8">
         <v>8</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="153"/>
-      <c r="K28" s="148"/>
+      <c r="I28" s="154"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="43">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>57</v>
@@ -20148,19 +20166,19 @@
       <c r="M28" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="148"/>
+      <c r="N28" s="149"/>
       <c r="O28" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P28" s="148"/>
+      <c r="P28" s="149"/>
       <c r="Q28" s="13">
         <v>8</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="S28" s="151"/>
+      <c r="S28" s="152"/>
       <c r="U28" s="73" t="s">
         <v>475</v>
       </c>
@@ -20170,7 +20188,7 @@
       <c r="W28" s="73"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="148"/>
+      <c r="A29" s="149"/>
       <c r="B29" s="4">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -20178,20 +20196,20 @@
       <c r="C29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="147"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F29" s="153"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="8">
         <v>9</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="153"/>
-      <c r="K29" s="148"/>
+      <c r="I29" s="154"/>
+      <c r="K29" s="149"/>
       <c r="L29" s="43">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -20199,19 +20217,19 @@
       <c r="M29" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N29" s="148"/>
+      <c r="N29" s="149"/>
       <c r="O29" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P29" s="148"/>
+      <c r="P29" s="149"/>
       <c r="Q29" s="13">
         <v>9</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="S29" s="151"/>
+      <c r="S29" s="152"/>
       <c r="U29" s="73" t="s">
         <v>475</v>
       </c>
@@ -20221,7 +20239,7 @@
       <c r="W29" s="73"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="148"/>
+      <c r="A30" s="149"/>
       <c r="B30" s="4">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -20229,20 +20247,20 @@
       <c r="C30" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="147"/>
+      <c r="D30" s="148"/>
       <c r="E30" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F30" s="153"/>
+      <c r="F30" s="154"/>
       <c r="G30" s="8">
         <v>10</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="153"/>
-      <c r="K30" s="148"/>
+      <c r="I30" s="154"/>
+      <c r="K30" s="149"/>
       <c r="L30" s="43">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -20250,19 +20268,19 @@
       <c r="M30" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N30" s="148"/>
+      <c r="N30" s="149"/>
       <c r="O30" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P30" s="148"/>
+      <c r="P30" s="149"/>
       <c r="Q30" s="13">
         <v>10</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="S30" s="151"/>
+      <c r="S30" s="152"/>
       <c r="U30" s="73" t="s">
         <v>475</v>
       </c>
@@ -20272,7 +20290,7 @@
       <c r="W30" s="73"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="148"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="4">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -20280,20 +20298,20 @@
       <c r="C31" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="147"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F31" s="153"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="8">
         <v>11</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="153"/>
-      <c r="K31" s="148"/>
+      <c r="I31" s="154"/>
+      <c r="K31" s="149"/>
       <c r="L31" s="43">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -20301,19 +20319,19 @@
       <c r="M31" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N31" s="148"/>
+      <c r="N31" s="149"/>
       <c r="O31" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P31" s="148"/>
+      <c r="P31" s="149"/>
       <c r="Q31" s="13">
         <v>11</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="S31" s="151"/>
+      <c r="S31" s="152"/>
       <c r="U31" s="73" t="s">
         <v>475</v>
       </c>
@@ -20323,7 +20341,7 @@
       <c r="W31" s="73"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="148"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="4">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -20331,20 +20349,20 @@
       <c r="C32" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F32" s="153"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="8">
         <v>12</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I32" s="153"/>
-      <c r="K32" s="148"/>
+      <c r="I32" s="154"/>
+      <c r="K32" s="149"/>
       <c r="L32" s="43">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -20352,19 +20370,19 @@
       <c r="M32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N32" s="148"/>
+      <c r="N32" s="149"/>
       <c r="O32" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P32" s="148"/>
+      <c r="P32" s="149"/>
       <c r="Q32" s="13">
         <v>12</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="S32" s="151"/>
+      <c r="S32" s="152"/>
       <c r="U32" s="73" t="s">
         <v>475</v>
       </c>
@@ -20374,7 +20392,7 @@
       <c r="W32" s="73"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="148"/>
+      <c r="A33" s="149"/>
       <c r="B33" s="4">
         <f>VLOOKUP(C33,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>56</v>
@@ -20382,20 +20400,20 @@
       <c r="C33" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="147"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F33" s="153"/>
+      <c r="F33" s="154"/>
       <c r="G33" s="8">
         <v>13</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I33" s="153"/>
-      <c r="K33" s="148"/>
+      <c r="I33" s="154"/>
+      <c r="K33" s="149"/>
       <c r="L33" s="43">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -20403,19 +20421,19 @@
       <c r="M33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="N33" s="148"/>
+      <c r="N33" s="149"/>
       <c r="O33" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P33" s="148"/>
+      <c r="P33" s="149"/>
       <c r="Q33" s="13">
         <v>13</v>
       </c>
       <c r="R33" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="S33" s="151"/>
+      <c r="S33" s="152"/>
       <c r="U33" s="73" t="s">
         <v>475</v>
       </c>
@@ -20425,7 +20443,7 @@
       <c r="W33" s="73"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="148"/>
+      <c r="A34" s="149"/>
       <c r="B34" s="4">
         <f>VLOOKUP(C34,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -20433,20 +20451,20 @@
       <c r="C34" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="147"/>
+      <c r="D34" s="148"/>
       <c r="E34" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F34" s="153"/>
+      <c r="F34" s="154"/>
       <c r="G34" s="8">
         <v>14</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I34" s="153"/>
-      <c r="K34" s="148"/>
+      <c r="I34" s="154"/>
+      <c r="K34" s="149"/>
       <c r="L34" s="43">
         <f>VLOOKUP(M34,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -20454,19 +20472,19 @@
       <c r="M34" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="N34" s="148"/>
+      <c r="N34" s="149"/>
       <c r="O34" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P34" s="148"/>
+      <c r="P34" s="149"/>
       <c r="Q34" s="13">
         <v>14</v>
       </c>
       <c r="R34" s="57" t="s">
         <v>454</v>
       </c>
-      <c r="S34" s="151"/>
+      <c r="S34" s="152"/>
       <c r="U34" s="73" t="s">
         <v>475</v>
       </c>
@@ -20476,7 +20494,7 @@
       <c r="W34" s="73"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="148"/>
+      <c r="A35" s="149"/>
       <c r="B35" s="4">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>44</v>
@@ -20484,20 +20502,20 @@
       <c r="C35" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="148"/>
       <c r="E35" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F35" s="153"/>
+      <c r="F35" s="154"/>
       <c r="G35" s="8">
         <v>15</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I35" s="153"/>
-      <c r="K35" s="148"/>
+      <c r="I35" s="154"/>
+      <c r="K35" s="149"/>
       <c r="L35" s="43">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>77</v>
@@ -20505,19 +20523,19 @@
       <c r="M35" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="N35" s="148"/>
+      <c r="N35" s="149"/>
       <c r="O35" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P35" s="148"/>
+      <c r="P35" s="149"/>
       <c r="Q35" s="13">
         <v>15</v>
       </c>
       <c r="R35" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="S35" s="151"/>
+      <c r="S35" s="152"/>
       <c r="U35" s="73" t="s">
         <v>475</v>
       </c>
@@ -20529,7 +20547,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="148"/>
+      <c r="A36" s="149"/>
       <c r="B36" s="4">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>45</v>
@@ -20537,20 +20555,20 @@
       <c r="C36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="153"/>
+      <c r="F36" s="154"/>
       <c r="G36" s="8">
         <v>16</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="153"/>
-      <c r="K36" s="148"/>
+      <c r="I36" s="154"/>
+      <c r="K36" s="149"/>
       <c r="L36" s="43">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>78</v>
@@ -20558,25 +20576,25 @@
       <c r="M36" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="N36" s="148"/>
+      <c r="N36" s="149"/>
       <c r="O36" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P36" s="148"/>
+      <c r="P36" s="149"/>
       <c r="Q36" s="13">
         <v>16</v>
       </c>
       <c r="R36" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="S36" s="151"/>
+      <c r="S36" s="152"/>
       <c r="U36" s="73" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="148"/>
+      <c r="A37" s="149"/>
       <c r="B37" s="4">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>46</v>
@@ -20584,20 +20602,20 @@
       <c r="C37" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="147"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F37" s="153"/>
+      <c r="F37" s="154"/>
       <c r="G37" s="8">
         <v>17</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="153"/>
-      <c r="K37" s="148"/>
+      <c r="I37" s="154"/>
+      <c r="K37" s="149"/>
       <c r="L37" s="43">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>79</v>
@@ -20605,19 +20623,19 @@
       <c r="M37" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="N37" s="148"/>
+      <c r="N37" s="149"/>
       <c r="O37" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P37" s="148"/>
+      <c r="P37" s="149"/>
       <c r="Q37" s="13">
         <v>17</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="S37" s="151"/>
+      <c r="S37" s="152"/>
       <c r="U37" s="73" t="s">
         <v>475</v>
       </c>
@@ -20629,7 +20647,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="148"/>
+      <c r="A38" s="149"/>
       <c r="B38" s="4">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>47</v>
@@ -20637,20 +20655,20 @@
       <c r="C38" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="147"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F38" s="153"/>
+      <c r="F38" s="154"/>
       <c r="G38" s="8">
         <v>18</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I38" s="153"/>
-      <c r="K38" s="148"/>
+      <c r="I38" s="154"/>
+      <c r="K38" s="149"/>
       <c r="L38" s="43">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>80</v>
@@ -20658,19 +20676,19 @@
       <c r="M38" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="N38" s="148"/>
+      <c r="N38" s="149"/>
       <c r="O38" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P38" s="148"/>
+      <c r="P38" s="149"/>
       <c r="Q38" s="13">
         <v>18</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="S38" s="151"/>
+      <c r="S38" s="152"/>
       <c r="U38" s="73" t="s">
         <v>475</v>
       </c>
@@ -20678,7 +20696,7 @@
       <c r="W38" s="73"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="148"/>
+      <c r="A39" s="149"/>
       <c r="B39" s="4">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>41</v>
@@ -20686,20 +20704,20 @@
       <c r="C39" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="147"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F39" s="153"/>
+      <c r="F39" s="154"/>
       <c r="G39" s="8">
         <v>19</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="153"/>
-      <c r="K39" s="148"/>
+      <c r="I39" s="154"/>
+      <c r="K39" s="149"/>
       <c r="L39" s="43">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>43</v>
@@ -20707,19 +20725,19 @@
       <c r="M39" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="N39" s="148"/>
+      <c r="N39" s="149"/>
       <c r="O39" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P39" s="148"/>
+      <c r="P39" s="149"/>
       <c r="Q39" s="13">
         <v>19</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="S39" s="151"/>
+      <c r="S39" s="152"/>
       <c r="U39" s="73" t="s">
         <v>475</v>
       </c>
@@ -20731,7 +20749,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="148"/>
+      <c r="A40" s="149"/>
       <c r="B40" s="4">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>42</v>
@@ -20739,20 +20757,20 @@
       <c r="C40" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="147"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F40" s="153"/>
+      <c r="F40" s="154"/>
       <c r="G40" s="8">
         <v>20</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="153"/>
-      <c r="K40" s="148"/>
+      <c r="I40" s="154"/>
+      <c r="K40" s="149"/>
       <c r="L40" s="43">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>44</v>
@@ -20760,19 +20778,19 @@
       <c r="M40" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="N40" s="148"/>
+      <c r="N40" s="149"/>
       <c r="O40" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P40" s="148"/>
+      <c r="P40" s="149"/>
       <c r="Q40" s="13">
         <v>20</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="S40" s="151"/>
+      <c r="S40" s="152"/>
       <c r="U40" s="73" t="s">
         <v>475</v>
       </c>
@@ -20784,7 +20802,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="148"/>
+      <c r="A41" s="149"/>
       <c r="B41" s="4">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -20792,20 +20810,20 @@
       <c r="C41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="147"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F41" s="153"/>
+      <c r="F41" s="154"/>
       <c r="G41" s="8">
         <v>21</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I41" s="153"/>
-      <c r="K41" s="148"/>
+      <c r="I41" s="154"/>
+      <c r="K41" s="149"/>
       <c r="L41" s="43">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -20813,19 +20831,19 @@
       <c r="M41" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N41" s="148"/>
+      <c r="N41" s="149"/>
       <c r="O41" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P41" s="148"/>
+      <c r="P41" s="149"/>
       <c r="Q41" s="13">
         <v>21</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="S41" s="151"/>
+      <c r="S41" s="152"/>
       <c r="U41" s="73" t="s">
         <v>475</v>
       </c>
@@ -20837,7 +20855,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="148"/>
+      <c r="A42" s="149"/>
       <c r="B42" s="4">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -20845,20 +20863,20 @@
       <c r="C42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="147"/>
+      <c r="D42" s="148"/>
       <c r="E42" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F42" s="153"/>
+      <c r="F42" s="154"/>
       <c r="G42" s="8">
         <v>22</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I42" s="153"/>
-      <c r="K42" s="148"/>
+      <c r="I42" s="154"/>
+      <c r="K42" s="149"/>
       <c r="L42" s="43">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -20866,19 +20884,19 @@
       <c r="M42" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="N42" s="148"/>
+      <c r="N42" s="149"/>
       <c r="O42" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P42" s="148"/>
+      <c r="P42" s="149"/>
       <c r="Q42" s="13">
         <v>22</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="S42" s="151"/>
+      <c r="S42" s="152"/>
       <c r="U42" s="73" t="s">
         <v>475</v>
       </c>
@@ -20890,7 +20908,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="148"/>
+      <c r="A43" s="149"/>
       <c r="B43" s="4">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -20898,20 +20916,20 @@
       <c r="C43" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D43" s="147"/>
+      <c r="D43" s="148"/>
       <c r="E43" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F43" s="153"/>
+      <c r="F43" s="154"/>
       <c r="G43" s="8">
         <v>23</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I43" s="153"/>
-      <c r="K43" s="148"/>
+      <c r="I43" s="154"/>
+      <c r="K43" s="149"/>
       <c r="L43" s="43">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -20919,62 +20937,62 @@
       <c r="M43" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="N43" s="148"/>
+      <c r="N43" s="149"/>
       <c r="O43" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P43" s="148"/>
+      <c r="P43" s="149"/>
       <c r="Q43" s="13">
         <v>23</v>
       </c>
       <c r="R43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="S43" s="151"/>
+      <c r="S43" s="152"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="148"/>
+      <c r="A44" s="149"/>
       <c r="B44" s="43" t="s">
         <v>442</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="147"/>
+      <c r="D44" s="148"/>
       <c r="E44" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153"/>
+      <c r="F44" s="154"/>
       <c r="G44" s="8">
         <v>24</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="I44" s="153"/>
-      <c r="K44" s="148"/>
+      <c r="I44" s="154"/>
+      <c r="K44" s="149"/>
       <c r="L44" s="43" t="s">
         <v>442</v>
       </c>
       <c r="M44" s="11"/>
-      <c r="N44" s="148"/>
+      <c r="N44" s="149"/>
       <c r="O44" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P44" s="148"/>
+      <c r="P44" s="149"/>
       <c r="Q44" s="13">
         <v>24</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S44" s="151"/>
+      <c r="S44" s="152"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="148"/>
+      <c r="A45" s="149"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="147"/>
+      <c r="D45" s="148"/>
       <c r="E45" s="76"/>
       <c r="F45" s="49"/>
       <c r="H45" s="5"/>
@@ -20985,8 +21003,8 @@
       <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="148"/>
-      <c r="D46" s="147"/>
+      <c r="A46" s="149"/>
+      <c r="D46" s="148"/>
       <c r="E46" s="76"/>
       <c r="F46" s="49"/>
       <c r="H46" s="5"/>
@@ -21001,7 +21019,7 @@
       <c r="E47" s="76"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="150" t="s">
+      <c r="A48" s="151" t="s">
         <v>429</v>
       </c>
       <c r="B48" s="7">
@@ -21013,7 +21031,7 @@
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="141"/>
-      <c r="F48" s="150" t="s">
+      <c r="F48" s="151" t="s">
         <v>429</v>
       </c>
       <c r="G48" s="7">
@@ -21021,7 +21039,7 @@
         <v>63</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="150" t="s">
+      <c r="I48" s="151" t="s">
         <v>586</v>
       </c>
       <c r="J48" s="141" t="s">
@@ -21029,7 +21047,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="150"/>
+      <c r="A49" s="151"/>
       <c r="B49" s="7">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -21039,13 +21057,13 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="141"/>
-      <c r="F49" s="150"/>
+      <c r="F49" s="151"/>
       <c r="G49" s="7">
         <f>VLOOKUP(J49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>67</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="150"/>
+      <c r="I49" s="151"/>
       <c r="J49" s="141" t="s">
         <v>201</v>
       </c>
@@ -21255,7 +21273,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="149" t="s">
         <v>430</v>
       </c>
       <c r="B10" s="49">
@@ -21265,18 +21283,18 @@
       <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="148" t="s">
         <v>463</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="155" t="s">
         <v>302</v>
       </c>
       <c r="G10" s="63">
         <v>1</v>
       </c>
-      <c r="I10" s="151"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="47"/>
-      <c r="K10" s="148" t="s">
+      <c r="K10" s="149" t="s">
         <v>434</v>
       </c>
       <c r="L10" s="49">
@@ -21286,19 +21304,19 @@
       <c r="M10" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="N10" s="148" t="s">
+      <c r="N10" s="149" t="s">
         <v>464</v>
       </c>
-      <c r="P10" s="151" t="s">
+      <c r="P10" s="152" t="s">
         <v>307</v>
       </c>
       <c r="Q10" s="49">
         <v>1</v>
       </c>
-      <c r="S10" s="151"/>
+      <c r="S10" s="152"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="148"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="49">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>18</v>
@@ -21306,13 +21324,13 @@
       <c r="C11" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="F11" s="154"/>
+      <c r="D11" s="148"/>
+      <c r="F11" s="155"/>
       <c r="G11" s="63">
         <v>2</v>
       </c>
-      <c r="I11" s="151"/>
-      <c r="K11" s="148"/>
+      <c r="I11" s="152"/>
+      <c r="K11" s="149"/>
       <c r="L11" s="49">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>25</v>
@@ -21320,15 +21338,15 @@
       <c r="M11" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="N11" s="148"/>
-      <c r="P11" s="151"/>
+      <c r="N11" s="149"/>
+      <c r="P11" s="152"/>
       <c r="Q11" s="49">
         <v>2</v>
       </c>
-      <c r="S11" s="151"/>
+      <c r="S11" s="152"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="148"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="49">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>29</v>
@@ -21336,13 +21354,13 @@
       <c r="C12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="F12" s="154"/>
+      <c r="D12" s="148"/>
+      <c r="F12" s="155"/>
       <c r="G12" s="63">
         <v>3</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="K12" s="148"/>
+      <c r="I12" s="152"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="49">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -21350,15 +21368,15 @@
       <c r="M12" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="N12" s="148"/>
-      <c r="P12" s="151"/>
+      <c r="N12" s="149"/>
+      <c r="P12" s="152"/>
       <c r="Q12" s="49">
         <v>3</v>
       </c>
-      <c r="S12" s="151"/>
+      <c r="S12" s="152"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="148"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="49">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>89</v>
@@ -21366,13 +21384,13 @@
       <c r="C13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="F13" s="154"/>
+      <c r="D13" s="148"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="63">
         <v>4</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="K13" s="148"/>
+      <c r="I13" s="152"/>
+      <c r="K13" s="149"/>
       <c r="L13" s="49">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>39</v>
@@ -21380,15 +21398,15 @@
       <c r="M13" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="N13" s="148"/>
-      <c r="P13" s="151"/>
+      <c r="N13" s="149"/>
+      <c r="P13" s="152"/>
       <c r="Q13" s="49">
         <v>4</v>
       </c>
-      <c r="S13" s="151"/>
+      <c r="S13" s="152"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="148"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="49">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>40</v>
@@ -21396,13 +21414,13 @@
       <c r="C14" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="148"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="63">
         <v>5</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="K14" s="148"/>
+      <c r="I14" s="152"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="49">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>42</v>
@@ -21410,15 +21428,15 @@
       <c r="M14" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="N14" s="148"/>
-      <c r="P14" s="151"/>
+      <c r="N14" s="149"/>
+      <c r="P14" s="152"/>
       <c r="Q14" s="49">
         <v>5</v>
       </c>
-      <c r="S14" s="151"/>
+      <c r="S14" s="152"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="148"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="49">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>43</v>
@@ -21426,13 +21444,13 @@
       <c r="C15" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="F15" s="154"/>
+      <c r="D15" s="148"/>
+      <c r="F15" s="155"/>
       <c r="G15" s="63">
         <v>6</v>
       </c>
-      <c r="I15" s="151"/>
-      <c r="K15" s="148"/>
+      <c r="I15" s="152"/>
+      <c r="K15" s="149"/>
       <c r="L15" s="49">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>47</v>
@@ -21440,18 +21458,18 @@
       <c r="M15" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="N15" s="148"/>
-      <c r="P15" s="151"/>
+      <c r="N15" s="149"/>
+      <c r="P15" s="152"/>
       <c r="Q15" s="49">
         <v>6</v>
       </c>
-      <c r="S15" s="151"/>
+      <c r="S15" s="152"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
       <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="148"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="49">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>30</v>
@@ -21459,13 +21477,13 @@
       <c r="C16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="F16" s="154"/>
+      <c r="D16" s="148"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="65">
         <v>7</v>
       </c>
-      <c r="I16" s="151"/>
-      <c r="K16" s="148"/>
+      <c r="I16" s="152"/>
+      <c r="K16" s="149"/>
       <c r="L16" s="49">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -21473,18 +21491,18 @@
       <c r="M16" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="N16" s="148"/>
-      <c r="P16" s="151"/>
+      <c r="N16" s="149"/>
+      <c r="P16" s="152"/>
       <c r="Q16" s="49">
         <v>7</v>
       </c>
-      <c r="S16" s="151"/>
+      <c r="S16" s="152"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
       <c r="V16" s="64"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="148"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="49">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>31</v>
@@ -21492,13 +21510,13 @@
       <c r="C17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="F17" s="154"/>
+      <c r="D17" s="148"/>
+      <c r="F17" s="155"/>
       <c r="G17" s="65">
         <v>8</v>
       </c>
-      <c r="I17" s="151"/>
-      <c r="K17" s="148"/>
+      <c r="I17" s="152"/>
+      <c r="K17" s="149"/>
       <c r="L17" s="49">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -21506,15 +21524,15 @@
       <c r="M17" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="N17" s="148"/>
-      <c r="P17" s="151"/>
+      <c r="N17" s="149"/>
+      <c r="P17" s="152"/>
       <c r="Q17" s="49">
         <v>8</v>
       </c>
-      <c r="S17" s="151"/>
+      <c r="S17" s="152"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="148"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="49">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>32</v>
@@ -21522,13 +21540,13 @@
       <c r="C18" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="F18" s="154"/>
+      <c r="D18" s="148"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="65">
         <v>9</v>
       </c>
-      <c r="I18" s="151"/>
-      <c r="K18" s="148"/>
+      <c r="I18" s="152"/>
+      <c r="K18" s="149"/>
       <c r="L18" s="49">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>61</v>
@@ -21536,15 +21554,15 @@
       <c r="M18" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N18" s="148"/>
-      <c r="P18" s="151"/>
+      <c r="N18" s="149"/>
+      <c r="P18" s="152"/>
       <c r="Q18" s="49">
         <v>9</v>
       </c>
-      <c r="S18" s="151"/>
+      <c r="S18" s="152"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="49">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>33</v>
@@ -21552,13 +21570,13 @@
       <c r="C19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="F19" s="154"/>
+      <c r="D19" s="148"/>
+      <c r="F19" s="155"/>
       <c r="G19" s="65">
         <v>10</v>
       </c>
-      <c r="I19" s="151"/>
-      <c r="K19" s="148"/>
+      <c r="I19" s="152"/>
+      <c r="K19" s="149"/>
       <c r="L19" s="49">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>62</v>
@@ -21566,15 +21584,15 @@
       <c r="M19" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="148"/>
-      <c r="P19" s="151"/>
+      <c r="N19" s="149"/>
+      <c r="P19" s="152"/>
       <c r="Q19" s="49">
         <v>10</v>
       </c>
-      <c r="S19" s="151"/>
+      <c r="S19" s="152"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="148"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="49">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>48</v>
@@ -21582,13 +21600,13 @@
       <c r="C20" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="F20" s="154"/>
+      <c r="D20" s="148"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="65">
         <v>11</v>
       </c>
-      <c r="I20" s="151"/>
-      <c r="K20" s="148"/>
+      <c r="I20" s="152"/>
+      <c r="K20" s="149"/>
       <c r="L20" s="48">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>76</v>
@@ -21596,16 +21614,16 @@
       <c r="M20" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="N20" s="148"/>
+      <c r="N20" s="149"/>
       <c r="O20" s="48"/>
-      <c r="P20" s="151"/>
+      <c r="P20" s="152"/>
       <c r="Q20" s="48">
         <v>11</v>
       </c>
-      <c r="S20" s="151"/>
+      <c r="S20" s="152"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="49">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>34</v>
@@ -21613,13 +21631,13 @@
       <c r="C21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="F21" s="154"/>
+      <c r="D21" s="148"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="65">
         <v>12</v>
       </c>
-      <c r="I21" s="151"/>
-      <c r="K21" s="148"/>
+      <c r="I21" s="152"/>
+      <c r="K21" s="149"/>
       <c r="L21" s="48">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>63</v>
@@ -21627,16 +21645,16 @@
       <c r="M21" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="148"/>
+      <c r="N21" s="149"/>
       <c r="O21" s="48"/>
-      <c r="P21" s="151"/>
+      <c r="P21" s="152"/>
       <c r="Q21" s="48">
         <v>12</v>
       </c>
-      <c r="S21" s="151"/>
+      <c r="S21" s="152"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="148"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="49">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>35</v>
@@ -21644,13 +21662,13 @@
       <c r="C22" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="F22" s="154"/>
+      <c r="D22" s="148"/>
+      <c r="F22" s="155"/>
       <c r="G22" s="65">
         <v>13</v>
       </c>
-      <c r="I22" s="151"/>
-      <c r="K22" s="148"/>
+      <c r="I22" s="152"/>
+      <c r="K22" s="149"/>
       <c r="L22" s="48">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>64</v>
@@ -21658,16 +21676,16 @@
       <c r="M22" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="N22" s="148"/>
+      <c r="N22" s="149"/>
       <c r="O22" s="48"/>
-      <c r="P22" s="151"/>
+      <c r="P22" s="152"/>
       <c r="Q22" s="48">
         <v>13</v>
       </c>
-      <c r="S22" s="151"/>
+      <c r="S22" s="152"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="148"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="49">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>90</v>
@@ -21675,13 +21693,13 @@
       <c r="C23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="F23" s="154"/>
+      <c r="D23" s="148"/>
+      <c r="F23" s="155"/>
       <c r="G23" s="65">
         <v>14</v>
       </c>
-      <c r="I23" s="151"/>
-      <c r="K23" s="148"/>
+      <c r="I23" s="152"/>
+      <c r="K23" s="149"/>
       <c r="L23" s="48">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>40</v>
@@ -21689,16 +21707,16 @@
       <c r="M23" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="N23" s="148"/>
+      <c r="N23" s="149"/>
       <c r="O23" s="48"/>
-      <c r="P23" s="151"/>
+      <c r="P23" s="152"/>
       <c r="Q23" s="48">
         <v>14</v>
       </c>
-      <c r="S23" s="151"/>
+      <c r="S23" s="152"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="49">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>91</v>
@@ -21706,13 +21724,13 @@
       <c r="C24" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="F24" s="154"/>
+      <c r="D24" s="148"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="65">
         <v>15</v>
       </c>
-      <c r="I24" s="151"/>
-      <c r="K24" s="148"/>
+      <c r="I24" s="152"/>
+      <c r="K24" s="149"/>
       <c r="L24" s="48">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>41</v>
@@ -21720,16 +21738,16 @@
       <c r="M24" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="N24" s="148"/>
+      <c r="N24" s="149"/>
       <c r="O24" s="48"/>
-      <c r="P24" s="151"/>
+      <c r="P24" s="152"/>
       <c r="Q24" s="48">
         <v>15</v>
       </c>
-      <c r="S24" s="151"/>
+      <c r="S24" s="152"/>
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="148"/>
+      <c r="A25" s="149"/>
       <c r="B25" s="49">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>75</v>
@@ -21737,13 +21755,13 @@
       <c r="C25" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="F25" s="154"/>
+      <c r="D25" s="148"/>
+      <c r="F25" s="155"/>
       <c r="G25" s="65">
         <v>16</v>
       </c>
-      <c r="I25" s="151"/>
-      <c r="K25" s="148"/>
+      <c r="I25" s="152"/>
+      <c r="K25" s="149"/>
       <c r="L25" s="49">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>83</v>
@@ -21751,15 +21769,15 @@
       <c r="M25" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="N25" s="148"/>
-      <c r="P25" s="151"/>
+      <c r="N25" s="149"/>
+      <c r="P25" s="152"/>
       <c r="Q25" s="49">
         <v>16</v>
       </c>
-      <c r="S25" s="151"/>
+      <c r="S25" s="152"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="148"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="49">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>36</v>
@@ -21767,13 +21785,13 @@
       <c r="C26" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="F26" s="154"/>
+      <c r="D26" s="148"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="65">
         <v>17</v>
       </c>
-      <c r="I26" s="151"/>
-      <c r="K26" s="148"/>
+      <c r="I26" s="152"/>
+      <c r="K26" s="149"/>
       <c r="L26" s="49">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>65</v>
@@ -21781,15 +21799,15 @@
       <c r="M26" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N26" s="148"/>
-      <c r="P26" s="151"/>
+      <c r="N26" s="149"/>
+      <c r="P26" s="152"/>
       <c r="Q26" s="49">
         <v>17</v>
       </c>
-      <c r="S26" s="151"/>
+      <c r="S26" s="152"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="148"/>
+      <c r="A27" s="149"/>
       <c r="B27" s="49">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>92</v>
@@ -21797,13 +21815,13 @@
       <c r="C27" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="F27" s="154"/>
+      <c r="D27" s="148"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="65">
         <v>18</v>
       </c>
-      <c r="I27" s="151"/>
-      <c r="K27" s="148"/>
+      <c r="I27" s="152"/>
+      <c r="K27" s="149"/>
       <c r="L27" s="49">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>18</v>
@@ -21811,15 +21829,15 @@
       <c r="M27" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="N27" s="148"/>
-      <c r="P27" s="151"/>
+      <c r="N27" s="149"/>
+      <c r="P27" s="152"/>
       <c r="Q27" s="49">
         <v>18</v>
       </c>
-      <c r="S27" s="151"/>
+      <c r="S27" s="152"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="148"/>
+      <c r="A28" s="149"/>
       <c r="B28" s="49">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>93</v>
@@ -21827,13 +21845,13 @@
       <c r="C28" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="F28" s="154"/>
+      <c r="D28" s="148"/>
+      <c r="F28" s="155"/>
       <c r="G28" s="65">
         <v>19</v>
       </c>
-      <c r="I28" s="151"/>
-      <c r="K28" s="148"/>
+      <c r="I28" s="152"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="49">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -21841,15 +21859,15 @@
       <c r="M28" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="N28" s="148"/>
-      <c r="P28" s="151"/>
+      <c r="N28" s="149"/>
+      <c r="P28" s="152"/>
       <c r="Q28" s="49">
         <v>19</v>
       </c>
-      <c r="S28" s="151"/>
+      <c r="S28" s="152"/>
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="148"/>
+      <c r="A29" s="149"/>
       <c r="B29" s="49">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>37</v>
@@ -21857,13 +21875,13 @@
       <c r="C29" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="F29" s="154"/>
+      <c r="D29" s="148"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="65">
         <v>20</v>
       </c>
-      <c r="I29" s="151"/>
-      <c r="K29" s="148"/>
+      <c r="I29" s="152"/>
+      <c r="K29" s="149"/>
       <c r="L29" s="49">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>66</v>
@@ -21871,15 +21889,15 @@
       <c r="M29" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="N29" s="148"/>
-      <c r="P29" s="151"/>
+      <c r="N29" s="149"/>
+      <c r="P29" s="152"/>
       <c r="Q29" s="49">
         <v>20</v>
       </c>
-      <c r="S29" s="151"/>
+      <c r="S29" s="152"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="148"/>
+      <c r="A30" s="149"/>
       <c r="B30" s="49">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>94</v>
@@ -21887,13 +21905,13 @@
       <c r="C30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="F30" s="154"/>
+      <c r="D30" s="148"/>
+      <c r="F30" s="155"/>
       <c r="G30" s="65">
         <v>21</v>
       </c>
-      <c r="I30" s="151"/>
-      <c r="K30" s="148"/>
+      <c r="I30" s="152"/>
+      <c r="K30" s="149"/>
       <c r="L30" s="49">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -21901,15 +21919,15 @@
       <c r="M30" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="N30" s="148"/>
-      <c r="P30" s="151"/>
+      <c r="N30" s="149"/>
+      <c r="P30" s="152"/>
       <c r="Q30" s="49">
         <v>21</v>
       </c>
-      <c r="S30" s="151"/>
+      <c r="S30" s="152"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="148"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="49">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>95</v>
@@ -21917,13 +21935,13 @@
       <c r="C31" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="F31" s="154"/>
+      <c r="D31" s="148"/>
+      <c r="F31" s="155"/>
       <c r="G31" s="65">
         <v>22</v>
       </c>
-      <c r="I31" s="151"/>
-      <c r="K31" s="148"/>
+      <c r="I31" s="152"/>
+      <c r="K31" s="149"/>
       <c r="L31" s="49">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -21931,15 +21949,15 @@
       <c r="M31" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="N31" s="148"/>
-      <c r="P31" s="151"/>
+      <c r="N31" s="149"/>
+      <c r="P31" s="152"/>
       <c r="Q31" s="49">
         <v>22</v>
       </c>
-      <c r="S31" s="151"/>
+      <c r="S31" s="152"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="148"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="48">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>96</v>
@@ -21947,13 +21965,13 @@
       <c r="C32" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="F32" s="154"/>
+      <c r="D32" s="148"/>
+      <c r="F32" s="155"/>
       <c r="G32" s="48">
         <v>23</v>
       </c>
-      <c r="I32" s="151"/>
-      <c r="K32" s="148"/>
+      <c r="I32" s="152"/>
+      <c r="K32" s="149"/>
       <c r="L32" s="49">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -21961,44 +21979,44 @@
       <c r="M32" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="148"/>
-      <c r="P32" s="151"/>
+      <c r="N32" s="149"/>
+      <c r="P32" s="152"/>
       <c r="Q32" s="49">
         <v>23</v>
       </c>
-      <c r="S32" s="151"/>
+      <c r="S32" s="152"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="148"/>
-      <c r="D33" s="147"/>
-      <c r="F33" s="154"/>
+      <c r="A33" s="149"/>
+      <c r="D33" s="148"/>
+      <c r="F33" s="155"/>
       <c r="G33" s="65">
         <v>24</v>
       </c>
-      <c r="I33" s="151"/>
-      <c r="K33" s="148"/>
+      <c r="I33" s="152"/>
+      <c r="K33" s="149"/>
       <c r="L33" s="49" t="e">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N33" s="148"/>
-      <c r="P33" s="151"/>
+      <c r="N33" s="149"/>
+      <c r="P33" s="152"/>
       <c r="Q33" s="49">
         <v>24</v>
       </c>
-      <c r="S33" s="151"/>
+      <c r="S33" s="152"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="148"/>
-      <c r="D34" s="147"/>
+      <c r="A34" s="149"/>
+      <c r="D34" s="148"/>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
       <c r="J34" s="48"/>
-      <c r="K34" s="148"/>
-      <c r="N34" s="148"/>
+      <c r="K34" s="149"/>
+      <c r="N34" s="149"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="148"/>
+      <c r="A35" s="149"/>
       <c r="B35" s="49">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -22006,15 +22024,15 @@
       <c r="C35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="F35" s="155" t="s">
+      <c r="D35" s="148"/>
+      <c r="F35" s="156" t="s">
         <v>303</v>
       </c>
       <c r="G35" s="65">
         <v>1</v>
       </c>
-      <c r="I35" s="151"/>
-      <c r="K35" s="148"/>
+      <c r="I35" s="152"/>
+      <c r="K35" s="149"/>
       <c r="L35" s="49">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -22022,17 +22040,17 @@
       <c r="M35" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="N35" s="148"/>
-      <c r="P35" s="151" t="s">
+      <c r="N35" s="149"/>
+      <c r="P35" s="152" t="s">
         <v>308</v>
       </c>
       <c r="Q35" s="49">
         <v>1</v>
       </c>
-      <c r="S35" s="151"/>
+      <c r="S35" s="152"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="148"/>
+      <c r="A36" s="149"/>
       <c r="B36" s="49">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -22040,13 +22058,13 @@
       <c r="C36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="147"/>
-      <c r="F36" s="155"/>
+      <c r="D36" s="148"/>
+      <c r="F36" s="156"/>
       <c r="G36" s="65">
         <v>2</v>
       </c>
-      <c r="I36" s="151"/>
-      <c r="K36" s="148"/>
+      <c r="I36" s="152"/>
+      <c r="K36" s="149"/>
       <c r="L36" s="49">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -22054,15 +22072,15 @@
       <c r="M36" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="148"/>
-      <c r="P36" s="151"/>
+      <c r="N36" s="149"/>
+      <c r="P36" s="152"/>
       <c r="Q36" s="49">
         <v>2</v>
       </c>
-      <c r="S36" s="151"/>
+      <c r="S36" s="152"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="148"/>
+      <c r="A37" s="149"/>
       <c r="B37" s="49">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -22070,13 +22088,13 @@
       <c r="C37" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="F37" s="155"/>
+      <c r="D37" s="148"/>
+      <c r="F37" s="156"/>
       <c r="G37" s="65">
         <v>3</v>
       </c>
-      <c r="I37" s="151"/>
-      <c r="K37" s="148"/>
+      <c r="I37" s="152"/>
+      <c r="K37" s="149"/>
       <c r="L37" s="49">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -22084,15 +22102,15 @@
       <c r="M37" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="N37" s="148"/>
-      <c r="P37" s="151"/>
+      <c r="N37" s="149"/>
+      <c r="P37" s="152"/>
       <c r="Q37" s="49">
         <v>3</v>
       </c>
-      <c r="S37" s="151"/>
+      <c r="S37" s="152"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="148"/>
+      <c r="A38" s="149"/>
       <c r="B38" s="49">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -22100,13 +22118,13 @@
       <c r="C38" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="F38" s="155"/>
+      <c r="D38" s="148"/>
+      <c r="F38" s="156"/>
       <c r="G38" s="65">
         <v>4</v>
       </c>
-      <c r="I38" s="151"/>
-      <c r="K38" s="148"/>
+      <c r="I38" s="152"/>
+      <c r="K38" s="149"/>
       <c r="L38" s="49">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -22114,15 +22132,15 @@
       <c r="M38" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="N38" s="148"/>
-      <c r="P38" s="151"/>
+      <c r="N38" s="149"/>
+      <c r="P38" s="152"/>
       <c r="Q38" s="49">
         <v>4</v>
       </c>
-      <c r="S38" s="151"/>
+      <c r="S38" s="152"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="148"/>
+      <c r="A39" s="149"/>
       <c r="B39" s="49">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -22130,13 +22148,13 @@
       <c r="C39" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="F39" s="155"/>
+      <c r="D39" s="148"/>
+      <c r="F39" s="156"/>
       <c r="G39" s="65">
         <v>5</v>
       </c>
-      <c r="I39" s="151"/>
-      <c r="K39" s="148"/>
+      <c r="I39" s="152"/>
+      <c r="K39" s="149"/>
       <c r="L39" s="49">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -22144,15 +22162,15 @@
       <c r="M39" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="N39" s="148"/>
-      <c r="P39" s="151"/>
+      <c r="N39" s="149"/>
+      <c r="P39" s="152"/>
       <c r="Q39" s="49">
         <v>5</v>
       </c>
-      <c r="S39" s="151"/>
+      <c r="S39" s="152"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="148"/>
+      <c r="A40" s="149"/>
       <c r="B40" s="49">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -22160,13 +22178,13 @@
       <c r="C40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="147"/>
-      <c r="F40" s="155"/>
+      <c r="D40" s="148"/>
+      <c r="F40" s="156"/>
       <c r="G40" s="65">
         <v>6</v>
       </c>
-      <c r="I40" s="151"/>
-      <c r="K40" s="148"/>
+      <c r="I40" s="152"/>
+      <c r="K40" s="149"/>
       <c r="L40" s="49">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -22174,15 +22192,15 @@
       <c r="M40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="N40" s="148"/>
-      <c r="P40" s="151"/>
+      <c r="N40" s="149"/>
+      <c r="P40" s="152"/>
       <c r="Q40" s="49">
         <v>6</v>
       </c>
-      <c r="S40" s="151"/>
+      <c r="S40" s="152"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="148"/>
+      <c r="A41" s="149"/>
       <c r="B41" s="49">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>25</v>
@@ -22190,13 +22208,13 @@
       <c r="C41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="147"/>
-      <c r="F41" s="155"/>
+      <c r="D41" s="148"/>
+      <c r="F41" s="156"/>
       <c r="G41" s="65">
         <v>7</v>
       </c>
-      <c r="I41" s="151"/>
-      <c r="K41" s="148"/>
+      <c r="I41" s="152"/>
+      <c r="K41" s="149"/>
       <c r="L41" s="49">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -22204,15 +22222,15 @@
       <c r="M41" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="N41" s="148"/>
-      <c r="P41" s="151"/>
+      <c r="N41" s="149"/>
+      <c r="P41" s="152"/>
       <c r="Q41" s="49">
         <v>7</v>
       </c>
-      <c r="S41" s="151"/>
+      <c r="S41" s="152"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="148"/>
+      <c r="A42" s="149"/>
       <c r="B42" s="49">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>26</v>
@@ -22220,13 +22238,13 @@
       <c r="C42" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="F42" s="155"/>
+      <c r="D42" s="148"/>
+      <c r="F42" s="156"/>
       <c r="G42" s="65">
         <v>8</v>
       </c>
-      <c r="I42" s="151"/>
-      <c r="K42" s="148"/>
+      <c r="I42" s="152"/>
+      <c r="K42" s="149"/>
       <c r="L42" s="49">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -22234,15 +22252,15 @@
       <c r="M42" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="N42" s="148"/>
-      <c r="P42" s="151"/>
+      <c r="N42" s="149"/>
+      <c r="P42" s="152"/>
       <c r="Q42" s="49">
         <v>8</v>
       </c>
-      <c r="S42" s="151"/>
+      <c r="S42" s="152"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="148"/>
+      <c r="A43" s="149"/>
       <c r="B43" s="49">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>76</v>
@@ -22250,13 +22268,13 @@
       <c r="C43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="147"/>
-      <c r="F43" s="155"/>
+      <c r="D43" s="148"/>
+      <c r="F43" s="156"/>
       <c r="G43" s="65">
         <v>9</v>
       </c>
-      <c r="I43" s="151"/>
-      <c r="K43" s="148"/>
+      <c r="I43" s="152"/>
+      <c r="K43" s="149"/>
       <c r="L43" s="49">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -22264,15 +22282,15 @@
       <c r="M43" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="N43" s="148"/>
-      <c r="P43" s="151"/>
+      <c r="N43" s="149"/>
+      <c r="P43" s="152"/>
       <c r="Q43" s="49">
         <v>9</v>
       </c>
-      <c r="S43" s="151"/>
+      <c r="S43" s="152"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="148"/>
+      <c r="A44" s="149"/>
       <c r="B44" s="49">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>77</v>
@@ -22280,13 +22298,13 @@
       <c r="C44" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="F44" s="155"/>
+      <c r="D44" s="148"/>
+      <c r="F44" s="156"/>
       <c r="G44" s="65">
         <v>10</v>
       </c>
-      <c r="I44" s="151"/>
-      <c r="K44" s="148"/>
+      <c r="I44" s="152"/>
+      <c r="K44" s="149"/>
       <c r="L44" s="49">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -22294,15 +22312,15 @@
       <c r="M44" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="N44" s="148"/>
-      <c r="P44" s="151"/>
+      <c r="N44" s="149"/>
+      <c r="P44" s="152"/>
       <c r="Q44" s="49">
         <v>10</v>
       </c>
-      <c r="S44" s="151"/>
+      <c r="S44" s="152"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="148"/>
+      <c r="A45" s="149"/>
       <c r="B45" s="49">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>78</v>
@@ -22310,13 +22328,13 @@
       <c r="C45" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="147"/>
-      <c r="F45" s="155"/>
+      <c r="D45" s="148"/>
+      <c r="F45" s="156"/>
       <c r="G45" s="65">
         <v>11</v>
       </c>
-      <c r="I45" s="151"/>
-      <c r="K45" s="148"/>
+      <c r="I45" s="152"/>
+      <c r="K45" s="149"/>
       <c r="L45" s="49">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -22324,15 +22342,15 @@
       <c r="M45" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="N45" s="148"/>
-      <c r="P45" s="151"/>
+      <c r="N45" s="149"/>
+      <c r="P45" s="152"/>
       <c r="Q45" s="49">
         <v>11</v>
       </c>
-      <c r="S45" s="151"/>
+      <c r="S45" s="152"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="148"/>
+      <c r="A46" s="149"/>
       <c r="B46" s="49">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>79</v>
@@ -22340,13 +22358,13 @@
       <c r="C46" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="F46" s="155"/>
+      <c r="D46" s="148"/>
+      <c r="F46" s="156"/>
       <c r="G46" s="65">
         <v>12</v>
       </c>
-      <c r="I46" s="151"/>
-      <c r="K46" s="148"/>
+      <c r="I46" s="152"/>
+      <c r="K46" s="149"/>
       <c r="L46" s="49">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -22354,15 +22372,15 @@
       <c r="M46" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="N46" s="148"/>
-      <c r="P46" s="151"/>
+      <c r="N46" s="149"/>
+      <c r="P46" s="152"/>
       <c r="Q46" s="49">
         <v>12</v>
       </c>
-      <c r="S46" s="151"/>
+      <c r="S46" s="152"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="148"/>
+      <c r="A47" s="149"/>
       <c r="B47" s="49">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>80</v>
@@ -22370,13 +22388,13 @@
       <c r="C47" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="F47" s="155"/>
+      <c r="D47" s="148"/>
+      <c r="F47" s="156"/>
       <c r="G47" s="65">
         <v>13</v>
       </c>
-      <c r="I47" s="151"/>
-      <c r="K47" s="148"/>
+      <c r="I47" s="152"/>
+      <c r="K47" s="149"/>
       <c r="L47" s="49">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -22384,15 +22402,15 @@
       <c r="M47" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="N47" s="148"/>
-      <c r="P47" s="151"/>
+      <c r="N47" s="149"/>
+      <c r="P47" s="152"/>
       <c r="Q47" s="49">
         <v>13</v>
       </c>
-      <c r="S47" s="151"/>
+      <c r="S47" s="152"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="148"/>
+      <c r="A48" s="149"/>
       <c r="B48" s="49">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>81</v>
@@ -22400,13 +22418,13 @@
       <c r="C48" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="147"/>
-      <c r="F48" s="155"/>
+      <c r="D48" s="148"/>
+      <c r="F48" s="156"/>
       <c r="G48" s="65">
         <v>14</v>
       </c>
-      <c r="I48" s="151"/>
-      <c r="K48" s="148"/>
+      <c r="I48" s="152"/>
+      <c r="K48" s="149"/>
       <c r="L48" s="49">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -22414,15 +22432,15 @@
       <c r="M48" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="N48" s="148"/>
-      <c r="P48" s="151"/>
+      <c r="N48" s="149"/>
+      <c r="P48" s="152"/>
       <c r="Q48" s="49">
         <v>14</v>
       </c>
-      <c r="S48" s="151"/>
+      <c r="S48" s="152"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="148"/>
+      <c r="A49" s="149"/>
       <c r="B49" s="49">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>82</v>
@@ -22430,13 +22448,13 @@
       <c r="C49" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="147"/>
-      <c r="F49" s="155"/>
+      <c r="D49" s="148"/>
+      <c r="F49" s="156"/>
       <c r="G49" s="65">
         <v>15</v>
       </c>
-      <c r="I49" s="151"/>
-      <c r="K49" s="148"/>
+      <c r="I49" s="152"/>
+      <c r="K49" s="149"/>
       <c r="L49" s="49">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -22444,15 +22462,15 @@
       <c r="M49" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="N49" s="148"/>
-      <c r="P49" s="151"/>
+      <c r="N49" s="149"/>
+      <c r="P49" s="152"/>
       <c r="Q49" s="49">
         <v>15</v>
       </c>
-      <c r="S49" s="151"/>
+      <c r="S49" s="152"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="148"/>
+      <c r="A50" s="149"/>
       <c r="B50" s="49">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>83</v>
@@ -22460,13 +22478,13 @@
       <c r="C50" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="147"/>
-      <c r="F50" s="155"/>
+      <c r="D50" s="148"/>
+      <c r="F50" s="156"/>
       <c r="G50" s="65">
         <v>16</v>
       </c>
-      <c r="I50" s="151"/>
-      <c r="K50" s="148"/>
+      <c r="I50" s="152"/>
+      <c r="K50" s="149"/>
       <c r="L50" s="49">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>33</v>
@@ -22474,15 +22492,15 @@
       <c r="M50" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="N50" s="148"/>
-      <c r="P50" s="151"/>
+      <c r="N50" s="149"/>
+      <c r="P50" s="152"/>
       <c r="Q50" s="49">
         <v>16</v>
       </c>
-      <c r="S50" s="151"/>
+      <c r="S50" s="152"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="148"/>
+      <c r="A51" s="149"/>
       <c r="B51" s="49">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>84</v>
@@ -22490,13 +22508,13 @@
       <c r="C51" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="147"/>
-      <c r="F51" s="155"/>
+      <c r="D51" s="148"/>
+      <c r="F51" s="156"/>
       <c r="G51" s="65">
         <v>17</v>
       </c>
-      <c r="I51" s="151"/>
-      <c r="K51" s="148"/>
+      <c r="I51" s="152"/>
+      <c r="K51" s="149"/>
       <c r="L51" s="49">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -22504,15 +22522,15 @@
       <c r="M51" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="N51" s="148"/>
-      <c r="P51" s="151"/>
+      <c r="N51" s="149"/>
+      <c r="P51" s="152"/>
       <c r="Q51" s="49">
         <v>17</v>
       </c>
-      <c r="S51" s="151"/>
+      <c r="S51" s="152"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="148"/>
+      <c r="A52" s="149"/>
       <c r="B52" s="49">
         <f>VLOOKUP(C52,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>85</v>
@@ -22520,13 +22538,13 @@
       <c r="C52" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="147"/>
-      <c r="F52" s="155"/>
+      <c r="D52" s="148"/>
+      <c r="F52" s="156"/>
       <c r="G52" s="65">
         <v>18</v>
       </c>
-      <c r="I52" s="151"/>
-      <c r="K52" s="148"/>
+      <c r="I52" s="152"/>
+      <c r="K52" s="149"/>
       <c r="L52" s="49">
         <f>VLOOKUP(M52,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>35</v>
@@ -22534,15 +22552,15 @@
       <c r="M52" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="N52" s="148"/>
-      <c r="P52" s="151"/>
+      <c r="N52" s="149"/>
+      <c r="P52" s="152"/>
       <c r="Q52" s="49">
         <v>18</v>
       </c>
-      <c r="S52" s="151"/>
+      <c r="S52" s="152"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="148"/>
+      <c r="A53" s="149"/>
       <c r="B53" s="49">
         <f>VLOOKUP(C53,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>86</v>
@@ -22550,13 +22568,13 @@
       <c r="C53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="147"/>
-      <c r="F53" s="155"/>
+      <c r="D53" s="148"/>
+      <c r="F53" s="156"/>
       <c r="G53" s="65">
         <v>19</v>
       </c>
-      <c r="I53" s="151"/>
-      <c r="K53" s="148"/>
+      <c r="I53" s="152"/>
+      <c r="K53" s="149"/>
       <c r="L53" s="49">
         <f>VLOOKUP(M53,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>36</v>
@@ -22564,15 +22582,15 @@
       <c r="M53" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N53" s="148"/>
-      <c r="P53" s="151"/>
+      <c r="N53" s="149"/>
+      <c r="P53" s="152"/>
       <c r="Q53" s="49">
         <v>19</v>
       </c>
-      <c r="S53" s="151"/>
+      <c r="S53" s="152"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="148"/>
+      <c r="A54" s="149"/>
       <c r="B54" s="49">
         <f>VLOOKUP(C54,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>87</v>
@@ -22580,13 +22598,13 @@
       <c r="C54" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="147"/>
-      <c r="F54" s="155"/>
+      <c r="D54" s="148"/>
+      <c r="F54" s="156"/>
       <c r="G54" s="65">
         <v>20</v>
       </c>
-      <c r="I54" s="151"/>
-      <c r="K54" s="148"/>
+      <c r="I54" s="152"/>
+      <c r="K54" s="149"/>
       <c r="L54" s="49">
         <f>VLOOKUP(M54,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>37</v>
@@ -22594,15 +22612,15 @@
       <c r="M54" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="148"/>
-      <c r="P54" s="151"/>
+      <c r="N54" s="149"/>
+      <c r="P54" s="152"/>
       <c r="Q54" s="49">
         <v>20</v>
       </c>
-      <c r="S54" s="151"/>
+      <c r="S54" s="152"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="148"/>
+      <c r="A55" s="149"/>
       <c r="B55" s="49">
         <f>VLOOKUP(C55,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>88</v>
@@ -22610,13 +22628,13 @@
       <c r="C55" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="F55" s="155"/>
+      <c r="D55" s="148"/>
+      <c r="F55" s="156"/>
       <c r="G55" s="67">
         <v>21</v>
       </c>
-      <c r="I55" s="151"/>
-      <c r="K55" s="148"/>
+      <c r="I55" s="152"/>
+      <c r="K55" s="149"/>
       <c r="L55" s="49">
         <f>VLOOKUP(M55,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>38</v>
@@ -22624,15 +22642,15 @@
       <c r="M55" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N55" s="148"/>
-      <c r="P55" s="151"/>
+      <c r="N55" s="149"/>
+      <c r="P55" s="152"/>
       <c r="Q55" s="49">
         <v>21</v>
       </c>
-      <c r="S55" s="151"/>
+      <c r="S55" s="152"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="148"/>
+      <c r="A56" s="149"/>
       <c r="B56" s="49">
         <f>VLOOKUP(C56,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>27</v>
@@ -22640,13 +22658,13 @@
       <c r="C56" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="F56" s="155"/>
+      <c r="D56" s="148"/>
+      <c r="F56" s="156"/>
       <c r="G56" s="67">
         <v>22</v>
       </c>
-      <c r="I56" s="151"/>
-      <c r="K56" s="148"/>
+      <c r="I56" s="152"/>
+      <c r="K56" s="149"/>
       <c r="L56" s="49">
         <f>VLOOKUP(M56,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -22654,15 +22672,15 @@
       <c r="M56" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="148"/>
-      <c r="P56" s="151"/>
+      <c r="N56" s="149"/>
+      <c r="P56" s="152"/>
       <c r="Q56" s="49">
         <v>22</v>
       </c>
-      <c r="S56" s="151"/>
+      <c r="S56" s="152"/>
     </row>
     <row r="57" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="148"/>
+      <c r="A57" s="149"/>
       <c r="B57" s="49">
         <f>VLOOKUP(C57,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>98</v>
@@ -22670,13 +22688,13 @@
       <c r="C57" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="147"/>
-      <c r="F57" s="155"/>
+      <c r="D57" s="148"/>
+      <c r="F57" s="156"/>
       <c r="G57" s="67">
         <v>23</v>
       </c>
-      <c r="I57" s="151"/>
-      <c r="K57" s="148"/>
+      <c r="I57" s="152"/>
+      <c r="K57" s="149"/>
       <c r="L57" s="49">
         <f>VLOOKUP(M57,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>84</v>
@@ -22684,32 +22702,32 @@
       <c r="M57" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="N57" s="148"/>
-      <c r="P57" s="151"/>
+      <c r="N57" s="149"/>
+      <c r="P57" s="152"/>
       <c r="Q57" s="49">
         <v>23</v>
       </c>
-      <c r="S57" s="151"/>
+      <c r="S57" s="152"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="148"/>
-      <c r="D58" s="147"/>
-      <c r="F58" s="155"/>
+      <c r="A58" s="149"/>
+      <c r="D58" s="148"/>
+      <c r="F58" s="156"/>
       <c r="G58" s="65">
         <v>24</v>
       </c>
-      <c r="I58" s="151"/>
-      <c r="K58" s="148"/>
+      <c r="I58" s="152"/>
+      <c r="K58" s="149"/>
       <c r="L58" s="49" t="e">
         <f>VLOOKUP(M58,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N58" s="148"/>
-      <c r="P58" s="151"/>
+      <c r="N58" s="149"/>
+      <c r="P58" s="152"/>
       <c r="Q58" s="49">
         <v>24</v>
       </c>
-      <c r="S58" s="151"/>
+      <c r="S58" s="152"/>
     </row>
     <row r="60" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="E60" s="65"/>
@@ -23004,7 +23022,7 @@
       <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="159" t="s">
+      <c r="A10" s="160" t="s">
         <v>431</v>
       </c>
       <c r="B10" s="31">
@@ -23014,11 +23032,11 @@
       <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="158" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76"/>
-      <c r="F10" s="156" t="s">
+      <c r="F10" s="157" t="s">
         <v>435</v>
       </c>
       <c r="G10" s="31">
@@ -23027,11 +23045,11 @@
       <c r="H10" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="I10" s="158" t="s">
+      <c r="I10" s="159" t="s">
         <v>446</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="161" t="s">
+      <c r="K10" s="162" t="s">
         <v>481</v>
       </c>
       <c r="L10" s="31">
@@ -23041,17 +23059,17 @@
       <c r="M10" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N10" s="159" t="s">
+      <c r="N10" s="160" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="31"/>
-      <c r="P10" s="156" t="s">
+      <c r="P10" s="157" t="s">
         <v>437</v>
       </c>
       <c r="Q10" s="31">
         <v>1</v>
       </c>
-      <c r="S10" s="158" t="s">
+      <c r="S10" s="159" t="s">
         <v>440</v>
       </c>
       <c r="U10" s="87" t="s">
@@ -23059,7 +23077,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="159"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="31">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>11</v>
@@ -23067,18 +23085,18 @@
       <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="157"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="156"/>
+      <c r="F11" s="157"/>
       <c r="G11" s="31">
         <v>2</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="I11" s="158"/>
+      <c r="I11" s="159"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="159"/>
+      <c r="K11" s="160"/>
       <c r="L11" s="31">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -23086,19 +23104,19 @@
       <c r="M11" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="159"/>
+      <c r="N11" s="160"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="156"/>
+      <c r="P11" s="157"/>
       <c r="Q11" s="31">
         <v>2</v>
       </c>
-      <c r="S11" s="158"/>
+      <c r="S11" s="159"/>
       <c r="U11" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="159"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="31">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>12</v>
@@ -23106,18 +23124,18 @@
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="76"/>
-      <c r="F12" s="156"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="31">
         <v>3</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="I12" s="158"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="159"/>
+      <c r="K12" s="160"/>
       <c r="L12" s="31">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -23125,19 +23143,19 @@
       <c r="M12" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="N12" s="159"/>
+      <c r="N12" s="160"/>
       <c r="O12" s="31"/>
-      <c r="P12" s="156"/>
+      <c r="P12" s="157"/>
       <c r="Q12" s="31">
         <v>3</v>
       </c>
-      <c r="S12" s="158"/>
+      <c r="S12" s="159"/>
       <c r="U12" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="159"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="31">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -23145,18 +23163,18 @@
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="156"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="31">
         <v>4</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="I13" s="158"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="159"/>
+      <c r="K13" s="160"/>
       <c r="L13" s="31">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -23164,19 +23182,19 @@
       <c r="M13" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="159"/>
+      <c r="N13" s="160"/>
       <c r="O13" s="31"/>
-      <c r="P13" s="156"/>
+      <c r="P13" s="157"/>
       <c r="Q13" s="31">
         <v>4</v>
       </c>
-      <c r="S13" s="158"/>
+      <c r="S13" s="159"/>
       <c r="U13" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="31">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -23184,18 +23202,18 @@
       <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="157"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="76"/>
-      <c r="F14" s="156"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="31">
         <v>5</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="I14" s="158"/>
+      <c r="I14" s="159"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="159"/>
+      <c r="K14" s="160"/>
       <c r="L14" s="31">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -23203,19 +23221,19 @@
       <c r="M14" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="159"/>
+      <c r="N14" s="160"/>
       <c r="O14" s="31"/>
-      <c r="P14" s="156"/>
+      <c r="P14" s="157"/>
       <c r="Q14" s="31">
         <v>5</v>
       </c>
-      <c r="S14" s="158"/>
+      <c r="S14" s="159"/>
       <c r="U14" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="31">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>13</v>
@@ -23223,18 +23241,18 @@
       <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="156"/>
+      <c r="F15" s="157"/>
       <c r="G15" s="31">
         <v>6</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="I15" s="158"/>
+      <c r="I15" s="159"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="159"/>
+      <c r="K15" s="160"/>
       <c r="L15" s="31">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -23242,19 +23260,19 @@
       <c r="M15" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N15" s="159"/>
+      <c r="N15" s="160"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="156"/>
+      <c r="P15" s="157"/>
       <c r="Q15" s="31">
         <v>6</v>
       </c>
-      <c r="S15" s="158"/>
+      <c r="S15" s="159"/>
       <c r="U15" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="159"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="31">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>14</v>
@@ -23262,18 +23280,18 @@
       <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="157"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="156"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="31">
         <v>7</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="I16" s="158"/>
+      <c r="I16" s="159"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="159"/>
+      <c r="K16" s="160"/>
       <c r="L16" s="31">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -23281,19 +23299,19 @@
       <c r="M16" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N16" s="159"/>
+      <c r="N16" s="160"/>
       <c r="O16" s="31"/>
-      <c r="P16" s="156"/>
+      <c r="P16" s="157"/>
       <c r="Q16" s="31">
         <v>7</v>
       </c>
-      <c r="S16" s="158"/>
+      <c r="S16" s="159"/>
       <c r="U16" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="159"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="31">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -23301,18 +23319,18 @@
       <c r="C17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="157"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="156"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="31">
         <v>8</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="I17" s="158"/>
+      <c r="I17" s="159"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="159"/>
+      <c r="K17" s="160"/>
       <c r="L17" s="31">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -23320,19 +23338,19 @@
       <c r="M17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="159"/>
+      <c r="N17" s="160"/>
       <c r="O17" s="31"/>
-      <c r="P17" s="156"/>
+      <c r="P17" s="157"/>
       <c r="Q17" s="31">
         <v>8</v>
       </c>
-      <c r="S17" s="158"/>
+      <c r="S17" s="159"/>
       <c r="U17" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="159"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="31">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -23340,18 +23358,18 @@
       <c r="C18" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="157"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="156"/>
+      <c r="F18" s="157"/>
       <c r="G18" s="31">
         <v>9</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="I18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="159"/>
+      <c r="K18" s="160"/>
       <c r="L18" s="31">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -23359,19 +23377,19 @@
       <c r="M18" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N18" s="159"/>
+      <c r="N18" s="160"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="156"/>
+      <c r="P18" s="157"/>
       <c r="Q18" s="31">
         <v>9</v>
       </c>
-      <c r="S18" s="158"/>
+      <c r="S18" s="159"/>
       <c r="U18" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="159"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="31">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -23379,18 +23397,18 @@
       <c r="C19" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="157"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="156"/>
+      <c r="F19" s="157"/>
       <c r="G19" s="31">
         <v>10</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="I19" s="158"/>
+      <c r="I19" s="159"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="159"/>
+      <c r="K19" s="160"/>
       <c r="L19" s="31">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -23398,19 +23416,19 @@
       <c r="M19" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N19" s="159"/>
+      <c r="N19" s="160"/>
       <c r="O19" s="31"/>
-      <c r="P19" s="156"/>
+      <c r="P19" s="157"/>
       <c r="Q19" s="31">
         <v>10</v>
       </c>
-      <c r="S19" s="158"/>
+      <c r="S19" s="159"/>
       <c r="U19" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="159"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="31">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -23418,18 +23436,18 @@
       <c r="C20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="157"/>
+      <c r="D20" s="158"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="156"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="39">
         <v>11</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="I20" s="158"/>
+      <c r="I20" s="159"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="159"/>
+      <c r="K20" s="160"/>
       <c r="L20" s="39">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -23437,19 +23455,19 @@
       <c r="M20" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N20" s="159"/>
+      <c r="N20" s="160"/>
       <c r="O20" s="39"/>
-      <c r="P20" s="156"/>
+      <c r="P20" s="157"/>
       <c r="Q20" s="39">
         <v>11</v>
       </c>
-      <c r="S20" s="158"/>
+      <c r="S20" s="159"/>
       <c r="U20" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="159"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="31">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -23457,18 +23475,18 @@
       <c r="C21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="157"/>
+      <c r="D21" s="158"/>
       <c r="E21" s="76"/>
-      <c r="F21" s="156"/>
+      <c r="F21" s="157"/>
       <c r="G21" s="39">
         <v>12</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="I21" s="158"/>
+      <c r="I21" s="159"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="159"/>
+      <c r="K21" s="160"/>
       <c r="L21" s="39">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -23476,19 +23494,19 @@
       <c r="M21" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N21" s="159"/>
+      <c r="N21" s="160"/>
       <c r="O21" s="39"/>
-      <c r="P21" s="156"/>
+      <c r="P21" s="157"/>
       <c r="Q21" s="39">
         <v>12</v>
       </c>
-      <c r="S21" s="158"/>
+      <c r="S21" s="159"/>
       <c r="U21" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="159"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="31">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -23496,18 +23514,18 @@
       <c r="C22" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="157"/>
+      <c r="D22" s="158"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="156"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="39">
         <v>13</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="I22" s="158"/>
+      <c r="I22" s="159"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="159"/>
+      <c r="K22" s="160"/>
       <c r="L22" s="39">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -23515,19 +23533,19 @@
       <c r="M22" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="N22" s="159"/>
+      <c r="N22" s="160"/>
       <c r="O22" s="39"/>
-      <c r="P22" s="156"/>
+      <c r="P22" s="157"/>
       <c r="Q22" s="39">
         <v>13</v>
       </c>
-      <c r="S22" s="158"/>
+      <c r="S22" s="159"/>
       <c r="U22" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="159"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="31">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -23535,18 +23553,18 @@
       <c r="C23" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="157"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="156"/>
+      <c r="F23" s="157"/>
       <c r="G23" s="39">
         <v>14</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="158"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="159"/>
+      <c r="K23" s="160"/>
       <c r="L23" s="39">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -23554,19 +23572,19 @@
       <c r="M23" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="N23" s="159"/>
+      <c r="N23" s="160"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="156"/>
+      <c r="P23" s="157"/>
       <c r="Q23" s="39">
         <v>14</v>
       </c>
-      <c r="S23" s="158"/>
+      <c r="S23" s="159"/>
       <c r="U23" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="159"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="31">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -23574,18 +23592,18 @@
       <c r="C24" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="157"/>
+      <c r="D24" s="158"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="156"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="39">
         <v>15</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="I24" s="158"/>
+      <c r="I24" s="159"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="159"/>
+      <c r="K24" s="160"/>
       <c r="L24" s="39">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -23593,19 +23611,19 @@
       <c r="M24" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N24" s="159"/>
+      <c r="N24" s="160"/>
       <c r="O24" s="39"/>
-      <c r="P24" s="156"/>
+      <c r="P24" s="157"/>
       <c r="Q24" s="39">
         <v>15</v>
       </c>
-      <c r="S24" s="158"/>
+      <c r="S24" s="159"/>
       <c r="U24" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="159"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="31">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -23613,18 +23631,18 @@
       <c r="C25" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="157"/>
+      <c r="D25" s="158"/>
       <c r="E25" s="76"/>
-      <c r="F25" s="156"/>
+      <c r="F25" s="157"/>
       <c r="G25" s="31">
         <v>16</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="I25" s="158"/>
+      <c r="I25" s="159"/>
       <c r="J25" s="31"/>
-      <c r="K25" s="159"/>
+      <c r="K25" s="160"/>
       <c r="L25" s="31">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -23632,19 +23650,19 @@
       <c r="M25" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N25" s="159"/>
+      <c r="N25" s="160"/>
       <c r="O25" s="31"/>
-      <c r="P25" s="156"/>
+      <c r="P25" s="157"/>
       <c r="Q25" s="31">
         <v>16</v>
       </c>
-      <c r="S25" s="158"/>
+      <c r="S25" s="159"/>
       <c r="U25" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="159"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="31">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -23652,18 +23670,18 @@
       <c r="C26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="157"/>
+      <c r="D26" s="158"/>
       <c r="E26" s="76"/>
-      <c r="F26" s="156"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="31">
         <v>17</v>
       </c>
       <c r="H26" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="I26" s="158"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="159"/>
+      <c r="K26" s="160"/>
       <c r="L26" s="31">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -23671,19 +23689,19 @@
       <c r="M26" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="159"/>
+      <c r="N26" s="160"/>
       <c r="O26" s="31"/>
-      <c r="P26" s="156"/>
+      <c r="P26" s="157"/>
       <c r="Q26" s="31">
         <v>17</v>
       </c>
-      <c r="S26" s="158"/>
+      <c r="S26" s="159"/>
       <c r="U26" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="159"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="31">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -23691,18 +23709,18 @@
       <c r="C27" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="D27" s="157"/>
+      <c r="D27" s="158"/>
       <c r="E27" s="76"/>
-      <c r="F27" s="156"/>
+      <c r="F27" s="157"/>
       <c r="G27" s="31">
         <v>18</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I27" s="158"/>
+      <c r="I27" s="159"/>
       <c r="J27" s="31"/>
-      <c r="K27" s="159"/>
+      <c r="K27" s="160"/>
       <c r="L27" s="31">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -23710,83 +23728,83 @@
       <c r="M27" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="N27" s="159"/>
+      <c r="N27" s="160"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="156"/>
+      <c r="P27" s="157"/>
       <c r="Q27" s="31">
         <v>18</v>
       </c>
-      <c r="S27" s="158"/>
+      <c r="S27" s="159"/>
       <c r="U27" s="87"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="31" t="s">
         <v>442</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="157"/>
+      <c r="D28" s="158"/>
       <c r="E28" s="76"/>
-      <c r="F28" s="156"/>
+      <c r="F28" s="157"/>
       <c r="G28" s="31">
         <v>19</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="I28" s="158"/>
+      <c r="I28" s="159"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="31" t="s">
         <v>442</v>
       </c>
       <c r="M28" s="17"/>
-      <c r="N28" s="159"/>
+      <c r="N28" s="160"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="156"/>
+      <c r="P28" s="157"/>
       <c r="Q28" s="31">
         <v>19</v>
       </c>
-      <c r="S28" s="158"/>
+      <c r="S28" s="159"/>
       <c r="U28" s="87"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="159"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="31"/>
-      <c r="D29" s="157"/>
+      <c r="D29" s="158"/>
       <c r="E29" s="76"/>
-      <c r="F29" s="156"/>
+      <c r="F29" s="157"/>
       <c r="G29" s="31">
         <v>20</v>
       </c>
       <c r="H29" s="37"/>
-      <c r="I29" s="158"/>
+      <c r="I29" s="159"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="159"/>
+      <c r="K29" s="160"/>
       <c r="L29" s="31"/>
-      <c r="N29" s="159"/>
+      <c r="N29" s="160"/>
       <c r="O29" s="31"/>
-      <c r="P29" s="156"/>
+      <c r="P29" s="157"/>
       <c r="Q29" s="31">
         <v>20</v>
       </c>
-      <c r="S29" s="158"/>
+      <c r="S29" s="159"/>
       <c r="U29" s="87"/>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="159"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="31"/>
-      <c r="D30" s="157"/>
+      <c r="D30" s="158"/>
       <c r="E30" s="76"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="37"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="159"/>
+      <c r="K30" s="160"/>
       <c r="L30" s="31"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="159"/>
+      <c r="N30" s="160"/>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
@@ -23794,20 +23812,20 @@
       <c r="U30" s="87"/>
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="159"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="31"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="157"/>
+      <c r="D31" s="158"/>
       <c r="E31" s="76"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="37"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="159"/>
+      <c r="K31" s="160"/>
       <c r="L31" s="31"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="159"/>
+      <c r="N31" s="160"/>
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
       <c r="Q31" s="31"/>
@@ -23815,7 +23833,7 @@
       <c r="U31" s="87"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="159"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="31">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>10</v>
@@ -23823,9 +23841,9 @@
       <c r="C32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="157"/>
+      <c r="D32" s="158"/>
       <c r="E32" s="76"/>
-      <c r="F32" s="156" t="s">
+      <c r="F32" s="157" t="s">
         <v>436</v>
       </c>
       <c r="G32" s="31">
@@ -23834,11 +23852,11 @@
       <c r="H32" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="I32" s="160" t="s">
+      <c r="I32" s="161" t="s">
         <v>445</v>
       </c>
       <c r="J32" s="31"/>
-      <c r="K32" s="159"/>
+      <c r="K32" s="160"/>
       <c r="L32" s="31">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>18</v>
@@ -23846,15 +23864,15 @@
       <c r="M32" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N32" s="159"/>
+      <c r="N32" s="160"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="156" t="s">
+      <c r="P32" s="157" t="s">
         <v>438</v>
       </c>
       <c r="Q32" s="31">
         <v>1</v>
       </c>
-      <c r="S32" s="156" t="s">
+      <c r="S32" s="157" t="s">
         <v>441</v>
       </c>
       <c r="U32" s="87" t="s">
@@ -23862,7 +23880,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="159"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="31">
         <f>VLOOKUP(C33,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>11</v>
@@ -23870,18 +23888,18 @@
       <c r="C33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="157"/>
+      <c r="D33" s="158"/>
       <c r="E33" s="76"/>
-      <c r="F33" s="156"/>
+      <c r="F33" s="157"/>
       <c r="G33" s="31">
         <v>2</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="I33" s="160"/>
+      <c r="I33" s="161"/>
       <c r="J33" s="31"/>
-      <c r="K33" s="159"/>
+      <c r="K33" s="160"/>
       <c r="L33" s="31">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -23889,19 +23907,19 @@
       <c r="M33" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N33" s="159"/>
+      <c r="N33" s="160"/>
       <c r="O33" s="31"/>
-      <c r="P33" s="156"/>
+      <c r="P33" s="157"/>
       <c r="Q33" s="145">
         <v>2</v>
       </c>
-      <c r="S33" s="156"/>
+      <c r="S33" s="157"/>
       <c r="U33" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="159"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="31">
         <f>VLOOKUP(C34,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -23909,18 +23927,18 @@
       <c r="C34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="157"/>
+      <c r="D34" s="158"/>
       <c r="E34" s="143"/>
-      <c r="F34" s="156"/>
+      <c r="F34" s="157"/>
       <c r="G34" s="31">
         <v>3</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="I34" s="160"/>
+      <c r="I34" s="161"/>
       <c r="J34" s="31"/>
-      <c r="K34" s="159"/>
+      <c r="K34" s="160"/>
       <c r="L34" s="31">
         <f>VLOOKUP(M34,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -23928,18 +23946,18 @@
       <c r="M34" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="N34" s="159"/>
-      <c r="P34" s="156"/>
+      <c r="N34" s="160"/>
+      <c r="P34" s="157"/>
       <c r="Q34" s="145">
         <v>3</v>
       </c>
-      <c r="S34" s="156"/>
+      <c r="S34" s="157"/>
       <c r="U34" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="159"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="31">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -23947,18 +23965,18 @@
       <c r="C35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="157"/>
+      <c r="D35" s="158"/>
       <c r="E35" s="76"/>
-      <c r="F35" s="156"/>
+      <c r="F35" s="157"/>
       <c r="G35" s="31">
         <v>4</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="I35" s="160"/>
+      <c r="I35" s="161"/>
       <c r="J35" s="31"/>
-      <c r="K35" s="159"/>
+      <c r="K35" s="160"/>
       <c r="L35" s="31">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -23966,19 +23984,19 @@
       <c r="M35" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="N35" s="159"/>
+      <c r="N35" s="160"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="156"/>
+      <c r="P35" s="157"/>
       <c r="Q35" s="145">
         <v>4</v>
       </c>
-      <c r="S35" s="156"/>
+      <c r="S35" s="157"/>
       <c r="U35" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="159"/>
+      <c r="A36" s="160"/>
       <c r="B36" s="31">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>12</v>
@@ -23986,18 +24004,18 @@
       <c r="C36" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="157"/>
+      <c r="D36" s="158"/>
       <c r="E36" s="143"/>
-      <c r="F36" s="156"/>
+      <c r="F36" s="157"/>
       <c r="G36" s="31">
         <v>5</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="I36" s="160"/>
+      <c r="I36" s="161"/>
       <c r="J36" s="31"/>
-      <c r="K36" s="159"/>
+      <c r="K36" s="160"/>
       <c r="L36" s="31">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -24005,19 +24023,19 @@
       <c r="M36" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="N36" s="159"/>
+      <c r="N36" s="160"/>
       <c r="O36" s="31"/>
-      <c r="P36" s="156"/>
+      <c r="P36" s="157"/>
       <c r="Q36" s="145">
         <v>5</v>
       </c>
-      <c r="S36" s="156"/>
+      <c r="S36" s="157"/>
       <c r="U36" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="159"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="31">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>13</v>
@@ -24025,18 +24043,18 @@
       <c r="C37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="157"/>
+      <c r="D37" s="158"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="156"/>
+      <c r="F37" s="157"/>
       <c r="G37" s="31">
         <v>6</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="I37" s="160"/>
+      <c r="I37" s="161"/>
       <c r="J37" s="31"/>
-      <c r="K37" s="159"/>
+      <c r="K37" s="160"/>
       <c r="L37" s="31">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -24044,19 +24062,19 @@
       <c r="M37" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N37" s="159"/>
+      <c r="N37" s="160"/>
       <c r="O37" s="31"/>
-      <c r="P37" s="156"/>
+      <c r="P37" s="157"/>
       <c r="Q37" s="145">
         <v>6</v>
       </c>
-      <c r="S37" s="156"/>
+      <c r="S37" s="157"/>
       <c r="U37" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="159"/>
+      <c r="A38" s="160"/>
       <c r="B38" s="31">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>14</v>
@@ -24064,18 +24082,18 @@
       <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="157"/>
+      <c r="D38" s="158"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="156"/>
+      <c r="F38" s="157"/>
       <c r="G38" s="31">
         <v>7</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="I38" s="160"/>
+      <c r="I38" s="161"/>
       <c r="J38" s="31"/>
-      <c r="K38" s="159"/>
+      <c r="K38" s="160"/>
       <c r="L38" s="31">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -24083,19 +24101,19 @@
       <c r="M38" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N38" s="159"/>
+      <c r="N38" s="160"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="156"/>
+      <c r="P38" s="157"/>
       <c r="Q38" s="31">
         <v>7</v>
       </c>
-      <c r="S38" s="156"/>
+      <c r="S38" s="157"/>
       <c r="U38" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="159"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="31">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -24103,18 +24121,18 @@
       <c r="C39" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="157"/>
+      <c r="D39" s="158"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="156"/>
+      <c r="F39" s="157"/>
       <c r="G39" s="31">
         <v>8</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="I39" s="160"/>
+      <c r="I39" s="161"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="159"/>
+      <c r="K39" s="160"/>
       <c r="L39" s="31">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -24122,19 +24140,19 @@
       <c r="M39" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N39" s="159"/>
+      <c r="N39" s="160"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="156"/>
+      <c r="P39" s="157"/>
       <c r="Q39" s="31">
         <v>8</v>
       </c>
-      <c r="S39" s="156"/>
+      <c r="S39" s="157"/>
       <c r="U39" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="159"/>
+      <c r="A40" s="160"/>
       <c r="B40" s="31">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -24142,18 +24160,18 @@
       <c r="C40" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="157"/>
+      <c r="D40" s="158"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="156"/>
+      <c r="F40" s="157"/>
       <c r="G40" s="31">
         <v>9</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="I40" s="160"/>
+      <c r="I40" s="161"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="159"/>
+      <c r="K40" s="160"/>
       <c r="L40" s="31">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -24161,19 +24179,19 @@
       <c r="M40" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N40" s="159"/>
+      <c r="N40" s="160"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="156"/>
+      <c r="P40" s="157"/>
       <c r="Q40" s="31">
         <v>9</v>
       </c>
-      <c r="S40" s="156"/>
+      <c r="S40" s="157"/>
       <c r="U40" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="159"/>
+      <c r="A41" s="160"/>
       <c r="B41" s="31">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -24181,18 +24199,18 @@
       <c r="C41" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="157"/>
+      <c r="D41" s="158"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="156"/>
+      <c r="F41" s="157"/>
       <c r="G41" s="31">
         <v>10</v>
       </c>
       <c r="H41" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="I41" s="160"/>
+      <c r="I41" s="161"/>
       <c r="J41" s="31"/>
-      <c r="K41" s="159"/>
+      <c r="K41" s="160"/>
       <c r="L41" s="31">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -24200,19 +24218,19 @@
       <c r="M41" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N41" s="159"/>
+      <c r="N41" s="160"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="156"/>
+      <c r="P41" s="157"/>
       <c r="Q41" s="31">
         <v>10</v>
       </c>
-      <c r="S41" s="156"/>
+      <c r="S41" s="157"/>
       <c r="U41" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="159"/>
+      <c r="A42" s="160"/>
       <c r="B42" s="31">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -24220,18 +24238,18 @@
       <c r="C42" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="157"/>
+      <c r="D42" s="158"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="156"/>
+      <c r="F42" s="157"/>
       <c r="G42" s="39">
         <v>11</v>
       </c>
       <c r="H42" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="I42" s="160"/>
+      <c r="I42" s="161"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="159"/>
+      <c r="K42" s="160"/>
       <c r="L42" s="31">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -24239,19 +24257,19 @@
       <c r="M42" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N42" s="159"/>
+      <c r="N42" s="160"/>
       <c r="O42" s="39"/>
-      <c r="P42" s="156"/>
+      <c r="P42" s="157"/>
       <c r="Q42" s="39">
         <v>11</v>
       </c>
-      <c r="S42" s="156"/>
+      <c r="S42" s="157"/>
       <c r="U42" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="159"/>
+      <c r="A43" s="160"/>
       <c r="B43" s="31">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -24259,18 +24277,18 @@
       <c r="C43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="157"/>
+      <c r="D43" s="158"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="156"/>
+      <c r="F43" s="157"/>
       <c r="G43" s="39">
         <v>12</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="I43" s="160"/>
+      <c r="I43" s="161"/>
       <c r="J43" s="31"/>
-      <c r="K43" s="159"/>
+      <c r="K43" s="160"/>
       <c r="L43" s="31">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -24278,19 +24296,19 @@
       <c r="M43" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N43" s="159"/>
+      <c r="N43" s="160"/>
       <c r="O43" s="39"/>
-      <c r="P43" s="156"/>
+      <c r="P43" s="157"/>
       <c r="Q43" s="39">
         <v>12</v>
       </c>
-      <c r="S43" s="156"/>
+      <c r="S43" s="157"/>
       <c r="U43" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="159"/>
+      <c r="A44" s="160"/>
       <c r="B44" s="31">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -24298,18 +24316,18 @@
       <c r="C44" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="157"/>
+      <c r="D44" s="158"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="156"/>
+      <c r="F44" s="157"/>
       <c r="G44" s="39">
         <v>13</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="I44" s="160"/>
+      <c r="I44" s="161"/>
       <c r="J44" s="31"/>
-      <c r="K44" s="159"/>
+      <c r="K44" s="160"/>
       <c r="L44" s="31">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -24317,19 +24335,19 @@
       <c r="M44" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="N44" s="159"/>
+      <c r="N44" s="160"/>
       <c r="O44" s="39"/>
-      <c r="P44" s="156"/>
+      <c r="P44" s="157"/>
       <c r="Q44" s="39">
         <v>13</v>
       </c>
-      <c r="S44" s="156"/>
+      <c r="S44" s="157"/>
       <c r="U44" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="159"/>
+      <c r="A45" s="160"/>
       <c r="B45" s="31">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -24337,18 +24355,18 @@
       <c r="C45" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="157"/>
+      <c r="D45" s="158"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="156"/>
+      <c r="F45" s="157"/>
       <c r="G45" s="39">
         <v>14</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="I45" s="160"/>
+      <c r="I45" s="161"/>
       <c r="J45" s="31"/>
-      <c r="K45" s="159"/>
+      <c r="K45" s="160"/>
       <c r="L45" s="31">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -24356,19 +24374,19 @@
       <c r="M45" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="N45" s="159"/>
+      <c r="N45" s="160"/>
       <c r="O45" s="39"/>
-      <c r="P45" s="156"/>
+      <c r="P45" s="157"/>
       <c r="Q45" s="39">
         <v>14</v>
       </c>
-      <c r="S45" s="156"/>
+      <c r="S45" s="157"/>
       <c r="U45" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="159"/>
+      <c r="A46" s="160"/>
       <c r="B46" s="31">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -24376,18 +24394,18 @@
       <c r="C46" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="157"/>
+      <c r="D46" s="158"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="156"/>
+      <c r="F46" s="157"/>
       <c r="G46" s="39">
         <v>15</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="I46" s="160"/>
+      <c r="I46" s="161"/>
       <c r="J46" s="31"/>
-      <c r="K46" s="159"/>
+      <c r="K46" s="160"/>
       <c r="L46" s="31">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -24395,19 +24413,19 @@
       <c r="M46" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="159"/>
+      <c r="N46" s="160"/>
       <c r="O46" s="39"/>
-      <c r="P46" s="156"/>
+      <c r="P46" s="157"/>
       <c r="Q46" s="39">
         <v>15</v>
       </c>
-      <c r="S46" s="156"/>
+      <c r="S46" s="157"/>
       <c r="U46" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="159"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="31">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -24415,18 +24433,18 @@
       <c r="C47" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="157"/>
+      <c r="D47" s="158"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="156"/>
+      <c r="F47" s="157"/>
       <c r="G47" s="31">
         <v>16</v>
       </c>
       <c r="H47" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="I47" s="160"/>
+      <c r="I47" s="161"/>
       <c r="J47" s="31"/>
-      <c r="K47" s="159"/>
+      <c r="K47" s="160"/>
       <c r="L47" s="31">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -24434,19 +24452,19 @@
       <c r="M47" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N47" s="159"/>
+      <c r="N47" s="160"/>
       <c r="O47" s="31"/>
-      <c r="P47" s="156"/>
+      <c r="P47" s="157"/>
       <c r="Q47" s="31">
         <v>16</v>
       </c>
-      <c r="S47" s="156"/>
+      <c r="S47" s="157"/>
       <c r="U47" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="159"/>
+      <c r="A48" s="160"/>
       <c r="B48" s="31">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -24454,18 +24472,18 @@
       <c r="C48" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="157"/>
+      <c r="D48" s="158"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="156"/>
+      <c r="F48" s="157"/>
       <c r="G48" s="31">
         <v>17</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="I48" s="160"/>
+      <c r="I48" s="161"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="159"/>
+      <c r="K48" s="160"/>
       <c r="L48" s="31">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -24473,19 +24491,19 @@
       <c r="M48" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N48" s="159"/>
+      <c r="N48" s="160"/>
       <c r="O48" s="31"/>
-      <c r="P48" s="156"/>
+      <c r="P48" s="157"/>
       <c r="Q48" s="31">
         <v>17</v>
       </c>
-      <c r="S48" s="156"/>
+      <c r="S48" s="157"/>
       <c r="U48" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="159"/>
+      <c r="A49" s="160"/>
       <c r="B49" s="31">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>61</v>
@@ -24493,18 +24511,18 @@
       <c r="C49" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="157"/>
+      <c r="D49" s="158"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="156"/>
+      <c r="F49" s="157"/>
       <c r="G49" s="31">
         <v>18</v>
       </c>
       <c r="H49" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="I49" s="160"/>
+      <c r="I49" s="161"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="159"/>
+      <c r="K49" s="160"/>
       <c r="L49" s="31">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -24512,19 +24530,19 @@
       <c r="M49" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="N49" s="159"/>
+      <c r="N49" s="160"/>
       <c r="O49" s="31"/>
-      <c r="P49" s="156"/>
+      <c r="P49" s="157"/>
       <c r="Q49" s="31">
         <v>18</v>
       </c>
-      <c r="S49" s="156"/>
+      <c r="S49" s="157"/>
       <c r="U49" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="159"/>
+      <c r="A50" s="160"/>
       <c r="B50" s="31">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -24532,18 +24550,18 @@
       <c r="C50" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="157"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="156"/>
+      <c r="F50" s="157"/>
       <c r="G50" s="31">
         <v>19</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="I50" s="160"/>
+      <c r="I50" s="161"/>
       <c r="J50" s="31"/>
-      <c r="K50" s="159"/>
+      <c r="K50" s="160"/>
       <c r="L50" s="31">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -24551,19 +24569,19 @@
       <c r="M50" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="N50" s="159"/>
+      <c r="N50" s="160"/>
       <c r="O50" s="31"/>
-      <c r="P50" s="156"/>
+      <c r="P50" s="157"/>
       <c r="Q50" s="31">
         <v>19</v>
       </c>
-      <c r="S50" s="156"/>
+      <c r="S50" s="157"/>
       <c r="U50" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="159"/>
+      <c r="A51" s="160"/>
       <c r="B51" s="31">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -24571,17 +24589,17 @@
       <c r="C51" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="157"/>
+      <c r="D51" s="158"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="156"/>
+      <c r="F51" s="157"/>
       <c r="G51" s="31">
         <v>20</v>
       </c>
       <c r="H51" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="I51" s="160"/>
-      <c r="K51" s="159"/>
+      <c r="I51" s="161"/>
+      <c r="K51" s="160"/>
       <c r="L51" s="31">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -24589,19 +24607,19 @@
       <c r="M51" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="N51" s="159"/>
+      <c r="N51" s="160"/>
       <c r="O51" s="31"/>
-      <c r="P51" s="156"/>
+      <c r="P51" s="157"/>
       <c r="Q51" s="31">
         <v>20</v>
       </c>
-      <c r="S51" s="156"/>
+      <c r="S51" s="157"/>
       <c r="U51" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="159"/>
+      <c r="A52" s="160"/>
       <c r="B52" s="31">
         <f>VLOOKUP(C52,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -24609,17 +24627,17 @@
       <c r="C52" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="D52" s="157"/>
+      <c r="D52" s="158"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="156"/>
+      <c r="F52" s="157"/>
       <c r="G52" s="31">
         <v>21</v>
       </c>
       <c r="H52" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="I52" s="160"/>
-      <c r="K52" s="159"/>
+      <c r="I52" s="161"/>
+      <c r="K52" s="160"/>
       <c r="L52" s="31">
         <f>VLOOKUP(M52,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -24627,107 +24645,107 @@
       <c r="M52" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="N52" s="159"/>
+      <c r="N52" s="160"/>
       <c r="O52" s="31"/>
-      <c r="P52" s="156"/>
+      <c r="P52" s="157"/>
       <c r="Q52" s="31">
         <v>21</v>
       </c>
-      <c r="S52" s="156"/>
+      <c r="S52" s="157"/>
       <c r="U52" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="159"/>
+      <c r="A53" s="160"/>
       <c r="B53" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="D53" s="157"/>
+      <c r="D53" s="158"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="156"/>
+      <c r="F53" s="157"/>
       <c r="G53" s="31">
         <v>22</v>
       </c>
       <c r="H53" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="I53" s="160"/>
-      <c r="K53" s="159"/>
+      <c r="I53" s="161"/>
+      <c r="K53" s="160"/>
       <c r="L53" s="31" t="s">
         <v>442</v>
       </c>
       <c r="M53" s="17"/>
-      <c r="N53" s="159"/>
+      <c r="N53" s="160"/>
       <c r="O53" s="31"/>
-      <c r="P53" s="156"/>
+      <c r="P53" s="157"/>
       <c r="Q53" s="31">
         <v>22</v>
       </c>
-      <c r="S53" s="156"/>
+      <c r="S53" s="157"/>
       <c r="U53" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="159"/>
+      <c r="A54" s="160"/>
       <c r="B54" s="31"/>
-      <c r="D54" s="157"/>
+      <c r="D54" s="158"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="156"/>
+      <c r="F54" s="157"/>
       <c r="G54" s="31">
         <v>23</v>
       </c>
       <c r="H54" s="37"/>
-      <c r="I54" s="160"/>
-      <c r="K54" s="159"/>
+      <c r="I54" s="161"/>
+      <c r="K54" s="160"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="159"/>
+      <c r="N54" s="160"/>
       <c r="O54" s="31"/>
-      <c r="P54" s="156"/>
+      <c r="P54" s="157"/>
       <c r="Q54" s="31">
         <v>23</v>
       </c>
-      <c r="S54" s="156"/>
+      <c r="S54" s="157"/>
       <c r="U54" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="159"/>
+      <c r="A55" s="160"/>
       <c r="B55" s="31"/>
-      <c r="D55" s="157"/>
+      <c r="D55" s="158"/>
       <c r="E55" s="76"/>
-      <c r="F55" s="156"/>
+      <c r="F55" s="157"/>
       <c r="G55" s="31">
         <v>24</v>
       </c>
       <c r="H55" s="37"/>
-      <c r="I55" s="160"/>
-      <c r="K55" s="159"/>
-      <c r="N55" s="159"/>
+      <c r="I55" s="161"/>
+      <c r="K55" s="160"/>
+      <c r="N55" s="160"/>
       <c r="O55" s="31"/>
-      <c r="P55" s="156"/>
+      <c r="P55" s="157"/>
       <c r="Q55" s="31">
         <v>24</v>
       </c>
-      <c r="S55" s="156"/>
+      <c r="S55" s="157"/>
       <c r="U55" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="159"/>
-      <c r="D56" s="157"/>
+      <c r="A56" s="160"/>
+      <c r="D56" s="158"/>
       <c r="E56" s="76"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="159"/>
-      <c r="D57" s="157"/>
+      <c r="A57" s="160"/>
+      <c r="D57" s="158"/>
       <c r="E57" s="76"/>
     </row>
     <row r="58" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="159"/>
+      <c r="A58" s="160"/>
       <c r="B58" s="31">
         <f>VLOOKUP(C58,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>76</v>
@@ -24735,9 +24753,9 @@
       <c r="C58" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="157"/>
+      <c r="D58" s="158"/>
       <c r="E58" s="76"/>
-      <c r="F58" s="159" t="s">
+      <c r="F58" s="160" t="s">
         <v>431</v>
       </c>
       <c r="G58" s="39">
@@ -24746,7 +24764,7 @@
       <c r="H58" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="I58" s="159" t="s">
+      <c r="I58" s="160" t="s">
         <v>462</v>
       </c>
       <c r="J58" s="31"/>
@@ -24760,7 +24778,7 @@
       <c r="S58" s="41"/>
     </row>
     <row r="59" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="159"/>
+      <c r="A59" s="160"/>
       <c r="B59" s="31">
         <f>VLOOKUP(C59,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>77</v>
@@ -24768,16 +24786,16 @@
       <c r="C59" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="157"/>
+      <c r="D59" s="158"/>
       <c r="E59" s="76"/>
-      <c r="F59" s="159"/>
+      <c r="F59" s="160"/>
       <c r="G59" s="39">
         <v>11</v>
       </c>
       <c r="H59" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="I59" s="160"/>
+      <c r="I59" s="161"/>
       <c r="J59" s="31"/>
       <c r="K59" s="38"/>
       <c r="L59" s="31"/>
@@ -24789,7 +24807,7 @@
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="159"/>
+      <c r="A60" s="160"/>
       <c r="B60" s="31">
         <f>VLOOKUP(C60,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>78</v>
@@ -24797,16 +24815,16 @@
       <c r="C60" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="157"/>
+      <c r="D60" s="158"/>
       <c r="E60" s="76"/>
-      <c r="F60" s="159"/>
+      <c r="F60" s="160"/>
       <c r="G60" s="39">
         <v>12</v>
       </c>
       <c r="H60" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="I60" s="160"/>
+      <c r="I60" s="161"/>
       <c r="J60" s="39"/>
       <c r="K60" s="38"/>
       <c r="L60" s="31"/>
@@ -24817,7 +24835,7 @@
       <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="159"/>
+      <c r="A61" s="160"/>
       <c r="B61" s="31">
         <f>VLOOKUP(C61,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>79</v>
@@ -24825,16 +24843,16 @@
       <c r="C61" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="157"/>
+      <c r="D61" s="158"/>
       <c r="E61" s="76"/>
-      <c r="F61" s="159"/>
+      <c r="F61" s="160"/>
       <c r="G61" s="39">
         <v>13</v>
       </c>
       <c r="H61" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="I61" s="160"/>
+      <c r="I61" s="161"/>
       <c r="J61" s="31"/>
       <c r="K61" s="38"/>
       <c r="L61" s="31"/>
@@ -24845,7 +24863,7 @@
       <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="159"/>
+      <c r="A62" s="160"/>
       <c r="B62" s="31">
         <f>VLOOKUP(C62,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>80</v>
@@ -24853,16 +24871,16 @@
       <c r="C62" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="157"/>
+      <c r="D62" s="158"/>
       <c r="E62" s="76"/>
-      <c r="F62" s="159"/>
+      <c r="F62" s="160"/>
       <c r="G62" s="39">
         <v>14</v>
       </c>
       <c r="H62" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="I62" s="160"/>
+      <c r="I62" s="161"/>
       <c r="J62" s="31"/>
       <c r="K62" s="38"/>
       <c r="L62" s="31"/>
@@ -24873,7 +24891,7 @@
       <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="159"/>
+      <c r="A63" s="160"/>
       <c r="E63" s="76"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.2">
@@ -24935,7 +24953,7 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>

--- a/mapping/PLC_Certification_Chassis.xlsx
+++ b/mapping/PLC_Certification_Chassis.xlsx
@@ -1893,7 +1893,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1927,6 +1927,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,7 +1978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2354,13 +2360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2384,7 +2390,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2393,13 +2408,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15855,8 +15864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A79"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16025,7 +16034,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="147" t="s">
         <v>428</v>
       </c>
       <c r="B10" s="49">
@@ -16035,11 +16044,11 @@
       <c r="C10" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="149" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76"/>
-      <c r="F10" s="149" t="s">
+      <c r="F10" s="147" t="s">
         <v>384</v>
       </c>
       <c r="G10" s="49">
@@ -16051,7 +16060,7 @@
       <c r="I10" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="K10" s="149" t="s">
+      <c r="K10" s="147" t="s">
         <v>432</v>
       </c>
       <c r="L10" s="49">
@@ -16061,14 +16070,14 @@
       <c r="M10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="149" t="s">
+      <c r="N10" s="147" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="76">
         <f>COUNTIF(M:M,M10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="149" t="s">
+      <c r="P10" s="147" t="s">
         <v>381</v>
       </c>
       <c r="Q10" s="49">
@@ -16077,7 +16086,7 @@
       <c r="R10" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="S10" s="147" t="s">
+      <c r="S10" s="148" t="s">
         <v>441</v>
       </c>
       <c r="U10" s="73" t="s">
@@ -16088,7 +16097,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="149"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="49">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -16096,9 +16105,9 @@
       <c r="C11" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="149"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="49">
         <v>2</v>
       </c>
@@ -16106,7 +16115,7 @@
         <v>483</v>
       </c>
       <c r="I11" s="150"/>
-      <c r="K11" s="149"/>
+      <c r="K11" s="147"/>
       <c r="L11" s="49">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -16114,19 +16123,19 @@
       <c r="M11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="149"/>
+      <c r="N11" s="147"/>
       <c r="O11" s="76">
         <f t="shared" ref="O11:O74" si="0">COUNTIF(M:M,M11)</f>
         <v>1</v>
       </c>
-      <c r="P11" s="149"/>
+      <c r="P11" s="147"/>
       <c r="Q11" s="49">
         <v>2</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="S11" s="147"/>
+      <c r="S11" s="148"/>
       <c r="U11" s="73" t="s">
         <v>475</v>
       </c>
@@ -16135,7 +16144,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="149"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="49">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -16143,9 +16152,9 @@
       <c r="C12" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="148"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="76"/>
-      <c r="F12" s="149"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="49">
         <v>3</v>
       </c>
@@ -16153,7 +16162,7 @@
         <v>484</v>
       </c>
       <c r="I12" s="150"/>
-      <c r="K12" s="149"/>
+      <c r="K12" s="147"/>
       <c r="L12" s="49">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -16161,19 +16170,19 @@
       <c r="M12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N12" s="149"/>
+      <c r="N12" s="147"/>
       <c r="O12" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P12" s="149"/>
+      <c r="P12" s="147"/>
       <c r="Q12" s="49">
         <v>3</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="S12" s="147"/>
+      <c r="S12" s="148"/>
       <c r="U12" s="73" t="s">
         <v>475</v>
       </c>
@@ -16182,7 +16191,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="149"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="49">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -16190,9 +16199,9 @@
       <c r="C13" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="148"/>
+      <c r="D13" s="149"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="149"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="49">
         <v>4</v>
       </c>
@@ -16200,7 +16209,7 @@
         <v>485</v>
       </c>
       <c r="I13" s="150"/>
-      <c r="K13" s="149"/>
+      <c r="K13" s="147"/>
       <c r="L13" s="49">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -16208,19 +16217,19 @@
       <c r="M13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="N13" s="149"/>
+      <c r="N13" s="147"/>
       <c r="O13" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="149"/>
+      <c r="P13" s="147"/>
       <c r="Q13" s="49">
         <v>4</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="S13" s="147"/>
+      <c r="S13" s="148"/>
       <c r="U13" s="73" t="s">
         <v>475</v>
       </c>
@@ -16229,7 +16238,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="149"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="49">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>56</v>
@@ -16237,9 +16246,9 @@
       <c r="C14" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="148"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="76"/>
-      <c r="F14" s="149"/>
+      <c r="F14" s="147"/>
       <c r="G14" s="49">
         <v>5</v>
       </c>
@@ -16247,7 +16256,7 @@
         <v>486</v>
       </c>
       <c r="I14" s="150"/>
-      <c r="K14" s="149"/>
+      <c r="K14" s="147"/>
       <c r="L14" s="49">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -16255,19 +16264,19 @@
       <c r="M14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="N14" s="149"/>
+      <c r="N14" s="147"/>
       <c r="O14" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P14" s="149"/>
+      <c r="P14" s="147"/>
       <c r="Q14" s="49">
         <v>5</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="S14" s="147"/>
+      <c r="S14" s="148"/>
       <c r="U14" s="73" t="s">
         <v>475</v>
       </c>
@@ -16276,7 +16285,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="149"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="77">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>58</v>
@@ -16284,9 +16293,9 @@
       <c r="C15" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="149"/>
+      <c r="F15" s="147"/>
       <c r="G15" s="49">
         <v>6</v>
       </c>
@@ -16294,7 +16303,7 @@
         <v>487</v>
       </c>
       <c r="I15" s="150"/>
-      <c r="K15" s="149"/>
+      <c r="K15" s="147"/>
       <c r="L15" s="49">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -16302,19 +16311,19 @@
       <c r="M15" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N15" s="149"/>
+      <c r="N15" s="147"/>
       <c r="O15" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="149"/>
+      <c r="P15" s="147"/>
       <c r="Q15" s="49">
         <v>6</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="S15" s="147"/>
+      <c r="S15" s="148"/>
       <c r="U15" s="73" t="s">
         <v>475</v>
       </c>
@@ -16323,7 +16332,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="149"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="49">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>61</v>
@@ -16331,9 +16340,9 @@
       <c r="C16" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D16" s="148"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="149"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="49">
         <v>7</v>
       </c>
@@ -16341,7 +16350,7 @@
         <v>488</v>
       </c>
       <c r="I16" s="150"/>
-      <c r="K16" s="149"/>
+      <c r="K16" s="147"/>
       <c r="L16" s="49">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -16349,19 +16358,19 @@
       <c r="M16" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N16" s="149"/>
+      <c r="N16" s="147"/>
       <c r="O16" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="149"/>
+      <c r="P16" s="147"/>
       <c r="Q16" s="49">
         <v>7</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="S16" s="147"/>
+      <c r="S16" s="148"/>
       <c r="U16" s="73" t="s">
         <v>475</v>
       </c>
@@ -16370,7 +16379,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="149"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="146">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>57</v>
@@ -16378,9 +16387,9 @@
       <c r="C17" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D17" s="148"/>
+      <c r="D17" s="149"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="149"/>
+      <c r="F17" s="147"/>
       <c r="G17" s="49">
         <v>8</v>
       </c>
@@ -16388,7 +16397,7 @@
         <v>489</v>
       </c>
       <c r="I17" s="150"/>
-      <c r="K17" s="149"/>
+      <c r="K17" s="147"/>
       <c r="L17" s="49">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>33</v>
@@ -16396,19 +16405,19 @@
       <c r="M17" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N17" s="149"/>
+      <c r="N17" s="147"/>
       <c r="O17" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="149"/>
+      <c r="P17" s="147"/>
       <c r="Q17" s="49">
         <v>8</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S17" s="147"/>
+      <c r="S17" s="148"/>
       <c r="U17" s="73" t="s">
         <v>475</v>
       </c>
@@ -16417,7 +16426,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="149"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="49">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -16425,9 +16434,9 @@
       <c r="C18" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="148"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="149"/>
+      <c r="F18" s="147"/>
       <c r="G18" s="49">
         <v>9</v>
       </c>
@@ -16435,7 +16444,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="150"/>
-      <c r="K18" s="149"/>
+      <c r="K18" s="147"/>
       <c r="L18" s="49">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -16443,19 +16452,19 @@
       <c r="M18" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="N18" s="149"/>
+      <c r="N18" s="147"/>
       <c r="O18" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="149"/>
+      <c r="P18" s="147"/>
       <c r="Q18" s="49">
         <v>9</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="S18" s="147"/>
+      <c r="S18" s="148"/>
       <c r="U18" s="73" t="s">
         <v>475</v>
       </c>
@@ -16464,7 +16473,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="149"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="49">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -16472,9 +16481,9 @@
       <c r="C19" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="148"/>
+      <c r="D19" s="149"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="149"/>
+      <c r="F19" s="147"/>
       <c r="G19" s="49">
         <v>10</v>
       </c>
@@ -16482,7 +16491,7 @@
         <v>491</v>
       </c>
       <c r="I19" s="150"/>
-      <c r="K19" s="149"/>
+      <c r="K19" s="147"/>
       <c r="L19" s="49">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -16490,19 +16499,19 @@
       <c r="M19" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N19" s="149"/>
+      <c r="N19" s="147"/>
       <c r="O19" s="76">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P19" s="149"/>
+      <c r="P19" s="147"/>
       <c r="Q19" s="49">
         <v>10</v>
       </c>
       <c r="R19" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="S19" s="147"/>
+      <c r="S19" s="148"/>
       <c r="U19" s="73" t="s">
         <v>475</v>
       </c>
@@ -16511,7 +16520,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="149"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="49">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>41</v>
@@ -16519,9 +16528,9 @@
       <c r="C20" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="148"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="149"/>
+      <c r="F20" s="147"/>
       <c r="G20" s="49">
         <v>11</v>
       </c>
@@ -16529,7 +16538,7 @@
         <v>492</v>
       </c>
       <c r="I20" s="150"/>
-      <c r="K20" s="149"/>
+      <c r="K20" s="147"/>
       <c r="L20" s="49">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>43</v>
@@ -16537,19 +16546,19 @@
       <c r="M20" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="N20" s="149"/>
+      <c r="N20" s="147"/>
       <c r="O20" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P20" s="149"/>
+      <c r="P20" s="147"/>
       <c r="Q20" s="49">
         <v>11</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="S20" s="147"/>
+      <c r="S20" s="148"/>
       <c r="U20" s="73" t="s">
         <v>475</v>
       </c>
@@ -16558,7 +16567,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="149"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="49">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -16566,9 +16575,9 @@
       <c r="C21" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="148"/>
+      <c r="D21" s="149"/>
       <c r="E21" s="76"/>
-      <c r="F21" s="149"/>
+      <c r="F21" s="147"/>
       <c r="G21" s="49">
         <v>12</v>
       </c>
@@ -16576,7 +16585,7 @@
         <v>493</v>
       </c>
       <c r="I21" s="150"/>
-      <c r="K21" s="149"/>
+      <c r="K21" s="147"/>
       <c r="L21" s="77">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -16584,19 +16593,19 @@
       <c r="M21" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N21" s="149"/>
+      <c r="N21" s="147"/>
       <c r="O21" s="76">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P21" s="149"/>
+      <c r="P21" s="147"/>
       <c r="Q21" s="49">
         <v>12</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="S21" s="147"/>
+      <c r="S21" s="148"/>
       <c r="U21" s="73" t="s">
         <v>475</v>
       </c>
@@ -16605,7 +16614,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="149"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="49">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -16613,9 +16622,9 @@
       <c r="C22" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="148"/>
+      <c r="D22" s="149"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="149"/>
+      <c r="F22" s="147"/>
       <c r="G22" s="49">
         <v>13</v>
       </c>
@@ -16623,7 +16632,7 @@
         <v>494</v>
       </c>
       <c r="I22" s="150"/>
-      <c r="K22" s="149"/>
+      <c r="K22" s="147"/>
       <c r="L22" s="49">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -16631,19 +16640,19 @@
       <c r="M22" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N22" s="149"/>
+      <c r="N22" s="147"/>
       <c r="O22" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P22" s="149"/>
+      <c r="P22" s="147"/>
       <c r="Q22" s="49">
         <v>13</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="S22" s="147"/>
+      <c r="S22" s="148"/>
       <c r="U22" s="73" t="s">
         <v>475</v>
       </c>
@@ -16652,7 +16661,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="149"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="49">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -16660,9 +16669,9 @@
       <c r="C23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="148"/>
+      <c r="D23" s="149"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="149"/>
+      <c r="F23" s="147"/>
       <c r="G23" s="49">
         <v>14</v>
       </c>
@@ -16670,7 +16679,7 @@
         <v>495</v>
       </c>
       <c r="I23" s="150"/>
-      <c r="K23" s="149"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="49">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -16678,19 +16687,19 @@
       <c r="M23" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="N23" s="149"/>
+      <c r="N23" s="147"/>
       <c r="O23" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P23" s="149"/>
+      <c r="P23" s="147"/>
       <c r="Q23" s="49">
         <v>14</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="S23" s="147"/>
+      <c r="S23" s="148"/>
       <c r="U23" s="73" t="s">
         <v>478</v>
       </c>
@@ -16699,7 +16708,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="149"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="49">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -16707,9 +16716,9 @@
       <c r="C24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="148"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="149"/>
+      <c r="F24" s="147"/>
       <c r="G24" s="49">
         <v>15</v>
       </c>
@@ -16717,7 +16726,7 @@
         <v>496</v>
       </c>
       <c r="I24" s="150"/>
-      <c r="K24" s="149"/>
+      <c r="K24" s="147"/>
       <c r="L24" s="49">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -16725,19 +16734,19 @@
       <c r="M24" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N24" s="149"/>
+      <c r="N24" s="147"/>
       <c r="O24" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P24" s="149"/>
+      <c r="P24" s="147"/>
       <c r="Q24" s="49">
         <v>15</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="S24" s="147"/>
+      <c r="S24" s="148"/>
       <c r="U24" s="73" t="s">
         <v>478</v>
       </c>
@@ -16746,7 +16755,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="149"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="49">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -16754,9 +16763,9 @@
       <c r="C25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="148"/>
+      <c r="D25" s="149"/>
       <c r="E25" s="76"/>
-      <c r="F25" s="149"/>
+      <c r="F25" s="147"/>
       <c r="G25" s="49">
         <v>16</v>
       </c>
@@ -16764,7 +16773,7 @@
         <v>497</v>
       </c>
       <c r="I25" s="150"/>
-      <c r="K25" s="149"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="49">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -16772,19 +16781,19 @@
       <c r="M25" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="N25" s="149"/>
+      <c r="N25" s="147"/>
       <c r="O25" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="149"/>
+      <c r="P25" s="147"/>
       <c r="Q25" s="49">
         <v>16</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="S25" s="147"/>
+      <c r="S25" s="148"/>
       <c r="U25" s="73" t="s">
         <v>478</v>
       </c>
@@ -16793,7 +16802,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="149"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="49">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -16801,9 +16810,9 @@
       <c r="C26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="148"/>
+      <c r="D26" s="149"/>
       <c r="E26" s="76"/>
-      <c r="F26" s="149"/>
+      <c r="F26" s="147"/>
       <c r="G26" s="49">
         <v>17</v>
       </c>
@@ -16811,7 +16820,7 @@
         <v>498</v>
       </c>
       <c r="I26" s="150"/>
-      <c r="K26" s="149"/>
+      <c r="K26" s="147"/>
       <c r="L26" s="49">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -16819,19 +16828,19 @@
       <c r="M26" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N26" s="149"/>
+      <c r="N26" s="147"/>
       <c r="O26" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P26" s="149"/>
+      <c r="P26" s="147"/>
       <c r="Q26" s="49">
         <v>17</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="S26" s="147"/>
+      <c r="S26" s="148"/>
       <c r="U26" s="73" t="s">
         <v>475</v>
       </c>
@@ -16840,7 +16849,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="149"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="49">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -16848,9 +16857,9 @@
       <c r="C27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="148"/>
+      <c r="D27" s="149"/>
       <c r="E27" s="76"/>
-      <c r="F27" s="149"/>
+      <c r="F27" s="147"/>
       <c r="G27" s="49">
         <v>18</v>
       </c>
@@ -16858,7 +16867,7 @@
         <v>499</v>
       </c>
       <c r="I27" s="150"/>
-      <c r="K27" s="149"/>
+      <c r="K27" s="147"/>
       <c r="L27" s="49">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -16866,19 +16875,19 @@
       <c r="M27" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="N27" s="149"/>
+      <c r="N27" s="147"/>
       <c r="O27" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="149"/>
+      <c r="P27" s="147"/>
       <c r="Q27" s="49">
         <v>18</v>
       </c>
       <c r="R27" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="S27" s="147"/>
+      <c r="S27" s="148"/>
       <c r="U27" s="73" t="s">
         <v>475</v>
       </c>
@@ -16888,7 +16897,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="149"/>
+      <c r="A28" s="147"/>
       <c r="B28" s="49">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -16896,9 +16905,9 @@
       <c r="C28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="148"/>
+      <c r="D28" s="149"/>
       <c r="E28" s="76"/>
-      <c r="F28" s="149"/>
+      <c r="F28" s="147"/>
       <c r="G28" s="49">
         <v>19</v>
       </c>
@@ -16906,7 +16915,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="150"/>
-      <c r="K28" s="149"/>
+      <c r="K28" s="147"/>
       <c r="L28" s="79">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>75</v>
@@ -16914,19 +16923,19 @@
       <c r="M28" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="N28" s="149"/>
+      <c r="N28" s="147"/>
       <c r="O28" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P28" s="149"/>
+      <c r="P28" s="147"/>
       <c r="Q28" s="49">
         <v>19</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="S28" s="147"/>
+      <c r="S28" s="148"/>
       <c r="U28" s="73" t="s">
         <v>475</v>
       </c>
@@ -16936,7 +16945,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="149"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="49">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>44</v>
@@ -16944,9 +16953,9 @@
       <c r="C29" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="148"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="76"/>
-      <c r="F29" s="149"/>
+      <c r="F29" s="147"/>
       <c r="G29" s="49">
         <v>20</v>
       </c>
@@ -16954,7 +16963,7 @@
         <v>501</v>
       </c>
       <c r="I29" s="150"/>
-      <c r="K29" s="149"/>
+      <c r="K29" s="147"/>
       <c r="L29" s="49">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>77</v>
@@ -16962,19 +16971,19 @@
       <c r="M29" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="N29" s="149"/>
+      <c r="N29" s="147"/>
       <c r="O29" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P29" s="149"/>
+      <c r="P29" s="147"/>
       <c r="Q29" s="49">
         <v>20</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="S29" s="147"/>
+      <c r="S29" s="148"/>
       <c r="U29" s="73" t="s">
         <v>475</v>
       </c>
@@ -16983,7 +16992,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
+      <c r="A30" s="147"/>
       <c r="B30" s="49">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>45</v>
@@ -16991,9 +17000,9 @@
       <c r="C30" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="148"/>
+      <c r="D30" s="149"/>
       <c r="E30" s="76"/>
-      <c r="F30" s="149"/>
+      <c r="F30" s="147"/>
       <c r="G30" s="49">
         <v>21</v>
       </c>
@@ -17001,7 +17010,7 @@
         <v>502</v>
       </c>
       <c r="I30" s="150"/>
-      <c r="K30" s="149"/>
+      <c r="K30" s="147"/>
       <c r="L30" s="49">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>78</v>
@@ -17009,25 +17018,25 @@
       <c r="M30" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="N30" s="149"/>
+      <c r="N30" s="147"/>
       <c r="O30" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P30" s="149"/>
+      <c r="P30" s="147"/>
       <c r="Q30" s="49">
         <v>21</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="S30" s="147"/>
+      <c r="S30" s="148"/>
       <c r="U30" s="49" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
+      <c r="A31" s="147"/>
       <c r="B31" s="49">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -17035,9 +17044,9 @@
       <c r="C31" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D31" s="148"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="76"/>
-      <c r="F31" s="149"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="49">
         <v>22</v>
       </c>
@@ -17045,7 +17054,7 @@
         <v>503</v>
       </c>
       <c r="I31" s="150"/>
-      <c r="K31" s="149"/>
+      <c r="K31" s="147"/>
       <c r="L31" s="49">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -17053,32 +17062,32 @@
       <c r="M31" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="N31" s="149"/>
+      <c r="N31" s="147"/>
       <c r="O31" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P31" s="149"/>
+      <c r="P31" s="147"/>
       <c r="Q31" s="49">
         <v>22</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S31" s="147"/>
+      <c r="S31" s="148"/>
       <c r="U31" s="49" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
+      <c r="A32" s="147"/>
       <c r="B32" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="148"/>
+      <c r="D32" s="149"/>
       <c r="E32" s="76"/>
-      <c r="F32" s="149"/>
+      <c r="F32" s="147"/>
       <c r="G32" s="49">
         <v>23</v>
       </c>
@@ -17086,53 +17095,53 @@
         <v>442</v>
       </c>
       <c r="I32" s="150"/>
-      <c r="K32" s="149"/>
+      <c r="K32" s="147"/>
       <c r="L32" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N32" s="149"/>
+      <c r="N32" s="147"/>
       <c r="O32" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="149"/>
+      <c r="P32" s="147"/>
       <c r="Q32" s="49">
         <v>23</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S32" s="147"/>
+      <c r="S32" s="148"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="149"/>
-      <c r="D33" s="148"/>
+      <c r="A33" s="147"/>
+      <c r="D33" s="149"/>
       <c r="E33" s="76"/>
-      <c r="F33" s="149"/>
+      <c r="F33" s="147"/>
       <c r="G33" s="49">
         <v>24</v>
       </c>
       <c r="I33" s="150"/>
-      <c r="K33" s="149"/>
-      <c r="N33" s="149"/>
+      <c r="K33" s="147"/>
+      <c r="N33" s="147"/>
       <c r="O33" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="149"/>
+      <c r="P33" s="147"/>
       <c r="Q33" s="49">
         <v>24</v>
       </c>
-      <c r="S33" s="147"/>
+      <c r="S33" s="148"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="149"/>
+      <c r="A34" s="147"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="148"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="76"/>
       <c r="F34" s="47"/>
-      <c r="K34" s="149"/>
-      <c r="N34" s="149"/>
+      <c r="K34" s="147"/>
+      <c r="N34" s="147"/>
       <c r="O34" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17140,13 +17149,13 @@
       <c r="P34" s="47"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="149"/>
+      <c r="A35" s="147"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="148"/>
+      <c r="D35" s="149"/>
       <c r="E35" s="76"/>
       <c r="F35" s="47"/>
-      <c r="K35" s="149"/>
-      <c r="N35" s="149"/>
+      <c r="K35" s="147"/>
+      <c r="N35" s="147"/>
       <c r="O35" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17154,7 +17163,7 @@
       <c r="P35" s="47"/>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="149"/>
+      <c r="A36" s="147"/>
       <c r="B36" s="49">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -17162,9 +17171,9 @@
       <c r="C36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="148"/>
+      <c r="D36" s="149"/>
       <c r="E36" s="76"/>
-      <c r="F36" s="149" t="s">
+      <c r="F36" s="147" t="s">
         <v>385</v>
       </c>
       <c r="G36" s="49">
@@ -17176,7 +17185,7 @@
       <c r="I36" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="K36" s="149"/>
+      <c r="K36" s="147"/>
       <c r="L36" s="49">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -17184,12 +17193,12 @@
       <c r="M36" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="N36" s="149"/>
+      <c r="N36" s="147"/>
       <c r="O36" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P36" s="149" t="s">
+      <c r="P36" s="147" t="s">
         <v>382</v>
       </c>
       <c r="Q36" s="49">
@@ -17198,7 +17207,7 @@
       <c r="R36" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="S36" s="147" t="s">
+      <c r="S36" s="148" t="s">
         <v>440</v>
       </c>
       <c r="U36" s="73" t="s">
@@ -17209,7 +17218,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="149"/>
+      <c r="A37" s="147"/>
       <c r="B37" s="49">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -17217,9 +17226,9 @@
       <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="148"/>
+      <c r="D37" s="149"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="149"/>
+      <c r="F37" s="147"/>
       <c r="G37" s="49">
         <v>2</v>
       </c>
@@ -17227,7 +17236,7 @@
         <v>505</v>
       </c>
       <c r="I37" s="150"/>
-      <c r="K37" s="149"/>
+      <c r="K37" s="147"/>
       <c r="L37" s="49">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -17235,19 +17244,19 @@
       <c r="M37" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="N37" s="149"/>
+      <c r="N37" s="147"/>
       <c r="O37" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P37" s="149"/>
+      <c r="P37" s="147"/>
       <c r="Q37" s="49">
         <v>2</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="S37" s="147"/>
+      <c r="S37" s="148"/>
       <c r="U37" s="73" t="s">
         <v>474</v>
       </c>
@@ -17256,7 +17265,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="149"/>
+      <c r="A38" s="147"/>
       <c r="B38" s="49">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>3</v>
@@ -17264,9 +17273,9 @@
       <c r="C38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="148"/>
+      <c r="D38" s="149"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="149"/>
+      <c r="F38" s="147"/>
       <c r="G38" s="49">
         <v>3</v>
       </c>
@@ -17274,7 +17283,7 @@
         <v>506</v>
       </c>
       <c r="I38" s="150"/>
-      <c r="K38" s="149"/>
+      <c r="K38" s="147"/>
       <c r="L38" s="81">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>3</v>
@@ -17282,19 +17291,19 @@
       <c r="M38" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="N38" s="149"/>
+      <c r="N38" s="147"/>
       <c r="O38" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P38" s="149"/>
+      <c r="P38" s="147"/>
       <c r="Q38" s="49">
         <v>3</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="S38" s="147"/>
+      <c r="S38" s="148"/>
       <c r="U38" s="73" t="s">
         <v>474</v>
       </c>
@@ -17303,7 +17312,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="149"/>
+      <c r="A39" s="147"/>
       <c r="B39" s="49">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>4</v>
@@ -17311,9 +17320,9 @@
       <c r="C39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="148"/>
+      <c r="D39" s="149"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="149"/>
+      <c r="F39" s="147"/>
       <c r="G39" s="49">
         <v>4</v>
       </c>
@@ -17321,7 +17330,7 @@
         <v>507</v>
       </c>
       <c r="I39" s="150"/>
-      <c r="K39" s="149"/>
+      <c r="K39" s="147"/>
       <c r="L39" s="81">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>4</v>
@@ -17329,19 +17338,19 @@
       <c r="M39" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="149"/>
+      <c r="N39" s="147"/>
       <c r="O39" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P39" s="149"/>
+      <c r="P39" s="147"/>
       <c r="Q39" s="49">
         <v>4</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="S39" s="147"/>
+      <c r="S39" s="148"/>
       <c r="U39" s="73" t="s">
         <v>474</v>
       </c>
@@ -17350,17 +17359,17 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="149"/>
+      <c r="A40" s="147"/>
       <c r="B40" s="49">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="148"/>
+        <v>287</v>
+      </c>
+      <c r="D40" s="149"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="149"/>
+      <c r="F40" s="147"/>
       <c r="G40" s="49">
         <v>5</v>
       </c>
@@ -17368,7 +17377,7 @@
         <v>508</v>
       </c>
       <c r="I40" s="150"/>
-      <c r="K40" s="149"/>
+      <c r="K40" s="147"/>
       <c r="L40" s="81">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -17376,19 +17385,19 @@
       <c r="M40" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N40" s="149"/>
+      <c r="N40" s="147"/>
       <c r="O40" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P40" s="149"/>
+      <c r="P40" s="147"/>
       <c r="Q40" s="49">
         <v>5</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="S40" s="147"/>
+      <c r="S40" s="148"/>
       <c r="U40" s="73" t="s">
         <v>475</v>
       </c>
@@ -17397,7 +17406,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="149"/>
+      <c r="A41" s="147"/>
       <c r="B41" s="49">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>65</v>
@@ -17405,9 +17414,9 @@
       <c r="C41" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="148"/>
+      <c r="D41" s="149"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="149"/>
+      <c r="F41" s="147"/>
       <c r="G41" s="49">
         <v>6</v>
       </c>
@@ -17415,7 +17424,7 @@
         <v>509</v>
       </c>
       <c r="I41" s="150"/>
-      <c r="K41" s="149"/>
+      <c r="K41" s="147"/>
       <c r="L41" s="81">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>35</v>
@@ -17423,19 +17432,19 @@
       <c r="M41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="N41" s="149"/>
+      <c r="N41" s="147"/>
       <c r="O41" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P41" s="149"/>
+      <c r="P41" s="147"/>
       <c r="Q41" s="49">
         <v>6</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="S41" s="147"/>
+      <c r="S41" s="148"/>
       <c r="U41" s="73" t="s">
         <v>475</v>
       </c>
@@ -17444,7 +17453,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="149"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="49">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>100</v>
@@ -17452,9 +17461,9 @@
       <c r="C42" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D42" s="148"/>
+      <c r="D42" s="149"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="149"/>
+      <c r="F42" s="147"/>
       <c r="G42" s="49">
         <v>7</v>
       </c>
@@ -17462,7 +17471,7 @@
         <v>510</v>
       </c>
       <c r="I42" s="150"/>
-      <c r="K42" s="149"/>
+      <c r="K42" s="147"/>
       <c r="L42" s="49">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>36</v>
@@ -17470,19 +17479,19 @@
       <c r="M42" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N42" s="149"/>
+      <c r="N42" s="147"/>
       <c r="O42" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P42" s="149"/>
+      <c r="P42" s="147"/>
       <c r="Q42" s="49">
         <v>7</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="S42" s="147"/>
+      <c r="S42" s="148"/>
       <c r="U42" s="73" t="s">
         <v>475</v>
       </c>
@@ -17491,7 +17500,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="149"/>
+      <c r="A43" s="147"/>
       <c r="B43" s="49">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>63</v>
@@ -17499,9 +17508,9 @@
       <c r="C43" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="148"/>
+      <c r="D43" s="149"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="149"/>
+      <c r="F43" s="147"/>
       <c r="G43" s="49">
         <v>8</v>
       </c>
@@ -17509,7 +17518,7 @@
         <v>511</v>
       </c>
       <c r="I43" s="150"/>
-      <c r="K43" s="149"/>
+      <c r="K43" s="147"/>
       <c r="L43" s="49">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>57</v>
@@ -17517,19 +17526,19 @@
       <c r="M43" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="149"/>
+      <c r="N43" s="147"/>
       <c r="O43" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P43" s="149"/>
+      <c r="P43" s="147"/>
       <c r="Q43" s="49">
         <v>8</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="S43" s="147"/>
+      <c r="S43" s="148"/>
       <c r="U43" s="73" t="s">
         <v>475</v>
       </c>
@@ -17538,7 +17547,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="149"/>
+      <c r="A44" s="147"/>
       <c r="B44" s="49">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>25</v>
@@ -17546,9 +17555,9 @@
       <c r="C44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="148"/>
+      <c r="D44" s="149"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="149"/>
+      <c r="F44" s="147"/>
       <c r="G44" s="49">
         <v>9</v>
       </c>
@@ -17556,7 +17565,7 @@
         <v>512</v>
       </c>
       <c r="I44" s="150"/>
-      <c r="K44" s="149"/>
+      <c r="K44" s="147"/>
       <c r="L44" s="49">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -17564,19 +17573,19 @@
       <c r="M44" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="149"/>
+      <c r="N44" s="147"/>
       <c r="O44" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P44" s="149"/>
+      <c r="P44" s="147"/>
       <c r="Q44" s="49">
         <v>9</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="S44" s="147"/>
+      <c r="S44" s="148"/>
       <c r="U44" s="73" t="s">
         <v>475</v>
       </c>
@@ -17585,7 +17594,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="149"/>
+      <c r="A45" s="147"/>
       <c r="B45" s="49">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>26</v>
@@ -17593,9 +17602,9 @@
       <c r="C45" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="148"/>
+      <c r="D45" s="149"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="149"/>
+      <c r="F45" s="147"/>
       <c r="G45" s="49">
         <v>10</v>
       </c>
@@ -17603,7 +17612,7 @@
         <v>513</v>
       </c>
       <c r="I45" s="150"/>
-      <c r="K45" s="149"/>
+      <c r="K45" s="147"/>
       <c r="L45" s="49">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -17611,19 +17620,19 @@
       <c r="M45" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N45" s="149"/>
+      <c r="N45" s="147"/>
       <c r="O45" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P45" s="149"/>
+      <c r="P45" s="147"/>
       <c r="Q45" s="49">
         <v>10</v>
       </c>
       <c r="R45" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="S45" s="147"/>
+      <c r="S45" s="148"/>
       <c r="U45" s="73" t="s">
         <v>478</v>
       </c>
@@ -17632,7 +17641,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="149"/>
+      <c r="A46" s="147"/>
       <c r="B46" s="49">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>27</v>
@@ -17640,9 +17649,9 @@
       <c r="C46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="148"/>
+      <c r="D46" s="149"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="149"/>
+      <c r="F46" s="147"/>
       <c r="G46" s="49">
         <v>11</v>
       </c>
@@ -17650,7 +17659,7 @@
         <v>514</v>
       </c>
       <c r="I46" s="150"/>
-      <c r="K46" s="149"/>
+      <c r="K46" s="147"/>
       <c r="L46" s="49">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -17658,19 +17667,19 @@
       <c r="M46" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="N46" s="149"/>
+      <c r="N46" s="147"/>
       <c r="O46" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P46" s="149"/>
+      <c r="P46" s="147"/>
       <c r="Q46" s="49">
         <v>11</v>
       </c>
       <c r="R46" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="S46" s="147"/>
+      <c r="S46" s="148"/>
       <c r="U46" s="73" t="s">
         <v>478</v>
       </c>
@@ -17679,7 +17688,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="149"/>
+      <c r="A47" s="147"/>
       <c r="B47" s="49">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>28</v>
@@ -17687,9 +17696,9 @@
       <c r="C47" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="148"/>
+      <c r="D47" s="149"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="149"/>
+      <c r="F47" s="147"/>
       <c r="G47" s="49">
         <v>12</v>
       </c>
@@ -17697,7 +17706,7 @@
         <v>515</v>
       </c>
       <c r="I47" s="150"/>
-      <c r="K47" s="149"/>
+      <c r="K47" s="147"/>
       <c r="L47" s="49">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>61</v>
@@ -17705,19 +17714,19 @@
       <c r="M47" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="N47" s="149"/>
+      <c r="N47" s="147"/>
       <c r="O47" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P47" s="149"/>
+      <c r="P47" s="147"/>
       <c r="Q47" s="49">
         <v>12</v>
       </c>
       <c r="R47" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="S47" s="147"/>
+      <c r="S47" s="148"/>
       <c r="U47" s="73" t="s">
         <v>475</v>
       </c>
@@ -17726,7 +17735,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="149"/>
+      <c r="A48" s="147"/>
       <c r="B48" s="49">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>29</v>
@@ -17734,9 +17743,9 @@
       <c r="C48" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="148"/>
+      <c r="D48" s="149"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="149"/>
+      <c r="F48" s="147"/>
       <c r="G48" s="49">
         <v>13</v>
       </c>
@@ -17744,7 +17753,7 @@
         <v>516</v>
       </c>
       <c r="I48" s="150"/>
-      <c r="K48" s="149"/>
+      <c r="K48" s="147"/>
       <c r="L48" s="49">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>62</v>
@@ -17752,19 +17761,19 @@
       <c r="M48" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="N48" s="149"/>
+      <c r="N48" s="147"/>
       <c r="O48" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P48" s="149"/>
+      <c r="P48" s="147"/>
       <c r="Q48" s="49">
         <v>13</v>
       </c>
       <c r="R48" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="S48" s="147"/>
+      <c r="S48" s="148"/>
       <c r="U48" s="73" t="s">
         <v>475</v>
       </c>
@@ -17773,7 +17782,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="149"/>
+      <c r="A49" s="147"/>
       <c r="B49" s="49">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>30</v>
@@ -17781,9 +17790,9 @@
       <c r="C49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="148"/>
+      <c r="D49" s="149"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="149"/>
+      <c r="F49" s="147"/>
       <c r="G49" s="49">
         <v>14</v>
       </c>
@@ -17791,7 +17800,7 @@
         <v>517</v>
       </c>
       <c r="I49" s="150"/>
-      <c r="K49" s="149"/>
+      <c r="K49" s="147"/>
       <c r="L49" s="49">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>63</v>
@@ -17799,19 +17808,19 @@
       <c r="M49" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="N49" s="149"/>
+      <c r="N49" s="147"/>
       <c r="O49" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P49" s="149"/>
+      <c r="P49" s="147"/>
       <c r="Q49" s="49">
         <v>14</v>
       </c>
       <c r="R49" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="S49" s="147"/>
+      <c r="S49" s="148"/>
       <c r="U49" s="73" t="s">
         <v>475</v>
       </c>
@@ -17820,7 +17829,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="149"/>
+      <c r="A50" s="147"/>
       <c r="B50" s="49">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>31</v>
@@ -17828,9 +17837,9 @@
       <c r="C50" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="148"/>
+      <c r="D50" s="149"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="149"/>
+      <c r="F50" s="147"/>
       <c r="G50" s="49">
         <v>15</v>
       </c>
@@ -17838,7 +17847,7 @@
         <v>518</v>
       </c>
       <c r="I50" s="150"/>
-      <c r="K50" s="149"/>
+      <c r="K50" s="147"/>
       <c r="L50" s="49">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>64</v>
@@ -17846,19 +17855,19 @@
       <c r="M50" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N50" s="149"/>
+      <c r="N50" s="147"/>
       <c r="O50" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P50" s="149"/>
+      <c r="P50" s="147"/>
       <c r="Q50" s="49">
         <v>15</v>
       </c>
       <c r="R50" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="S50" s="147"/>
+      <c r="S50" s="148"/>
       <c r="U50" s="73" t="s">
         <v>475</v>
       </c>
@@ -17867,7 +17876,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="149"/>
+      <c r="A51" s="147"/>
       <c r="B51" s="49">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>18</v>
@@ -17875,9 +17884,9 @@
       <c r="C51" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D51" s="148"/>
+      <c r="D51" s="149"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="149"/>
+      <c r="F51" s="147"/>
       <c r="G51" s="49">
         <v>16</v>
       </c>
@@ -17885,7 +17894,7 @@
         <v>519</v>
       </c>
       <c r="I51" s="150"/>
-      <c r="K51" s="149"/>
+      <c r="K51" s="147"/>
       <c r="L51" s="49">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>65</v>
@@ -17893,32 +17902,32 @@
       <c r="M51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="N51" s="149"/>
+      <c r="N51" s="147"/>
       <c r="O51" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P51" s="149"/>
+      <c r="P51" s="147"/>
       <c r="Q51" s="49">
         <v>16</v>
       </c>
       <c r="R51" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S51" s="147"/>
+      <c r="S51" s="148"/>
       <c r="U51" s="49" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="149"/>
+      <c r="A52" s="147"/>
       <c r="B52" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="148"/>
+      <c r="D52" s="149"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="149"/>
+      <c r="F52" s="147"/>
       <c r="G52" s="49">
         <v>17</v>
       </c>
@@ -17926,69 +17935,69 @@
         <v>442</v>
       </c>
       <c r="I52" s="150"/>
-      <c r="K52" s="149"/>
+      <c r="K52" s="147"/>
       <c r="L52" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N52" s="149"/>
+      <c r="N52" s="147"/>
       <c r="O52" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P52" s="149"/>
+      <c r="P52" s="147"/>
       <c r="Q52" s="49">
         <v>17</v>
       </c>
       <c r="R52" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S52" s="147"/>
+      <c r="S52" s="148"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="149"/>
-      <c r="D53" s="148"/>
+      <c r="A53" s="147"/>
+      <c r="D53" s="149"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="149"/>
+      <c r="F53" s="147"/>
       <c r="G53" s="49">
         <v>18</v>
       </c>
       <c r="I53" s="150"/>
-      <c r="K53" s="149"/>
-      <c r="N53" s="149"/>
+      <c r="K53" s="147"/>
+      <c r="N53" s="147"/>
       <c r="O53" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="149"/>
+      <c r="P53" s="147"/>
       <c r="Q53" s="49">
         <v>18</v>
       </c>
-      <c r="S53" s="147"/>
+      <c r="S53" s="148"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="149"/>
+      <c r="A54" s="147"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="148"/>
+      <c r="D54" s="149"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="149"/>
+      <c r="F54" s="147"/>
       <c r="G54" s="49">
         <v>19</v>
       </c>
       <c r="I54" s="150"/>
-      <c r="K54" s="149"/>
-      <c r="N54" s="149"/>
+      <c r="K54" s="147"/>
+      <c r="N54" s="147"/>
       <c r="O54" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P54" s="149"/>
+      <c r="P54" s="147"/>
       <c r="Q54" s="49">
         <v>19</v>
       </c>
-      <c r="S54" s="147"/>
+      <c r="S54" s="148"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="149"/>
+      <c r="A55" s="147"/>
       <c r="B55" s="49">
         <f>VLOOKUP(C55,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>99</v>
@@ -17996,9 +18005,9 @@
       <c r="C55" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="148"/>
+      <c r="D55" s="149"/>
       <c r="E55" s="76"/>
-      <c r="F55" s="149"/>
+      <c r="F55" s="147"/>
       <c r="G55" s="49">
         <v>20</v>
       </c>
@@ -18006,7 +18015,7 @@
         <v>520</v>
       </c>
       <c r="I55" s="150"/>
-      <c r="K55" s="149"/>
+      <c r="K55" s="147"/>
       <c r="L55" s="49">
         <f>VLOOKUP(M55,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>25</v>
@@ -18014,19 +18023,19 @@
       <c r="M55" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="N55" s="149"/>
+      <c r="N55" s="147"/>
       <c r="O55" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P55" s="149"/>
+      <c r="P55" s="147"/>
       <c r="Q55" s="49">
         <v>20</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="S55" s="147"/>
+      <c r="S55" s="148"/>
       <c r="U55" s="73" t="s">
         <v>475</v>
       </c>
@@ -18035,13 +18044,13 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="149"/>
+      <c r="A56" s="147"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="148"/>
+      <c r="D56" s="149"/>
       <c r="E56" s="76"/>
       <c r="F56" s="47"/>
-      <c r="K56" s="149"/>
-      <c r="N56" s="149"/>
+      <c r="K56" s="147"/>
+      <c r="N56" s="147"/>
       <c r="O56" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18049,13 +18058,13 @@
       <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="149"/>
+      <c r="A57" s="147"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="148"/>
+      <c r="D57" s="149"/>
       <c r="E57" s="76"/>
       <c r="F57" s="47"/>
-      <c r="K57" s="149"/>
-      <c r="N57" s="149"/>
+      <c r="K57" s="147"/>
+      <c r="N57" s="147"/>
       <c r="O57" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18063,7 +18072,7 @@
       <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="149"/>
+      <c r="A58" s="147"/>
       <c r="B58" s="49">
         <f>VLOOKUP(C58,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>5</v>
@@ -18071,9 +18080,9 @@
       <c r="C58" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="148"/>
+      <c r="D58" s="149"/>
       <c r="E58" s="76"/>
-      <c r="F58" s="149" t="s">
+      <c r="F58" s="147" t="s">
         <v>386</v>
       </c>
       <c r="G58" s="49">
@@ -18085,7 +18094,7 @@
       <c r="I58" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="K58" s="149"/>
+      <c r="K58" s="147"/>
       <c r="L58" s="49">
         <f>VLOOKUP(M58,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>5</v>
@@ -18093,12 +18102,12 @@
       <c r="M58" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="N58" s="149"/>
+      <c r="N58" s="147"/>
       <c r="O58" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P58" s="149" t="s">
+      <c r="P58" s="147" t="s">
         <v>383</v>
       </c>
       <c r="Q58" s="49">
@@ -18107,7 +18116,7 @@
       <c r="R58" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="S58" s="147" t="s">
+      <c r="S58" s="148" t="s">
         <v>439</v>
       </c>
       <c r="U58" s="73" t="s">
@@ -18118,7 +18127,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="149"/>
+      <c r="A59" s="147"/>
       <c r="B59" s="49">
         <f>VLOOKUP(C59,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>6</v>
@@ -18126,9 +18135,9 @@
       <c r="C59" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="148"/>
+      <c r="D59" s="149"/>
       <c r="E59" s="76"/>
-      <c r="F59" s="149"/>
+      <c r="F59" s="147"/>
       <c r="G59" s="49">
         <v>2</v>
       </c>
@@ -18136,7 +18145,7 @@
         <v>522</v>
       </c>
       <c r="I59" s="150"/>
-      <c r="K59" s="149"/>
+      <c r="K59" s="147"/>
       <c r="L59" s="49">
         <f>VLOOKUP(M59,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>6</v>
@@ -18144,19 +18153,19 @@
       <c r="M59" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="N59" s="149"/>
+      <c r="N59" s="147"/>
       <c r="O59" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P59" s="149"/>
+      <c r="P59" s="147"/>
       <c r="Q59" s="49">
         <v>2</v>
       </c>
       <c r="R59" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="S59" s="147"/>
+      <c r="S59" s="148"/>
       <c r="U59" s="73" t="s">
         <v>474</v>
       </c>
@@ -18165,7 +18174,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" s="149"/>
+      <c r="A60" s="147"/>
       <c r="B60" s="49">
         <f>VLOOKUP(C60,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>7</v>
@@ -18173,9 +18182,9 @@
       <c r="C60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="148"/>
+      <c r="D60" s="149"/>
       <c r="E60" s="76"/>
-      <c r="F60" s="149"/>
+      <c r="F60" s="147"/>
       <c r="G60" s="49">
         <v>3</v>
       </c>
@@ -18183,7 +18192,7 @@
         <v>523</v>
       </c>
       <c r="I60" s="150"/>
-      <c r="K60" s="149"/>
+      <c r="K60" s="147"/>
       <c r="L60" s="49">
         <f>VLOOKUP(M60,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>7</v>
@@ -18191,19 +18200,19 @@
       <c r="M60" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="N60" s="149"/>
+      <c r="N60" s="147"/>
       <c r="O60" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P60" s="149"/>
+      <c r="P60" s="147"/>
       <c r="Q60" s="49">
         <v>3</v>
       </c>
       <c r="R60" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="S60" s="147"/>
+      <c r="S60" s="148"/>
       <c r="U60" s="73" t="s">
         <v>474</v>
       </c>
@@ -18212,7 +18221,7 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="149"/>
+      <c r="A61" s="147"/>
       <c r="B61" s="49">
         <f>VLOOKUP(C61,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>8</v>
@@ -18220,9 +18229,9 @@
       <c r="C61" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="148"/>
+      <c r="D61" s="149"/>
       <c r="E61" s="76"/>
-      <c r="F61" s="149"/>
+      <c r="F61" s="147"/>
       <c r="G61" s="49">
         <v>4</v>
       </c>
@@ -18230,7 +18239,7 @@
         <v>524</v>
       </c>
       <c r="I61" s="150"/>
-      <c r="K61" s="149"/>
+      <c r="K61" s="147"/>
       <c r="L61" s="49">
         <f>VLOOKUP(M61,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>8</v>
@@ -18238,19 +18247,19 @@
       <c r="M61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="N61" s="149"/>
+      <c r="N61" s="147"/>
       <c r="O61" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P61" s="149"/>
+      <c r="P61" s="147"/>
       <c r="Q61" s="49">
         <v>4</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="S61" s="147"/>
+      <c r="S61" s="148"/>
       <c r="U61" s="73" t="s">
         <v>474</v>
       </c>
@@ -18259,25 +18268,24 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="149"/>
-      <c r="B62" s="49">
+      <c r="A62" s="147"/>
+      <c r="B62" s="163">
         <f>VLOOKUP(C62,'Connectors Pinout'!B:C,2,FALSE)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D62" s="148"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="149"/>
+        <v>291</v>
+      </c>
+      <c r="D62" s="149"/>
+      <c r="F62" s="147"/>
       <c r="G62" s="49">
         <v>5</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I62" s="150"/>
-      <c r="K62" s="149"/>
+      <c r="K62" s="147"/>
       <c r="L62" s="49">
         <f>VLOOKUP(M62,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>37</v>
@@ -18285,19 +18293,19 @@
       <c r="M62" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="N62" s="149"/>
+      <c r="N62" s="147"/>
       <c r="O62" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P62" s="149"/>
+      <c r="P62" s="147"/>
       <c r="Q62" s="49">
         <v>5</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="S62" s="147"/>
+      <c r="S62" s="148"/>
       <c r="U62" s="73" t="s">
         <v>475</v>
       </c>
@@ -18306,25 +18314,25 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="149"/>
-      <c r="B63" s="49">
+      <c r="A63" s="147"/>
+      <c r="B63" s="163">
         <f>VLOOKUP(C63,'Connectors Pinout'!B:C,2,FALSE)</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" s="148"/>
+        <v>202</v>
+      </c>
+      <c r="D63" s="149"/>
       <c r="E63" s="76"/>
-      <c r="F63" s="149"/>
+      <c r="F63" s="147"/>
       <c r="G63" s="49">
         <v>6</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I63" s="150"/>
-      <c r="K63" s="149"/>
+      <c r="K63" s="147"/>
       <c r="L63" s="49">
         <f>VLOOKUP(M63,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>38</v>
@@ -18332,19 +18340,19 @@
       <c r="M63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="N63" s="149"/>
+      <c r="N63" s="147"/>
       <c r="O63" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P63" s="149"/>
+      <c r="P63" s="147"/>
       <c r="Q63" s="49">
         <v>6</v>
       </c>
       <c r="R63" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="S63" s="147"/>
+      <c r="S63" s="148"/>
       <c r="U63" s="73" t="s">
         <v>475</v>
       </c>
@@ -18353,25 +18361,25 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="149"/>
-      <c r="B64" s="49">
+      <c r="A64" s="147"/>
+      <c r="B64" s="163">
         <f>VLOOKUP(C64,'Connectors Pinout'!B:C,2,FALSE)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="148"/>
+        <v>288</v>
+      </c>
+      <c r="D64" s="149"/>
       <c r="E64" s="76"/>
-      <c r="F64" s="149"/>
+      <c r="F64" s="147"/>
       <c r="G64" s="49">
         <v>7</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I64" s="150"/>
-      <c r="K64" s="149"/>
+      <c r="K64" s="147"/>
       <c r="L64" s="49">
         <f>VLOOKUP(M64,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>66</v>
@@ -18379,19 +18387,19 @@
       <c r="M64" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="N64" s="149"/>
+      <c r="N64" s="147"/>
       <c r="O64" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P64" s="149"/>
+      <c r="P64" s="147"/>
       <c r="Q64" s="49">
         <v>7</v>
       </c>
       <c r="R64" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="S64" s="147"/>
+      <c r="S64" s="148"/>
       <c r="U64" s="73" t="s">
         <v>475</v>
       </c>
@@ -18400,25 +18408,25 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="149"/>
-      <c r="B65" s="49">
+      <c r="A65" s="147"/>
+      <c r="B65" s="163">
         <f>VLOOKUP(C65,'Connectors Pinout'!B:C,2,FALSE)</f>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="148"/>
+        <v>201</v>
+      </c>
+      <c r="D65" s="149"/>
       <c r="E65" s="76"/>
-      <c r="F65" s="149"/>
+      <c r="F65" s="147"/>
       <c r="G65" s="49">
         <v>8</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I65" s="150"/>
-      <c r="K65" s="149"/>
+      <c r="K65" s="147"/>
       <c r="L65" s="49">
         <f>VLOOKUP(M65,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>67</v>
@@ -18426,19 +18434,19 @@
       <c r="M65" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="N65" s="149"/>
+      <c r="N65" s="147"/>
       <c r="O65" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P65" s="149"/>
+      <c r="P65" s="147"/>
       <c r="Q65" s="49">
         <v>8</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="S65" s="147"/>
+      <c r="S65" s="148"/>
       <c r="U65" s="73" t="s">
         <v>475</v>
       </c>
@@ -18447,7 +18455,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="149"/>
+      <c r="A66" s="147"/>
       <c r="B66" s="49">
         <f>VLOOKUP(C66,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>32</v>
@@ -18455,9 +18463,9 @@
       <c r="C66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="148"/>
+      <c r="D66" s="149"/>
       <c r="E66" s="76"/>
-      <c r="F66" s="149"/>
+      <c r="F66" s="147"/>
       <c r="G66" s="49">
         <v>9</v>
       </c>
@@ -18465,7 +18473,7 @@
         <v>529</v>
       </c>
       <c r="I66" s="150"/>
-      <c r="K66" s="149"/>
+      <c r="K66" s="147"/>
       <c r="L66" s="49">
         <f>VLOOKUP(M66,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>68</v>
@@ -18473,19 +18481,19 @@
       <c r="M66" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="N66" s="149"/>
+      <c r="N66" s="147"/>
       <c r="O66" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P66" s="149"/>
+      <c r="P66" s="147"/>
       <c r="Q66" s="49">
         <v>9</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="S66" s="147"/>
+      <c r="S66" s="148"/>
       <c r="U66" s="73" t="s">
         <v>478</v>
       </c>
@@ -18494,7 +18502,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="149"/>
+      <c r="A67" s="147"/>
       <c r="B67" s="49">
         <f>VLOOKUP(C67,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>33</v>
@@ -18502,9 +18510,9 @@
       <c r="C67" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="148"/>
+      <c r="D67" s="149"/>
       <c r="E67" s="76"/>
-      <c r="F67" s="149"/>
+      <c r="F67" s="147"/>
       <c r="G67" s="49">
         <v>10</v>
       </c>
@@ -18512,7 +18520,7 @@
         <v>530</v>
       </c>
       <c r="I67" s="150"/>
-      <c r="K67" s="149"/>
+      <c r="K67" s="147"/>
       <c r="L67" s="49">
         <f>VLOOKUP(M67,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>69</v>
@@ -18520,19 +18528,19 @@
       <c r="M67" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="N67" s="149"/>
+      <c r="N67" s="147"/>
       <c r="O67" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P67" s="149"/>
+      <c r="P67" s="147"/>
       <c r="Q67" s="49">
         <v>10</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="S67" s="147"/>
+      <c r="S67" s="148"/>
       <c r="U67" s="73" t="s">
         <v>478</v>
       </c>
@@ -18541,7 +18549,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="149"/>
+      <c r="A68" s="147"/>
       <c r="B68" s="49">
         <f>VLOOKUP(C68,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>34</v>
@@ -18549,9 +18557,9 @@
       <c r="C68" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="148"/>
+      <c r="D68" s="149"/>
       <c r="E68" s="76"/>
-      <c r="F68" s="149"/>
+      <c r="F68" s="147"/>
       <c r="G68" s="49">
         <v>11</v>
       </c>
@@ -18559,7 +18567,7 @@
         <v>531</v>
       </c>
       <c r="I68" s="150"/>
-      <c r="K68" s="149"/>
+      <c r="K68" s="147"/>
       <c r="L68" s="49">
         <f>VLOOKUP(M68,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>70</v>
@@ -18567,19 +18575,19 @@
       <c r="M68" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="N68" s="149"/>
+      <c r="N68" s="147"/>
       <c r="O68" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P68" s="149"/>
+      <c r="P68" s="147"/>
       <c r="Q68" s="49">
         <v>11</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="S68" s="147"/>
+      <c r="S68" s="148"/>
       <c r="U68" s="73" t="s">
         <v>478</v>
       </c>
@@ -18588,7 +18596,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A69" s="149"/>
+      <c r="A69" s="147"/>
       <c r="B69" s="49">
         <f>VLOOKUP(C69,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>35</v>
@@ -18596,9 +18604,9 @@
       <c r="C69" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="148"/>
+      <c r="D69" s="149"/>
       <c r="E69" s="76"/>
-      <c r="F69" s="149"/>
+      <c r="F69" s="147"/>
       <c r="G69" s="49">
         <v>12</v>
       </c>
@@ -18606,7 +18614,7 @@
         <v>532</v>
       </c>
       <c r="I69" s="150"/>
-      <c r="K69" s="149"/>
+      <c r="K69" s="147"/>
       <c r="L69" s="49">
         <f>VLOOKUP(M69,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>71</v>
@@ -18614,19 +18622,19 @@
       <c r="M69" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="N69" s="149"/>
+      <c r="N69" s="147"/>
       <c r="O69" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P69" s="149"/>
+      <c r="P69" s="147"/>
       <c r="Q69" s="49">
         <v>12</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="S69" s="147"/>
+      <c r="S69" s="148"/>
       <c r="U69" s="73" t="s">
         <v>478</v>
       </c>
@@ -18635,7 +18643,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A70" s="149"/>
+      <c r="A70" s="147"/>
       <c r="B70" s="49">
         <f>VLOOKUP(C70,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>36</v>
@@ -18643,9 +18651,9 @@
       <c r="C70" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="148"/>
+      <c r="D70" s="149"/>
       <c r="E70" s="76"/>
-      <c r="F70" s="149"/>
+      <c r="F70" s="147"/>
       <c r="G70" s="49">
         <v>13</v>
       </c>
@@ -18653,7 +18661,7 @@
         <v>533</v>
       </c>
       <c r="I70" s="150"/>
-      <c r="K70" s="149"/>
+      <c r="K70" s="147"/>
       <c r="L70" s="81">
         <f>VLOOKUP(M70,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>72</v>
@@ -18661,19 +18669,19 @@
       <c r="M70" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N70" s="149"/>
+      <c r="N70" s="147"/>
       <c r="O70" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P70" s="149"/>
+      <c r="P70" s="147"/>
       <c r="Q70" s="49">
         <v>13</v>
       </c>
       <c r="R70" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="S70" s="147"/>
+      <c r="S70" s="148"/>
       <c r="U70" s="73" t="s">
         <v>475</v>
       </c>
@@ -18682,7 +18690,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A71" s="149"/>
+      <c r="A71" s="147"/>
       <c r="B71" s="49">
         <f>VLOOKUP(C71,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>37</v>
@@ -18690,9 +18698,9 @@
       <c r="C71" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="148"/>
+      <c r="D71" s="149"/>
       <c r="E71" s="76"/>
-      <c r="F71" s="149"/>
+      <c r="F71" s="147"/>
       <c r="G71" s="49">
         <v>14</v>
       </c>
@@ -18700,7 +18708,7 @@
         <v>534</v>
       </c>
       <c r="I71" s="150"/>
-      <c r="K71" s="149"/>
+      <c r="K71" s="147"/>
       <c r="L71" s="81">
         <f>VLOOKUP(M71,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>73</v>
@@ -18708,19 +18716,19 @@
       <c r="M71" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="N71" s="149"/>
+      <c r="N71" s="147"/>
       <c r="O71" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P71" s="149"/>
+      <c r="P71" s="147"/>
       <c r="Q71" s="49">
         <v>14</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="S71" s="147"/>
+      <c r="S71" s="148"/>
       <c r="U71" s="73" t="s">
         <v>475</v>
       </c>
@@ -18729,7 +18737,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="149"/>
+      <c r="A72" s="147"/>
       <c r="B72" s="49">
         <f>VLOOKUP(C72,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>38</v>
@@ -18737,9 +18745,9 @@
       <c r="C72" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="148"/>
+      <c r="D72" s="149"/>
       <c r="E72" s="76"/>
-      <c r="F72" s="149"/>
+      <c r="F72" s="147"/>
       <c r="G72" s="49">
         <v>15</v>
       </c>
@@ -18747,7 +18755,7 @@
         <v>535</v>
       </c>
       <c r="I72" s="150"/>
-      <c r="K72" s="149"/>
+      <c r="K72" s="147"/>
       <c r="L72" s="81">
         <f>VLOOKUP(M72,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>74</v>
@@ -18755,19 +18763,19 @@
       <c r="M72" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="N72" s="149"/>
+      <c r="N72" s="147"/>
       <c r="O72" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P72" s="149"/>
+      <c r="P72" s="147"/>
       <c r="Q72" s="49">
         <v>15</v>
       </c>
       <c r="R72" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="S72" s="147"/>
+      <c r="S72" s="148"/>
       <c r="U72" s="73" t="s">
         <v>475</v>
       </c>
@@ -18776,7 +18784,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A73" s="149"/>
+      <c r="A73" s="147"/>
       <c r="B73" s="49">
         <f>VLOOKUP(C73,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>39</v>
@@ -18784,9 +18792,9 @@
       <c r="C73" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="148"/>
+      <c r="D73" s="149"/>
       <c r="E73" s="76"/>
-      <c r="F73" s="149"/>
+      <c r="F73" s="147"/>
       <c r="G73" s="49">
         <v>16</v>
       </c>
@@ -18794,7 +18802,7 @@
         <v>536</v>
       </c>
       <c r="I73" s="150"/>
-      <c r="K73" s="149"/>
+      <c r="K73" s="147"/>
       <c r="L73" s="79">
         <f>VLOOKUP(M73,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -18802,19 +18810,19 @@
       <c r="M73" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="N73" s="149"/>
+      <c r="N73" s="147"/>
       <c r="O73" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P73" s="149"/>
+      <c r="P73" s="147"/>
       <c r="Q73" s="48">
         <v>16</v>
       </c>
       <c r="R73" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="S73" s="147"/>
+      <c r="S73" s="148"/>
       <c r="U73" s="73" t="s">
         <v>475</v>
       </c>
@@ -18823,7 +18831,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A74" s="149"/>
+      <c r="A74" s="147"/>
       <c r="B74" s="49">
         <f>VLOOKUP(C74,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>40</v>
@@ -18831,9 +18839,9 @@
       <c r="C74" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D74" s="148"/>
+      <c r="D74" s="149"/>
       <c r="E74" s="76"/>
-      <c r="F74" s="149"/>
+      <c r="F74" s="147"/>
       <c r="G74" s="49">
         <v>17</v>
       </c>
@@ -18841,7 +18849,7 @@
         <v>537</v>
       </c>
       <c r="I74" s="150"/>
-      <c r="K74" s="149"/>
+      <c r="K74" s="147"/>
       <c r="L74" s="48">
         <f>VLOOKUP(M74,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>42</v>
@@ -18849,32 +18857,32 @@
       <c r="M74" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="N74" s="149"/>
+      <c r="N74" s="147"/>
       <c r="O74" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P74" s="149"/>
+      <c r="P74" s="147"/>
       <c r="Q74" s="49">
         <v>17</v>
       </c>
       <c r="R74" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S74" s="147"/>
+      <c r="S74" s="148"/>
       <c r="U74" s="49" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A75" s="149"/>
+      <c r="A75" s="147"/>
       <c r="B75" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C75" s="11"/>
-      <c r="D75" s="148"/>
+      <c r="D75" s="149"/>
       <c r="E75" s="76"/>
-      <c r="F75" s="149"/>
+      <c r="F75" s="147"/>
       <c r="G75" s="49">
         <v>18</v>
       </c>
@@ -18882,122 +18890,122 @@
         <v>442</v>
       </c>
       <c r="I75" s="150"/>
-      <c r="K75" s="149"/>
+      <c r="K75" s="147"/>
       <c r="L75" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N75" s="149"/>
+      <c r="N75" s="147"/>
       <c r="O75" s="76">
         <f t="shared" ref="O75:O79" si="1">COUNTIF(M:M,M75)</f>
         <v>0</v>
       </c>
-      <c r="P75" s="149"/>
+      <c r="P75" s="147"/>
       <c r="Q75" s="49">
         <v>18</v>
       </c>
       <c r="R75" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S75" s="147"/>
+      <c r="S75" s="148"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="149"/>
+      <c r="A76" s="147"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="148"/>
+      <c r="D76" s="149"/>
       <c r="E76" s="76"/>
-      <c r="F76" s="149"/>
+      <c r="F76" s="147"/>
       <c r="G76" s="49">
         <v>19</v>
       </c>
       <c r="I76" s="150"/>
-      <c r="K76" s="149"/>
-      <c r="N76" s="149"/>
+      <c r="K76" s="147"/>
+      <c r="N76" s="147"/>
       <c r="O76" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P76" s="149"/>
+      <c r="P76" s="147"/>
       <c r="Q76" s="49">
         <v>19</v>
       </c>
       <c r="R76" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S76" s="147"/>
+      <c r="S76" s="148"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="149"/>
+      <c r="A77" s="147"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="148"/>
+      <c r="D77" s="149"/>
       <c r="E77" s="76"/>
-      <c r="F77" s="149"/>
+      <c r="F77" s="147"/>
       <c r="G77" s="49">
         <v>20</v>
       </c>
       <c r="I77" s="150"/>
-      <c r="K77" s="149"/>
-      <c r="N77" s="149"/>
+      <c r="K77" s="147"/>
+      <c r="N77" s="147"/>
       <c r="O77" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P77" s="149"/>
+      <c r="P77" s="147"/>
       <c r="Q77" s="49">
         <v>20</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="147"/>
+      <c r="S77" s="148"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="149"/>
+      <c r="A78" s="147"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="148"/>
+      <c r="D78" s="149"/>
       <c r="E78" s="76"/>
-      <c r="F78" s="149"/>
+      <c r="F78" s="147"/>
       <c r="G78" s="49">
         <v>21</v>
       </c>
       <c r="I78" s="150"/>
-      <c r="K78" s="149"/>
-      <c r="N78" s="149"/>
+      <c r="K78" s="147"/>
+      <c r="N78" s="147"/>
       <c r="O78" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P78" s="149"/>
+      <c r="P78" s="147"/>
       <c r="Q78" s="49">
         <v>21</v>
       </c>
       <c r="R78" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="147"/>
+      <c r="S78" s="148"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="149"/>
-      <c r="D79" s="148"/>
+      <c r="A79" s="147"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="76"/>
-      <c r="F79" s="149"/>
+      <c r="F79" s="147"/>
       <c r="G79" s="49">
         <v>22</v>
       </c>
       <c r="I79" s="150"/>
-      <c r="K79" s="149"/>
-      <c r="N79" s="149"/>
+      <c r="K79" s="147"/>
+      <c r="N79" s="147"/>
       <c r="O79" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P79" s="149"/>
+      <c r="P79" s="147"/>
       <c r="Q79" s="49">
         <v>22</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S79" s="147"/>
+      <c r="S79" s="148"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E80" s="76"/>
@@ -19005,11 +19013,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:A79"/>
-    <mergeCell ref="K10:K79"/>
-    <mergeCell ref="F10:F33"/>
-    <mergeCell ref="F36:F55"/>
-    <mergeCell ref="F58:F79"/>
     <mergeCell ref="S36:S55"/>
     <mergeCell ref="S10:S33"/>
     <mergeCell ref="S58:S79"/>
@@ -19021,6 +19024,11 @@
     <mergeCell ref="P58:P79"/>
     <mergeCell ref="P36:P55"/>
     <mergeCell ref="P10:P33"/>
+    <mergeCell ref="A10:A79"/>
+    <mergeCell ref="K10:K79"/>
+    <mergeCell ref="F10:F33"/>
+    <mergeCell ref="F36:F55"/>
+    <mergeCell ref="F58:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19278,7 +19286,7 @@
       <c r="C10" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="149" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76">
@@ -19297,7 +19305,7 @@
       <c r="I10" s="154" t="s">
         <v>449</v>
       </c>
-      <c r="K10" s="149" t="s">
+      <c r="K10" s="147" t="s">
         <v>433</v>
       </c>
       <c r="L10" s="43">
@@ -19307,14 +19315,14 @@
       <c r="M10" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="149" t="s">
+      <c r="N10" s="147" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="108">
         <f>COUNTIF(L:L,L10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="149" t="s">
+      <c r="P10" s="147" t="s">
         <v>363</v>
       </c>
       <c r="Q10" s="13">
@@ -19334,13 +19342,13 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="149"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="142" t="e">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="76">
         <f>COUNTIF(C:C,C11)</f>
         <v>0</v>
@@ -19351,18 +19359,18 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="154"/>
-      <c r="K11" s="149"/>
+      <c r="K11" s="147"/>
       <c r="L11" s="43" t="e">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="149"/>
+      <c r="N11" s="147"/>
       <c r="O11" s="108">
         <f t="shared" ref="O11:O44" si="0">COUNTIF(L:L,L11)</f>
         <v>3</v>
       </c>
-      <c r="P11" s="149"/>
+      <c r="P11" s="147"/>
       <c r="Q11" s="13">
         <v>2</v>
       </c>
@@ -19375,13 +19383,13 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="142" t="e">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="148"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="76">
         <f>COUNTIF(C:C,C12)</f>
         <v>0</v>
@@ -19392,18 +19400,18 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="154"/>
-      <c r="K12" s="149"/>
+      <c r="K12" s="147"/>
       <c r="L12" s="43" t="e">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="11"/>
-      <c r="N12" s="149"/>
+      <c r="N12" s="147"/>
       <c r="O12" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P12" s="149"/>
+      <c r="P12" s="147"/>
       <c r="Q12" s="13">
         <v>3</v>
       </c>
@@ -19417,7 +19425,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="149"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="142">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>64</v>
@@ -19425,7 +19433,7 @@
       <c r="C13" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="148"/>
+      <c r="D13" s="149"/>
       <c r="E13" s="76">
         <f>COUNTIF(C:C,#REF!)</f>
         <v>0</v>
@@ -19438,7 +19446,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="154"/>
-      <c r="K13" s="149"/>
+      <c r="K13" s="147"/>
       <c r="L13" s="43">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -19446,12 +19454,12 @@
       <c r="M13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N13" s="149"/>
+      <c r="N13" s="147"/>
       <c r="O13" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="149"/>
+      <c r="P13" s="147"/>
       <c r="Q13" s="13">
         <v>4</v>
       </c>
@@ -19467,13 +19475,13 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="149"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="142" t="e">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="148"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="76">
         <f>COUNTIF(C:C,C13)</f>
         <v>1</v>
@@ -19484,18 +19492,18 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="154"/>
-      <c r="K14" s="149"/>
+      <c r="K14" s="147"/>
       <c r="L14" s="43" t="e">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="11"/>
-      <c r="N14" s="149"/>
+      <c r="N14" s="147"/>
       <c r="O14" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P14" s="149"/>
+      <c r="P14" s="147"/>
       <c r="Q14" s="13">
         <v>5</v>
       </c>
@@ -19508,12 +19516,12 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="149"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="43" t="s">
         <v>442</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="76">
         <f t="shared" ref="E15:E44" si="1">COUNTIF(C:C,C15)</f>
         <v>0</v>
@@ -19526,17 +19534,17 @@
         <v>442</v>
       </c>
       <c r="I15" s="154"/>
-      <c r="K15" s="149"/>
+      <c r="K15" s="147"/>
       <c r="L15" s="43" t="s">
         <v>442</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="149"/>
+      <c r="N15" s="147"/>
       <c r="O15" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P15" s="149"/>
+      <c r="P15" s="147"/>
       <c r="Q15" s="13">
         <v>6</v>
       </c>
@@ -19546,7 +19554,7 @@
       <c r="S15" s="152"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="149"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="4">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>52</v>
@@ -19554,7 +19562,7 @@
       <c r="C16" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="148"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19567,7 +19575,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="154"/>
-      <c r="K16" s="149"/>
+      <c r="K16" s="147"/>
       <c r="L16" s="43">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -19575,12 +19583,12 @@
       <c r="M16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="N16" s="149"/>
+      <c r="N16" s="147"/>
       <c r="O16" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="149"/>
+      <c r="P16" s="147"/>
       <c r="Q16" s="13">
         <v>7</v>
       </c>
@@ -19597,7 +19605,7 @@
       <c r="W16" s="73"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="149"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="4">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>53</v>
@@ -19605,7 +19613,7 @@
       <c r="C17" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="148"/>
+      <c r="D17" s="149"/>
       <c r="E17" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19618,7 +19626,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="154"/>
-      <c r="K17" s="149"/>
+      <c r="K17" s="147"/>
       <c r="L17" s="43">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -19626,12 +19634,12 @@
       <c r="M17" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N17" s="149"/>
+      <c r="N17" s="147"/>
       <c r="O17" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="149"/>
+      <c r="P17" s="147"/>
       <c r="Q17" s="13">
         <v>8</v>
       </c>
@@ -19648,7 +19656,7 @@
       <c r="W17" s="73"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="149"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="4">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>57</v>
@@ -19656,7 +19664,7 @@
       <c r="C18" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="148"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19669,7 +19677,7 @@
         <v>53</v>
       </c>
       <c r="I18" s="154"/>
-      <c r="K18" s="149"/>
+      <c r="K18" s="147"/>
       <c r="L18" s="43">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -19677,12 +19685,12 @@
       <c r="M18" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N18" s="149"/>
+      <c r="N18" s="147"/>
       <c r="O18" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="149"/>
+      <c r="P18" s="147"/>
       <c r="Q18" s="13">
         <v>9</v>
       </c>
@@ -19699,7 +19707,7 @@
       <c r="W18" s="73"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="149"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="4">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>58</v>
@@ -19707,7 +19715,7 @@
       <c r="C19" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="148"/>
+      <c r="D19" s="149"/>
       <c r="E19" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19720,7 +19728,7 @@
         <v>54</v>
       </c>
       <c r="I19" s="154"/>
-      <c r="K19" s="149"/>
+      <c r="K19" s="147"/>
       <c r="L19" s="43">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -19728,12 +19736,12 @@
       <c r="M19" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="N19" s="149"/>
+      <c r="N19" s="147"/>
       <c r="O19" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P19" s="149"/>
+      <c r="P19" s="147"/>
       <c r="Q19" s="13">
         <v>10</v>
       </c>
@@ -19750,9 +19758,9 @@
       <c r="W19" s="73"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="149"/>
+      <c r="A20" s="147"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="148"/>
+      <c r="D20" s="149"/>
       <c r="E20" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19761,10 +19769,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="44"/>
-      <c r="K20" s="149"/>
+      <c r="K20" s="147"/>
       <c r="L20" s="43"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="149"/>
+      <c r="N20" s="147"/>
       <c r="O20" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19774,7 +19782,7 @@
       <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="149"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="7">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>83</v>
@@ -19782,7 +19790,7 @@
       <c r="C21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="148"/>
+      <c r="D21" s="149"/>
       <c r="E21" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19799,7 +19807,7 @@
       <c r="I21" s="154" t="s">
         <v>451</v>
       </c>
-      <c r="K21" s="149"/>
+      <c r="K21" s="147"/>
       <c r="L21" s="43">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -19807,12 +19815,12 @@
       <c r="M21" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N21" s="149"/>
+      <c r="N21" s="147"/>
       <c r="O21" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P21" s="149" t="s">
+      <c r="P21" s="147" t="s">
         <v>380</v>
       </c>
       <c r="Q21" s="13">
@@ -19821,7 +19829,7 @@
       <c r="R21" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="S21" s="149" t="s">
+      <c r="S21" s="147" t="s">
         <v>450</v>
       </c>
       <c r="U21" s="73" t="s">
@@ -19832,7 +19840,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="149"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="7">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>84</v>
@@ -19840,7 +19848,7 @@
       <c r="C22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="148"/>
+      <c r="D22" s="149"/>
       <c r="E22" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19853,7 +19861,7 @@
         <v>66</v>
       </c>
       <c r="I22" s="154"/>
-      <c r="K22" s="149"/>
+      <c r="K22" s="147"/>
       <c r="L22" s="43">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -19861,12 +19869,12 @@
       <c r="M22" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N22" s="149"/>
+      <c r="N22" s="147"/>
       <c r="O22" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P22" s="149"/>
+      <c r="P22" s="147"/>
       <c r="Q22" s="13">
         <v>2</v>
       </c>
@@ -19882,7 +19890,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="149"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="4">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -19890,7 +19898,7 @@
       <c r="C23" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="148"/>
+      <c r="D23" s="149"/>
       <c r="E23" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -19903,7 +19911,7 @@
         <v>71</v>
       </c>
       <c r="I23" s="154"/>
-      <c r="K23" s="149"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="43">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -19911,12 +19919,12 @@
       <c r="M23" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N23" s="149"/>
+      <c r="N23" s="147"/>
       <c r="O23" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P23" s="149"/>
+      <c r="P23" s="147"/>
       <c r="Q23" s="13">
         <v>3</v>
       </c>
@@ -19933,7 +19941,7 @@
       <c r="W23" s="73"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="149"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="4">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -19941,7 +19949,7 @@
       <c r="C24" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="148"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -19954,7 +19962,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="154"/>
-      <c r="K24" s="149"/>
+      <c r="K24" s="147"/>
       <c r="L24" s="43">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -19962,12 +19970,12 @@
       <c r="M24" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="N24" s="149"/>
+      <c r="N24" s="147"/>
       <c r="O24" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P24" s="149"/>
+      <c r="P24" s="147"/>
       <c r="Q24" s="13">
         <v>4</v>
       </c>
@@ -19984,7 +19992,7 @@
       <c r="W24" s="73"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="149"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="4">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -19992,7 +20000,7 @@
       <c r="C25" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="148"/>
+      <c r="D25" s="149"/>
       <c r="E25" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20005,7 +20013,7 @@
         <v>90</v>
       </c>
       <c r="I25" s="154"/>
-      <c r="K25" s="149"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="43">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -20013,12 +20021,12 @@
       <c r="M25" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N25" s="149"/>
+      <c r="N25" s="147"/>
       <c r="O25" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="149"/>
+      <c r="P25" s="147"/>
       <c r="Q25" s="13">
         <v>5</v>
       </c>
@@ -20035,7 +20043,7 @@
       <c r="W25" s="73"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="149"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="4">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -20043,7 +20051,7 @@
       <c r="C26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="148"/>
+      <c r="D26" s="149"/>
       <c r="E26" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20056,7 +20064,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="154"/>
-      <c r="K26" s="149"/>
+      <c r="K26" s="147"/>
       <c r="L26" s="43">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -20064,12 +20072,12 @@
       <c r="M26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="N26" s="149"/>
+      <c r="N26" s="147"/>
       <c r="O26" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P26" s="149"/>
+      <c r="P26" s="147"/>
       <c r="Q26" s="13">
         <v>6</v>
       </c>
@@ -20086,7 +20094,7 @@
       <c r="W26" s="73"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="149"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="4">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -20094,7 +20102,7 @@
       <c r="C27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="148"/>
+      <c r="D27" s="149"/>
       <c r="E27" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20107,7 +20115,7 @@
         <v>107</v>
       </c>
       <c r="I27" s="154"/>
-      <c r="K27" s="149"/>
+      <c r="K27" s="147"/>
       <c r="L27" s="43">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -20115,12 +20123,12 @@
       <c r="M27" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="N27" s="149"/>
+      <c r="N27" s="147"/>
       <c r="O27" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="149"/>
+      <c r="P27" s="147"/>
       <c r="Q27" s="13">
         <v>7</v>
       </c>
@@ -20137,7 +20145,7 @@
       <c r="W27" s="73"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="149"/>
+      <c r="A28" s="147"/>
       <c r="B28" s="4">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -20145,7 +20153,7 @@
       <c r="C28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="148"/>
+      <c r="D28" s="149"/>
       <c r="E28" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20158,7 +20166,7 @@
         <v>114</v>
       </c>
       <c r="I28" s="154"/>
-      <c r="K28" s="149"/>
+      <c r="K28" s="147"/>
       <c r="L28" s="43">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>57</v>
@@ -20166,12 +20174,12 @@
       <c r="M28" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="149"/>
+      <c r="N28" s="147"/>
       <c r="O28" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P28" s="149"/>
+      <c r="P28" s="147"/>
       <c r="Q28" s="13">
         <v>8</v>
       </c>
@@ -20188,7 +20196,7 @@
       <c r="W28" s="73"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="149"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="4">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -20196,7 +20204,7 @@
       <c r="C29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="148"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20209,7 +20217,7 @@
         <v>118</v>
       </c>
       <c r="I29" s="154"/>
-      <c r="K29" s="149"/>
+      <c r="K29" s="147"/>
       <c r="L29" s="43">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -20217,12 +20225,12 @@
       <c r="M29" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N29" s="149"/>
+      <c r="N29" s="147"/>
       <c r="O29" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P29" s="149"/>
+      <c r="P29" s="147"/>
       <c r="Q29" s="13">
         <v>9</v>
       </c>
@@ -20239,7 +20247,7 @@
       <c r="W29" s="73"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
+      <c r="A30" s="147"/>
       <c r="B30" s="4">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -20247,7 +20255,7 @@
       <c r="C30" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="148"/>
+      <c r="D30" s="149"/>
       <c r="E30" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20260,7 +20268,7 @@
         <v>123</v>
       </c>
       <c r="I30" s="154"/>
-      <c r="K30" s="149"/>
+      <c r="K30" s="147"/>
       <c r="L30" s="43">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -20268,12 +20276,12 @@
       <c r="M30" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N30" s="149"/>
+      <c r="N30" s="147"/>
       <c r="O30" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P30" s="149"/>
+      <c r="P30" s="147"/>
       <c r="Q30" s="13">
         <v>10</v>
       </c>
@@ -20290,7 +20298,7 @@
       <c r="W30" s="73"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
+      <c r="A31" s="147"/>
       <c r="B31" s="4">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -20298,7 +20306,7 @@
       <c r="C31" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="148"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20311,7 +20319,7 @@
         <v>127</v>
       </c>
       <c r="I31" s="154"/>
-      <c r="K31" s="149"/>
+      <c r="K31" s="147"/>
       <c r="L31" s="43">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -20319,12 +20327,12 @@
       <c r="M31" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N31" s="149"/>
+      <c r="N31" s="147"/>
       <c r="O31" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P31" s="149"/>
+      <c r="P31" s="147"/>
       <c r="Q31" s="13">
         <v>11</v>
       </c>
@@ -20341,7 +20349,7 @@
       <c r="W31" s="73"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
+      <c r="A32" s="147"/>
       <c r="B32" s="4">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -20349,7 +20357,7 @@
       <c r="C32" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="148"/>
+      <c r="D32" s="149"/>
       <c r="E32" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20362,7 +20370,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="154"/>
-      <c r="K32" s="149"/>
+      <c r="K32" s="147"/>
       <c r="L32" s="43">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -20370,12 +20378,12 @@
       <c r="M32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N32" s="149"/>
+      <c r="N32" s="147"/>
       <c r="O32" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P32" s="149"/>
+      <c r="P32" s="147"/>
       <c r="Q32" s="13">
         <v>12</v>
       </c>
@@ -20392,7 +20400,7 @@
       <c r="W32" s="73"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="149"/>
+      <c r="A33" s="147"/>
       <c r="B33" s="4">
         <f>VLOOKUP(C33,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>56</v>
@@ -20400,7 +20408,7 @@
       <c r="C33" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="149"/>
       <c r="E33" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20413,7 +20421,7 @@
         <v>133</v>
       </c>
       <c r="I33" s="154"/>
-      <c r="K33" s="149"/>
+      <c r="K33" s="147"/>
       <c r="L33" s="43">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -20421,12 +20429,12 @@
       <c r="M33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="N33" s="149"/>
+      <c r="N33" s="147"/>
       <c r="O33" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P33" s="149"/>
+      <c r="P33" s="147"/>
       <c r="Q33" s="13">
         <v>13</v>
       </c>
@@ -20443,7 +20451,7 @@
       <c r="W33" s="73"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="149"/>
+      <c r="A34" s="147"/>
       <c r="B34" s="4">
         <f>VLOOKUP(C34,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -20451,7 +20459,7 @@
       <c r="C34" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="148"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20464,7 +20472,7 @@
         <v>136</v>
       </c>
       <c r="I34" s="154"/>
-      <c r="K34" s="149"/>
+      <c r="K34" s="147"/>
       <c r="L34" s="43">
         <f>VLOOKUP(M34,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -20472,12 +20480,12 @@
       <c r="M34" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="N34" s="149"/>
+      <c r="N34" s="147"/>
       <c r="O34" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P34" s="149"/>
+      <c r="P34" s="147"/>
       <c r="Q34" s="13">
         <v>14</v>
       </c>
@@ -20494,7 +20502,7 @@
       <c r="W34" s="73"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="149"/>
+      <c r="A35" s="147"/>
       <c r="B35" s="4">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>44</v>
@@ -20502,7 +20510,7 @@
       <c r="C35" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="148"/>
+      <c r="D35" s="149"/>
       <c r="E35" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20515,7 +20523,7 @@
         <v>140</v>
       </c>
       <c r="I35" s="154"/>
-      <c r="K35" s="149"/>
+      <c r="K35" s="147"/>
       <c r="L35" s="43">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>77</v>
@@ -20523,12 +20531,12 @@
       <c r="M35" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="N35" s="149"/>
+      <c r="N35" s="147"/>
       <c r="O35" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P35" s="149"/>
+      <c r="P35" s="147"/>
       <c r="Q35" s="13">
         <v>15</v>
       </c>
@@ -20547,7 +20555,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="149"/>
+      <c r="A36" s="147"/>
       <c r="B36" s="4">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>45</v>
@@ -20555,7 +20563,7 @@
       <c r="C36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="148"/>
+      <c r="D36" s="149"/>
       <c r="E36" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20568,7 +20576,7 @@
         <v>146</v>
       </c>
       <c r="I36" s="154"/>
-      <c r="K36" s="149"/>
+      <c r="K36" s="147"/>
       <c r="L36" s="43">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>78</v>
@@ -20576,12 +20584,12 @@
       <c r="M36" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="N36" s="149"/>
+      <c r="N36" s="147"/>
       <c r="O36" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P36" s="149"/>
+      <c r="P36" s="147"/>
       <c r="Q36" s="13">
         <v>16</v>
       </c>
@@ -20594,7 +20602,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="149"/>
+      <c r="A37" s="147"/>
       <c r="B37" s="4">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>46</v>
@@ -20602,7 +20610,7 @@
       <c r="C37" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="148"/>
+      <c r="D37" s="149"/>
       <c r="E37" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20615,7 +20623,7 @@
         <v>150</v>
       </c>
       <c r="I37" s="154"/>
-      <c r="K37" s="149"/>
+      <c r="K37" s="147"/>
       <c r="L37" s="43">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>79</v>
@@ -20623,12 +20631,12 @@
       <c r="M37" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="N37" s="149"/>
+      <c r="N37" s="147"/>
       <c r="O37" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P37" s="149"/>
+      <c r="P37" s="147"/>
       <c r="Q37" s="13">
         <v>17</v>
       </c>
@@ -20647,7 +20655,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="149"/>
+      <c r="A38" s="147"/>
       <c r="B38" s="4">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>47</v>
@@ -20655,7 +20663,7 @@
       <c r="C38" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="148"/>
+      <c r="D38" s="149"/>
       <c r="E38" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20668,7 +20676,7 @@
         <v>155</v>
       </c>
       <c r="I38" s="154"/>
-      <c r="K38" s="149"/>
+      <c r="K38" s="147"/>
       <c r="L38" s="43">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>80</v>
@@ -20676,12 +20684,12 @@
       <c r="M38" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="N38" s="149"/>
+      <c r="N38" s="147"/>
       <c r="O38" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P38" s="149"/>
+      <c r="P38" s="147"/>
       <c r="Q38" s="13">
         <v>18</v>
       </c>
@@ -20696,7 +20704,7 @@
       <c r="W38" s="73"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="149"/>
+      <c r="A39" s="147"/>
       <c r="B39" s="4">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>41</v>
@@ -20704,7 +20712,7 @@
       <c r="C39" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="148"/>
+      <c r="D39" s="149"/>
       <c r="E39" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20717,7 +20725,7 @@
         <v>160</v>
       </c>
       <c r="I39" s="154"/>
-      <c r="K39" s="149"/>
+      <c r="K39" s="147"/>
       <c r="L39" s="43">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>43</v>
@@ -20725,12 +20733,12 @@
       <c r="M39" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="N39" s="149"/>
+      <c r="N39" s="147"/>
       <c r="O39" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P39" s="149"/>
+      <c r="P39" s="147"/>
       <c r="Q39" s="13">
         <v>19</v>
       </c>
@@ -20749,7 +20757,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="149"/>
+      <c r="A40" s="147"/>
       <c r="B40" s="4">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>42</v>
@@ -20757,7 +20765,7 @@
       <c r="C40" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="148"/>
+      <c r="D40" s="149"/>
       <c r="E40" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20770,7 +20778,7 @@
         <v>163</v>
       </c>
       <c r="I40" s="154"/>
-      <c r="K40" s="149"/>
+      <c r="K40" s="147"/>
       <c r="L40" s="43">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>44</v>
@@ -20778,12 +20786,12 @@
       <c r="M40" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="N40" s="149"/>
+      <c r="N40" s="147"/>
       <c r="O40" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P40" s="149"/>
+      <c r="P40" s="147"/>
       <c r="Q40" s="13">
         <v>20</v>
       </c>
@@ -20802,7 +20810,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="149"/>
+      <c r="A41" s="147"/>
       <c r="B41" s="4">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -20810,7 +20818,7 @@
       <c r="C41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="148"/>
+      <c r="D41" s="149"/>
       <c r="E41" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20823,7 +20831,7 @@
         <v>169</v>
       </c>
       <c r="I41" s="154"/>
-      <c r="K41" s="149"/>
+      <c r="K41" s="147"/>
       <c r="L41" s="43">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -20831,12 +20839,12 @@
       <c r="M41" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N41" s="149"/>
+      <c r="N41" s="147"/>
       <c r="O41" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P41" s="149"/>
+      <c r="P41" s="147"/>
       <c r="Q41" s="13">
         <v>21</v>
       </c>
@@ -20855,7 +20863,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="149"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="4">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -20863,7 +20871,7 @@
       <c r="C42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="148"/>
+      <c r="D42" s="149"/>
       <c r="E42" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20876,7 +20884,7 @@
         <v>174</v>
       </c>
       <c r="I42" s="154"/>
-      <c r="K42" s="149"/>
+      <c r="K42" s="147"/>
       <c r="L42" s="43">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -20884,12 +20892,12 @@
       <c r="M42" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="N42" s="149"/>
+      <c r="N42" s="147"/>
       <c r="O42" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P42" s="149"/>
+      <c r="P42" s="147"/>
       <c r="Q42" s="13">
         <v>22</v>
       </c>
@@ -20908,7 +20916,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="149"/>
+      <c r="A43" s="147"/>
       <c r="B43" s="4">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -20916,7 +20924,7 @@
       <c r="C43" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D43" s="148"/>
+      <c r="D43" s="149"/>
       <c r="E43" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20929,7 +20937,7 @@
         <v>181</v>
       </c>
       <c r="I43" s="154"/>
-      <c r="K43" s="149"/>
+      <c r="K43" s="147"/>
       <c r="L43" s="43">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -20937,12 +20945,12 @@
       <c r="M43" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="N43" s="149"/>
+      <c r="N43" s="147"/>
       <c r="O43" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P43" s="149"/>
+      <c r="P43" s="147"/>
       <c r="Q43" s="13">
         <v>23</v>
       </c>
@@ -20952,12 +20960,12 @@
       <c r="S43" s="152"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="149"/>
+      <c r="A44" s="147"/>
       <c r="B44" s="43" t="s">
         <v>442</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="148"/>
+      <c r="D44" s="149"/>
       <c r="E44" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20970,17 +20978,17 @@
         <v>442</v>
       </c>
       <c r="I44" s="154"/>
-      <c r="K44" s="149"/>
+      <c r="K44" s="147"/>
       <c r="L44" s="43" t="s">
         <v>442</v>
       </c>
       <c r="M44" s="11"/>
-      <c r="N44" s="149"/>
+      <c r="N44" s="147"/>
       <c r="O44" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P44" s="149"/>
+      <c r="P44" s="147"/>
       <c r="Q44" s="13">
         <v>24</v>
       </c>
@@ -20990,9 +20998,9 @@
       <c r="S44" s="152"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="149"/>
+      <c r="A45" s="147"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="148"/>
+      <c r="D45" s="149"/>
       <c r="E45" s="76"/>
       <c r="F45" s="49"/>
       <c r="H45" s="5"/>
@@ -21003,8 +21011,8 @@
       <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="149"/>
-      <c r="D46" s="148"/>
+      <c r="A46" s="147"/>
+      <c r="D46" s="149"/>
       <c r="E46" s="76"/>
       <c r="F46" s="49"/>
       <c r="H46" s="5"/>
@@ -21273,7 +21281,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="147" t="s">
         <v>430</v>
       </c>
       <c r="B10" s="49">
@@ -21283,7 +21291,7 @@
       <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="149" t="s">
         <v>463</v>
       </c>
       <c r="F10" s="155" t="s">
@@ -21294,7 +21302,7 @@
       </c>
       <c r="I10" s="152"/>
       <c r="J10" s="47"/>
-      <c r="K10" s="149" t="s">
+      <c r="K10" s="147" t="s">
         <v>434</v>
       </c>
       <c r="L10" s="49">
@@ -21304,7 +21312,7 @@
       <c r="M10" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="N10" s="149" t="s">
+      <c r="N10" s="147" t="s">
         <v>464</v>
       </c>
       <c r="P10" s="152" t="s">
@@ -21316,7 +21324,7 @@
       <c r="S10" s="152"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="149"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="49">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>18</v>
@@ -21324,13 +21332,13 @@
       <c r="C11" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="D11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="F11" s="155"/>
       <c r="G11" s="63">
         <v>2</v>
       </c>
       <c r="I11" s="152"/>
-      <c r="K11" s="149"/>
+      <c r="K11" s="147"/>
       <c r="L11" s="49">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>25</v>
@@ -21338,7 +21346,7 @@
       <c r="M11" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="N11" s="149"/>
+      <c r="N11" s="147"/>
       <c r="P11" s="152"/>
       <c r="Q11" s="49">
         <v>2</v>
@@ -21346,7 +21354,7 @@
       <c r="S11" s="152"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="149"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="49">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>29</v>
@@ -21354,13 +21362,13 @@
       <c r="C12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="148"/>
+      <c r="D12" s="149"/>
       <c r="F12" s="155"/>
       <c r="G12" s="63">
         <v>3</v>
       </c>
       <c r="I12" s="152"/>
-      <c r="K12" s="149"/>
+      <c r="K12" s="147"/>
       <c r="L12" s="49">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -21368,7 +21376,7 @@
       <c r="M12" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="N12" s="149"/>
+      <c r="N12" s="147"/>
       <c r="P12" s="152"/>
       <c r="Q12" s="49">
         <v>3</v>
@@ -21376,7 +21384,7 @@
       <c r="S12" s="152"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="149"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="49">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>89</v>
@@ -21384,13 +21392,13 @@
       <c r="C13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="148"/>
+      <c r="D13" s="149"/>
       <c r="F13" s="155"/>
       <c r="G13" s="63">
         <v>4</v>
       </c>
       <c r="I13" s="152"/>
-      <c r="K13" s="149"/>
+      <c r="K13" s="147"/>
       <c r="L13" s="49">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>39</v>
@@ -21398,7 +21406,7 @@
       <c r="M13" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="N13" s="149"/>
+      <c r="N13" s="147"/>
       <c r="P13" s="152"/>
       <c r="Q13" s="49">
         <v>4</v>
@@ -21406,7 +21414,7 @@
       <c r="S13" s="152"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="149"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="49">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>40</v>
@@ -21414,13 +21422,13 @@
       <c r="C14" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D14" s="148"/>
+      <c r="D14" s="149"/>
       <c r="F14" s="155"/>
       <c r="G14" s="63">
         <v>5</v>
       </c>
       <c r="I14" s="152"/>
-      <c r="K14" s="149"/>
+      <c r="K14" s="147"/>
       <c r="L14" s="49">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>42</v>
@@ -21428,7 +21436,7 @@
       <c r="M14" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="N14" s="149"/>
+      <c r="N14" s="147"/>
       <c r="P14" s="152"/>
       <c r="Q14" s="49">
         <v>5</v>
@@ -21436,7 +21444,7 @@
       <c r="S14" s="152"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="149"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="49">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>43</v>
@@ -21444,13 +21452,13 @@
       <c r="C15" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="F15" s="155"/>
       <c r="G15" s="63">
         <v>6</v>
       </c>
       <c r="I15" s="152"/>
-      <c r="K15" s="149"/>
+      <c r="K15" s="147"/>
       <c r="L15" s="49">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>47</v>
@@ -21458,7 +21466,7 @@
       <c r="M15" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="N15" s="149"/>
+      <c r="N15" s="147"/>
       <c r="P15" s="152"/>
       <c r="Q15" s="49">
         <v>6</v>
@@ -21469,7 +21477,7 @@
       <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="149"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="49">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>30</v>
@@ -21477,13 +21485,13 @@
       <c r="C16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="148"/>
+      <c r="D16" s="149"/>
       <c r="F16" s="155"/>
       <c r="G16" s="65">
         <v>7</v>
       </c>
       <c r="I16" s="152"/>
-      <c r="K16" s="149"/>
+      <c r="K16" s="147"/>
       <c r="L16" s="49">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -21491,7 +21499,7 @@
       <c r="M16" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="N16" s="149"/>
+      <c r="N16" s="147"/>
       <c r="P16" s="152"/>
       <c r="Q16" s="49">
         <v>7</v>
@@ -21502,7 +21510,7 @@
       <c r="V16" s="64"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="149"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="49">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>31</v>
@@ -21510,13 +21518,13 @@
       <c r="C17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="148"/>
+      <c r="D17" s="149"/>
       <c r="F17" s="155"/>
       <c r="G17" s="65">
         <v>8</v>
       </c>
       <c r="I17" s="152"/>
-      <c r="K17" s="149"/>
+      <c r="K17" s="147"/>
       <c r="L17" s="49">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -21524,7 +21532,7 @@
       <c r="M17" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="N17" s="149"/>
+      <c r="N17" s="147"/>
       <c r="P17" s="152"/>
       <c r="Q17" s="49">
         <v>8</v>
@@ -21532,7 +21540,7 @@
       <c r="S17" s="152"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="149"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="49">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>32</v>
@@ -21540,13 +21548,13 @@
       <c r="C18" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="148"/>
+      <c r="D18" s="149"/>
       <c r="F18" s="155"/>
       <c r="G18" s="65">
         <v>9</v>
       </c>
       <c r="I18" s="152"/>
-      <c r="K18" s="149"/>
+      <c r="K18" s="147"/>
       <c r="L18" s="49">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>61</v>
@@ -21554,7 +21562,7 @@
       <c r="M18" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N18" s="149"/>
+      <c r="N18" s="147"/>
       <c r="P18" s="152"/>
       <c r="Q18" s="49">
         <v>9</v>
@@ -21562,7 +21570,7 @@
       <c r="S18" s="152"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="149"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="49">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>33</v>
@@ -21570,13 +21578,13 @@
       <c r="C19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="148"/>
+      <c r="D19" s="149"/>
       <c r="F19" s="155"/>
       <c r="G19" s="65">
         <v>10</v>
       </c>
       <c r="I19" s="152"/>
-      <c r="K19" s="149"/>
+      <c r="K19" s="147"/>
       <c r="L19" s="49">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>62</v>
@@ -21584,7 +21592,7 @@
       <c r="M19" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="149"/>
+      <c r="N19" s="147"/>
       <c r="P19" s="152"/>
       <c r="Q19" s="49">
         <v>10</v>
@@ -21592,7 +21600,7 @@
       <c r="S19" s="152"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="149"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="49">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>48</v>
@@ -21600,13 +21608,13 @@
       <c r="C20" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D20" s="148"/>
+      <c r="D20" s="149"/>
       <c r="F20" s="155"/>
       <c r="G20" s="65">
         <v>11</v>
       </c>
       <c r="I20" s="152"/>
-      <c r="K20" s="149"/>
+      <c r="K20" s="147"/>
       <c r="L20" s="48">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>76</v>
@@ -21614,7 +21622,7 @@
       <c r="M20" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="N20" s="149"/>
+      <c r="N20" s="147"/>
       <c r="O20" s="48"/>
       <c r="P20" s="152"/>
       <c r="Q20" s="48">
@@ -21623,7 +21631,7 @@
       <c r="S20" s="152"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="149"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="49">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>34</v>
@@ -21631,13 +21639,13 @@
       <c r="C21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="148"/>
+      <c r="D21" s="149"/>
       <c r="F21" s="155"/>
       <c r="G21" s="65">
         <v>12</v>
       </c>
       <c r="I21" s="152"/>
-      <c r="K21" s="149"/>
+      <c r="K21" s="147"/>
       <c r="L21" s="48">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>63</v>
@@ -21645,7 +21653,7 @@
       <c r="M21" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="149"/>
+      <c r="N21" s="147"/>
       <c r="O21" s="48"/>
       <c r="P21" s="152"/>
       <c r="Q21" s="48">
@@ -21654,7 +21662,7 @@
       <c r="S21" s="152"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="149"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="49">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>35</v>
@@ -21662,13 +21670,13 @@
       <c r="C22" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="148"/>
+      <c r="D22" s="149"/>
       <c r="F22" s="155"/>
       <c r="G22" s="65">
         <v>13</v>
       </c>
       <c r="I22" s="152"/>
-      <c r="K22" s="149"/>
+      <c r="K22" s="147"/>
       <c r="L22" s="48">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>64</v>
@@ -21676,7 +21684,7 @@
       <c r="M22" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="N22" s="149"/>
+      <c r="N22" s="147"/>
       <c r="O22" s="48"/>
       <c r="P22" s="152"/>
       <c r="Q22" s="48">
@@ -21685,7 +21693,7 @@
       <c r="S22" s="152"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="149"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="49">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>90</v>
@@ -21693,13 +21701,13 @@
       <c r="C23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="148"/>
+      <c r="D23" s="149"/>
       <c r="F23" s="155"/>
       <c r="G23" s="65">
         <v>14</v>
       </c>
       <c r="I23" s="152"/>
-      <c r="K23" s="149"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="48">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>40</v>
@@ -21707,7 +21715,7 @@
       <c r="M23" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="N23" s="149"/>
+      <c r="N23" s="147"/>
       <c r="O23" s="48"/>
       <c r="P23" s="152"/>
       <c r="Q23" s="48">
@@ -21716,7 +21724,7 @@
       <c r="S23" s="152"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="149"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="49">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>91</v>
@@ -21724,13 +21732,13 @@
       <c r="C24" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="148"/>
+      <c r="D24" s="149"/>
       <c r="F24" s="155"/>
       <c r="G24" s="65">
         <v>15</v>
       </c>
       <c r="I24" s="152"/>
-      <c r="K24" s="149"/>
+      <c r="K24" s="147"/>
       <c r="L24" s="48">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>41</v>
@@ -21738,7 +21746,7 @@
       <c r="M24" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="N24" s="149"/>
+      <c r="N24" s="147"/>
       <c r="O24" s="48"/>
       <c r="P24" s="152"/>
       <c r="Q24" s="48">
@@ -21747,7 +21755,7 @@
       <c r="S24" s="152"/>
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="149"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="49">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>75</v>
@@ -21755,13 +21763,13 @@
       <c r="C25" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="D25" s="148"/>
+      <c r="D25" s="149"/>
       <c r="F25" s="155"/>
       <c r="G25" s="65">
         <v>16</v>
       </c>
       <c r="I25" s="152"/>
-      <c r="K25" s="149"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="49">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>83</v>
@@ -21769,7 +21777,7 @@
       <c r="M25" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="N25" s="149"/>
+      <c r="N25" s="147"/>
       <c r="P25" s="152"/>
       <c r="Q25" s="49">
         <v>16</v>
@@ -21777,7 +21785,7 @@
       <c r="S25" s="152"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="149"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="49">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>36</v>
@@ -21785,13 +21793,13 @@
       <c r="C26" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="148"/>
+      <c r="D26" s="149"/>
       <c r="F26" s="155"/>
       <c r="G26" s="65">
         <v>17</v>
       </c>
       <c r="I26" s="152"/>
-      <c r="K26" s="149"/>
+      <c r="K26" s="147"/>
       <c r="L26" s="49">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>65</v>
@@ -21799,7 +21807,7 @@
       <c r="M26" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N26" s="149"/>
+      <c r="N26" s="147"/>
       <c r="P26" s="152"/>
       <c r="Q26" s="49">
         <v>17</v>
@@ -21807,7 +21815,7 @@
       <c r="S26" s="152"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="149"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="49">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>92</v>
@@ -21815,13 +21823,13 @@
       <c r="C27" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="148"/>
+      <c r="D27" s="149"/>
       <c r="F27" s="155"/>
       <c r="G27" s="65">
         <v>18</v>
       </c>
       <c r="I27" s="152"/>
-      <c r="K27" s="149"/>
+      <c r="K27" s="147"/>
       <c r="L27" s="49">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>18</v>
@@ -21829,7 +21837,7 @@
       <c r="M27" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="N27" s="149"/>
+      <c r="N27" s="147"/>
       <c r="P27" s="152"/>
       <c r="Q27" s="49">
         <v>18</v>
@@ -21837,7 +21845,7 @@
       <c r="S27" s="152"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="149"/>
+      <c r="A28" s="147"/>
       <c r="B28" s="49">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>93</v>
@@ -21845,13 +21853,13 @@
       <c r="C28" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="148"/>
+      <c r="D28" s="149"/>
       <c r="F28" s="155"/>
       <c r="G28" s="65">
         <v>19</v>
       </c>
       <c r="I28" s="152"/>
-      <c r="K28" s="149"/>
+      <c r="K28" s="147"/>
       <c r="L28" s="49">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -21859,7 +21867,7 @@
       <c r="M28" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="N28" s="149"/>
+      <c r="N28" s="147"/>
       <c r="P28" s="152"/>
       <c r="Q28" s="49">
         <v>19</v>
@@ -21867,7 +21875,7 @@
       <c r="S28" s="152"/>
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="149"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="49">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>37</v>
@@ -21875,13 +21883,13 @@
       <c r="C29" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="148"/>
+      <c r="D29" s="149"/>
       <c r="F29" s="155"/>
       <c r="G29" s="65">
         <v>20</v>
       </c>
       <c r="I29" s="152"/>
-      <c r="K29" s="149"/>
+      <c r="K29" s="147"/>
       <c r="L29" s="49">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>66</v>
@@ -21889,7 +21897,7 @@
       <c r="M29" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="N29" s="149"/>
+      <c r="N29" s="147"/>
       <c r="P29" s="152"/>
       <c r="Q29" s="49">
         <v>20</v>
@@ -21897,7 +21905,7 @@
       <c r="S29" s="152"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
+      <c r="A30" s="147"/>
       <c r="B30" s="49">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>94</v>
@@ -21905,13 +21913,13 @@
       <c r="C30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="148"/>
+      <c r="D30" s="149"/>
       <c r="F30" s="155"/>
       <c r="G30" s="65">
         <v>21</v>
       </c>
       <c r="I30" s="152"/>
-      <c r="K30" s="149"/>
+      <c r="K30" s="147"/>
       <c r="L30" s="49">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -21919,7 +21927,7 @@
       <c r="M30" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="N30" s="149"/>
+      <c r="N30" s="147"/>
       <c r="P30" s="152"/>
       <c r="Q30" s="49">
         <v>21</v>
@@ -21927,7 +21935,7 @@
       <c r="S30" s="152"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
+      <c r="A31" s="147"/>
       <c r="B31" s="49">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>95</v>
@@ -21935,13 +21943,13 @@
       <c r="C31" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="148"/>
+      <c r="D31" s="149"/>
       <c r="F31" s="155"/>
       <c r="G31" s="65">
         <v>22</v>
       </c>
       <c r="I31" s="152"/>
-      <c r="K31" s="149"/>
+      <c r="K31" s="147"/>
       <c r="L31" s="49">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -21949,7 +21957,7 @@
       <c r="M31" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="N31" s="149"/>
+      <c r="N31" s="147"/>
       <c r="P31" s="152"/>
       <c r="Q31" s="49">
         <v>22</v>
@@ -21957,7 +21965,7 @@
       <c r="S31" s="152"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
+      <c r="A32" s="147"/>
       <c r="B32" s="48">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>96</v>
@@ -21965,13 +21973,13 @@
       <c r="C32" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D32" s="148"/>
+      <c r="D32" s="149"/>
       <c r="F32" s="155"/>
       <c r="G32" s="48">
         <v>23</v>
       </c>
       <c r="I32" s="152"/>
-      <c r="K32" s="149"/>
+      <c r="K32" s="147"/>
       <c r="L32" s="49">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -21979,7 +21987,7 @@
       <c r="M32" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="149"/>
+      <c r="N32" s="147"/>
       <c r="P32" s="152"/>
       <c r="Q32" s="49">
         <v>23</v>
@@ -21987,19 +21995,19 @@
       <c r="S32" s="152"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="149"/>
-      <c r="D33" s="148"/>
+      <c r="A33" s="147"/>
+      <c r="D33" s="149"/>
       <c r="F33" s="155"/>
       <c r="G33" s="65">
         <v>24</v>
       </c>
       <c r="I33" s="152"/>
-      <c r="K33" s="149"/>
+      <c r="K33" s="147"/>
       <c r="L33" s="49" t="e">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N33" s="149"/>
+      <c r="N33" s="147"/>
       <c r="P33" s="152"/>
       <c r="Q33" s="49">
         <v>24</v>
@@ -22007,16 +22015,16 @@
       <c r="S33" s="152"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="149"/>
-      <c r="D34" s="148"/>
+      <c r="A34" s="147"/>
+      <c r="D34" s="149"/>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
       <c r="J34" s="48"/>
-      <c r="K34" s="149"/>
-      <c r="N34" s="149"/>
+      <c r="K34" s="147"/>
+      <c r="N34" s="147"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="149"/>
+      <c r="A35" s="147"/>
       <c r="B35" s="49">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -22024,7 +22032,7 @@
       <c r="C35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="148"/>
+      <c r="D35" s="149"/>
       <c r="F35" s="156" t="s">
         <v>303</v>
       </c>
@@ -22032,7 +22040,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="152"/>
-      <c r="K35" s="149"/>
+      <c r="K35" s="147"/>
       <c r="L35" s="49">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -22040,7 +22048,7 @@
       <c r="M35" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="N35" s="149"/>
+      <c r="N35" s="147"/>
       <c r="P35" s="152" t="s">
         <v>308</v>
       </c>
@@ -22050,7 +22058,7 @@
       <c r="S35" s="152"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="149"/>
+      <c r="A36" s="147"/>
       <c r="B36" s="49">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -22058,13 +22066,13 @@
       <c r="C36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="148"/>
+      <c r="D36" s="149"/>
       <c r="F36" s="156"/>
       <c r="G36" s="65">
         <v>2</v>
       </c>
       <c r="I36" s="152"/>
-      <c r="K36" s="149"/>
+      <c r="K36" s="147"/>
       <c r="L36" s="49">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -22072,7 +22080,7 @@
       <c r="M36" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="149"/>
+      <c r="N36" s="147"/>
       <c r="P36" s="152"/>
       <c r="Q36" s="49">
         <v>2</v>
@@ -22080,7 +22088,7 @@
       <c r="S36" s="152"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="149"/>
+      <c r="A37" s="147"/>
       <c r="B37" s="49">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -22088,13 +22096,13 @@
       <c r="C37" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="148"/>
+      <c r="D37" s="149"/>
       <c r="F37" s="156"/>
       <c r="G37" s="65">
         <v>3</v>
       </c>
       <c r="I37" s="152"/>
-      <c r="K37" s="149"/>
+      <c r="K37" s="147"/>
       <c r="L37" s="49">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -22102,7 +22110,7 @@
       <c r="M37" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="N37" s="149"/>
+      <c r="N37" s="147"/>
       <c r="P37" s="152"/>
       <c r="Q37" s="49">
         <v>3</v>
@@ -22110,7 +22118,7 @@
       <c r="S37" s="152"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="149"/>
+      <c r="A38" s="147"/>
       <c r="B38" s="49">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -22118,13 +22126,13 @@
       <c r="C38" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="148"/>
+      <c r="D38" s="149"/>
       <c r="F38" s="156"/>
       <c r="G38" s="65">
         <v>4</v>
       </c>
       <c r="I38" s="152"/>
-      <c r="K38" s="149"/>
+      <c r="K38" s="147"/>
       <c r="L38" s="49">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -22132,7 +22140,7 @@
       <c r="M38" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="N38" s="149"/>
+      <c r="N38" s="147"/>
       <c r="P38" s="152"/>
       <c r="Q38" s="49">
         <v>4</v>
@@ -22140,7 +22148,7 @@
       <c r="S38" s="152"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="149"/>
+      <c r="A39" s="147"/>
       <c r="B39" s="49">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -22148,13 +22156,13 @@
       <c r="C39" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="148"/>
+      <c r="D39" s="149"/>
       <c r="F39" s="156"/>
       <c r="G39" s="65">
         <v>5</v>
       </c>
       <c r="I39" s="152"/>
-      <c r="K39" s="149"/>
+      <c r="K39" s="147"/>
       <c r="L39" s="49">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -22162,7 +22170,7 @@
       <c r="M39" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="N39" s="149"/>
+      <c r="N39" s="147"/>
       <c r="P39" s="152"/>
       <c r="Q39" s="49">
         <v>5</v>
@@ -22170,7 +22178,7 @@
       <c r="S39" s="152"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="149"/>
+      <c r="A40" s="147"/>
       <c r="B40" s="49">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -22178,13 +22186,13 @@
       <c r="C40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="148"/>
+      <c r="D40" s="149"/>
       <c r="F40" s="156"/>
       <c r="G40" s="65">
         <v>6</v>
       </c>
       <c r="I40" s="152"/>
-      <c r="K40" s="149"/>
+      <c r="K40" s="147"/>
       <c r="L40" s="49">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -22192,7 +22200,7 @@
       <c r="M40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="N40" s="149"/>
+      <c r="N40" s="147"/>
       <c r="P40" s="152"/>
       <c r="Q40" s="49">
         <v>6</v>
@@ -22200,7 +22208,7 @@
       <c r="S40" s="152"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="149"/>
+      <c r="A41" s="147"/>
       <c r="B41" s="49">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>25</v>
@@ -22208,13 +22216,13 @@
       <c r="C41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="148"/>
+      <c r="D41" s="149"/>
       <c r="F41" s="156"/>
       <c r="G41" s="65">
         <v>7</v>
       </c>
       <c r="I41" s="152"/>
-      <c r="K41" s="149"/>
+      <c r="K41" s="147"/>
       <c r="L41" s="49">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -22222,7 +22230,7 @@
       <c r="M41" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="N41" s="149"/>
+      <c r="N41" s="147"/>
       <c r="P41" s="152"/>
       <c r="Q41" s="49">
         <v>7</v>
@@ -22230,7 +22238,7 @@
       <c r="S41" s="152"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="149"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="49">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>26</v>
@@ -22238,13 +22246,13 @@
       <c r="C42" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="148"/>
+      <c r="D42" s="149"/>
       <c r="F42" s="156"/>
       <c r="G42" s="65">
         <v>8</v>
       </c>
       <c r="I42" s="152"/>
-      <c r="K42" s="149"/>
+      <c r="K42" s="147"/>
       <c r="L42" s="49">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -22252,7 +22260,7 @@
       <c r="M42" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="N42" s="149"/>
+      <c r="N42" s="147"/>
       <c r="P42" s="152"/>
       <c r="Q42" s="49">
         <v>8</v>
@@ -22260,7 +22268,7 @@
       <c r="S42" s="152"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="149"/>
+      <c r="A43" s="147"/>
       <c r="B43" s="49">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>76</v>
@@ -22268,13 +22276,13 @@
       <c r="C43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="148"/>
+      <c r="D43" s="149"/>
       <c r="F43" s="156"/>
       <c r="G43" s="65">
         <v>9</v>
       </c>
       <c r="I43" s="152"/>
-      <c r="K43" s="149"/>
+      <c r="K43" s="147"/>
       <c r="L43" s="49">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -22282,7 +22290,7 @@
       <c r="M43" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="N43" s="149"/>
+      <c r="N43" s="147"/>
       <c r="P43" s="152"/>
       <c r="Q43" s="49">
         <v>9</v>
@@ -22290,7 +22298,7 @@
       <c r="S43" s="152"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="149"/>
+      <c r="A44" s="147"/>
       <c r="B44" s="49">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>77</v>
@@ -22298,13 +22306,13 @@
       <c r="C44" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="148"/>
+      <c r="D44" s="149"/>
       <c r="F44" s="156"/>
       <c r="G44" s="65">
         <v>10</v>
       </c>
       <c r="I44" s="152"/>
-      <c r="K44" s="149"/>
+      <c r="K44" s="147"/>
       <c r="L44" s="49">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -22312,7 +22320,7 @@
       <c r="M44" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="N44" s="149"/>
+      <c r="N44" s="147"/>
       <c r="P44" s="152"/>
       <c r="Q44" s="49">
         <v>10</v>
@@ -22320,7 +22328,7 @@
       <c r="S44" s="152"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="149"/>
+      <c r="A45" s="147"/>
       <c r="B45" s="49">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>78</v>
@@ -22328,13 +22336,13 @@
       <c r="C45" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="148"/>
+      <c r="D45" s="149"/>
       <c r="F45" s="156"/>
       <c r="G45" s="65">
         <v>11</v>
       </c>
       <c r="I45" s="152"/>
-      <c r="K45" s="149"/>
+      <c r="K45" s="147"/>
       <c r="L45" s="49">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -22342,7 +22350,7 @@
       <c r="M45" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="N45" s="149"/>
+      <c r="N45" s="147"/>
       <c r="P45" s="152"/>
       <c r="Q45" s="49">
         <v>11</v>
@@ -22350,7 +22358,7 @@
       <c r="S45" s="152"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="149"/>
+      <c r="A46" s="147"/>
       <c r="B46" s="49">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>79</v>
@@ -22358,13 +22366,13 @@
       <c r="C46" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="148"/>
+      <c r="D46" s="149"/>
       <c r="F46" s="156"/>
       <c r="G46" s="65">
         <v>12</v>
       </c>
       <c r="I46" s="152"/>
-      <c r="K46" s="149"/>
+      <c r="K46" s="147"/>
       <c r="L46" s="49">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -22372,7 +22380,7 @@
       <c r="M46" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="N46" s="149"/>
+      <c r="N46" s="147"/>
       <c r="P46" s="152"/>
       <c r="Q46" s="49">
         <v>12</v>
@@ -22380,7 +22388,7 @@
       <c r="S46" s="152"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="149"/>
+      <c r="A47" s="147"/>
       <c r="B47" s="49">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>80</v>
@@ -22388,13 +22396,13 @@
       <c r="C47" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="148"/>
+      <c r="D47" s="149"/>
       <c r="F47" s="156"/>
       <c r="G47" s="65">
         <v>13</v>
       </c>
       <c r="I47" s="152"/>
-      <c r="K47" s="149"/>
+      <c r="K47" s="147"/>
       <c r="L47" s="49">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -22402,7 +22410,7 @@
       <c r="M47" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="N47" s="149"/>
+      <c r="N47" s="147"/>
       <c r="P47" s="152"/>
       <c r="Q47" s="49">
         <v>13</v>
@@ -22410,7 +22418,7 @@
       <c r="S47" s="152"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="149"/>
+      <c r="A48" s="147"/>
       <c r="B48" s="49">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>81</v>
@@ -22418,13 +22426,13 @@
       <c r="C48" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="148"/>
+      <c r="D48" s="149"/>
       <c r="F48" s="156"/>
       <c r="G48" s="65">
         <v>14</v>
       </c>
       <c r="I48" s="152"/>
-      <c r="K48" s="149"/>
+      <c r="K48" s="147"/>
       <c r="L48" s="49">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -22432,7 +22440,7 @@
       <c r="M48" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="N48" s="149"/>
+      <c r="N48" s="147"/>
       <c r="P48" s="152"/>
       <c r="Q48" s="49">
         <v>14</v>
@@ -22440,7 +22448,7 @@
       <c r="S48" s="152"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="149"/>
+      <c r="A49" s="147"/>
       <c r="B49" s="49">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>82</v>
@@ -22448,13 +22456,13 @@
       <c r="C49" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="148"/>
+      <c r="D49" s="149"/>
       <c r="F49" s="156"/>
       <c r="G49" s="65">
         <v>15</v>
       </c>
       <c r="I49" s="152"/>
-      <c r="K49" s="149"/>
+      <c r="K49" s="147"/>
       <c r="L49" s="49">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -22462,7 +22470,7 @@
       <c r="M49" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="N49" s="149"/>
+      <c r="N49" s="147"/>
       <c r="P49" s="152"/>
       <c r="Q49" s="49">
         <v>15</v>
@@ -22470,7 +22478,7 @@
       <c r="S49" s="152"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="149"/>
+      <c r="A50" s="147"/>
       <c r="B50" s="49">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>83</v>
@@ -22478,13 +22486,13 @@
       <c r="C50" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="148"/>
+      <c r="D50" s="149"/>
       <c r="F50" s="156"/>
       <c r="G50" s="65">
         <v>16</v>
       </c>
       <c r="I50" s="152"/>
-      <c r="K50" s="149"/>
+      <c r="K50" s="147"/>
       <c r="L50" s="49">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>33</v>
@@ -22492,7 +22500,7 @@
       <c r="M50" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="N50" s="149"/>
+      <c r="N50" s="147"/>
       <c r="P50" s="152"/>
       <c r="Q50" s="49">
         <v>16</v>
@@ -22500,7 +22508,7 @@
       <c r="S50" s="152"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="149"/>
+      <c r="A51" s="147"/>
       <c r="B51" s="49">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>84</v>
@@ -22508,13 +22516,13 @@
       <c r="C51" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="148"/>
+      <c r="D51" s="149"/>
       <c r="F51" s="156"/>
       <c r="G51" s="65">
         <v>17</v>
       </c>
       <c r="I51" s="152"/>
-      <c r="K51" s="149"/>
+      <c r="K51" s="147"/>
       <c r="L51" s="49">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -22522,7 +22530,7 @@
       <c r="M51" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="N51" s="149"/>
+      <c r="N51" s="147"/>
       <c r="P51" s="152"/>
       <c r="Q51" s="49">
         <v>17</v>
@@ -22530,7 +22538,7 @@
       <c r="S51" s="152"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="149"/>
+      <c r="A52" s="147"/>
       <c r="B52" s="49">
         <f>VLOOKUP(C52,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>85</v>
@@ -22538,13 +22546,13 @@
       <c r="C52" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="148"/>
+      <c r="D52" s="149"/>
       <c r="F52" s="156"/>
       <c r="G52" s="65">
         <v>18</v>
       </c>
       <c r="I52" s="152"/>
-      <c r="K52" s="149"/>
+      <c r="K52" s="147"/>
       <c r="L52" s="49">
         <f>VLOOKUP(M52,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>35</v>
@@ -22552,7 +22560,7 @@
       <c r="M52" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="N52" s="149"/>
+      <c r="N52" s="147"/>
       <c r="P52" s="152"/>
       <c r="Q52" s="49">
         <v>18</v>
@@ -22560,7 +22568,7 @@
       <c r="S52" s="152"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="149"/>
+      <c r="A53" s="147"/>
       <c r="B53" s="49">
         <f>VLOOKUP(C53,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>86</v>
@@ -22568,13 +22576,13 @@
       <c r="C53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="148"/>
+      <c r="D53" s="149"/>
       <c r="F53" s="156"/>
       <c r="G53" s="65">
         <v>19</v>
       </c>
       <c r="I53" s="152"/>
-      <c r="K53" s="149"/>
+      <c r="K53" s="147"/>
       <c r="L53" s="49">
         <f>VLOOKUP(M53,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>36</v>
@@ -22582,7 +22590,7 @@
       <c r="M53" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N53" s="149"/>
+      <c r="N53" s="147"/>
       <c r="P53" s="152"/>
       <c r="Q53" s="49">
         <v>19</v>
@@ -22590,7 +22598,7 @@
       <c r="S53" s="152"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="149"/>
+      <c r="A54" s="147"/>
       <c r="B54" s="49">
         <f>VLOOKUP(C54,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>87</v>
@@ -22598,13 +22606,13 @@
       <c r="C54" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="148"/>
+      <c r="D54" s="149"/>
       <c r="F54" s="156"/>
       <c r="G54" s="65">
         <v>20</v>
       </c>
       <c r="I54" s="152"/>
-      <c r="K54" s="149"/>
+      <c r="K54" s="147"/>
       <c r="L54" s="49">
         <f>VLOOKUP(M54,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>37</v>
@@ -22612,7 +22620,7 @@
       <c r="M54" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="149"/>
+      <c r="N54" s="147"/>
       <c r="P54" s="152"/>
       <c r="Q54" s="49">
         <v>20</v>
@@ -22620,7 +22628,7 @@
       <c r="S54" s="152"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="149"/>
+      <c r="A55" s="147"/>
       <c r="B55" s="49">
         <f>VLOOKUP(C55,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>88</v>
@@ -22628,13 +22636,13 @@
       <c r="C55" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="148"/>
+      <c r="D55" s="149"/>
       <c r="F55" s="156"/>
       <c r="G55" s="67">
         <v>21</v>
       </c>
       <c r="I55" s="152"/>
-      <c r="K55" s="149"/>
+      <c r="K55" s="147"/>
       <c r="L55" s="49">
         <f>VLOOKUP(M55,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>38</v>
@@ -22642,7 +22650,7 @@
       <c r="M55" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N55" s="149"/>
+      <c r="N55" s="147"/>
       <c r="P55" s="152"/>
       <c r="Q55" s="49">
         <v>21</v>
@@ -22650,7 +22658,7 @@
       <c r="S55" s="152"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="149"/>
+      <c r="A56" s="147"/>
       <c r="B56" s="49">
         <f>VLOOKUP(C56,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>27</v>
@@ -22658,13 +22666,13 @@
       <c r="C56" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="148"/>
+      <c r="D56" s="149"/>
       <c r="F56" s="156"/>
       <c r="G56" s="67">
         <v>22</v>
       </c>
       <c r="I56" s="152"/>
-      <c r="K56" s="149"/>
+      <c r="K56" s="147"/>
       <c r="L56" s="49">
         <f>VLOOKUP(M56,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -22672,7 +22680,7 @@
       <c r="M56" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="149"/>
+      <c r="N56" s="147"/>
       <c r="P56" s="152"/>
       <c r="Q56" s="49">
         <v>22</v>
@@ -22680,7 +22688,7 @@
       <c r="S56" s="152"/>
     </row>
     <row r="57" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="149"/>
+      <c r="A57" s="147"/>
       <c r="B57" s="49">
         <f>VLOOKUP(C57,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>98</v>
@@ -22688,13 +22696,13 @@
       <c r="C57" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="148"/>
+      <c r="D57" s="149"/>
       <c r="F57" s="156"/>
       <c r="G57" s="67">
         <v>23</v>
       </c>
       <c r="I57" s="152"/>
-      <c r="K57" s="149"/>
+      <c r="K57" s="147"/>
       <c r="L57" s="49">
         <f>VLOOKUP(M57,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>84</v>
@@ -22702,7 +22710,7 @@
       <c r="M57" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="N57" s="149"/>
+      <c r="N57" s="147"/>
       <c r="P57" s="152"/>
       <c r="Q57" s="49">
         <v>23</v>
@@ -22710,19 +22718,19 @@
       <c r="S57" s="152"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="149"/>
-      <c r="D58" s="148"/>
+      <c r="A58" s="147"/>
+      <c r="D58" s="149"/>
       <c r="F58" s="156"/>
       <c r="G58" s="65">
         <v>24</v>
       </c>
       <c r="I58" s="152"/>
-      <c r="K58" s="149"/>
+      <c r="K58" s="147"/>
       <c r="L58" s="49" t="e">
         <f>VLOOKUP(M58,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N58" s="149"/>
+      <c r="N58" s="147"/>
       <c r="P58" s="152"/>
       <c r="Q58" s="49">
         <v>24</v>
@@ -23022,7 +23030,7 @@
       <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="157" t="s">
         <v>431</v>
       </c>
       <c r="B10" s="31">
@@ -23032,11 +23040,11 @@
       <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="158" t="s">
+      <c r="D10" s="161" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76"/>
-      <c r="F10" s="157" t="s">
+      <c r="F10" s="159" t="s">
         <v>435</v>
       </c>
       <c r="G10" s="31">
@@ -23045,11 +23053,11 @@
       <c r="H10" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="I10" s="159" t="s">
+      <c r="I10" s="162" t="s">
         <v>446</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="162" t="s">
+      <c r="K10" s="158" t="s">
         <v>481</v>
       </c>
       <c r="L10" s="31">
@@ -23059,17 +23067,17 @@
       <c r="M10" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N10" s="160" t="s">
+      <c r="N10" s="157" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="31"/>
-      <c r="P10" s="157" t="s">
+      <c r="P10" s="159" t="s">
         <v>437</v>
       </c>
       <c r="Q10" s="31">
         <v>1</v>
       </c>
-      <c r="S10" s="159" t="s">
+      <c r="S10" s="162" t="s">
         <v>440</v>
       </c>
       <c r="U10" s="87" t="s">
@@ -23077,7 +23085,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="31">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>11</v>
@@ -23085,18 +23093,18 @@
       <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="157"/>
+      <c r="F11" s="159"/>
       <c r="G11" s="31">
         <v>2</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="I11" s="159"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="160"/>
+      <c r="K11" s="157"/>
       <c r="L11" s="31">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -23104,19 +23112,19 @@
       <c r="M11" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="160"/>
+      <c r="N11" s="157"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="157"/>
+      <c r="P11" s="159"/>
       <c r="Q11" s="31">
         <v>2</v>
       </c>
-      <c r="S11" s="159"/>
+      <c r="S11" s="162"/>
       <c r="U11" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="31">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>12</v>
@@ -23124,18 +23132,18 @@
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="76"/>
-      <c r="F12" s="157"/>
+      <c r="F12" s="159"/>
       <c r="G12" s="31">
         <v>3</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="I12" s="159"/>
+      <c r="I12" s="162"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="160"/>
+      <c r="K12" s="157"/>
       <c r="L12" s="31">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -23143,19 +23151,19 @@
       <c r="M12" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="N12" s="160"/>
+      <c r="N12" s="157"/>
       <c r="O12" s="31"/>
-      <c r="P12" s="157"/>
+      <c r="P12" s="159"/>
       <c r="Q12" s="31">
         <v>3</v>
       </c>
-      <c r="S12" s="159"/>
+      <c r="S12" s="162"/>
       <c r="U12" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="31">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -23163,18 +23171,18 @@
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="157"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="31">
         <v>4</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="I13" s="159"/>
+      <c r="I13" s="162"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="160"/>
+      <c r="K13" s="157"/>
       <c r="L13" s="31">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -23182,19 +23190,19 @@
       <c r="M13" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="160"/>
+      <c r="N13" s="157"/>
       <c r="O13" s="31"/>
-      <c r="P13" s="157"/>
+      <c r="P13" s="159"/>
       <c r="Q13" s="31">
         <v>4</v>
       </c>
-      <c r="S13" s="159"/>
+      <c r="S13" s="162"/>
       <c r="U13" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="160"/>
+      <c r="A14" s="157"/>
       <c r="B14" s="31">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -23202,18 +23210,18 @@
       <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="76"/>
-      <c r="F14" s="157"/>
+      <c r="F14" s="159"/>
       <c r="G14" s="31">
         <v>5</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="I14" s="159"/>
+      <c r="I14" s="162"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="160"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="31">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -23221,19 +23229,19 @@
       <c r="M14" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="160"/>
+      <c r="N14" s="157"/>
       <c r="O14" s="31"/>
-      <c r="P14" s="157"/>
+      <c r="P14" s="159"/>
       <c r="Q14" s="31">
         <v>5</v>
       </c>
-      <c r="S14" s="159"/>
+      <c r="S14" s="162"/>
       <c r="U14" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="31">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>13</v>
@@ -23241,18 +23249,18 @@
       <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="157"/>
+      <c r="F15" s="159"/>
       <c r="G15" s="31">
         <v>6</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="I15" s="159"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="160"/>
+      <c r="K15" s="157"/>
       <c r="L15" s="31">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -23260,19 +23268,19 @@
       <c r="M15" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N15" s="160"/>
+      <c r="N15" s="157"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="157"/>
+      <c r="P15" s="159"/>
       <c r="Q15" s="31">
         <v>6</v>
       </c>
-      <c r="S15" s="159"/>
+      <c r="S15" s="162"/>
       <c r="U15" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="31">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>14</v>
@@ -23280,18 +23288,18 @@
       <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="157"/>
+      <c r="F16" s="159"/>
       <c r="G16" s="31">
         <v>7</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="I16" s="159"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="160"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="31">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -23299,19 +23307,19 @@
       <c r="M16" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N16" s="160"/>
+      <c r="N16" s="157"/>
       <c r="O16" s="31"/>
-      <c r="P16" s="157"/>
+      <c r="P16" s="159"/>
       <c r="Q16" s="31">
         <v>7</v>
       </c>
-      <c r="S16" s="159"/>
+      <c r="S16" s="162"/>
       <c r="U16" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
+      <c r="A17" s="157"/>
       <c r="B17" s="31">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -23319,18 +23327,18 @@
       <c r="C17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="157"/>
+      <c r="F17" s="159"/>
       <c r="G17" s="31">
         <v>8</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="I17" s="159"/>
+      <c r="I17" s="162"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="160"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="31">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -23338,19 +23346,19 @@
       <c r="M17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="160"/>
+      <c r="N17" s="157"/>
       <c r="O17" s="31"/>
-      <c r="P17" s="157"/>
+      <c r="P17" s="159"/>
       <c r="Q17" s="31">
         <v>8</v>
       </c>
-      <c r="S17" s="159"/>
+      <c r="S17" s="162"/>
       <c r="U17" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="160"/>
+      <c r="A18" s="157"/>
       <c r="B18" s="31">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -23358,18 +23366,18 @@
       <c r="C18" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="161"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="157"/>
+      <c r="F18" s="159"/>
       <c r="G18" s="31">
         <v>9</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="I18" s="159"/>
+      <c r="I18" s="162"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="160"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="31">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -23377,19 +23385,19 @@
       <c r="M18" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N18" s="160"/>
+      <c r="N18" s="157"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="157"/>
+      <c r="P18" s="159"/>
       <c r="Q18" s="31">
         <v>9</v>
       </c>
-      <c r="S18" s="159"/>
+      <c r="S18" s="162"/>
       <c r="U18" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
+      <c r="A19" s="157"/>
       <c r="B19" s="31">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -23397,18 +23405,18 @@
       <c r="C19" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="157"/>
+      <c r="F19" s="159"/>
       <c r="G19" s="31">
         <v>10</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="I19" s="159"/>
+      <c r="I19" s="162"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="160"/>
+      <c r="K19" s="157"/>
       <c r="L19" s="31">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -23416,19 +23424,19 @@
       <c r="M19" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N19" s="160"/>
+      <c r="N19" s="157"/>
       <c r="O19" s="31"/>
-      <c r="P19" s="157"/>
+      <c r="P19" s="159"/>
       <c r="Q19" s="31">
         <v>10</v>
       </c>
-      <c r="S19" s="159"/>
+      <c r="S19" s="162"/>
       <c r="U19" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
+      <c r="A20" s="157"/>
       <c r="B20" s="31">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -23436,18 +23444,18 @@
       <c r="C20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="158"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="157"/>
+      <c r="F20" s="159"/>
       <c r="G20" s="39">
         <v>11</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="I20" s="159"/>
+      <c r="I20" s="162"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="160"/>
+      <c r="K20" s="157"/>
       <c r="L20" s="39">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -23455,19 +23463,19 @@
       <c r="M20" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N20" s="160"/>
+      <c r="N20" s="157"/>
       <c r="O20" s="39"/>
-      <c r="P20" s="157"/>
+      <c r="P20" s="159"/>
       <c r="Q20" s="39">
         <v>11</v>
       </c>
-      <c r="S20" s="159"/>
+      <c r="S20" s="162"/>
       <c r="U20" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="31">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -23475,18 +23483,18 @@
       <c r="C21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="158"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="76"/>
-      <c r="F21" s="157"/>
+      <c r="F21" s="159"/>
       <c r="G21" s="39">
         <v>12</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="I21" s="159"/>
+      <c r="I21" s="162"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="160"/>
+      <c r="K21" s="157"/>
       <c r="L21" s="39">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -23494,19 +23502,19 @@
       <c r="M21" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N21" s="160"/>
+      <c r="N21" s="157"/>
       <c r="O21" s="39"/>
-      <c r="P21" s="157"/>
+      <c r="P21" s="159"/>
       <c r="Q21" s="39">
         <v>12</v>
       </c>
-      <c r="S21" s="159"/>
+      <c r="S21" s="162"/>
       <c r="U21" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="160"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="31">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -23514,18 +23522,18 @@
       <c r="C22" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="158"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="157"/>
+      <c r="F22" s="159"/>
       <c r="G22" s="39">
         <v>13</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="I22" s="159"/>
+      <c r="I22" s="162"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="160"/>
+      <c r="K22" s="157"/>
       <c r="L22" s="39">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -23533,19 +23541,19 @@
       <c r="M22" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="N22" s="160"/>
+      <c r="N22" s="157"/>
       <c r="O22" s="39"/>
-      <c r="P22" s="157"/>
+      <c r="P22" s="159"/>
       <c r="Q22" s="39">
         <v>13</v>
       </c>
-      <c r="S22" s="159"/>
+      <c r="S22" s="162"/>
       <c r="U22" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="160"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="31">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -23553,18 +23561,18 @@
       <c r="C23" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="158"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="157"/>
+      <c r="F23" s="159"/>
       <c r="G23" s="39">
         <v>14</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="159"/>
+      <c r="I23" s="162"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="160"/>
+      <c r="K23" s="157"/>
       <c r="L23" s="39">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -23572,19 +23580,19 @@
       <c r="M23" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="N23" s="160"/>
+      <c r="N23" s="157"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="157"/>
+      <c r="P23" s="159"/>
       <c r="Q23" s="39">
         <v>14</v>
       </c>
-      <c r="S23" s="159"/>
+      <c r="S23" s="162"/>
       <c r="U23" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="160"/>
+      <c r="A24" s="157"/>
       <c r="B24" s="31">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -23592,18 +23600,18 @@
       <c r="C24" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="158"/>
+      <c r="D24" s="161"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="157"/>
+      <c r="F24" s="159"/>
       <c r="G24" s="39">
         <v>15</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="I24" s="159"/>
+      <c r="I24" s="162"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="160"/>
+      <c r="K24" s="157"/>
       <c r="L24" s="39">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -23611,19 +23619,19 @@
       <c r="M24" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N24" s="160"/>
+      <c r="N24" s="157"/>
       <c r="O24" s="39"/>
-      <c r="P24" s="157"/>
+      <c r="P24" s="159"/>
       <c r="Q24" s="39">
         <v>15</v>
       </c>
-      <c r="S24" s="159"/>
+      <c r="S24" s="162"/>
       <c r="U24" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
+      <c r="A25" s="157"/>
       <c r="B25" s="31">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -23631,18 +23639,18 @@
       <c r="C25" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="158"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="76"/>
-      <c r="F25" s="157"/>
+      <c r="F25" s="159"/>
       <c r="G25" s="31">
         <v>16</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="I25" s="159"/>
+      <c r="I25" s="162"/>
       <c r="J25" s="31"/>
-      <c r="K25" s="160"/>
+      <c r="K25" s="157"/>
       <c r="L25" s="31">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -23650,19 +23658,19 @@
       <c r="M25" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N25" s="160"/>
+      <c r="N25" s="157"/>
       <c r="O25" s="31"/>
-      <c r="P25" s="157"/>
+      <c r="P25" s="159"/>
       <c r="Q25" s="31">
         <v>16</v>
       </c>
-      <c r="S25" s="159"/>
+      <c r="S25" s="162"/>
       <c r="U25" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="160"/>
+      <c r="A26" s="157"/>
       <c r="B26" s="31">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -23670,18 +23678,18 @@
       <c r="C26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="158"/>
+      <c r="D26" s="161"/>
       <c r="E26" s="76"/>
-      <c r="F26" s="157"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="31">
         <v>17</v>
       </c>
       <c r="H26" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="I26" s="159"/>
+      <c r="I26" s="162"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="160"/>
+      <c r="K26" s="157"/>
       <c r="L26" s="31">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -23689,19 +23697,19 @@
       <c r="M26" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="160"/>
+      <c r="N26" s="157"/>
       <c r="O26" s="31"/>
-      <c r="P26" s="157"/>
+      <c r="P26" s="159"/>
       <c r="Q26" s="31">
         <v>17</v>
       </c>
-      <c r="S26" s="159"/>
+      <c r="S26" s="162"/>
       <c r="U26" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="31">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -23709,18 +23717,18 @@
       <c r="C27" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="D27" s="158"/>
+      <c r="D27" s="161"/>
       <c r="E27" s="76"/>
-      <c r="F27" s="157"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="31">
         <v>18</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I27" s="159"/>
+      <c r="I27" s="162"/>
       <c r="J27" s="31"/>
-      <c r="K27" s="160"/>
+      <c r="K27" s="157"/>
       <c r="L27" s="31">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -23728,83 +23736,83 @@
       <c r="M27" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="N27" s="160"/>
+      <c r="N27" s="157"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="157"/>
+      <c r="P27" s="159"/>
       <c r="Q27" s="31">
         <v>18</v>
       </c>
-      <c r="S27" s="159"/>
+      <c r="S27" s="162"/>
       <c r="U27" s="87"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="160"/>
+      <c r="A28" s="157"/>
       <c r="B28" s="31" t="s">
         <v>442</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="158"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="76"/>
-      <c r="F28" s="157"/>
+      <c r="F28" s="159"/>
       <c r="G28" s="31">
         <v>19</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="I28" s="159"/>
+      <c r="I28" s="162"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="160"/>
+      <c r="K28" s="157"/>
       <c r="L28" s="31" t="s">
         <v>442</v>
       </c>
       <c r="M28" s="17"/>
-      <c r="N28" s="160"/>
+      <c r="N28" s="157"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="157"/>
+      <c r="P28" s="159"/>
       <c r="Q28" s="31">
         <v>19</v>
       </c>
-      <c r="S28" s="159"/>
+      <c r="S28" s="162"/>
       <c r="U28" s="87"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="160"/>
+      <c r="A29" s="157"/>
       <c r="B29" s="31"/>
-      <c r="D29" s="158"/>
+      <c r="D29" s="161"/>
       <c r="E29" s="76"/>
-      <c r="F29" s="157"/>
+      <c r="F29" s="159"/>
       <c r="G29" s="31">
         <v>20</v>
       </c>
       <c r="H29" s="37"/>
-      <c r="I29" s="159"/>
+      <c r="I29" s="162"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="160"/>
+      <c r="K29" s="157"/>
       <c r="L29" s="31"/>
-      <c r="N29" s="160"/>
+      <c r="N29" s="157"/>
       <c r="O29" s="31"/>
-      <c r="P29" s="157"/>
+      <c r="P29" s="159"/>
       <c r="Q29" s="31">
         <v>20</v>
       </c>
-      <c r="S29" s="159"/>
+      <c r="S29" s="162"/>
       <c r="U29" s="87"/>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="160"/>
+      <c r="A30" s="157"/>
       <c r="B30" s="31"/>
-      <c r="D30" s="158"/>
+      <c r="D30" s="161"/>
       <c r="E30" s="76"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="37"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="160"/>
+      <c r="K30" s="157"/>
       <c r="L30" s="31"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="160"/>
+      <c r="N30" s="157"/>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
@@ -23812,20 +23820,20 @@
       <c r="U30" s="87"/>
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="160"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="31"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="158"/>
+      <c r="D31" s="161"/>
       <c r="E31" s="76"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="37"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="160"/>
+      <c r="K31" s="157"/>
       <c r="L31" s="31"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="160"/>
+      <c r="N31" s="157"/>
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
       <c r="Q31" s="31"/>
@@ -23833,7 +23841,7 @@
       <c r="U31" s="87"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="160"/>
+      <c r="A32" s="157"/>
       <c r="B32" s="31">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>10</v>
@@ -23841,9 +23849,9 @@
       <c r="C32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="158"/>
+      <c r="D32" s="161"/>
       <c r="E32" s="76"/>
-      <c r="F32" s="157" t="s">
+      <c r="F32" s="159" t="s">
         <v>436</v>
       </c>
       <c r="G32" s="31">
@@ -23852,11 +23860,11 @@
       <c r="H32" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="I32" s="161" t="s">
+      <c r="I32" s="160" t="s">
         <v>445</v>
       </c>
       <c r="J32" s="31"/>
-      <c r="K32" s="160"/>
+      <c r="K32" s="157"/>
       <c r="L32" s="31">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>18</v>
@@ -23864,15 +23872,15 @@
       <c r="M32" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N32" s="160"/>
+      <c r="N32" s="157"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="157" t="s">
+      <c r="P32" s="159" t="s">
         <v>438</v>
       </c>
       <c r="Q32" s="31">
         <v>1</v>
       </c>
-      <c r="S32" s="157" t="s">
+      <c r="S32" s="159" t="s">
         <v>441</v>
       </c>
       <c r="U32" s="87" t="s">
@@ -23880,7 +23888,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="160"/>
+      <c r="A33" s="157"/>
       <c r="B33" s="31">
         <f>VLOOKUP(C33,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>11</v>
@@ -23888,18 +23896,18 @@
       <c r="C33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="158"/>
+      <c r="D33" s="161"/>
       <c r="E33" s="76"/>
-      <c r="F33" s="157"/>
+      <c r="F33" s="159"/>
       <c r="G33" s="31">
         <v>2</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="I33" s="161"/>
+      <c r="I33" s="160"/>
       <c r="J33" s="31"/>
-      <c r="K33" s="160"/>
+      <c r="K33" s="157"/>
       <c r="L33" s="31">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -23907,19 +23915,19 @@
       <c r="M33" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N33" s="160"/>
+      <c r="N33" s="157"/>
       <c r="O33" s="31"/>
-      <c r="P33" s="157"/>
+      <c r="P33" s="159"/>
       <c r="Q33" s="145">
         <v>2</v>
       </c>
-      <c r="S33" s="157"/>
+      <c r="S33" s="159"/>
       <c r="U33" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="160"/>
+      <c r="A34" s="157"/>
       <c r="B34" s="31">
         <f>VLOOKUP(C34,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -23927,18 +23935,18 @@
       <c r="C34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="158"/>
+      <c r="D34" s="161"/>
       <c r="E34" s="143"/>
-      <c r="F34" s="157"/>
+      <c r="F34" s="159"/>
       <c r="G34" s="31">
         <v>3</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="I34" s="161"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="31"/>
-      <c r="K34" s="160"/>
+      <c r="K34" s="157"/>
       <c r="L34" s="31">
         <f>VLOOKUP(M34,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -23946,18 +23954,18 @@
       <c r="M34" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="N34" s="160"/>
-      <c r="P34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="P34" s="159"/>
       <c r="Q34" s="145">
         <v>3</v>
       </c>
-      <c r="S34" s="157"/>
+      <c r="S34" s="159"/>
       <c r="U34" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="160"/>
+      <c r="A35" s="157"/>
       <c r="B35" s="31">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -23965,18 +23973,18 @@
       <c r="C35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="158"/>
+      <c r="D35" s="161"/>
       <c r="E35" s="76"/>
-      <c r="F35" s="157"/>
+      <c r="F35" s="159"/>
       <c r="G35" s="31">
         <v>4</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="I35" s="161"/>
+      <c r="I35" s="160"/>
       <c r="J35" s="31"/>
-      <c r="K35" s="160"/>
+      <c r="K35" s="157"/>
       <c r="L35" s="31">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -23984,19 +23992,19 @@
       <c r="M35" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="N35" s="160"/>
+      <c r="N35" s="157"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="157"/>
+      <c r="P35" s="159"/>
       <c r="Q35" s="145">
         <v>4</v>
       </c>
-      <c r="S35" s="157"/>
+      <c r="S35" s="159"/>
       <c r="U35" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="160"/>
+      <c r="A36" s="157"/>
       <c r="B36" s="31">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>12</v>
@@ -24004,18 +24012,18 @@
       <c r="C36" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="158"/>
+      <c r="D36" s="161"/>
       <c r="E36" s="143"/>
-      <c r="F36" s="157"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="31">
         <v>5</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="I36" s="161"/>
+      <c r="I36" s="160"/>
       <c r="J36" s="31"/>
-      <c r="K36" s="160"/>
+      <c r="K36" s="157"/>
       <c r="L36" s="31">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -24023,19 +24031,19 @@
       <c r="M36" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="N36" s="160"/>
+      <c r="N36" s="157"/>
       <c r="O36" s="31"/>
-      <c r="P36" s="157"/>
+      <c r="P36" s="159"/>
       <c r="Q36" s="145">
         <v>5</v>
       </c>
-      <c r="S36" s="157"/>
+      <c r="S36" s="159"/>
       <c r="U36" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="160"/>
+      <c r="A37" s="157"/>
       <c r="B37" s="31">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>13</v>
@@ -24043,18 +24051,18 @@
       <c r="C37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="158"/>
+      <c r="D37" s="161"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="157"/>
+      <c r="F37" s="159"/>
       <c r="G37" s="31">
         <v>6</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="I37" s="161"/>
+      <c r="I37" s="160"/>
       <c r="J37" s="31"/>
-      <c r="K37" s="160"/>
+      <c r="K37" s="157"/>
       <c r="L37" s="31">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -24062,19 +24070,19 @@
       <c r="M37" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N37" s="160"/>
+      <c r="N37" s="157"/>
       <c r="O37" s="31"/>
-      <c r="P37" s="157"/>
+      <c r="P37" s="159"/>
       <c r="Q37" s="145">
         <v>6</v>
       </c>
-      <c r="S37" s="157"/>
+      <c r="S37" s="159"/>
       <c r="U37" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="160"/>
+      <c r="A38" s="157"/>
       <c r="B38" s="31">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>14</v>
@@ -24082,18 +24090,18 @@
       <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="158"/>
+      <c r="D38" s="161"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="157"/>
+      <c r="F38" s="159"/>
       <c r="G38" s="31">
         <v>7</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="I38" s="161"/>
+      <c r="I38" s="160"/>
       <c r="J38" s="31"/>
-      <c r="K38" s="160"/>
+      <c r="K38" s="157"/>
       <c r="L38" s="31">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -24101,19 +24109,19 @@
       <c r="M38" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N38" s="160"/>
+      <c r="N38" s="157"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="157"/>
+      <c r="P38" s="159"/>
       <c r="Q38" s="31">
         <v>7</v>
       </c>
-      <c r="S38" s="157"/>
+      <c r="S38" s="159"/>
       <c r="U38" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="160"/>
+      <c r="A39" s="157"/>
       <c r="B39" s="31">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -24121,18 +24129,18 @@
       <c r="C39" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="158"/>
+      <c r="D39" s="161"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="157"/>
+      <c r="F39" s="159"/>
       <c r="G39" s="31">
         <v>8</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="I39" s="161"/>
+      <c r="I39" s="160"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="160"/>
+      <c r="K39" s="157"/>
       <c r="L39" s="31">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -24140,19 +24148,19 @@
       <c r="M39" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N39" s="160"/>
+      <c r="N39" s="157"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="157"/>
+      <c r="P39" s="159"/>
       <c r="Q39" s="31">
         <v>8</v>
       </c>
-      <c r="S39" s="157"/>
+      <c r="S39" s="159"/>
       <c r="U39" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="160"/>
+      <c r="A40" s="157"/>
       <c r="B40" s="31">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -24160,18 +24168,18 @@
       <c r="C40" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="158"/>
+      <c r="D40" s="161"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="157"/>
+      <c r="F40" s="159"/>
       <c r="G40" s="31">
         <v>9</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="I40" s="161"/>
+      <c r="I40" s="160"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="160"/>
+      <c r="K40" s="157"/>
       <c r="L40" s="31">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -24179,19 +24187,19 @@
       <c r="M40" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N40" s="160"/>
+      <c r="N40" s="157"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="157"/>
+      <c r="P40" s="159"/>
       <c r="Q40" s="31">
         <v>9</v>
       </c>
-      <c r="S40" s="157"/>
+      <c r="S40" s="159"/>
       <c r="U40" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="160"/>
+      <c r="A41" s="157"/>
       <c r="B41" s="31">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -24199,18 +24207,18 @@
       <c r="C41" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="158"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="157"/>
+      <c r="F41" s="159"/>
       <c r="G41" s="31">
         <v>10</v>
       </c>
       <c r="H41" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="I41" s="161"/>
+      <c r="I41" s="160"/>
       <c r="J41" s="31"/>
-      <c r="K41" s="160"/>
+      <c r="K41" s="157"/>
       <c r="L41" s="31">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -24218,19 +24226,19 @@
       <c r="M41" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N41" s="160"/>
+      <c r="N41" s="157"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="157"/>
+      <c r="P41" s="159"/>
       <c r="Q41" s="31">
         <v>10</v>
       </c>
-      <c r="S41" s="157"/>
+      <c r="S41" s="159"/>
       <c r="U41" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="160"/>
+      <c r="A42" s="157"/>
       <c r="B42" s="31">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -24238,18 +24246,18 @@
       <c r="C42" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="158"/>
+      <c r="D42" s="161"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="157"/>
+      <c r="F42" s="159"/>
       <c r="G42" s="39">
         <v>11</v>
       </c>
       <c r="H42" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="I42" s="161"/>
+      <c r="I42" s="160"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="160"/>
+      <c r="K42" s="157"/>
       <c r="L42" s="31">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -24257,19 +24265,19 @@
       <c r="M42" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N42" s="160"/>
+      <c r="N42" s="157"/>
       <c r="O42" s="39"/>
-      <c r="P42" s="157"/>
+      <c r="P42" s="159"/>
       <c r="Q42" s="39">
         <v>11</v>
       </c>
-      <c r="S42" s="157"/>
+      <c r="S42" s="159"/>
       <c r="U42" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="160"/>
+      <c r="A43" s="157"/>
       <c r="B43" s="31">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -24277,18 +24285,18 @@
       <c r="C43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="158"/>
+      <c r="D43" s="161"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="157"/>
+      <c r="F43" s="159"/>
       <c r="G43" s="39">
         <v>12</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="I43" s="161"/>
+      <c r="I43" s="160"/>
       <c r="J43" s="31"/>
-      <c r="K43" s="160"/>
+      <c r="K43" s="157"/>
       <c r="L43" s="31">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -24296,19 +24304,19 @@
       <c r="M43" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N43" s="160"/>
+      <c r="N43" s="157"/>
       <c r="O43" s="39"/>
-      <c r="P43" s="157"/>
+      <c r="P43" s="159"/>
       <c r="Q43" s="39">
         <v>12</v>
       </c>
-      <c r="S43" s="157"/>
+      <c r="S43" s="159"/>
       <c r="U43" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="160"/>
+      <c r="A44" s="157"/>
       <c r="B44" s="31">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -24316,18 +24324,18 @@
       <c r="C44" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="158"/>
+      <c r="D44" s="161"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="157"/>
+      <c r="F44" s="159"/>
       <c r="G44" s="39">
         <v>13</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="I44" s="161"/>
+      <c r="I44" s="160"/>
       <c r="J44" s="31"/>
-      <c r="K44" s="160"/>
+      <c r="K44" s="157"/>
       <c r="L44" s="31">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -24335,19 +24343,19 @@
       <c r="M44" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="N44" s="160"/>
+      <c r="N44" s="157"/>
       <c r="O44" s="39"/>
-      <c r="P44" s="157"/>
+      <c r="P44" s="159"/>
       <c r="Q44" s="39">
         <v>13</v>
       </c>
-      <c r="S44" s="157"/>
+      <c r="S44" s="159"/>
       <c r="U44" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="160"/>
+      <c r="A45" s="157"/>
       <c r="B45" s="31">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -24355,18 +24363,18 @@
       <c r="C45" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="158"/>
+      <c r="D45" s="161"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="157"/>
+      <c r="F45" s="159"/>
       <c r="G45" s="39">
         <v>14</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="I45" s="161"/>
+      <c r="I45" s="160"/>
       <c r="J45" s="31"/>
-      <c r="K45" s="160"/>
+      <c r="K45" s="157"/>
       <c r="L45" s="31">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -24374,19 +24382,19 @@
       <c r="M45" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="N45" s="160"/>
+      <c r="N45" s="157"/>
       <c r="O45" s="39"/>
-      <c r="P45" s="157"/>
+      <c r="P45" s="159"/>
       <c r="Q45" s="39">
         <v>14</v>
       </c>
-      <c r="S45" s="157"/>
+      <c r="S45" s="159"/>
       <c r="U45" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="160"/>
+      <c r="A46" s="157"/>
       <c r="B46" s="31">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -24394,18 +24402,18 @@
       <c r="C46" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="158"/>
+      <c r="D46" s="161"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="157"/>
+      <c r="F46" s="159"/>
       <c r="G46" s="39">
         <v>15</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="I46" s="161"/>
+      <c r="I46" s="160"/>
       <c r="J46" s="31"/>
-      <c r="K46" s="160"/>
+      <c r="K46" s="157"/>
       <c r="L46" s="31">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -24413,19 +24421,19 @@
       <c r="M46" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="160"/>
+      <c r="N46" s="157"/>
       <c r="O46" s="39"/>
-      <c r="P46" s="157"/>
+      <c r="P46" s="159"/>
       <c r="Q46" s="39">
         <v>15</v>
       </c>
-      <c r="S46" s="157"/>
+      <c r="S46" s="159"/>
       <c r="U46" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="160"/>
+      <c r="A47" s="157"/>
       <c r="B47" s="31">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -24433,18 +24441,18 @@
       <c r="C47" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="158"/>
+      <c r="D47" s="161"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="157"/>
+      <c r="F47" s="159"/>
       <c r="G47" s="31">
         <v>16</v>
       </c>
       <c r="H47" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="I47" s="161"/>
+      <c r="I47" s="160"/>
       <c r="J47" s="31"/>
-      <c r="K47" s="160"/>
+      <c r="K47" s="157"/>
       <c r="L47" s="31">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -24452,19 +24460,19 @@
       <c r="M47" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N47" s="160"/>
+      <c r="N47" s="157"/>
       <c r="O47" s="31"/>
-      <c r="P47" s="157"/>
+      <c r="P47" s="159"/>
       <c r="Q47" s="31">
         <v>16</v>
       </c>
-      <c r="S47" s="157"/>
+      <c r="S47" s="159"/>
       <c r="U47" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="160"/>
+      <c r="A48" s="157"/>
       <c r="B48" s="31">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -24472,18 +24480,18 @@
       <c r="C48" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="158"/>
+      <c r="D48" s="161"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="157"/>
+      <c r="F48" s="159"/>
       <c r="G48" s="31">
         <v>17</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="I48" s="161"/>
+      <c r="I48" s="160"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="160"/>
+      <c r="K48" s="157"/>
       <c r="L48" s="31">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -24491,19 +24499,19 @@
       <c r="M48" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N48" s="160"/>
+      <c r="N48" s="157"/>
       <c r="O48" s="31"/>
-      <c r="P48" s="157"/>
+      <c r="P48" s="159"/>
       <c r="Q48" s="31">
         <v>17</v>
       </c>
-      <c r="S48" s="157"/>
+      <c r="S48" s="159"/>
       <c r="U48" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="160"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="31">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>61</v>
@@ -24511,18 +24519,18 @@
       <c r="C49" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="158"/>
+      <c r="D49" s="161"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="157"/>
+      <c r="F49" s="159"/>
       <c r="G49" s="31">
         <v>18</v>
       </c>
       <c r="H49" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="I49" s="161"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="160"/>
+      <c r="K49" s="157"/>
       <c r="L49" s="31">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -24530,19 +24538,19 @@
       <c r="M49" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="N49" s="160"/>
+      <c r="N49" s="157"/>
       <c r="O49" s="31"/>
-      <c r="P49" s="157"/>
+      <c r="P49" s="159"/>
       <c r="Q49" s="31">
         <v>18</v>
       </c>
-      <c r="S49" s="157"/>
+      <c r="S49" s="159"/>
       <c r="U49" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="160"/>
+      <c r="A50" s="157"/>
       <c r="B50" s="31">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -24550,18 +24558,18 @@
       <c r="C50" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="158"/>
+      <c r="D50" s="161"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="157"/>
+      <c r="F50" s="159"/>
       <c r="G50" s="31">
         <v>19</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="I50" s="161"/>
+      <c r="I50" s="160"/>
       <c r="J50" s="31"/>
-      <c r="K50" s="160"/>
+      <c r="K50" s="157"/>
       <c r="L50" s="31">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -24569,19 +24577,19 @@
       <c r="M50" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="N50" s="160"/>
+      <c r="N50" s="157"/>
       <c r="O50" s="31"/>
-      <c r="P50" s="157"/>
+      <c r="P50" s="159"/>
       <c r="Q50" s="31">
         <v>19</v>
       </c>
-      <c r="S50" s="157"/>
+      <c r="S50" s="159"/>
       <c r="U50" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="160"/>
+      <c r="A51" s="157"/>
       <c r="B51" s="31">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -24589,17 +24597,17 @@
       <c r="C51" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="158"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="157"/>
+      <c r="F51" s="159"/>
       <c r="G51" s="31">
         <v>20</v>
       </c>
       <c r="H51" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="I51" s="161"/>
-      <c r="K51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="K51" s="157"/>
       <c r="L51" s="31">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -24607,19 +24615,19 @@
       <c r="M51" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="N51" s="160"/>
+      <c r="N51" s="157"/>
       <c r="O51" s="31"/>
-      <c r="P51" s="157"/>
+      <c r="P51" s="159"/>
       <c r="Q51" s="31">
         <v>20</v>
       </c>
-      <c r="S51" s="157"/>
+      <c r="S51" s="159"/>
       <c r="U51" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="160"/>
+      <c r="A52" s="157"/>
       <c r="B52" s="31">
         <f>VLOOKUP(C52,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -24627,17 +24635,17 @@
       <c r="C52" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="D52" s="158"/>
+      <c r="D52" s="161"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="157"/>
+      <c r="F52" s="159"/>
       <c r="G52" s="31">
         <v>21</v>
       </c>
       <c r="H52" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="I52" s="161"/>
-      <c r="K52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="K52" s="157"/>
       <c r="L52" s="31">
         <f>VLOOKUP(M52,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -24645,107 +24653,107 @@
       <c r="M52" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="N52" s="160"/>
+      <c r="N52" s="157"/>
       <c r="O52" s="31"/>
-      <c r="P52" s="157"/>
+      <c r="P52" s="159"/>
       <c r="Q52" s="31">
         <v>21</v>
       </c>
-      <c r="S52" s="157"/>
+      <c r="S52" s="159"/>
       <c r="U52" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="160"/>
+      <c r="A53" s="157"/>
       <c r="B53" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="D53" s="158"/>
+      <c r="D53" s="161"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="157"/>
+      <c r="F53" s="159"/>
       <c r="G53" s="31">
         <v>22</v>
       </c>
       <c r="H53" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="I53" s="161"/>
-      <c r="K53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="K53" s="157"/>
       <c r="L53" s="31" t="s">
         <v>442</v>
       </c>
       <c r="M53" s="17"/>
-      <c r="N53" s="160"/>
+      <c r="N53" s="157"/>
       <c r="O53" s="31"/>
-      <c r="P53" s="157"/>
+      <c r="P53" s="159"/>
       <c r="Q53" s="31">
         <v>22</v>
       </c>
-      <c r="S53" s="157"/>
+      <c r="S53" s="159"/>
       <c r="U53" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="160"/>
+      <c r="A54" s="157"/>
       <c r="B54" s="31"/>
-      <c r="D54" s="158"/>
+      <c r="D54" s="161"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="157"/>
+      <c r="F54" s="159"/>
       <c r="G54" s="31">
         <v>23</v>
       </c>
       <c r="H54" s="37"/>
-      <c r="I54" s="161"/>
-      <c r="K54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="K54" s="157"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="160"/>
+      <c r="N54" s="157"/>
       <c r="O54" s="31"/>
-      <c r="P54" s="157"/>
+      <c r="P54" s="159"/>
       <c r="Q54" s="31">
         <v>23</v>
       </c>
-      <c r="S54" s="157"/>
+      <c r="S54" s="159"/>
       <c r="U54" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="160"/>
+      <c r="A55" s="157"/>
       <c r="B55" s="31"/>
-      <c r="D55" s="158"/>
+      <c r="D55" s="161"/>
       <c r="E55" s="76"/>
-      <c r="F55" s="157"/>
+      <c r="F55" s="159"/>
       <c r="G55" s="31">
         <v>24</v>
       </c>
       <c r="H55" s="37"/>
-      <c r="I55" s="161"/>
-      <c r="K55" s="160"/>
-      <c r="N55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="K55" s="157"/>
+      <c r="N55" s="157"/>
       <c r="O55" s="31"/>
-      <c r="P55" s="157"/>
+      <c r="P55" s="159"/>
       <c r="Q55" s="31">
         <v>24</v>
       </c>
-      <c r="S55" s="157"/>
+      <c r="S55" s="159"/>
       <c r="U55" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="160"/>
-      <c r="D56" s="158"/>
+      <c r="A56" s="157"/>
+      <c r="D56" s="161"/>
       <c r="E56" s="76"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="160"/>
-      <c r="D57" s="158"/>
+      <c r="A57" s="157"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="76"/>
     </row>
     <row r="58" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="160"/>
+      <c r="A58" s="157"/>
       <c r="B58" s="31">
         <f>VLOOKUP(C58,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>76</v>
@@ -24753,9 +24761,9 @@
       <c r="C58" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="158"/>
+      <c r="D58" s="161"/>
       <c r="E58" s="76"/>
-      <c r="F58" s="160" t="s">
+      <c r="F58" s="157" t="s">
         <v>431</v>
       </c>
       <c r="G58" s="39">
@@ -24764,7 +24772,7 @@
       <c r="H58" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="I58" s="160" t="s">
+      <c r="I58" s="157" t="s">
         <v>462</v>
       </c>
       <c r="J58" s="31"/>
@@ -24778,7 +24786,7 @@
       <c r="S58" s="41"/>
     </row>
     <row r="59" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="160"/>
+      <c r="A59" s="157"/>
       <c r="B59" s="31">
         <f>VLOOKUP(C59,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>77</v>
@@ -24786,16 +24794,16 @@
       <c r="C59" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="158"/>
+      <c r="D59" s="161"/>
       <c r="E59" s="76"/>
-      <c r="F59" s="160"/>
+      <c r="F59" s="157"/>
       <c r="G59" s="39">
         <v>11</v>
       </c>
       <c r="H59" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="I59" s="161"/>
+      <c r="I59" s="160"/>
       <c r="J59" s="31"/>
       <c r="K59" s="38"/>
       <c r="L59" s="31"/>
@@ -24807,7 +24815,7 @@
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="160"/>
+      <c r="A60" s="157"/>
       <c r="B60" s="31">
         <f>VLOOKUP(C60,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>78</v>
@@ -24815,16 +24823,16 @@
       <c r="C60" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="158"/>
+      <c r="D60" s="161"/>
       <c r="E60" s="76"/>
-      <c r="F60" s="160"/>
+      <c r="F60" s="157"/>
       <c r="G60" s="39">
         <v>12</v>
       </c>
       <c r="H60" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="I60" s="161"/>
+      <c r="I60" s="160"/>
       <c r="J60" s="39"/>
       <c r="K60" s="38"/>
       <c r="L60" s="31"/>
@@ -24835,7 +24843,7 @@
       <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="160"/>
+      <c r="A61" s="157"/>
       <c r="B61" s="31">
         <f>VLOOKUP(C61,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>79</v>
@@ -24843,16 +24851,16 @@
       <c r="C61" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="158"/>
+      <c r="D61" s="161"/>
       <c r="E61" s="76"/>
-      <c r="F61" s="160"/>
+      <c r="F61" s="157"/>
       <c r="G61" s="39">
         <v>13</v>
       </c>
       <c r="H61" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="I61" s="161"/>
+      <c r="I61" s="160"/>
       <c r="J61" s="31"/>
       <c r="K61" s="38"/>
       <c r="L61" s="31"/>
@@ -24863,7 +24871,7 @@
       <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="160"/>
+      <c r="A62" s="157"/>
       <c r="B62" s="31">
         <f>VLOOKUP(C62,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>80</v>
@@ -24871,16 +24879,16 @@
       <c r="C62" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="158"/>
+      <c r="D62" s="161"/>
       <c r="E62" s="76"/>
-      <c r="F62" s="160"/>
+      <c r="F62" s="157"/>
       <c r="G62" s="39">
         <v>14</v>
       </c>
       <c r="H62" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="I62" s="161"/>
+      <c r="I62" s="160"/>
       <c r="J62" s="31"/>
       <c r="K62" s="38"/>
       <c r="L62" s="31"/>
@@ -24891,7 +24899,7 @@
       <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="160"/>
+      <c r="A63" s="157"/>
       <c r="E63" s="76"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.2">
@@ -24921,6 +24929,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="S32:S55"/>
+    <mergeCell ref="D10:D62"/>
+    <mergeCell ref="P10:P29"/>
+    <mergeCell ref="P32:P55"/>
+    <mergeCell ref="I10:I29"/>
+    <mergeCell ref="S10:S29"/>
+    <mergeCell ref="I58:I62"/>
     <mergeCell ref="A10:A63"/>
     <mergeCell ref="K10:K55"/>
     <mergeCell ref="N10:N55"/>
@@ -24928,13 +24943,6 @@
     <mergeCell ref="F32:F55"/>
     <mergeCell ref="F58:F62"/>
     <mergeCell ref="I32:I55"/>
-    <mergeCell ref="S32:S55"/>
-    <mergeCell ref="D10:D62"/>
-    <mergeCell ref="P10:P29"/>
-    <mergeCell ref="P32:P55"/>
-    <mergeCell ref="I10:I29"/>
-    <mergeCell ref="S10:S29"/>
-    <mergeCell ref="I58:I62"/>
   </mergeCells>
   <conditionalFormatting sqref="M1:N7 M9:N9 M8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">

--- a/mapping/PLC_Certification_Chassis.xlsx
+++ b/mapping/PLC_Certification_Chassis.xlsx
@@ -1984,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2379,13 +2379,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2409,16 +2409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2427,6 +2418,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16050,7 +16051,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="154" t="s">
         <v>428</v>
       </c>
       <c r="B10" s="49">
@@ -16060,11 +16061,11 @@
       <c r="C10" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="153" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76"/>
-      <c r="F10" s="152" t="s">
+      <c r="F10" s="154" t="s">
         <v>384</v>
       </c>
       <c r="G10" s="49">
@@ -16076,7 +16077,7 @@
       <c r="I10" s="155" t="s">
         <v>445</v>
       </c>
-      <c r="K10" s="152" t="s">
+      <c r="K10" s="154" t="s">
         <v>432</v>
       </c>
       <c r="L10" s="49">
@@ -16086,14 +16087,14 @@
       <c r="M10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="152" t="s">
+      <c r="N10" s="154" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="76">
         <f>COUNTIF(M:M,M10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="152" t="s">
+      <c r="P10" s="154" t="s">
         <v>381</v>
       </c>
       <c r="Q10" s="49">
@@ -16102,7 +16103,7 @@
       <c r="R10" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="S10" s="153" t="s">
+      <c r="S10" s="152" t="s">
         <v>441</v>
       </c>
       <c r="U10" s="73" t="s">
@@ -16113,7 +16114,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="49">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -16121,9 +16122,9 @@
       <c r="C11" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="152"/>
+      <c r="F11" s="154"/>
       <c r="G11" s="49">
         <v>2</v>
       </c>
@@ -16131,7 +16132,7 @@
         <v>483</v>
       </c>
       <c r="I11" s="155"/>
-      <c r="K11" s="152"/>
+      <c r="K11" s="154"/>
       <c r="L11" s="49">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -16139,19 +16140,19 @@
       <c r="M11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="152"/>
+      <c r="N11" s="154"/>
       <c r="O11" s="76">
         <f t="shared" ref="O11:O74" si="0">COUNTIF(M:M,M11)</f>
         <v>1</v>
       </c>
-      <c r="P11" s="152"/>
+      <c r="P11" s="154"/>
       <c r="Q11" s="49">
         <v>2</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="S11" s="153"/>
+      <c r="S11" s="152"/>
       <c r="U11" s="73" t="s">
         <v>475</v>
       </c>
@@ -16160,7 +16161,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="49">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -16168,9 +16169,9 @@
       <c r="C12" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="154"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="76"/>
-      <c r="F12" s="152"/>
+      <c r="F12" s="154"/>
       <c r="G12" s="49">
         <v>3</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>484</v>
       </c>
       <c r="I12" s="155"/>
-      <c r="K12" s="152"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="49">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -16186,19 +16187,19 @@
       <c r="M12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N12" s="152"/>
+      <c r="N12" s="154"/>
       <c r="O12" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P12" s="152"/>
+      <c r="P12" s="154"/>
       <c r="Q12" s="49">
         <v>3</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="S12" s="153"/>
+      <c r="S12" s="152"/>
       <c r="U12" s="73" t="s">
         <v>475</v>
       </c>
@@ -16207,7 +16208,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="49">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -16215,9 +16216,9 @@
       <c r="C13" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="152"/>
+      <c r="F13" s="154"/>
       <c r="G13" s="49">
         <v>4</v>
       </c>
@@ -16225,7 +16226,7 @@
         <v>485</v>
       </c>
       <c r="I13" s="155"/>
-      <c r="K13" s="152"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="49">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -16233,19 +16234,19 @@
       <c r="M13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="N13" s="152"/>
+      <c r="N13" s="154"/>
       <c r="O13" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="152"/>
+      <c r="P13" s="154"/>
       <c r="Q13" s="49">
         <v>4</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="S13" s="153"/>
+      <c r="S13" s="152"/>
       <c r="U13" s="73" t="s">
         <v>475</v>
       </c>
@@ -16254,7 +16255,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="49">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>56</v>
@@ -16262,9 +16263,9 @@
       <c r="C14" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="76"/>
-      <c r="F14" s="152"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="49">
         <v>5</v>
       </c>
@@ -16272,7 +16273,7 @@
         <v>486</v>
       </c>
       <c r="I14" s="155"/>
-      <c r="K14" s="152"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="49">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -16280,19 +16281,19 @@
       <c r="M14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="N14" s="152"/>
+      <c r="N14" s="154"/>
       <c r="O14" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P14" s="152"/>
+      <c r="P14" s="154"/>
       <c r="Q14" s="49">
         <v>5</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="S14" s="153"/>
+      <c r="S14" s="152"/>
       <c r="U14" s="73" t="s">
         <v>475</v>
       </c>
@@ -16301,7 +16302,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="77">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>58</v>
@@ -16309,9 +16310,9 @@
       <c r="C15" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="152"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="49">
         <v>6</v>
       </c>
@@ -16319,7 +16320,7 @@
         <v>487</v>
       </c>
       <c r="I15" s="155"/>
-      <c r="K15" s="152"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="49">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -16327,19 +16328,19 @@
       <c r="M15" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N15" s="152"/>
+      <c r="N15" s="154"/>
       <c r="O15" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="152"/>
+      <c r="P15" s="154"/>
       <c r="Q15" s="49">
         <v>6</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="S15" s="153"/>
+      <c r="S15" s="152"/>
       <c r="U15" s="73" t="s">
         <v>475</v>
       </c>
@@ -16348,7 +16349,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="49">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>61</v>
@@ -16356,9 +16357,9 @@
       <c r="C16" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="152"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="49">
         <v>7</v>
       </c>
@@ -16366,7 +16367,7 @@
         <v>488</v>
       </c>
       <c r="I16" s="155"/>
-      <c r="K16" s="152"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="49">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -16374,19 +16375,19 @@
       <c r="M16" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N16" s="152"/>
+      <c r="N16" s="154"/>
       <c r="O16" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="152"/>
+      <c r="P16" s="154"/>
       <c r="Q16" s="49">
         <v>7</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="S16" s="153"/>
+      <c r="S16" s="152"/>
       <c r="U16" s="73" t="s">
         <v>475</v>
       </c>
@@ -16395,7 +16396,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="146">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>57</v>
@@ -16403,9 +16404,9 @@
       <c r="C17" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="152"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="49">
         <v>8</v>
       </c>
@@ -16413,7 +16414,7 @@
         <v>489</v>
       </c>
       <c r="I17" s="155"/>
-      <c r="K17" s="152"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="49">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>33</v>
@@ -16421,19 +16422,19 @@
       <c r="M17" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N17" s="152"/>
+      <c r="N17" s="154"/>
       <c r="O17" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="152"/>
+      <c r="P17" s="154"/>
       <c r="Q17" s="49">
         <v>8</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="S17" s="153"/>
+      <c r="S17" s="152"/>
       <c r="U17" s="73" t="s">
         <v>475</v>
       </c>
@@ -16442,7 +16443,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="49">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -16450,9 +16451,9 @@
       <c r="C18" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="152"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="49">
         <v>9</v>
       </c>
@@ -16460,7 +16461,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="155"/>
-      <c r="K18" s="152"/>
+      <c r="K18" s="154"/>
       <c r="L18" s="49">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -16468,19 +16469,19 @@
       <c r="M18" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="N18" s="152"/>
+      <c r="N18" s="154"/>
       <c r="O18" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="152"/>
+      <c r="P18" s="154"/>
       <c r="Q18" s="49">
         <v>9</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="S18" s="153"/>
+      <c r="S18" s="152"/>
       <c r="U18" s="73" t="s">
         <v>475</v>
       </c>
@@ -16489,7 +16490,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="49">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -16497,9 +16498,9 @@
       <c r="C19" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="154"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="152"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="49">
         <v>10</v>
       </c>
@@ -16507,7 +16508,7 @@
         <v>491</v>
       </c>
       <c r="I19" s="155"/>
-      <c r="K19" s="152"/>
+      <c r="K19" s="154"/>
       <c r="L19" s="49">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -16515,19 +16516,19 @@
       <c r="M19" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N19" s="152"/>
+      <c r="N19" s="154"/>
       <c r="O19" s="76">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P19" s="152"/>
+      <c r="P19" s="154"/>
       <c r="Q19" s="49">
         <v>10</v>
       </c>
       <c r="R19" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="S19" s="153"/>
+      <c r="S19" s="152"/>
       <c r="U19" s="73" t="s">
         <v>475</v>
       </c>
@@ -16536,7 +16537,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="49">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>41</v>
@@ -16544,9 +16545,9 @@
       <c r="C20" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="154"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="152"/>
+      <c r="F20" s="154"/>
       <c r="G20" s="49">
         <v>11</v>
       </c>
@@ -16554,7 +16555,7 @@
         <v>492</v>
       </c>
       <c r="I20" s="155"/>
-      <c r="K20" s="152"/>
+      <c r="K20" s="154"/>
       <c r="L20" s="49">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>43</v>
@@ -16562,19 +16563,19 @@
       <c r="M20" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="N20" s="152"/>
+      <c r="N20" s="154"/>
       <c r="O20" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P20" s="152"/>
+      <c r="P20" s="154"/>
       <c r="Q20" s="49">
         <v>11</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="S20" s="153"/>
+      <c r="S20" s="152"/>
       <c r="U20" s="73" t="s">
         <v>475</v>
       </c>
@@ -16583,7 +16584,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="49">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -16591,9 +16592,9 @@
       <c r="C21" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="76"/>
-      <c r="F21" s="152"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="49">
         <v>12</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>493</v>
       </c>
       <c r="I21" s="155"/>
-      <c r="K21" s="152"/>
+      <c r="K21" s="154"/>
       <c r="L21" s="77">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -16609,19 +16610,19 @@
       <c r="M21" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N21" s="152"/>
+      <c r="N21" s="154"/>
       <c r="O21" s="76">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P21" s="152"/>
+      <c r="P21" s="154"/>
       <c r="Q21" s="49">
         <v>12</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="S21" s="153"/>
+      <c r="S21" s="152"/>
       <c r="U21" s="73" t="s">
         <v>475</v>
       </c>
@@ -16630,7 +16631,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="49">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -16638,9 +16639,9 @@
       <c r="C22" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="154"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="152"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="49">
         <v>13</v>
       </c>
@@ -16648,7 +16649,7 @@
         <v>494</v>
       </c>
       <c r="I22" s="155"/>
-      <c r="K22" s="152"/>
+      <c r="K22" s="154"/>
       <c r="L22" s="49">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -16656,19 +16657,19 @@
       <c r="M22" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N22" s="152"/>
+      <c r="N22" s="154"/>
       <c r="O22" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P22" s="152"/>
+      <c r="P22" s="154"/>
       <c r="Q22" s="49">
         <v>13</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="S22" s="153"/>
+      <c r="S22" s="152"/>
       <c r="U22" s="73" t="s">
         <v>475</v>
       </c>
@@ -16677,7 +16678,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="49">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -16685,9 +16686,9 @@
       <c r="C23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="152"/>
+      <c r="F23" s="154"/>
       <c r="G23" s="49">
         <v>14</v>
       </c>
@@ -16695,7 +16696,7 @@
         <v>495</v>
       </c>
       <c r="I23" s="155"/>
-      <c r="K23" s="152"/>
+      <c r="K23" s="154"/>
       <c r="L23" s="49">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -16703,19 +16704,19 @@
       <c r="M23" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="N23" s="152"/>
+      <c r="N23" s="154"/>
       <c r="O23" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P23" s="152"/>
+      <c r="P23" s="154"/>
       <c r="Q23" s="49">
         <v>14</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="S23" s="153"/>
+      <c r="S23" s="152"/>
       <c r="U23" s="73" t="s">
         <v>478</v>
       </c>
@@ -16724,7 +16725,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="49">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -16732,9 +16733,9 @@
       <c r="C24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="154"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="152"/>
+      <c r="F24" s="154"/>
       <c r="G24" s="49">
         <v>15</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>496</v>
       </c>
       <c r="I24" s="155"/>
-      <c r="K24" s="152"/>
+      <c r="K24" s="154"/>
       <c r="L24" s="49">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -16750,19 +16751,19 @@
       <c r="M24" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N24" s="152"/>
+      <c r="N24" s="154"/>
       <c r="O24" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P24" s="152"/>
+      <c r="P24" s="154"/>
       <c r="Q24" s="49">
         <v>15</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="S24" s="153"/>
+      <c r="S24" s="152"/>
       <c r="U24" s="73" t="s">
         <v>478</v>
       </c>
@@ -16771,7 +16772,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="49">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -16779,9 +16780,9 @@
       <c r="C25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="154"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="76"/>
-      <c r="F25" s="152"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="49">
         <v>16</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>497</v>
       </c>
       <c r="I25" s="155"/>
-      <c r="K25" s="152"/>
+      <c r="K25" s="154"/>
       <c r="L25" s="49">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -16797,19 +16798,19 @@
       <c r="M25" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="N25" s="152"/>
+      <c r="N25" s="154"/>
       <c r="O25" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="152"/>
+      <c r="P25" s="154"/>
       <c r="Q25" s="49">
         <v>16</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="S25" s="153"/>
+      <c r="S25" s="152"/>
       <c r="U25" s="73" t="s">
         <v>478</v>
       </c>
@@ -16818,7 +16819,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
+      <c r="A26" s="154"/>
       <c r="B26" s="49">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -16826,9 +16827,9 @@
       <c r="C26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="154"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="76"/>
-      <c r="F26" s="152"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="49">
         <v>17</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>498</v>
       </c>
       <c r="I26" s="155"/>
-      <c r="K26" s="152"/>
+      <c r="K26" s="154"/>
       <c r="L26" s="49">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -16844,19 +16845,19 @@
       <c r="M26" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N26" s="152"/>
+      <c r="N26" s="154"/>
       <c r="O26" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P26" s="152"/>
+      <c r="P26" s="154"/>
       <c r="Q26" s="49">
         <v>17</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="S26" s="153"/>
+      <c r="S26" s="152"/>
       <c r="U26" s="73" t="s">
         <v>475</v>
       </c>
@@ -16865,7 +16866,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="49">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -16873,9 +16874,9 @@
       <c r="C27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="154"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="76"/>
-      <c r="F27" s="152"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="49">
         <v>18</v>
       </c>
@@ -16883,7 +16884,7 @@
         <v>499</v>
       </c>
       <c r="I27" s="155"/>
-      <c r="K27" s="152"/>
+      <c r="K27" s="154"/>
       <c r="L27" s="49">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -16891,19 +16892,19 @@
       <c r="M27" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="N27" s="152"/>
+      <c r="N27" s="154"/>
       <c r="O27" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="152"/>
+      <c r="P27" s="154"/>
       <c r="Q27" s="49">
         <v>18</v>
       </c>
       <c r="R27" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="S27" s="153"/>
+      <c r="S27" s="152"/>
       <c r="U27" s="73" t="s">
         <v>475</v>
       </c>
@@ -16913,7 +16914,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="152"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="49">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -16921,9 +16922,9 @@
       <c r="C28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="154"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="76"/>
-      <c r="F28" s="152"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="49">
         <v>19</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="155"/>
-      <c r="K28" s="152"/>
+      <c r="K28" s="154"/>
       <c r="L28" s="79">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>75</v>
@@ -16939,19 +16940,19 @@
       <c r="M28" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="N28" s="152"/>
+      <c r="N28" s="154"/>
       <c r="O28" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P28" s="152"/>
+      <c r="P28" s="154"/>
       <c r="Q28" s="49">
         <v>19</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="S28" s="153"/>
+      <c r="S28" s="152"/>
       <c r="U28" s="73" t="s">
         <v>475</v>
       </c>
@@ -16961,7 +16962,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
+      <c r="A29" s="154"/>
       <c r="B29" s="49">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>44</v>
@@ -16969,9 +16970,9 @@
       <c r="C29" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="154"/>
+      <c r="D29" s="153"/>
       <c r="E29" s="76"/>
-      <c r="F29" s="152"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="49">
         <v>20</v>
       </c>
@@ -16979,7 +16980,7 @@
         <v>501</v>
       </c>
       <c r="I29" s="155"/>
-      <c r="K29" s="152"/>
+      <c r="K29" s="154"/>
       <c r="L29" s="49">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>77</v>
@@ -16987,19 +16988,19 @@
       <c r="M29" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="N29" s="152"/>
+      <c r="N29" s="154"/>
       <c r="O29" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P29" s="152"/>
+      <c r="P29" s="154"/>
       <c r="Q29" s="49">
         <v>20</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="S29" s="153"/>
+      <c r="S29" s="152"/>
       <c r="U29" s="73" t="s">
         <v>475</v>
       </c>
@@ -17008,7 +17009,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="49">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>45</v>
@@ -17016,9 +17017,9 @@
       <c r="C30" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="76"/>
-      <c r="F30" s="152"/>
+      <c r="F30" s="154"/>
       <c r="G30" s="49">
         <v>21</v>
       </c>
@@ -17026,7 +17027,7 @@
         <v>502</v>
       </c>
       <c r="I30" s="155"/>
-      <c r="K30" s="152"/>
+      <c r="K30" s="154"/>
       <c r="L30" s="49">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>78</v>
@@ -17034,25 +17035,25 @@
       <c r="M30" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="N30" s="152"/>
+      <c r="N30" s="154"/>
       <c r="O30" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P30" s="152"/>
+      <c r="P30" s="154"/>
       <c r="Q30" s="49">
         <v>21</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="S30" s="153"/>
+      <c r="S30" s="152"/>
       <c r="U30" s="49" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
+      <c r="A31" s="154"/>
       <c r="B31" s="49">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -17060,9 +17061,9 @@
       <c r="C31" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D31" s="154"/>
+      <c r="D31" s="153"/>
       <c r="E31" s="76"/>
-      <c r="F31" s="152"/>
+      <c r="F31" s="154"/>
       <c r="G31" s="49">
         <v>22</v>
       </c>
@@ -17070,7 +17071,7 @@
         <v>503</v>
       </c>
       <c r="I31" s="155"/>
-      <c r="K31" s="152"/>
+      <c r="K31" s="154"/>
       <c r="L31" s="49">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -17078,32 +17079,32 @@
       <c r="M31" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="N31" s="152"/>
+      <c r="N31" s="154"/>
       <c r="O31" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P31" s="152"/>
+      <c r="P31" s="154"/>
       <c r="Q31" s="49">
         <v>22</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S31" s="153"/>
+      <c r="S31" s="152"/>
       <c r="U31" s="49" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="154"/>
+      <c r="D32" s="153"/>
       <c r="E32" s="76"/>
-      <c r="F32" s="152"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="49">
         <v>23</v>
       </c>
@@ -17111,53 +17112,53 @@
         <v>442</v>
       </c>
       <c r="I32" s="155"/>
-      <c r="K32" s="152"/>
+      <c r="K32" s="154"/>
       <c r="L32" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N32" s="152"/>
+      <c r="N32" s="154"/>
       <c r="O32" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="152"/>
+      <c r="P32" s="154"/>
       <c r="Q32" s="49">
         <v>23</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S32" s="153"/>
+      <c r="S32" s="152"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
-      <c r="D33" s="154"/>
+      <c r="A33" s="154"/>
+      <c r="D33" s="153"/>
       <c r="E33" s="76"/>
-      <c r="F33" s="152"/>
+      <c r="F33" s="154"/>
       <c r="G33" s="49">
         <v>24</v>
       </c>
       <c r="I33" s="155"/>
-      <c r="K33" s="152"/>
-      <c r="N33" s="152"/>
+      <c r="K33" s="154"/>
+      <c r="N33" s="154"/>
       <c r="O33" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="152"/>
+      <c r="P33" s="154"/>
       <c r="Q33" s="49">
         <v>24</v>
       </c>
-      <c r="S33" s="153"/>
+      <c r="S33" s="152"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
+      <c r="A34" s="154"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="154"/>
+      <c r="D34" s="153"/>
       <c r="E34" s="76"/>
       <c r="F34" s="47"/>
-      <c r="K34" s="152"/>
-      <c r="N34" s="152"/>
+      <c r="K34" s="154"/>
+      <c r="N34" s="154"/>
       <c r="O34" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17165,13 +17166,13 @@
       <c r="P34" s="47"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
+      <c r="A35" s="154"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="154"/>
+      <c r="D35" s="153"/>
       <c r="E35" s="76"/>
       <c r="F35" s="47"/>
-      <c r="K35" s="152"/>
-      <c r="N35" s="152"/>
+      <c r="K35" s="154"/>
+      <c r="N35" s="154"/>
       <c r="O35" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17179,7 +17180,7 @@
       <c r="P35" s="47"/>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
+      <c r="A36" s="154"/>
       <c r="B36" s="49">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -17187,9 +17188,9 @@
       <c r="C36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="154"/>
+      <c r="D36" s="153"/>
       <c r="E36" s="76"/>
-      <c r="F36" s="152" t="s">
+      <c r="F36" s="154" t="s">
         <v>385</v>
       </c>
       <c r="G36" s="49">
@@ -17201,7 +17202,7 @@
       <c r="I36" s="155" t="s">
         <v>446</v>
       </c>
-      <c r="K36" s="152"/>
+      <c r="K36" s="154"/>
       <c r="L36" s="49">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -17209,12 +17210,12 @@
       <c r="M36" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="N36" s="152"/>
+      <c r="N36" s="154"/>
       <c r="O36" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P36" s="152" t="s">
+      <c r="P36" s="154" t="s">
         <v>382</v>
       </c>
       <c r="Q36" s="49">
@@ -17223,7 +17224,7 @@
       <c r="R36" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="S36" s="153" t="s">
+      <c r="S36" s="152" t="s">
         <v>440</v>
       </c>
       <c r="U36" s="73" t="s">
@@ -17234,7 +17235,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="49">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -17242,9 +17243,9 @@
       <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="154"/>
+      <c r="D37" s="153"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="152"/>
+      <c r="F37" s="154"/>
       <c r="G37" s="49">
         <v>2</v>
       </c>
@@ -17252,7 +17253,7 @@
         <v>505</v>
       </c>
       <c r="I37" s="155"/>
-      <c r="K37" s="152"/>
+      <c r="K37" s="154"/>
       <c r="L37" s="49">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -17260,19 +17261,19 @@
       <c r="M37" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="N37" s="152"/>
+      <c r="N37" s="154"/>
       <c r="O37" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P37" s="152"/>
+      <c r="P37" s="154"/>
       <c r="Q37" s="49">
         <v>2</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="S37" s="153"/>
+      <c r="S37" s="152"/>
       <c r="U37" s="73" t="s">
         <v>474</v>
       </c>
@@ -17281,7 +17282,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="49">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>3</v>
@@ -17289,9 +17290,9 @@
       <c r="C38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="154"/>
+      <c r="D38" s="153"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="152"/>
+      <c r="F38" s="154"/>
       <c r="G38" s="49">
         <v>3</v>
       </c>
@@ -17299,7 +17300,7 @@
         <v>506</v>
       </c>
       <c r="I38" s="155"/>
-      <c r="K38" s="152"/>
+      <c r="K38" s="154"/>
       <c r="L38" s="81">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>3</v>
@@ -17307,19 +17308,19 @@
       <c r="M38" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="N38" s="152"/>
+      <c r="N38" s="154"/>
       <c r="O38" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P38" s="152"/>
+      <c r="P38" s="154"/>
       <c r="Q38" s="49">
         <v>3</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="S38" s="153"/>
+      <c r="S38" s="152"/>
       <c r="U38" s="73" t="s">
         <v>474</v>
       </c>
@@ -17328,7 +17329,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
+      <c r="A39" s="154"/>
       <c r="B39" s="49">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>4</v>
@@ -17336,9 +17337,9 @@
       <c r="C39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="154"/>
+      <c r="D39" s="153"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="152"/>
+      <c r="F39" s="154"/>
       <c r="G39" s="49">
         <v>4</v>
       </c>
@@ -17346,7 +17347,7 @@
         <v>507</v>
       </c>
       <c r="I39" s="155"/>
-      <c r="K39" s="152"/>
+      <c r="K39" s="154"/>
       <c r="L39" s="81">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>4</v>
@@ -17354,19 +17355,19 @@
       <c r="M39" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="152"/>
+      <c r="N39" s="154"/>
       <c r="O39" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P39" s="152"/>
+      <c r="P39" s="154"/>
       <c r="Q39" s="49">
         <v>4</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="S39" s="153"/>
+      <c r="S39" s="152"/>
       <c r="U39" s="73" t="s">
         <v>474</v>
       </c>
@@ -17375,7 +17376,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
+      <c r="A40" s="154"/>
       <c r="B40" s="49">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>66</v>
@@ -17383,9 +17384,9 @@
       <c r="C40" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="154"/>
+      <c r="D40" s="153"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="152"/>
+      <c r="F40" s="154"/>
       <c r="G40" s="49">
         <v>5</v>
       </c>
@@ -17393,7 +17394,7 @@
         <v>508</v>
       </c>
       <c r="I40" s="155"/>
-      <c r="K40" s="152"/>
+      <c r="K40" s="154"/>
       <c r="L40" s="81">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -17401,19 +17402,19 @@
       <c r="M40" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N40" s="152"/>
+      <c r="N40" s="154"/>
       <c r="O40" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P40" s="152"/>
+      <c r="P40" s="154"/>
       <c r="Q40" s="49">
         <v>5</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="S40" s="153"/>
+      <c r="S40" s="152"/>
       <c r="U40" s="73" t="s">
         <v>475</v>
       </c>
@@ -17422,7 +17423,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="49">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>65</v>
@@ -17430,9 +17431,9 @@
       <c r="C41" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="154"/>
+      <c r="D41" s="153"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="152"/>
+      <c r="F41" s="154"/>
       <c r="G41" s="49">
         <v>6</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>509</v>
       </c>
       <c r="I41" s="155"/>
-      <c r="K41" s="152"/>
+      <c r="K41" s="154"/>
       <c r="L41" s="81">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>35</v>
@@ -17448,19 +17449,19 @@
       <c r="M41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="N41" s="152"/>
+      <c r="N41" s="154"/>
       <c r="O41" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P41" s="152"/>
+      <c r="P41" s="154"/>
       <c r="Q41" s="49">
         <v>6</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="S41" s="153"/>
+      <c r="S41" s="152"/>
       <c r="U41" s="73" t="s">
         <v>475</v>
       </c>
@@ -17469,7 +17470,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
+      <c r="A42" s="154"/>
       <c r="B42" s="49">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>100</v>
@@ -17477,9 +17478,9 @@
       <c r="C42" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D42" s="154"/>
+      <c r="D42" s="153"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="152"/>
+      <c r="F42" s="154"/>
       <c r="G42" s="49">
         <v>7</v>
       </c>
@@ -17487,7 +17488,7 @@
         <v>510</v>
       </c>
       <c r="I42" s="155"/>
-      <c r="K42" s="152"/>
+      <c r="K42" s="154"/>
       <c r="L42" s="49">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>36</v>
@@ -17495,19 +17496,19 @@
       <c r="M42" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N42" s="152"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P42" s="152"/>
+      <c r="P42" s="154"/>
       <c r="Q42" s="49">
         <v>7</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="S42" s="153"/>
+      <c r="S42" s="152"/>
       <c r="U42" s="73" t="s">
         <v>475</v>
       </c>
@@ -17516,7 +17517,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
+      <c r="A43" s="154"/>
       <c r="B43" s="49">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>63</v>
@@ -17524,9 +17525,9 @@
       <c r="C43" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="154"/>
+      <c r="D43" s="153"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="152"/>
+      <c r="F43" s="154"/>
       <c r="G43" s="49">
         <v>8</v>
       </c>
@@ -17534,7 +17535,7 @@
         <v>511</v>
       </c>
       <c r="I43" s="155"/>
-      <c r="K43" s="152"/>
+      <c r="K43" s="154"/>
       <c r="L43" s="49">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>57</v>
@@ -17542,19 +17543,19 @@
       <c r="M43" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="152"/>
+      <c r="N43" s="154"/>
       <c r="O43" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P43" s="152"/>
+      <c r="P43" s="154"/>
       <c r="Q43" s="49">
         <v>8</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="S43" s="153"/>
+      <c r="S43" s="152"/>
       <c r="U43" s="73" t="s">
         <v>475</v>
       </c>
@@ -17563,7 +17564,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
+      <c r="A44" s="154"/>
       <c r="B44" s="49">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>25</v>
@@ -17571,9 +17572,9 @@
       <c r="C44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="154"/>
+      <c r="D44" s="153"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="152"/>
+      <c r="F44" s="154"/>
       <c r="G44" s="49">
         <v>9</v>
       </c>
@@ -17581,7 +17582,7 @@
         <v>512</v>
       </c>
       <c r="I44" s="155"/>
-      <c r="K44" s="152"/>
+      <c r="K44" s="154"/>
       <c r="L44" s="49">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -17589,19 +17590,19 @@
       <c r="M44" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="152"/>
+      <c r="N44" s="154"/>
       <c r="O44" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P44" s="152"/>
+      <c r="P44" s="154"/>
       <c r="Q44" s="49">
         <v>9</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="S44" s="153"/>
+      <c r="S44" s="152"/>
       <c r="U44" s="73" t="s">
         <v>475</v>
       </c>
@@ -17610,7 +17611,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="152"/>
+      <c r="A45" s="154"/>
       <c r="B45" s="49">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>26</v>
@@ -17618,9 +17619,9 @@
       <c r="C45" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="154"/>
+      <c r="D45" s="153"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="152"/>
+      <c r="F45" s="154"/>
       <c r="G45" s="49">
         <v>10</v>
       </c>
@@ -17628,7 +17629,7 @@
         <v>513</v>
       </c>
       <c r="I45" s="155"/>
-      <c r="K45" s="152"/>
+      <c r="K45" s="154"/>
       <c r="L45" s="49">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -17636,19 +17637,19 @@
       <c r="M45" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N45" s="152"/>
+      <c r="N45" s="154"/>
       <c r="O45" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P45" s="152"/>
+      <c r="P45" s="154"/>
       <c r="Q45" s="49">
         <v>10</v>
       </c>
       <c r="R45" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="S45" s="153"/>
+      <c r="S45" s="152"/>
       <c r="U45" s="73" t="s">
         <v>478</v>
       </c>
@@ -17657,7 +17658,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="152"/>
+      <c r="A46" s="154"/>
       <c r="B46" s="49">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>27</v>
@@ -17665,9 +17666,9 @@
       <c r="C46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="154"/>
+      <c r="D46" s="153"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="152"/>
+      <c r="F46" s="154"/>
       <c r="G46" s="49">
         <v>11</v>
       </c>
@@ -17675,7 +17676,7 @@
         <v>514</v>
       </c>
       <c r="I46" s="155"/>
-      <c r="K46" s="152"/>
+      <c r="K46" s="154"/>
       <c r="L46" s="49">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -17683,19 +17684,19 @@
       <c r="M46" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="N46" s="152"/>
+      <c r="N46" s="154"/>
       <c r="O46" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P46" s="152"/>
+      <c r="P46" s="154"/>
       <c r="Q46" s="49">
         <v>11</v>
       </c>
       <c r="R46" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="S46" s="153"/>
+      <c r="S46" s="152"/>
       <c r="U46" s="73" t="s">
         <v>478</v>
       </c>
@@ -17704,7 +17705,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
+      <c r="A47" s="154"/>
       <c r="B47" s="49">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>28</v>
@@ -17712,9 +17713,9 @@
       <c r="C47" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="154"/>
+      <c r="D47" s="153"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="152"/>
+      <c r="F47" s="154"/>
       <c r="G47" s="49">
         <v>12</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>515</v>
       </c>
       <c r="I47" s="155"/>
-      <c r="K47" s="152"/>
+      <c r="K47" s="154"/>
       <c r="L47" s="49">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>61</v>
@@ -17730,19 +17731,19 @@
       <c r="M47" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="N47" s="152"/>
+      <c r="N47" s="154"/>
       <c r="O47" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P47" s="152"/>
+      <c r="P47" s="154"/>
       <c r="Q47" s="49">
         <v>12</v>
       </c>
       <c r="R47" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="S47" s="153"/>
+      <c r="S47" s="152"/>
       <c r="U47" s="73" t="s">
         <v>475</v>
       </c>
@@ -17751,7 +17752,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="152"/>
+      <c r="A48" s="154"/>
       <c r="B48" s="49">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>29</v>
@@ -17759,9 +17760,9 @@
       <c r="C48" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="154"/>
+      <c r="D48" s="153"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="152"/>
+      <c r="F48" s="154"/>
       <c r="G48" s="49">
         <v>13</v>
       </c>
@@ -17769,7 +17770,7 @@
         <v>516</v>
       </c>
       <c r="I48" s="155"/>
-      <c r="K48" s="152"/>
+      <c r="K48" s="154"/>
       <c r="L48" s="49">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>62</v>
@@ -17777,19 +17778,19 @@
       <c r="M48" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="N48" s="152"/>
+      <c r="N48" s="154"/>
       <c r="O48" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P48" s="152"/>
+      <c r="P48" s="154"/>
       <c r="Q48" s="49">
         <v>13</v>
       </c>
       <c r="R48" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="S48" s="153"/>
+      <c r="S48" s="152"/>
       <c r="U48" s="73" t="s">
         <v>475</v>
       </c>
@@ -17798,7 +17799,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="152"/>
+      <c r="A49" s="154"/>
       <c r="B49" s="49">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>30</v>
@@ -17806,9 +17807,9 @@
       <c r="C49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="154"/>
+      <c r="D49" s="153"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="152"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="49">
         <v>14</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>517</v>
       </c>
       <c r="I49" s="155"/>
-      <c r="K49" s="152"/>
+      <c r="K49" s="154"/>
       <c r="L49" s="49">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>63</v>
@@ -17824,19 +17825,19 @@
       <c r="M49" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="N49" s="152"/>
+      <c r="N49" s="154"/>
       <c r="O49" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P49" s="152"/>
+      <c r="P49" s="154"/>
       <c r="Q49" s="49">
         <v>14</v>
       </c>
       <c r="R49" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="S49" s="153"/>
+      <c r="S49" s="152"/>
       <c r="U49" s="73" t="s">
         <v>475</v>
       </c>
@@ -17845,7 +17846,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="152"/>
+      <c r="A50" s="154"/>
       <c r="B50" s="49">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>31</v>
@@ -17853,9 +17854,9 @@
       <c r="C50" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="154"/>
+      <c r="D50" s="153"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="152"/>
+      <c r="F50" s="154"/>
       <c r="G50" s="49">
         <v>15</v>
       </c>
@@ -17863,7 +17864,7 @@
         <v>518</v>
       </c>
       <c r="I50" s="155"/>
-      <c r="K50" s="152"/>
+      <c r="K50" s="154"/>
       <c r="L50" s="49">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>64</v>
@@ -17871,19 +17872,19 @@
       <c r="M50" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N50" s="152"/>
+      <c r="N50" s="154"/>
       <c r="O50" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P50" s="152"/>
+      <c r="P50" s="154"/>
       <c r="Q50" s="49">
         <v>15</v>
       </c>
       <c r="R50" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="S50" s="153"/>
+      <c r="S50" s="152"/>
       <c r="U50" s="73" t="s">
         <v>475</v>
       </c>
@@ -17892,7 +17893,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="152"/>
+      <c r="A51" s="154"/>
       <c r="B51" s="49">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>18</v>
@@ -17900,9 +17901,9 @@
       <c r="C51" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D51" s="154"/>
+      <c r="D51" s="153"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="152"/>
+      <c r="F51" s="154"/>
       <c r="G51" s="49">
         <v>16</v>
       </c>
@@ -17910,7 +17911,7 @@
         <v>519</v>
       </c>
       <c r="I51" s="155"/>
-      <c r="K51" s="152"/>
+      <c r="K51" s="154"/>
       <c r="L51" s="49">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>65</v>
@@ -17918,32 +17919,32 @@
       <c r="M51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="N51" s="152"/>
+      <c r="N51" s="154"/>
       <c r="O51" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P51" s="152"/>
+      <c r="P51" s="154"/>
       <c r="Q51" s="49">
         <v>16</v>
       </c>
       <c r="R51" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S51" s="153"/>
+      <c r="S51" s="152"/>
       <c r="U51" s="49" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="152"/>
+      <c r="A52" s="154"/>
       <c r="B52" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="154"/>
+      <c r="D52" s="153"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="152"/>
+      <c r="F52" s="154"/>
       <c r="G52" s="49">
         <v>17</v>
       </c>
@@ -17951,69 +17952,69 @@
         <v>442</v>
       </c>
       <c r="I52" s="155"/>
-      <c r="K52" s="152"/>
+      <c r="K52" s="154"/>
       <c r="L52" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N52" s="152"/>
+      <c r="N52" s="154"/>
       <c r="O52" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P52" s="152"/>
+      <c r="P52" s="154"/>
       <c r="Q52" s="49">
         <v>17</v>
       </c>
       <c r="R52" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S52" s="153"/>
+      <c r="S52" s="152"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
-      <c r="D53" s="154"/>
+      <c r="A53" s="154"/>
+      <c r="D53" s="153"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="152"/>
+      <c r="F53" s="154"/>
       <c r="G53" s="49">
         <v>18</v>
       </c>
       <c r="I53" s="155"/>
-      <c r="K53" s="152"/>
-      <c r="N53" s="152"/>
+      <c r="K53" s="154"/>
+      <c r="N53" s="154"/>
       <c r="O53" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="152"/>
+      <c r="P53" s="154"/>
       <c r="Q53" s="49">
         <v>18</v>
       </c>
-      <c r="S53" s="153"/>
+      <c r="S53" s="152"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="152"/>
+      <c r="A54" s="154"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="154"/>
+      <c r="D54" s="153"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="152"/>
+      <c r="F54" s="154"/>
       <c r="G54" s="49">
         <v>19</v>
       </c>
       <c r="I54" s="155"/>
-      <c r="K54" s="152"/>
-      <c r="N54" s="152"/>
+      <c r="K54" s="154"/>
+      <c r="N54" s="154"/>
       <c r="O54" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P54" s="152"/>
+      <c r="P54" s="154"/>
       <c r="Q54" s="49">
         <v>19</v>
       </c>
-      <c r="S54" s="153"/>
+      <c r="S54" s="152"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="152"/>
+      <c r="A55" s="154"/>
       <c r="B55" s="49">
         <f>VLOOKUP(C55,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>99</v>
@@ -18021,9 +18022,9 @@
       <c r="C55" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="154"/>
+      <c r="D55" s="153"/>
       <c r="E55" s="76"/>
-      <c r="F55" s="152"/>
+      <c r="F55" s="154"/>
       <c r="G55" s="49">
         <v>20</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>520</v>
       </c>
       <c r="I55" s="155"/>
-      <c r="K55" s="152"/>
+      <c r="K55" s="154"/>
       <c r="L55" s="49">
         <f>VLOOKUP(M55,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>25</v>
@@ -18039,19 +18040,19 @@
       <c r="M55" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="N55" s="152"/>
+      <c r="N55" s="154"/>
       <c r="O55" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P55" s="152"/>
+      <c r="P55" s="154"/>
       <c r="Q55" s="49">
         <v>20</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="S55" s="153"/>
+      <c r="S55" s="152"/>
       <c r="U55" s="73" t="s">
         <v>475</v>
       </c>
@@ -18060,13 +18061,13 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="152"/>
+      <c r="A56" s="154"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="154"/>
+      <c r="D56" s="153"/>
       <c r="E56" s="76"/>
       <c r="F56" s="47"/>
-      <c r="K56" s="152"/>
-      <c r="N56" s="152"/>
+      <c r="K56" s="154"/>
+      <c r="N56" s="154"/>
       <c r="O56" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18074,13 +18075,13 @@
       <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="152"/>
+      <c r="A57" s="154"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="154"/>
+      <c r="D57" s="153"/>
       <c r="E57" s="76"/>
       <c r="F57" s="47"/>
-      <c r="K57" s="152"/>
-      <c r="N57" s="152"/>
+      <c r="K57" s="154"/>
+      <c r="N57" s="154"/>
       <c r="O57" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18088,7 +18089,7 @@
       <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
+      <c r="A58" s="154"/>
       <c r="B58" s="49">
         <f>VLOOKUP(C58,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>5</v>
@@ -18096,9 +18097,9 @@
       <c r="C58" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="154"/>
+      <c r="D58" s="153"/>
       <c r="E58" s="76"/>
-      <c r="F58" s="152" t="s">
+      <c r="F58" s="154" t="s">
         <v>386</v>
       </c>
       <c r="G58" s="49">
@@ -18110,7 +18111,7 @@
       <c r="I58" s="155" t="s">
         <v>447</v>
       </c>
-      <c r="K58" s="152"/>
+      <c r="K58" s="154"/>
       <c r="L58" s="49">
         <f>VLOOKUP(M58,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>5</v>
@@ -18118,12 +18119,12 @@
       <c r="M58" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="N58" s="152"/>
+      <c r="N58" s="154"/>
       <c r="O58" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P58" s="152" t="s">
+      <c r="P58" s="154" t="s">
         <v>383</v>
       </c>
       <c r="Q58" s="49">
@@ -18132,7 +18133,7 @@
       <c r="R58" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="S58" s="153" t="s">
+      <c r="S58" s="152" t="s">
         <v>439</v>
       </c>
       <c r="U58" s="73" t="s">
@@ -18143,7 +18144,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="152"/>
+      <c r="A59" s="154"/>
       <c r="B59" s="49">
         <f>VLOOKUP(C59,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>6</v>
@@ -18151,9 +18152,9 @@
       <c r="C59" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="154"/>
+      <c r="D59" s="153"/>
       <c r="E59" s="76"/>
-      <c r="F59" s="152"/>
+      <c r="F59" s="154"/>
       <c r="G59" s="49">
         <v>2</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>522</v>
       </c>
       <c r="I59" s="155"/>
-      <c r="K59" s="152"/>
+      <c r="K59" s="154"/>
       <c r="L59" s="49">
         <f>VLOOKUP(M59,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>6</v>
@@ -18169,19 +18170,19 @@
       <c r="M59" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="N59" s="152"/>
+      <c r="N59" s="154"/>
       <c r="O59" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P59" s="152"/>
+      <c r="P59" s="154"/>
       <c r="Q59" s="49">
         <v>2</v>
       </c>
       <c r="R59" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="S59" s="153"/>
+      <c r="S59" s="152"/>
       <c r="U59" s="73" t="s">
         <v>474</v>
       </c>
@@ -18190,7 +18191,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="152"/>
+      <c r="A60" s="154"/>
       <c r="B60" s="49">
         <f>VLOOKUP(C60,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>7</v>
@@ -18198,9 +18199,9 @@
       <c r="C60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="154"/>
+      <c r="D60" s="153"/>
       <c r="E60" s="76"/>
-      <c r="F60" s="152"/>
+      <c r="F60" s="154"/>
       <c r="G60" s="49">
         <v>3</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>523</v>
       </c>
       <c r="I60" s="155"/>
-      <c r="K60" s="152"/>
+      <c r="K60" s="154"/>
       <c r="L60" s="49">
         <f>VLOOKUP(M60,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>7</v>
@@ -18216,19 +18217,19 @@
       <c r="M60" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="N60" s="152"/>
+      <c r="N60" s="154"/>
       <c r="O60" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P60" s="152"/>
+      <c r="P60" s="154"/>
       <c r="Q60" s="49">
         <v>3</v>
       </c>
       <c r="R60" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="S60" s="153"/>
+      <c r="S60" s="152"/>
       <c r="U60" s="73" t="s">
         <v>474</v>
       </c>
@@ -18237,7 +18238,7 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="152"/>
+      <c r="A61" s="154"/>
       <c r="B61" s="49">
         <f>VLOOKUP(C61,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>8</v>
@@ -18245,9 +18246,9 @@
       <c r="C61" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="154"/>
+      <c r="D61" s="153"/>
       <c r="E61" s="76"/>
-      <c r="F61" s="152"/>
+      <c r="F61" s="154"/>
       <c r="G61" s="49">
         <v>4</v>
       </c>
@@ -18255,7 +18256,7 @@
         <v>524</v>
       </c>
       <c r="I61" s="155"/>
-      <c r="K61" s="152"/>
+      <c r="K61" s="154"/>
       <c r="L61" s="49">
         <f>VLOOKUP(M61,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>8</v>
@@ -18263,19 +18264,19 @@
       <c r="M61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="N61" s="152"/>
+      <c r="N61" s="154"/>
       <c r="O61" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P61" s="152"/>
+      <c r="P61" s="154"/>
       <c r="Q61" s="49">
         <v>4</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="S61" s="153"/>
+      <c r="S61" s="152"/>
       <c r="U61" s="73" t="s">
         <v>474</v>
       </c>
@@ -18284,7 +18285,7 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="152"/>
+      <c r="A62" s="154"/>
       <c r="B62" s="147">
         <f>VLOOKUP(C62,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>72</v>
@@ -18292,8 +18293,8 @@
       <c r="C62" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D62" s="154"/>
-      <c r="F62" s="152"/>
+      <c r="D62" s="153"/>
+      <c r="F62" s="154"/>
       <c r="G62" s="49">
         <v>5</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>526</v>
       </c>
       <c r="I62" s="155"/>
-      <c r="K62" s="152"/>
+      <c r="K62" s="154"/>
       <c r="L62" s="49">
         <f>VLOOKUP(M62,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>37</v>
@@ -18309,19 +18310,19 @@
       <c r="M62" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="N62" s="152"/>
+      <c r="N62" s="154"/>
       <c r="O62" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P62" s="152"/>
+      <c r="P62" s="154"/>
       <c r="Q62" s="49">
         <v>5</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="S62" s="153"/>
+      <c r="S62" s="152"/>
       <c r="U62" s="73" t="s">
         <v>475</v>
       </c>
@@ -18330,7 +18331,7 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="152"/>
+      <c r="A63" s="154"/>
       <c r="B63" s="147">
         <f>VLOOKUP(C63,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>71</v>
@@ -18338,9 +18339,9 @@
       <c r="C63" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D63" s="154"/>
+      <c r="D63" s="153"/>
       <c r="E63" s="76"/>
-      <c r="F63" s="152"/>
+      <c r="F63" s="154"/>
       <c r="G63" s="49">
         <v>6</v>
       </c>
@@ -18348,7 +18349,7 @@
         <v>528</v>
       </c>
       <c r="I63" s="155"/>
-      <c r="K63" s="152"/>
+      <c r="K63" s="154"/>
       <c r="L63" s="49">
         <f>VLOOKUP(M63,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>38</v>
@@ -18356,19 +18357,19 @@
       <c r="M63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="N63" s="152"/>
+      <c r="N63" s="154"/>
       <c r="O63" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P63" s="152"/>
+      <c r="P63" s="154"/>
       <c r="Q63" s="49">
         <v>6</v>
       </c>
       <c r="R63" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="S63" s="153"/>
+      <c r="S63" s="152"/>
       <c r="U63" s="73" t="s">
         <v>475</v>
       </c>
@@ -18377,7 +18378,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="152"/>
+      <c r="A64" s="154"/>
       <c r="B64" s="147">
         <f>VLOOKUP(C64,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>68</v>
@@ -18385,9 +18386,9 @@
       <c r="C64" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D64" s="154"/>
+      <c r="D64" s="153"/>
       <c r="E64" s="76"/>
-      <c r="F64" s="152"/>
+      <c r="F64" s="154"/>
       <c r="G64" s="49">
         <v>7</v>
       </c>
@@ -18395,7 +18396,7 @@
         <v>525</v>
       </c>
       <c r="I64" s="155"/>
-      <c r="K64" s="152"/>
+      <c r="K64" s="154"/>
       <c r="L64" s="49">
         <f>VLOOKUP(M64,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>66</v>
@@ -18403,19 +18404,19 @@
       <c r="M64" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="N64" s="152"/>
+      <c r="N64" s="154"/>
       <c r="O64" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P64" s="152"/>
+      <c r="P64" s="154"/>
       <c r="Q64" s="49">
         <v>7</v>
       </c>
       <c r="R64" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="S64" s="153"/>
+      <c r="S64" s="152"/>
       <c r="U64" s="73" t="s">
         <v>475</v>
       </c>
@@ -18424,7 +18425,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="152"/>
+      <c r="A65" s="154"/>
       <c r="B65" s="147">
         <f>VLOOKUP(C65,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>67</v>
@@ -18432,9 +18433,9 @@
       <c r="C65" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="154"/>
+      <c r="D65" s="153"/>
       <c r="E65" s="76"/>
-      <c r="F65" s="152"/>
+      <c r="F65" s="154"/>
       <c r="G65" s="49">
         <v>8</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>527</v>
       </c>
       <c r="I65" s="155"/>
-      <c r="K65" s="152"/>
+      <c r="K65" s="154"/>
       <c r="L65" s="49">
         <f>VLOOKUP(M65,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>67</v>
@@ -18450,19 +18451,19 @@
       <c r="M65" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="N65" s="152"/>
+      <c r="N65" s="154"/>
       <c r="O65" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P65" s="152"/>
+      <c r="P65" s="154"/>
       <c r="Q65" s="49">
         <v>8</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="S65" s="153"/>
+      <c r="S65" s="152"/>
       <c r="U65" s="73" t="s">
         <v>475</v>
       </c>
@@ -18471,7 +18472,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="152"/>
+      <c r="A66" s="154"/>
       <c r="B66" s="49">
         <f>VLOOKUP(C66,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>32</v>
@@ -18479,9 +18480,9 @@
       <c r="C66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="154"/>
+      <c r="D66" s="153"/>
       <c r="E66" s="76"/>
-      <c r="F66" s="152"/>
+      <c r="F66" s="154"/>
       <c r="G66" s="49">
         <v>9</v>
       </c>
@@ -18489,7 +18490,7 @@
         <v>529</v>
       </c>
       <c r="I66" s="155"/>
-      <c r="K66" s="152"/>
+      <c r="K66" s="154"/>
       <c r="L66" s="49">
         <f>VLOOKUP(M66,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>68</v>
@@ -18497,19 +18498,19 @@
       <c r="M66" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="N66" s="152"/>
+      <c r="N66" s="154"/>
       <c r="O66" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P66" s="152"/>
+      <c r="P66" s="154"/>
       <c r="Q66" s="49">
         <v>9</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="S66" s="153"/>
+      <c r="S66" s="152"/>
       <c r="U66" s="73" t="s">
         <v>478</v>
       </c>
@@ -18518,7 +18519,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="152"/>
+      <c r="A67" s="154"/>
       <c r="B67" s="49">
         <f>VLOOKUP(C67,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>33</v>
@@ -18526,9 +18527,9 @@
       <c r="C67" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="154"/>
+      <c r="D67" s="153"/>
       <c r="E67" s="76"/>
-      <c r="F67" s="152"/>
+      <c r="F67" s="154"/>
       <c r="G67" s="49">
         <v>10</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>530</v>
       </c>
       <c r="I67" s="155"/>
-      <c r="K67" s="152"/>
+      <c r="K67" s="154"/>
       <c r="L67" s="49">
         <f>VLOOKUP(M67,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>69</v>
@@ -18544,19 +18545,19 @@
       <c r="M67" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="N67" s="152"/>
+      <c r="N67" s="154"/>
       <c r="O67" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P67" s="152"/>
+      <c r="P67" s="154"/>
       <c r="Q67" s="49">
         <v>10</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="S67" s="153"/>
+      <c r="S67" s="152"/>
       <c r="U67" s="73" t="s">
         <v>478</v>
       </c>
@@ -18565,7 +18566,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="152"/>
+      <c r="A68" s="154"/>
       <c r="B68" s="49">
         <f>VLOOKUP(C68,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>34</v>
@@ -18573,9 +18574,9 @@
       <c r="C68" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="154"/>
+      <c r="D68" s="153"/>
       <c r="E68" s="76"/>
-      <c r="F68" s="152"/>
+      <c r="F68" s="154"/>
       <c r="G68" s="49">
         <v>11</v>
       </c>
@@ -18583,7 +18584,7 @@
         <v>531</v>
       </c>
       <c r="I68" s="155"/>
-      <c r="K68" s="152"/>
+      <c r="K68" s="154"/>
       <c r="L68" s="49">
         <f>VLOOKUP(M68,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>70</v>
@@ -18591,19 +18592,19 @@
       <c r="M68" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="N68" s="152"/>
+      <c r="N68" s="154"/>
       <c r="O68" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P68" s="152"/>
+      <c r="P68" s="154"/>
       <c r="Q68" s="49">
         <v>11</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="S68" s="153"/>
+      <c r="S68" s="152"/>
       <c r="U68" s="73" t="s">
         <v>478</v>
       </c>
@@ -18612,7 +18613,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
+      <c r="A69" s="154"/>
       <c r="B69" s="49">
         <f>VLOOKUP(C69,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>35</v>
@@ -18620,9 +18621,9 @@
       <c r="C69" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="154"/>
+      <c r="D69" s="153"/>
       <c r="E69" s="76"/>
-      <c r="F69" s="152"/>
+      <c r="F69" s="154"/>
       <c r="G69" s="49">
         <v>12</v>
       </c>
@@ -18630,7 +18631,7 @@
         <v>532</v>
       </c>
       <c r="I69" s="155"/>
-      <c r="K69" s="152"/>
+      <c r="K69" s="154"/>
       <c r="L69" s="49">
         <f>VLOOKUP(M69,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>71</v>
@@ -18638,19 +18639,19 @@
       <c r="M69" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="N69" s="152"/>
+      <c r="N69" s="154"/>
       <c r="O69" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P69" s="152"/>
+      <c r="P69" s="154"/>
       <c r="Q69" s="49">
         <v>12</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="S69" s="153"/>
+      <c r="S69" s="152"/>
       <c r="U69" s="73" t="s">
         <v>478</v>
       </c>
@@ -18659,7 +18660,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="152"/>
+      <c r="A70" s="154"/>
       <c r="B70" s="49">
         <f>VLOOKUP(C70,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>36</v>
@@ -18667,9 +18668,9 @@
       <c r="C70" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="154"/>
+      <c r="D70" s="153"/>
       <c r="E70" s="76"/>
-      <c r="F70" s="152"/>
+      <c r="F70" s="154"/>
       <c r="G70" s="49">
         <v>13</v>
       </c>
@@ -18677,7 +18678,7 @@
         <v>533</v>
       </c>
       <c r="I70" s="155"/>
-      <c r="K70" s="152"/>
+      <c r="K70" s="154"/>
       <c r="L70" s="81">
         <f>VLOOKUP(M70,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>72</v>
@@ -18685,19 +18686,19 @@
       <c r="M70" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N70" s="152"/>
+      <c r="N70" s="154"/>
       <c r="O70" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P70" s="152"/>
+      <c r="P70" s="154"/>
       <c r="Q70" s="49">
         <v>13</v>
       </c>
       <c r="R70" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="S70" s="153"/>
+      <c r="S70" s="152"/>
       <c r="U70" s="73" t="s">
         <v>475</v>
       </c>
@@ -18706,7 +18707,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="152"/>
+      <c r="A71" s="154"/>
       <c r="B71" s="49">
         <f>VLOOKUP(C71,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>37</v>
@@ -18714,9 +18715,9 @@
       <c r="C71" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="154"/>
+      <c r="D71" s="153"/>
       <c r="E71" s="76"/>
-      <c r="F71" s="152"/>
+      <c r="F71" s="154"/>
       <c r="G71" s="49">
         <v>14</v>
       </c>
@@ -18724,7 +18725,7 @@
         <v>534</v>
       </c>
       <c r="I71" s="155"/>
-      <c r="K71" s="152"/>
+      <c r="K71" s="154"/>
       <c r="L71" s="81">
         <f>VLOOKUP(M71,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>73</v>
@@ -18732,19 +18733,19 @@
       <c r="M71" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="N71" s="152"/>
+      <c r="N71" s="154"/>
       <c r="O71" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P71" s="152"/>
+      <c r="P71" s="154"/>
       <c r="Q71" s="49">
         <v>14</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="S71" s="153"/>
+      <c r="S71" s="152"/>
       <c r="U71" s="73" t="s">
         <v>475</v>
       </c>
@@ -18753,7 +18754,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="152"/>
+      <c r="A72" s="154"/>
       <c r="B72" s="49">
         <f>VLOOKUP(C72,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>38</v>
@@ -18761,9 +18762,9 @@
       <c r="C72" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="154"/>
+      <c r="D72" s="153"/>
       <c r="E72" s="76"/>
-      <c r="F72" s="152"/>
+      <c r="F72" s="154"/>
       <c r="G72" s="49">
         <v>15</v>
       </c>
@@ -18771,7 +18772,7 @@
         <v>535</v>
       </c>
       <c r="I72" s="155"/>
-      <c r="K72" s="152"/>
+      <c r="K72" s="154"/>
       <c r="L72" s="81">
         <f>VLOOKUP(M72,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>74</v>
@@ -18779,19 +18780,19 @@
       <c r="M72" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="N72" s="152"/>
+      <c r="N72" s="154"/>
       <c r="O72" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P72" s="152"/>
+      <c r="P72" s="154"/>
       <c r="Q72" s="49">
         <v>15</v>
       </c>
       <c r="R72" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="S72" s="153"/>
+      <c r="S72" s="152"/>
       <c r="U72" s="73" t="s">
         <v>475</v>
       </c>
@@ -18800,7 +18801,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="152"/>
+      <c r="A73" s="154"/>
       <c r="B73" s="49">
         <f>VLOOKUP(C73,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>39</v>
@@ -18808,9 +18809,9 @@
       <c r="C73" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="154"/>
+      <c r="D73" s="153"/>
       <c r="E73" s="76"/>
-      <c r="F73" s="152"/>
+      <c r="F73" s="154"/>
       <c r="G73" s="49">
         <v>16</v>
       </c>
@@ -18818,7 +18819,7 @@
         <v>536</v>
       </c>
       <c r="I73" s="155"/>
-      <c r="K73" s="152"/>
+      <c r="K73" s="154"/>
       <c r="L73" s="79">
         <f>VLOOKUP(M73,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -18826,19 +18827,19 @@
       <c r="M73" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="N73" s="152"/>
+      <c r="N73" s="154"/>
       <c r="O73" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P73" s="152"/>
+      <c r="P73" s="154"/>
       <c r="Q73" s="48">
         <v>16</v>
       </c>
       <c r="R73" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="S73" s="153"/>
+      <c r="S73" s="152"/>
       <c r="U73" s="73" t="s">
         <v>475</v>
       </c>
@@ -18847,7 +18848,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="152"/>
+      <c r="A74" s="154"/>
       <c r="B74" s="49">
         <f>VLOOKUP(C74,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>40</v>
@@ -18855,9 +18856,9 @@
       <c r="C74" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D74" s="154"/>
+      <c r="D74" s="153"/>
       <c r="E74" s="76"/>
-      <c r="F74" s="152"/>
+      <c r="F74" s="154"/>
       <c r="G74" s="49">
         <v>17</v>
       </c>
@@ -18865,7 +18866,7 @@
         <v>537</v>
       </c>
       <c r="I74" s="155"/>
-      <c r="K74" s="152"/>
+      <c r="K74" s="154"/>
       <c r="L74" s="48">
         <f>VLOOKUP(M74,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>42</v>
@@ -18873,32 +18874,32 @@
       <c r="M74" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="N74" s="152"/>
+      <c r="N74" s="154"/>
       <c r="O74" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P74" s="152"/>
+      <c r="P74" s="154"/>
       <c r="Q74" s="49">
         <v>17</v>
       </c>
       <c r="R74" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S74" s="153"/>
+      <c r="S74" s="152"/>
       <c r="U74" s="49" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="152"/>
+      <c r="A75" s="154"/>
       <c r="B75" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C75" s="11"/>
-      <c r="D75" s="154"/>
+      <c r="D75" s="153"/>
       <c r="E75" s="76"/>
-      <c r="F75" s="152"/>
+      <c r="F75" s="154"/>
       <c r="G75" s="49">
         <v>18</v>
       </c>
@@ -18906,122 +18907,122 @@
         <v>442</v>
       </c>
       <c r="I75" s="155"/>
-      <c r="K75" s="152"/>
+      <c r="K75" s="154"/>
       <c r="L75" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="N75" s="152"/>
+      <c r="N75" s="154"/>
       <c r="O75" s="76">
         <f t="shared" ref="O75:O79" si="1">COUNTIF(M:M,M75)</f>
         <v>0</v>
       </c>
-      <c r="P75" s="152"/>
+      <c r="P75" s="154"/>
       <c r="Q75" s="49">
         <v>18</v>
       </c>
       <c r="R75" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="S75" s="153"/>
+      <c r="S75" s="152"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="152"/>
+      <c r="A76" s="154"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="154"/>
+      <c r="D76" s="153"/>
       <c r="E76" s="76"/>
-      <c r="F76" s="152"/>
+      <c r="F76" s="154"/>
       <c r="G76" s="49">
         <v>19</v>
       </c>
       <c r="I76" s="155"/>
-      <c r="K76" s="152"/>
-      <c r="N76" s="152"/>
+      <c r="K76" s="154"/>
+      <c r="N76" s="154"/>
       <c r="O76" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P76" s="152"/>
+      <c r="P76" s="154"/>
       <c r="Q76" s="49">
         <v>19</v>
       </c>
       <c r="R76" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S76" s="153"/>
+      <c r="S76" s="152"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
+      <c r="A77" s="154"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="154"/>
+      <c r="D77" s="153"/>
       <c r="E77" s="76"/>
-      <c r="F77" s="152"/>
+      <c r="F77" s="154"/>
       <c r="G77" s="49">
         <v>20</v>
       </c>
       <c r="I77" s="155"/>
-      <c r="K77" s="152"/>
-      <c r="N77" s="152"/>
+      <c r="K77" s="154"/>
+      <c r="N77" s="154"/>
       <c r="O77" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P77" s="152"/>
+      <c r="P77" s="154"/>
       <c r="Q77" s="49">
         <v>20</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="153"/>
+      <c r="S77" s="152"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="152"/>
+      <c r="A78" s="154"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="154"/>
+      <c r="D78" s="153"/>
       <c r="E78" s="76"/>
-      <c r="F78" s="152"/>
+      <c r="F78" s="154"/>
       <c r="G78" s="49">
         <v>21</v>
       </c>
       <c r="I78" s="155"/>
-      <c r="K78" s="152"/>
-      <c r="N78" s="152"/>
+      <c r="K78" s="154"/>
+      <c r="N78" s="154"/>
       <c r="O78" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P78" s="152"/>
+      <c r="P78" s="154"/>
       <c r="Q78" s="49">
         <v>21</v>
       </c>
       <c r="R78" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="153"/>
+      <c r="S78" s="152"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="152"/>
-      <c r="D79" s="154"/>
+      <c r="A79" s="154"/>
+      <c r="D79" s="153"/>
       <c r="E79" s="76"/>
-      <c r="F79" s="152"/>
+      <c r="F79" s="154"/>
       <c r="G79" s="49">
         <v>22</v>
       </c>
       <c r="I79" s="155"/>
-      <c r="K79" s="152"/>
-      <c r="N79" s="152"/>
+      <c r="K79" s="154"/>
+      <c r="N79" s="154"/>
       <c r="O79" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P79" s="152"/>
+      <c r="P79" s="154"/>
       <c r="Q79" s="49">
         <v>22</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S79" s="153"/>
+      <c r="S79" s="152"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E80" s="76"/>
@@ -19029,6 +19030,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:A79"/>
+    <mergeCell ref="K10:K79"/>
+    <mergeCell ref="F10:F33"/>
+    <mergeCell ref="F36:F55"/>
+    <mergeCell ref="F58:F79"/>
     <mergeCell ref="S36:S55"/>
     <mergeCell ref="S10:S33"/>
     <mergeCell ref="S58:S79"/>
@@ -19040,11 +19046,6 @@
     <mergeCell ref="P58:P79"/>
     <mergeCell ref="P36:P55"/>
     <mergeCell ref="P10:P33"/>
-    <mergeCell ref="A10:A79"/>
-    <mergeCell ref="K10:K79"/>
-    <mergeCell ref="F10:F33"/>
-    <mergeCell ref="F36:F55"/>
-    <mergeCell ref="F58:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19302,7 +19303,7 @@
       <c r="C10" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="153" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76">
@@ -19321,7 +19322,7 @@
       <c r="I10" s="159" t="s">
         <v>449</v>
       </c>
-      <c r="K10" s="152" t="s">
+      <c r="K10" s="154" t="s">
         <v>433</v>
       </c>
       <c r="L10" s="43">
@@ -19331,14 +19332,14 @@
       <c r="M10" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="152" t="s">
+      <c r="N10" s="154" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="108">
         <f>COUNTIF(L:L,L10)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="152" t="s">
+      <c r="P10" s="154" t="s">
         <v>363</v>
       </c>
       <c r="Q10" s="13">
@@ -19358,13 +19359,13 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="142" t="e">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="154"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="76">
         <f>COUNTIF(C:C,C11)</f>
         <v>0</v>
@@ -19375,18 +19376,18 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="159"/>
-      <c r="K11" s="152"/>
+      <c r="K11" s="154"/>
       <c r="L11" s="43" t="e">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="152"/>
+      <c r="N11" s="154"/>
       <c r="O11" s="108">
         <f t="shared" ref="O11:O44" si="0">COUNTIF(L:L,L11)</f>
         <v>3</v>
       </c>
-      <c r="P11" s="152"/>
+      <c r="P11" s="154"/>
       <c r="Q11" s="13">
         <v>2</v>
       </c>
@@ -19399,13 +19400,13 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="142" t="e">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="154"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="76">
         <f>COUNTIF(C:C,C12)</f>
         <v>0</v>
@@ -19416,18 +19417,18 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="159"/>
-      <c r="K12" s="152"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="43" t="e">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="11"/>
-      <c r="N12" s="152"/>
+      <c r="N12" s="154"/>
       <c r="O12" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P12" s="152"/>
+      <c r="P12" s="154"/>
       <c r="Q12" s="13">
         <v>3</v>
       </c>
@@ -19441,7 +19442,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="142">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>64</v>
@@ -19449,7 +19450,7 @@
       <c r="C13" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="76">
         <f>COUNTIF(C:C,#REF!)</f>
         <v>0</v>
@@ -19462,7 +19463,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="159"/>
-      <c r="K13" s="152"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="43">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -19470,12 +19471,12 @@
       <c r="M13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N13" s="152"/>
+      <c r="N13" s="154"/>
       <c r="O13" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="152"/>
+      <c r="P13" s="154"/>
       <c r="Q13" s="13">
         <v>4</v>
       </c>
@@ -19491,13 +19492,13 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="142" t="e">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="154"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="76">
         <f>COUNTIF(C:C,C13)</f>
         <v>1</v>
@@ -19508,18 +19509,18 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="159"/>
-      <c r="K14" s="152"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="43" t="e">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="11"/>
-      <c r="N14" s="152"/>
+      <c r="N14" s="154"/>
       <c r="O14" s="108">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P14" s="152"/>
+      <c r="P14" s="154"/>
       <c r="Q14" s="13">
         <v>5</v>
       </c>
@@ -19532,12 +19533,12 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="43" t="s">
         <v>442</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="154"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="76">
         <f t="shared" ref="E15:E44" si="1">COUNTIF(C:C,C15)</f>
         <v>0</v>
@@ -19550,17 +19551,17 @@
         <v>442</v>
       </c>
       <c r="I15" s="159"/>
-      <c r="K15" s="152"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="43" t="s">
         <v>442</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="152"/>
+      <c r="N15" s="154"/>
       <c r="O15" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P15" s="152"/>
+      <c r="P15" s="154"/>
       <c r="Q15" s="13">
         <v>6</v>
       </c>
@@ -19570,7 +19571,7 @@
       <c r="S15" s="157"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="4">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>52</v>
@@ -19578,7 +19579,7 @@
       <c r="C16" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19591,7 +19592,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="159"/>
-      <c r="K16" s="152"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="43">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -19599,12 +19600,12 @@
       <c r="M16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="N16" s="152"/>
+      <c r="N16" s="154"/>
       <c r="O16" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="152"/>
+      <c r="P16" s="154"/>
       <c r="Q16" s="13">
         <v>7</v>
       </c>
@@ -19621,7 +19622,7 @@
       <c r="W16" s="73"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="4">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>53</v>
@@ -19629,7 +19630,7 @@
       <c r="C17" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19642,7 +19643,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="159"/>
-      <c r="K17" s="152"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="43">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -19650,12 +19651,12 @@
       <c r="M17" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N17" s="152"/>
+      <c r="N17" s="154"/>
       <c r="O17" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="152"/>
+      <c r="P17" s="154"/>
       <c r="Q17" s="13">
         <v>8</v>
       </c>
@@ -19672,7 +19673,7 @@
       <c r="W17" s="73"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="4">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>57</v>
@@ -19680,7 +19681,7 @@
       <c r="C18" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19693,7 +19694,7 @@
         <v>53</v>
       </c>
       <c r="I18" s="159"/>
-      <c r="K18" s="152"/>
+      <c r="K18" s="154"/>
       <c r="L18" s="43">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -19701,12 +19702,12 @@
       <c r="M18" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N18" s="152"/>
+      <c r="N18" s="154"/>
       <c r="O18" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="152"/>
+      <c r="P18" s="154"/>
       <c r="Q18" s="13">
         <v>9</v>
       </c>
@@ -19723,7 +19724,7 @@
       <c r="W18" s="73"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="4">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>58</v>
@@ -19731,7 +19732,7 @@
       <c r="C19" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="154"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19744,7 +19745,7 @@
         <v>54</v>
       </c>
       <c r="I19" s="159"/>
-      <c r="K19" s="152"/>
+      <c r="K19" s="154"/>
       <c r="L19" s="43">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -19752,12 +19753,12 @@
       <c r="M19" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="N19" s="152"/>
+      <c r="N19" s="154"/>
       <c r="O19" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P19" s="152"/>
+      <c r="P19" s="154"/>
       <c r="Q19" s="13">
         <v>10</v>
       </c>
@@ -19774,9 +19775,9 @@
       <c r="W19" s="73"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
+      <c r="A20" s="154"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="154"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19785,10 +19786,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="44"/>
-      <c r="K20" s="152"/>
+      <c r="K20" s="154"/>
       <c r="L20" s="43"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="152"/>
+      <c r="N20" s="154"/>
       <c r="O20" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19798,7 +19799,7 @@
       <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="7">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>83</v>
@@ -19806,7 +19807,7 @@
       <c r="C21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19823,7 +19824,7 @@
       <c r="I21" s="159" t="s">
         <v>451</v>
       </c>
-      <c r="K21" s="152"/>
+      <c r="K21" s="154"/>
       <c r="L21" s="43">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -19831,12 +19832,12 @@
       <c r="M21" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N21" s="152"/>
+      <c r="N21" s="154"/>
       <c r="O21" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P21" s="152" t="s">
+      <c r="P21" s="154" t="s">
         <v>380</v>
       </c>
       <c r="Q21" s="13">
@@ -19845,7 +19846,7 @@
       <c r="R21" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="S21" s="152" t="s">
+      <c r="S21" s="154" t="s">
         <v>450</v>
       </c>
       <c r="U21" s="73" t="s">
@@ -19856,7 +19857,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="7">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>84</v>
@@ -19864,7 +19865,7 @@
       <c r="C22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="154"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -19877,7 +19878,7 @@
         <v>66</v>
       </c>
       <c r="I22" s="159"/>
-      <c r="K22" s="152"/>
+      <c r="K22" s="154"/>
       <c r="L22" s="43">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -19885,12 +19886,12 @@
       <c r="M22" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N22" s="152"/>
+      <c r="N22" s="154"/>
       <c r="O22" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P22" s="152"/>
+      <c r="P22" s="154"/>
       <c r="Q22" s="13">
         <v>2</v>
       </c>
@@ -19906,7 +19907,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="4">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -19914,7 +19915,7 @@
       <c r="C23" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -19927,7 +19928,7 @@
         <v>71</v>
       </c>
       <c r="I23" s="159"/>
-      <c r="K23" s="152"/>
+      <c r="K23" s="154"/>
       <c r="L23" s="43">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -19935,12 +19936,12 @@
       <c r="M23" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N23" s="152"/>
+      <c r="N23" s="154"/>
       <c r="O23" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P23" s="152"/>
+      <c r="P23" s="154"/>
       <c r="Q23" s="13">
         <v>3</v>
       </c>
@@ -19957,7 +19958,7 @@
       <c r="W23" s="73"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="4">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -19965,7 +19966,7 @@
       <c r="C24" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="154"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -19978,7 +19979,7 @@
         <v>80</v>
       </c>
       <c r="I24" s="159"/>
-      <c r="K24" s="152"/>
+      <c r="K24" s="154"/>
       <c r="L24" s="43">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -19986,12 +19987,12 @@
       <c r="M24" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="N24" s="152"/>
+      <c r="N24" s="154"/>
       <c r="O24" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P24" s="152"/>
+      <c r="P24" s="154"/>
       <c r="Q24" s="13">
         <v>4</v>
       </c>
@@ -20008,7 +20009,7 @@
       <c r="W24" s="73"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="4">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -20016,7 +20017,7 @@
       <c r="C25" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="154"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20029,7 +20030,7 @@
         <v>90</v>
       </c>
       <c r="I25" s="159"/>
-      <c r="K25" s="152"/>
+      <c r="K25" s="154"/>
       <c r="L25" s="43">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -20037,12 +20038,12 @@
       <c r="M25" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N25" s="152"/>
+      <c r="N25" s="154"/>
       <c r="O25" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="152"/>
+      <c r="P25" s="154"/>
       <c r="Q25" s="13">
         <v>5</v>
       </c>
@@ -20059,7 +20060,7 @@
       <c r="W25" s="73"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
+      <c r="A26" s="154"/>
       <c r="B26" s="4">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -20067,7 +20068,7 @@
       <c r="C26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="154"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20080,7 +20081,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="159"/>
-      <c r="K26" s="152"/>
+      <c r="K26" s="154"/>
       <c r="L26" s="43">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -20088,12 +20089,12 @@
       <c r="M26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="N26" s="152"/>
+      <c r="N26" s="154"/>
       <c r="O26" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P26" s="152"/>
+      <c r="P26" s="154"/>
       <c r="Q26" s="13">
         <v>6</v>
       </c>
@@ -20110,7 +20111,7 @@
       <c r="W26" s="73"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="4">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -20118,7 +20119,7 @@
       <c r="C27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="154"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20131,7 +20132,7 @@
         <v>107</v>
       </c>
       <c r="I27" s="159"/>
-      <c r="K27" s="152"/>
+      <c r="K27" s="154"/>
       <c r="L27" s="43">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -20139,12 +20140,12 @@
       <c r="M27" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="N27" s="152"/>
+      <c r="N27" s="154"/>
       <c r="O27" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="152"/>
+      <c r="P27" s="154"/>
       <c r="Q27" s="13">
         <v>7</v>
       </c>
@@ -20161,7 +20162,7 @@
       <c r="W27" s="73"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="152"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="4">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -20169,7 +20170,7 @@
       <c r="C28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="154"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20182,7 +20183,7 @@
         <v>114</v>
       </c>
       <c r="I28" s="159"/>
-      <c r="K28" s="152"/>
+      <c r="K28" s="154"/>
       <c r="L28" s="43">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>57</v>
@@ -20190,12 +20191,12 @@
       <c r="M28" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="152"/>
+      <c r="N28" s="154"/>
       <c r="O28" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P28" s="152"/>
+      <c r="P28" s="154"/>
       <c r="Q28" s="13">
         <v>8</v>
       </c>
@@ -20212,7 +20213,7 @@
       <c r="W28" s="73"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
+      <c r="A29" s="154"/>
       <c r="B29" s="4">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -20220,7 +20221,7 @@
       <c r="C29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="154"/>
+      <c r="D29" s="153"/>
       <c r="E29" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20233,7 +20234,7 @@
         <v>118</v>
       </c>
       <c r="I29" s="159"/>
-      <c r="K29" s="152"/>
+      <c r="K29" s="154"/>
       <c r="L29" s="43">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -20241,12 +20242,12 @@
       <c r="M29" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N29" s="152"/>
+      <c r="N29" s="154"/>
       <c r="O29" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P29" s="152"/>
+      <c r="P29" s="154"/>
       <c r="Q29" s="13">
         <v>9</v>
       </c>
@@ -20263,7 +20264,7 @@
       <c r="W29" s="73"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="4">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -20271,7 +20272,7 @@
       <c r="C30" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20284,7 +20285,7 @@
         <v>123</v>
       </c>
       <c r="I30" s="159"/>
-      <c r="K30" s="152"/>
+      <c r="K30" s="154"/>
       <c r="L30" s="43">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -20292,12 +20293,12 @@
       <c r="M30" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N30" s="152"/>
+      <c r="N30" s="154"/>
       <c r="O30" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P30" s="152"/>
+      <c r="P30" s="154"/>
       <c r="Q30" s="13">
         <v>10</v>
       </c>
@@ -20314,7 +20315,7 @@
       <c r="W30" s="73"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
+      <c r="A31" s="154"/>
       <c r="B31" s="4">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -20322,7 +20323,7 @@
       <c r="C31" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="154"/>
+      <c r="D31" s="153"/>
       <c r="E31" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20335,7 +20336,7 @@
         <v>127</v>
       </c>
       <c r="I31" s="159"/>
-      <c r="K31" s="152"/>
+      <c r="K31" s="154"/>
       <c r="L31" s="43">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -20343,12 +20344,12 @@
       <c r="M31" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N31" s="152"/>
+      <c r="N31" s="154"/>
       <c r="O31" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P31" s="152"/>
+      <c r="P31" s="154"/>
       <c r="Q31" s="13">
         <v>11</v>
       </c>
@@ -20365,7 +20366,7 @@
       <c r="W31" s="73"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="4">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -20373,7 +20374,7 @@
       <c r="C32" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="154"/>
+      <c r="D32" s="153"/>
       <c r="E32" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20386,7 +20387,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="159"/>
-      <c r="K32" s="152"/>
+      <c r="K32" s="154"/>
       <c r="L32" s="43">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -20394,12 +20395,12 @@
       <c r="M32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N32" s="152"/>
+      <c r="N32" s="154"/>
       <c r="O32" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P32" s="152"/>
+      <c r="P32" s="154"/>
       <c r="Q32" s="13">
         <v>12</v>
       </c>
@@ -20416,7 +20417,7 @@
       <c r="W32" s="73"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="4">
         <f>VLOOKUP(C33,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>56</v>
@@ -20424,7 +20425,7 @@
       <c r="C33" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="154"/>
+      <c r="D33" s="153"/>
       <c r="E33" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20437,7 +20438,7 @@
         <v>133</v>
       </c>
       <c r="I33" s="159"/>
-      <c r="K33" s="152"/>
+      <c r="K33" s="154"/>
       <c r="L33" s="43">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -20445,12 +20446,12 @@
       <c r="M33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="N33" s="152"/>
+      <c r="N33" s="154"/>
       <c r="O33" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P33" s="152"/>
+      <c r="P33" s="154"/>
       <c r="Q33" s="13">
         <v>13</v>
       </c>
@@ -20467,7 +20468,7 @@
       <c r="W33" s="73"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="4">
         <f>VLOOKUP(C34,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -20475,7 +20476,7 @@
       <c r="C34" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="154"/>
+      <c r="D34" s="153"/>
       <c r="E34" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20488,7 +20489,7 @@
         <v>136</v>
       </c>
       <c r="I34" s="159"/>
-      <c r="K34" s="152"/>
+      <c r="K34" s="154"/>
       <c r="L34" s="43">
         <f>VLOOKUP(M34,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -20496,12 +20497,12 @@
       <c r="M34" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="N34" s="152"/>
+      <c r="N34" s="154"/>
       <c r="O34" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P34" s="152"/>
+      <c r="P34" s="154"/>
       <c r="Q34" s="13">
         <v>14</v>
       </c>
@@ -20518,7 +20519,7 @@
       <c r="W34" s="73"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="4">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>44</v>
@@ -20526,7 +20527,7 @@
       <c r="C35" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="154"/>
+      <c r="D35" s="153"/>
       <c r="E35" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20539,7 +20540,7 @@
         <v>140</v>
       </c>
       <c r="I35" s="159"/>
-      <c r="K35" s="152"/>
+      <c r="K35" s="154"/>
       <c r="L35" s="43">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>77</v>
@@ -20547,12 +20548,12 @@
       <c r="M35" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="N35" s="152"/>
+      <c r="N35" s="154"/>
       <c r="O35" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P35" s="152"/>
+      <c r="P35" s="154"/>
       <c r="Q35" s="13">
         <v>15</v>
       </c>
@@ -20571,7 +20572,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
+      <c r="A36" s="154"/>
       <c r="B36" s="4">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>45</v>
@@ -20579,7 +20580,7 @@
       <c r="C36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="154"/>
+      <c r="D36" s="153"/>
       <c r="E36" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20592,7 +20593,7 @@
         <v>146</v>
       </c>
       <c r="I36" s="159"/>
-      <c r="K36" s="152"/>
+      <c r="K36" s="154"/>
       <c r="L36" s="43">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>78</v>
@@ -20600,12 +20601,12 @@
       <c r="M36" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="N36" s="152"/>
+      <c r="N36" s="154"/>
       <c r="O36" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P36" s="152"/>
+      <c r="P36" s="154"/>
       <c r="Q36" s="13">
         <v>16</v>
       </c>
@@ -20618,7 +20619,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="4">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>46</v>
@@ -20626,7 +20627,7 @@
       <c r="C37" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="154"/>
+      <c r="D37" s="153"/>
       <c r="E37" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20639,7 +20640,7 @@
         <v>150</v>
       </c>
       <c r="I37" s="159"/>
-      <c r="K37" s="152"/>
+      <c r="K37" s="154"/>
       <c r="L37" s="43">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>79</v>
@@ -20647,12 +20648,12 @@
       <c r="M37" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="N37" s="152"/>
+      <c r="N37" s="154"/>
       <c r="O37" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P37" s="152"/>
+      <c r="P37" s="154"/>
       <c r="Q37" s="13">
         <v>17</v>
       </c>
@@ -20671,7 +20672,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="4">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>47</v>
@@ -20679,7 +20680,7 @@
       <c r="C38" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="154"/>
+      <c r="D38" s="153"/>
       <c r="E38" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20692,7 +20693,7 @@
         <v>155</v>
       </c>
       <c r="I38" s="159"/>
-      <c r="K38" s="152"/>
+      <c r="K38" s="154"/>
       <c r="L38" s="43">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>80</v>
@@ -20700,12 +20701,12 @@
       <c r="M38" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="N38" s="152"/>
+      <c r="N38" s="154"/>
       <c r="O38" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P38" s="152"/>
+      <c r="P38" s="154"/>
       <c r="Q38" s="13">
         <v>18</v>
       </c>
@@ -20720,7 +20721,7 @@
       <c r="W38" s="73"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
+      <c r="A39" s="154"/>
       <c r="B39" s="4">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>41</v>
@@ -20728,7 +20729,7 @@
       <c r="C39" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="154"/>
+      <c r="D39" s="153"/>
       <c r="E39" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20741,7 +20742,7 @@
         <v>160</v>
       </c>
       <c r="I39" s="159"/>
-      <c r="K39" s="152"/>
+      <c r="K39" s="154"/>
       <c r="L39" s="43">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>43</v>
@@ -20749,12 +20750,12 @@
       <c r="M39" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="N39" s="152"/>
+      <c r="N39" s="154"/>
       <c r="O39" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P39" s="152"/>
+      <c r="P39" s="154"/>
       <c r="Q39" s="13">
         <v>19</v>
       </c>
@@ -20773,7 +20774,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
+      <c r="A40" s="154"/>
       <c r="B40" s="4">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>42</v>
@@ -20781,7 +20782,7 @@
       <c r="C40" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="154"/>
+      <c r="D40" s="153"/>
       <c r="E40" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20794,7 +20795,7 @@
         <v>163</v>
       </c>
       <c r="I40" s="159"/>
-      <c r="K40" s="152"/>
+      <c r="K40" s="154"/>
       <c r="L40" s="43">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>44</v>
@@ -20802,12 +20803,12 @@
       <c r="M40" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="N40" s="152"/>
+      <c r="N40" s="154"/>
       <c r="O40" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P40" s="152"/>
+      <c r="P40" s="154"/>
       <c r="Q40" s="13">
         <v>20</v>
       </c>
@@ -20826,7 +20827,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="4">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -20834,7 +20835,7 @@
       <c r="C41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="154"/>
+      <c r="D41" s="153"/>
       <c r="E41" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20847,7 +20848,7 @@
         <v>169</v>
       </c>
       <c r="I41" s="159"/>
-      <c r="K41" s="152"/>
+      <c r="K41" s="154"/>
       <c r="L41" s="43">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -20855,12 +20856,12 @@
       <c r="M41" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N41" s="152"/>
+      <c r="N41" s="154"/>
       <c r="O41" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P41" s="152"/>
+      <c r="P41" s="154"/>
       <c r="Q41" s="13">
         <v>21</v>
       </c>
@@ -20879,7 +20880,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
+      <c r="A42" s="154"/>
       <c r="B42" s="4">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -20887,7 +20888,7 @@
       <c r="C42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="154"/>
+      <c r="D42" s="153"/>
       <c r="E42" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20900,7 +20901,7 @@
         <v>174</v>
       </c>
       <c r="I42" s="159"/>
-      <c r="K42" s="152"/>
+      <c r="K42" s="154"/>
       <c r="L42" s="43">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -20908,12 +20909,12 @@
       <c r="M42" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="N42" s="152"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P42" s="152"/>
+      <c r="P42" s="154"/>
       <c r="Q42" s="13">
         <v>22</v>
       </c>
@@ -20932,7 +20933,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
+      <c r="A43" s="154"/>
       <c r="B43" s="4">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -20940,7 +20941,7 @@
       <c r="C43" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D43" s="154"/>
+      <c r="D43" s="153"/>
       <c r="E43" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20953,7 +20954,7 @@
         <v>181</v>
       </c>
       <c r="I43" s="159"/>
-      <c r="K43" s="152"/>
+      <c r="K43" s="154"/>
       <c r="L43" s="43">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -20961,12 +20962,12 @@
       <c r="M43" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="N43" s="152"/>
+      <c r="N43" s="154"/>
       <c r="O43" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P43" s="152"/>
+      <c r="P43" s="154"/>
       <c r="Q43" s="13">
         <v>23</v>
       </c>
@@ -20976,12 +20977,12 @@
       <c r="S43" s="157"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
+      <c r="A44" s="154"/>
       <c r="B44" s="43" t="s">
         <v>442</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="154"/>
+      <c r="D44" s="153"/>
       <c r="E44" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20994,17 +20995,17 @@
         <v>442</v>
       </c>
       <c r="I44" s="159"/>
-      <c r="K44" s="152"/>
+      <c r="K44" s="154"/>
       <c r="L44" s="43" t="s">
         <v>442</v>
       </c>
       <c r="M44" s="11"/>
-      <c r="N44" s="152"/>
+      <c r="N44" s="154"/>
       <c r="O44" s="108">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P44" s="152"/>
+      <c r="P44" s="154"/>
       <c r="Q44" s="13">
         <v>24</v>
       </c>
@@ -21014,9 +21015,9 @@
       <c r="S44" s="157"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="152"/>
+      <c r="A45" s="154"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="154"/>
+      <c r="D45" s="153"/>
       <c r="E45" s="76"/>
       <c r="F45" s="49"/>
       <c r="H45" s="5"/>
@@ -21027,8 +21028,8 @@
       <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="152"/>
-      <c r="D46" s="154"/>
+      <c r="A46" s="154"/>
+      <c r="D46" s="153"/>
       <c r="E46" s="76"/>
       <c r="F46" s="49"/>
       <c r="H46" s="5"/>
@@ -21297,7 +21298,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="154" t="s">
         <v>430</v>
       </c>
       <c r="B10" s="49">
@@ -21307,7 +21308,7 @@
       <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="153" t="s">
         <v>463</v>
       </c>
       <c r="F10" s="160" t="s">
@@ -21318,7 +21319,7 @@
       </c>
       <c r="I10" s="157"/>
       <c r="J10" s="47"/>
-      <c r="K10" s="152" t="s">
+      <c r="K10" s="154" t="s">
         <v>434</v>
       </c>
       <c r="L10" s="49">
@@ -21328,7 +21329,7 @@
       <c r="M10" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="N10" s="152" t="s">
+      <c r="N10" s="154" t="s">
         <v>464</v>
       </c>
       <c r="P10" s="157" t="s">
@@ -21340,7 +21341,7 @@
       <c r="S10" s="157"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="49">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>18</v>
@@ -21348,13 +21349,13 @@
       <c r="C11" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="D11" s="154"/>
+      <c r="D11" s="153"/>
       <c r="F11" s="160"/>
       <c r="G11" s="63">
         <v>2</v>
       </c>
       <c r="I11" s="157"/>
-      <c r="K11" s="152"/>
+      <c r="K11" s="154"/>
       <c r="L11" s="49">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>25</v>
@@ -21362,7 +21363,7 @@
       <c r="M11" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="N11" s="152"/>
+      <c r="N11" s="154"/>
       <c r="P11" s="157"/>
       <c r="Q11" s="49">
         <v>2</v>
@@ -21370,7 +21371,7 @@
       <c r="S11" s="157"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="49">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>29</v>
@@ -21378,13 +21379,13 @@
       <c r="C12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="154"/>
+      <c r="D12" s="153"/>
       <c r="F12" s="160"/>
       <c r="G12" s="63">
         <v>3</v>
       </c>
       <c r="I12" s="157"/>
-      <c r="K12" s="152"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="49">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>58</v>
@@ -21392,7 +21393,7 @@
       <c r="M12" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="N12" s="152"/>
+      <c r="N12" s="154"/>
       <c r="P12" s="157"/>
       <c r="Q12" s="49">
         <v>3</v>
@@ -21400,7 +21401,7 @@
       <c r="S12" s="157"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="49">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>89</v>
@@ -21408,13 +21409,13 @@
       <c r="C13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="154"/>
+      <c r="D13" s="153"/>
       <c r="F13" s="160"/>
       <c r="G13" s="63">
         <v>4</v>
       </c>
       <c r="I13" s="157"/>
-      <c r="K13" s="152"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="49">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>39</v>
@@ -21422,7 +21423,7 @@
       <c r="M13" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="N13" s="152"/>
+      <c r="N13" s="154"/>
       <c r="P13" s="157"/>
       <c r="Q13" s="49">
         <v>4</v>
@@ -21430,7 +21431,7 @@
       <c r="S13" s="157"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="49">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>40</v>
@@ -21438,13 +21439,13 @@
       <c r="C14" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D14" s="154"/>
+      <c r="D14" s="153"/>
       <c r="F14" s="160"/>
       <c r="G14" s="63">
         <v>5</v>
       </c>
       <c r="I14" s="157"/>
-      <c r="K14" s="152"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="49">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>42</v>
@@ -21452,7 +21453,7 @@
       <c r="M14" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="N14" s="152"/>
+      <c r="N14" s="154"/>
       <c r="P14" s="157"/>
       <c r="Q14" s="49">
         <v>5</v>
@@ -21460,7 +21461,7 @@
       <c r="S14" s="157"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="49">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>43</v>
@@ -21468,13 +21469,13 @@
       <c r="C15" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="D15" s="154"/>
+      <c r="D15" s="153"/>
       <c r="F15" s="160"/>
       <c r="G15" s="63">
         <v>6</v>
       </c>
       <c r="I15" s="157"/>
-      <c r="K15" s="152"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="49">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>47</v>
@@ -21482,7 +21483,7 @@
       <c r="M15" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="N15" s="152"/>
+      <c r="N15" s="154"/>
       <c r="P15" s="157"/>
       <c r="Q15" s="49">
         <v>6</v>
@@ -21493,7 +21494,7 @@
       <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="49">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>30</v>
@@ -21501,13 +21502,13 @@
       <c r="C16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="154"/>
+      <c r="D16" s="153"/>
       <c r="F16" s="160"/>
       <c r="G16" s="65">
         <v>7</v>
       </c>
       <c r="I16" s="157"/>
-      <c r="K16" s="152"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="49">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>59</v>
@@ -21515,7 +21516,7 @@
       <c r="M16" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="N16" s="152"/>
+      <c r="N16" s="154"/>
       <c r="P16" s="157"/>
       <c r="Q16" s="49">
         <v>7</v>
@@ -21526,7 +21527,7 @@
       <c r="V16" s="64"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="49">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>31</v>
@@ -21534,13 +21535,13 @@
       <c r="C17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="153"/>
       <c r="F17" s="160"/>
       <c r="G17" s="65">
         <v>8</v>
       </c>
       <c r="I17" s="157"/>
-      <c r="K17" s="152"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="49">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>60</v>
@@ -21548,7 +21549,7 @@
       <c r="M17" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="N17" s="152"/>
+      <c r="N17" s="154"/>
       <c r="P17" s="157"/>
       <c r="Q17" s="49">
         <v>8</v>
@@ -21556,7 +21557,7 @@
       <c r="S17" s="157"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="49">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>32</v>
@@ -21564,13 +21565,13 @@
       <c r="C18" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="153"/>
       <c r="F18" s="160"/>
       <c r="G18" s="65">
         <v>9</v>
       </c>
       <c r="I18" s="157"/>
-      <c r="K18" s="152"/>
+      <c r="K18" s="154"/>
       <c r="L18" s="49">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>61</v>
@@ -21578,7 +21579,7 @@
       <c r="M18" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N18" s="152"/>
+      <c r="N18" s="154"/>
       <c r="P18" s="157"/>
       <c r="Q18" s="49">
         <v>9</v>
@@ -21586,7 +21587,7 @@
       <c r="S18" s="157"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="49">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>33</v>
@@ -21594,13 +21595,13 @@
       <c r="C19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="154"/>
+      <c r="D19" s="153"/>
       <c r="F19" s="160"/>
       <c r="G19" s="65">
         <v>10</v>
       </c>
       <c r="I19" s="157"/>
-      <c r="K19" s="152"/>
+      <c r="K19" s="154"/>
       <c r="L19" s="49">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>62</v>
@@ -21608,7 +21609,7 @@
       <c r="M19" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="152"/>
+      <c r="N19" s="154"/>
       <c r="P19" s="157"/>
       <c r="Q19" s="49">
         <v>10</v>
@@ -21616,7 +21617,7 @@
       <c r="S19" s="157"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="49">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>48</v>
@@ -21624,13 +21625,13 @@
       <c r="C20" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D20" s="154"/>
+      <c r="D20" s="153"/>
       <c r="F20" s="160"/>
       <c r="G20" s="65">
         <v>11</v>
       </c>
       <c r="I20" s="157"/>
-      <c r="K20" s="152"/>
+      <c r="K20" s="154"/>
       <c r="L20" s="48">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>76</v>
@@ -21638,7 +21639,7 @@
       <c r="M20" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="N20" s="152"/>
+      <c r="N20" s="154"/>
       <c r="O20" s="48"/>
       <c r="P20" s="157"/>
       <c r="Q20" s="48">
@@ -21647,7 +21648,7 @@
       <c r="S20" s="157"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="49">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>34</v>
@@ -21655,13 +21656,13 @@
       <c r="C21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="153"/>
       <c r="F21" s="160"/>
       <c r="G21" s="65">
         <v>12</v>
       </c>
       <c r="I21" s="157"/>
-      <c r="K21" s="152"/>
+      <c r="K21" s="154"/>
       <c r="L21" s="48">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>63</v>
@@ -21669,7 +21670,7 @@
       <c r="M21" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="152"/>
+      <c r="N21" s="154"/>
       <c r="O21" s="48"/>
       <c r="P21" s="157"/>
       <c r="Q21" s="48">
@@ -21678,7 +21679,7 @@
       <c r="S21" s="157"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="49">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>35</v>
@@ -21686,13 +21687,13 @@
       <c r="C22" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="154"/>
+      <c r="D22" s="153"/>
       <c r="F22" s="160"/>
       <c r="G22" s="65">
         <v>13</v>
       </c>
       <c r="I22" s="157"/>
-      <c r="K22" s="152"/>
+      <c r="K22" s="154"/>
       <c r="L22" s="48">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>64</v>
@@ -21700,7 +21701,7 @@
       <c r="M22" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="N22" s="152"/>
+      <c r="N22" s="154"/>
       <c r="O22" s="48"/>
       <c r="P22" s="157"/>
       <c r="Q22" s="48">
@@ -21709,7 +21710,7 @@
       <c r="S22" s="157"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="49">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>90</v>
@@ -21717,13 +21718,13 @@
       <c r="C23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="153"/>
       <c r="F23" s="160"/>
       <c r="G23" s="65">
         <v>14</v>
       </c>
       <c r="I23" s="157"/>
-      <c r="K23" s="152"/>
+      <c r="K23" s="154"/>
       <c r="L23" s="48">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>40</v>
@@ -21731,7 +21732,7 @@
       <c r="M23" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="N23" s="152"/>
+      <c r="N23" s="154"/>
       <c r="O23" s="48"/>
       <c r="P23" s="157"/>
       <c r="Q23" s="48">
@@ -21740,7 +21741,7 @@
       <c r="S23" s="157"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="49">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>91</v>
@@ -21748,13 +21749,13 @@
       <c r="C24" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="154"/>
+      <c r="D24" s="153"/>
       <c r="F24" s="160"/>
       <c r="G24" s="65">
         <v>15</v>
       </c>
       <c r="I24" s="157"/>
-      <c r="K24" s="152"/>
+      <c r="K24" s="154"/>
       <c r="L24" s="48">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>41</v>
@@ -21762,7 +21763,7 @@
       <c r="M24" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="N24" s="152"/>
+      <c r="N24" s="154"/>
       <c r="O24" s="48"/>
       <c r="P24" s="157"/>
       <c r="Q24" s="48">
@@ -21771,7 +21772,7 @@
       <c r="S24" s="157"/>
     </row>
     <row r="25" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="49">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>75</v>
@@ -21779,13 +21780,13 @@
       <c r="C25" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="D25" s="154"/>
+      <c r="D25" s="153"/>
       <c r="F25" s="160"/>
       <c r="G25" s="65">
         <v>16</v>
       </c>
       <c r="I25" s="157"/>
-      <c r="K25" s="152"/>
+      <c r="K25" s="154"/>
       <c r="L25" s="49">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>83</v>
@@ -21793,7 +21794,7 @@
       <c r="M25" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="N25" s="152"/>
+      <c r="N25" s="154"/>
       <c r="P25" s="157"/>
       <c r="Q25" s="49">
         <v>16</v>
@@ -21801,7 +21802,7 @@
       <c r="S25" s="157"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
+      <c r="A26" s="154"/>
       <c r="B26" s="49">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>36</v>
@@ -21809,13 +21810,13 @@
       <c r="C26" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="154"/>
+      <c r="D26" s="153"/>
       <c r="F26" s="160"/>
       <c r="G26" s="65">
         <v>17</v>
       </c>
       <c r="I26" s="157"/>
-      <c r="K26" s="152"/>
+      <c r="K26" s="154"/>
       <c r="L26" s="49">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>65</v>
@@ -21823,7 +21824,7 @@
       <c r="M26" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N26" s="152"/>
+      <c r="N26" s="154"/>
       <c r="P26" s="157"/>
       <c r="Q26" s="49">
         <v>17</v>
@@ -21831,7 +21832,7 @@
       <c r="S26" s="157"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="49">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>92</v>
@@ -21839,13 +21840,13 @@
       <c r="C27" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="154"/>
+      <c r="D27" s="153"/>
       <c r="F27" s="160"/>
       <c r="G27" s="65">
         <v>18</v>
       </c>
       <c r="I27" s="157"/>
-      <c r="K27" s="152"/>
+      <c r="K27" s="154"/>
       <c r="L27" s="49">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>18</v>
@@ -21853,7 +21854,7 @@
       <c r="M27" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="N27" s="152"/>
+      <c r="N27" s="154"/>
       <c r="P27" s="157"/>
       <c r="Q27" s="49">
         <v>18</v>
@@ -21861,7 +21862,7 @@
       <c r="S27" s="157"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="152"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="49">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>93</v>
@@ -21869,13 +21870,13 @@
       <c r="C28" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="154"/>
+      <c r="D28" s="153"/>
       <c r="F28" s="160"/>
       <c r="G28" s="65">
         <v>19</v>
       </c>
       <c r="I28" s="157"/>
-      <c r="K28" s="152"/>
+      <c r="K28" s="154"/>
       <c r="L28" s="49">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -21883,7 +21884,7 @@
       <c r="M28" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="N28" s="152"/>
+      <c r="N28" s="154"/>
       <c r="P28" s="157"/>
       <c r="Q28" s="49">
         <v>19</v>
@@ -21891,7 +21892,7 @@
       <c r="S28" s="157"/>
     </row>
     <row r="29" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
+      <c r="A29" s="154"/>
       <c r="B29" s="49">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>37</v>
@@ -21899,13 +21900,13 @@
       <c r="C29" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="154"/>
+      <c r="D29" s="153"/>
       <c r="F29" s="160"/>
       <c r="G29" s="65">
         <v>20</v>
       </c>
       <c r="I29" s="157"/>
-      <c r="K29" s="152"/>
+      <c r="K29" s="154"/>
       <c r="L29" s="49">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>66</v>
@@ -21913,7 +21914,7 @@
       <c r="M29" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="N29" s="152"/>
+      <c r="N29" s="154"/>
       <c r="P29" s="157"/>
       <c r="Q29" s="49">
         <v>20</v>
@@ -21921,7 +21922,7 @@
       <c r="S29" s="157"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="49">
         <f>VLOOKUP(C30,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>94</v>
@@ -21929,13 +21930,13 @@
       <c r="C30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="153"/>
       <c r="F30" s="160"/>
       <c r="G30" s="65">
         <v>21</v>
       </c>
       <c r="I30" s="157"/>
-      <c r="K30" s="152"/>
+      <c r="K30" s="154"/>
       <c r="L30" s="49">
         <f>VLOOKUP(M30,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -21943,7 +21944,7 @@
       <c r="M30" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="N30" s="152"/>
+      <c r="N30" s="154"/>
       <c r="P30" s="157"/>
       <c r="Q30" s="49">
         <v>21</v>
@@ -21951,7 +21952,7 @@
       <c r="S30" s="157"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
+      <c r="A31" s="154"/>
       <c r="B31" s="49">
         <f>VLOOKUP(C31,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>95</v>
@@ -21959,13 +21960,13 @@
       <c r="C31" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="154"/>
+      <c r="D31" s="153"/>
       <c r="F31" s="160"/>
       <c r="G31" s="65">
         <v>22</v>
       </c>
       <c r="I31" s="157"/>
-      <c r="K31" s="152"/>
+      <c r="K31" s="154"/>
       <c r="L31" s="49">
         <f>VLOOKUP(M31,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -21973,7 +21974,7 @@
       <c r="M31" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="N31" s="152"/>
+      <c r="N31" s="154"/>
       <c r="P31" s="157"/>
       <c r="Q31" s="49">
         <v>22</v>
@@ -21981,7 +21982,7 @@
       <c r="S31" s="157"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="48">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>96</v>
@@ -21989,13 +21990,13 @@
       <c r="C32" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D32" s="154"/>
+      <c r="D32" s="153"/>
       <c r="F32" s="160"/>
       <c r="G32" s="48">
         <v>23</v>
       </c>
       <c r="I32" s="157"/>
-      <c r="K32" s="152"/>
+      <c r="K32" s="154"/>
       <c r="L32" s="49">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -22003,7 +22004,7 @@
       <c r="M32" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="152"/>
+      <c r="N32" s="154"/>
       <c r="P32" s="157"/>
       <c r="Q32" s="49">
         <v>23</v>
@@ -22011,19 +22012,19 @@
       <c r="S32" s="157"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
-      <c r="D33" s="154"/>
+      <c r="A33" s="154"/>
+      <c r="D33" s="153"/>
       <c r="F33" s="160"/>
       <c r="G33" s="65">
         <v>24</v>
       </c>
       <c r="I33" s="157"/>
-      <c r="K33" s="152"/>
+      <c r="K33" s="154"/>
       <c r="L33" s="49" t="e">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N33" s="152"/>
+      <c r="N33" s="154"/>
       <c r="P33" s="157"/>
       <c r="Q33" s="49">
         <v>24</v>
@@ -22031,16 +22032,16 @@
       <c r="S33" s="157"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
-      <c r="D34" s="154"/>
+      <c r="A34" s="154"/>
+      <c r="D34" s="153"/>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
       <c r="J34" s="48"/>
-      <c r="K34" s="152"/>
-      <c r="N34" s="152"/>
+      <c r="K34" s="154"/>
+      <c r="N34" s="154"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="49">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -22048,7 +22049,7 @@
       <c r="C35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="154"/>
+      <c r="D35" s="153"/>
       <c r="F35" s="161" t="s">
         <v>303</v>
       </c>
@@ -22056,7 +22057,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="157"/>
-      <c r="K35" s="152"/>
+      <c r="K35" s="154"/>
       <c r="L35" s="49">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -22064,7 +22065,7 @@
       <c r="M35" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="N35" s="152"/>
+      <c r="N35" s="154"/>
       <c r="P35" s="157" t="s">
         <v>308</v>
       </c>
@@ -22074,7 +22075,7 @@
       <c r="S35" s="157"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
+      <c r="A36" s="154"/>
       <c r="B36" s="49">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -22082,13 +22083,13 @@
       <c r="C36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="154"/>
+      <c r="D36" s="153"/>
       <c r="F36" s="161"/>
       <c r="G36" s="65">
         <v>2</v>
       </c>
       <c r="I36" s="157"/>
-      <c r="K36" s="152"/>
+      <c r="K36" s="154"/>
       <c r="L36" s="49">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -22096,7 +22097,7 @@
       <c r="M36" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="152"/>
+      <c r="N36" s="154"/>
       <c r="P36" s="157"/>
       <c r="Q36" s="49">
         <v>2</v>
@@ -22104,7 +22105,7 @@
       <c r="S36" s="157"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="49">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -22112,13 +22113,13 @@
       <c r="C37" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="154"/>
+      <c r="D37" s="153"/>
       <c r="F37" s="161"/>
       <c r="G37" s="65">
         <v>3</v>
       </c>
       <c r="I37" s="157"/>
-      <c r="K37" s="152"/>
+      <c r="K37" s="154"/>
       <c r="L37" s="49">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -22126,7 +22127,7 @@
       <c r="M37" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="N37" s="152"/>
+      <c r="N37" s="154"/>
       <c r="P37" s="157"/>
       <c r="Q37" s="49">
         <v>3</v>
@@ -22134,7 +22135,7 @@
       <c r="S37" s="157"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="49">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -22142,13 +22143,13 @@
       <c r="C38" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="154"/>
+      <c r="D38" s="153"/>
       <c r="F38" s="161"/>
       <c r="G38" s="65">
         <v>4</v>
       </c>
       <c r="I38" s="157"/>
-      <c r="K38" s="152"/>
+      <c r="K38" s="154"/>
       <c r="L38" s="49">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -22156,7 +22157,7 @@
       <c r="M38" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="N38" s="152"/>
+      <c r="N38" s="154"/>
       <c r="P38" s="157"/>
       <c r="Q38" s="49">
         <v>4</v>
@@ -22164,7 +22165,7 @@
       <c r="S38" s="157"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
+      <c r="A39" s="154"/>
       <c r="B39" s="49">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
@@ -22172,13 +22173,13 @@
       <c r="C39" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="154"/>
+      <c r="D39" s="153"/>
       <c r="F39" s="161"/>
       <c r="G39" s="65">
         <v>5</v>
       </c>
       <c r="I39" s="157"/>
-      <c r="K39" s="152"/>
+      <c r="K39" s="154"/>
       <c r="L39" s="49">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -22186,7 +22187,7 @@
       <c r="M39" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="N39" s="152"/>
+      <c r="N39" s="154"/>
       <c r="P39" s="157"/>
       <c r="Q39" s="49">
         <v>5</v>
@@ -22194,7 +22195,7 @@
       <c r="S39" s="157"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
+      <c r="A40" s="154"/>
       <c r="B40" s="49">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>24</v>
@@ -22202,13 +22203,13 @@
       <c r="C40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="154"/>
+      <c r="D40" s="153"/>
       <c r="F40" s="161"/>
       <c r="G40" s="65">
         <v>6</v>
       </c>
       <c r="I40" s="157"/>
-      <c r="K40" s="152"/>
+      <c r="K40" s="154"/>
       <c r="L40" s="49">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -22216,7 +22217,7 @@
       <c r="M40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="N40" s="152"/>
+      <c r="N40" s="154"/>
       <c r="P40" s="157"/>
       <c r="Q40" s="49">
         <v>6</v>
@@ -22224,7 +22225,7 @@
       <c r="S40" s="157"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="49">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>25</v>
@@ -22232,13 +22233,13 @@
       <c r="C41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="154"/>
+      <c r="D41" s="153"/>
       <c r="F41" s="161"/>
       <c r="G41" s="65">
         <v>7</v>
       </c>
       <c r="I41" s="157"/>
-      <c r="K41" s="152"/>
+      <c r="K41" s="154"/>
       <c r="L41" s="49">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -22246,7 +22247,7 @@
       <c r="M41" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="N41" s="152"/>
+      <c r="N41" s="154"/>
       <c r="P41" s="157"/>
       <c r="Q41" s="49">
         <v>7</v>
@@ -22254,7 +22255,7 @@
       <c r="S41" s="157"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
+      <c r="A42" s="154"/>
       <c r="B42" s="49">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>26</v>
@@ -22262,13 +22263,13 @@
       <c r="C42" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="154"/>
+      <c r="D42" s="153"/>
       <c r="F42" s="161"/>
       <c r="G42" s="65">
         <v>8</v>
       </c>
       <c r="I42" s="157"/>
-      <c r="K42" s="152"/>
+      <c r="K42" s="154"/>
       <c r="L42" s="49">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -22276,7 +22277,7 @@
       <c r="M42" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="N42" s="152"/>
+      <c r="N42" s="154"/>
       <c r="P42" s="157"/>
       <c r="Q42" s="49">
         <v>8</v>
@@ -22284,7 +22285,7 @@
       <c r="S42" s="157"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
+      <c r="A43" s="154"/>
       <c r="B43" s="49">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>76</v>
@@ -22292,13 +22293,13 @@
       <c r="C43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="154"/>
+      <c r="D43" s="153"/>
       <c r="F43" s="161"/>
       <c r="G43" s="65">
         <v>9</v>
       </c>
       <c r="I43" s="157"/>
-      <c r="K43" s="152"/>
+      <c r="K43" s="154"/>
       <c r="L43" s="49">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -22306,7 +22307,7 @@
       <c r="M43" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="N43" s="152"/>
+      <c r="N43" s="154"/>
       <c r="P43" s="157"/>
       <c r="Q43" s="49">
         <v>9</v>
@@ -22314,7 +22315,7 @@
       <c r="S43" s="157"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
+      <c r="A44" s="154"/>
       <c r="B44" s="49">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>77</v>
@@ -22322,13 +22323,13 @@
       <c r="C44" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="154"/>
+      <c r="D44" s="153"/>
       <c r="F44" s="161"/>
       <c r="G44" s="65">
         <v>10</v>
       </c>
       <c r="I44" s="157"/>
-      <c r="K44" s="152"/>
+      <c r="K44" s="154"/>
       <c r="L44" s="49">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -22336,7 +22337,7 @@
       <c r="M44" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="N44" s="152"/>
+      <c r="N44" s="154"/>
       <c r="P44" s="157"/>
       <c r="Q44" s="49">
         <v>10</v>
@@ -22344,7 +22345,7 @@
       <c r="S44" s="157"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="152"/>
+      <c r="A45" s="154"/>
       <c r="B45" s="49">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>78</v>
@@ -22352,13 +22353,13 @@
       <c r="C45" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="154"/>
+      <c r="D45" s="153"/>
       <c r="F45" s="161"/>
       <c r="G45" s="65">
         <v>11</v>
       </c>
       <c r="I45" s="157"/>
-      <c r="K45" s="152"/>
+      <c r="K45" s="154"/>
       <c r="L45" s="49">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -22366,7 +22367,7 @@
       <c r="M45" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="N45" s="152"/>
+      <c r="N45" s="154"/>
       <c r="P45" s="157"/>
       <c r="Q45" s="49">
         <v>11</v>
@@ -22374,7 +22375,7 @@
       <c r="S45" s="157"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="152"/>
+      <c r="A46" s="154"/>
       <c r="B46" s="49">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>79</v>
@@ -22382,13 +22383,13 @@
       <c r="C46" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="154"/>
+      <c r="D46" s="153"/>
       <c r="F46" s="161"/>
       <c r="G46" s="65">
         <v>12</v>
       </c>
       <c r="I46" s="157"/>
-      <c r="K46" s="152"/>
+      <c r="K46" s="154"/>
       <c r="L46" s="49">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -22396,7 +22397,7 @@
       <c r="M46" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="N46" s="152"/>
+      <c r="N46" s="154"/>
       <c r="P46" s="157"/>
       <c r="Q46" s="49">
         <v>12</v>
@@ -22404,7 +22405,7 @@
       <c r="S46" s="157"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
+      <c r="A47" s="154"/>
       <c r="B47" s="49">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>80</v>
@@ -22412,13 +22413,13 @@
       <c r="C47" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="154"/>
+      <c r="D47" s="153"/>
       <c r="F47" s="161"/>
       <c r="G47" s="65">
         <v>13</v>
       </c>
       <c r="I47" s="157"/>
-      <c r="K47" s="152"/>
+      <c r="K47" s="154"/>
       <c r="L47" s="49">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -22426,7 +22427,7 @@
       <c r="M47" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="N47" s="152"/>
+      <c r="N47" s="154"/>
       <c r="P47" s="157"/>
       <c r="Q47" s="49">
         <v>13</v>
@@ -22434,7 +22435,7 @@
       <c r="S47" s="157"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="152"/>
+      <c r="A48" s="154"/>
       <c r="B48" s="49">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>81</v>
@@ -22442,13 +22443,13 @@
       <c r="C48" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="154"/>
+      <c r="D48" s="153"/>
       <c r="F48" s="161"/>
       <c r="G48" s="65">
         <v>14</v>
       </c>
       <c r="I48" s="157"/>
-      <c r="K48" s="152"/>
+      <c r="K48" s="154"/>
       <c r="L48" s="49">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>31</v>
@@ -22456,7 +22457,7 @@
       <c r="M48" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="N48" s="152"/>
+      <c r="N48" s="154"/>
       <c r="P48" s="157"/>
       <c r="Q48" s="49">
         <v>14</v>
@@ -22464,7 +22465,7 @@
       <c r="S48" s="157"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="152"/>
+      <c r="A49" s="154"/>
       <c r="B49" s="49">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>82</v>
@@ -22472,13 +22473,13 @@
       <c r="C49" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="154"/>
+      <c r="D49" s="153"/>
       <c r="F49" s="161"/>
       <c r="G49" s="65">
         <v>15</v>
       </c>
       <c r="I49" s="157"/>
-      <c r="K49" s="152"/>
+      <c r="K49" s="154"/>
       <c r="L49" s="49">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>32</v>
@@ -22486,7 +22487,7 @@
       <c r="M49" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="N49" s="152"/>
+      <c r="N49" s="154"/>
       <c r="P49" s="157"/>
       <c r="Q49" s="49">
         <v>15</v>
@@ -22494,7 +22495,7 @@
       <c r="S49" s="157"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="152"/>
+      <c r="A50" s="154"/>
       <c r="B50" s="49">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>83</v>
@@ -22502,13 +22503,13 @@
       <c r="C50" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="154"/>
+      <c r="D50" s="153"/>
       <c r="F50" s="161"/>
       <c r="G50" s="65">
         <v>16</v>
       </c>
       <c r="I50" s="157"/>
-      <c r="K50" s="152"/>
+      <c r="K50" s="154"/>
       <c r="L50" s="49">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>33</v>
@@ -22516,7 +22517,7 @@
       <c r="M50" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="N50" s="152"/>
+      <c r="N50" s="154"/>
       <c r="P50" s="157"/>
       <c r="Q50" s="49">
         <v>16</v>
@@ -22524,7 +22525,7 @@
       <c r="S50" s="157"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="152"/>
+      <c r="A51" s="154"/>
       <c r="B51" s="49">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>84</v>
@@ -22532,13 +22533,13 @@
       <c r="C51" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="154"/>
+      <c r="D51" s="153"/>
       <c r="F51" s="161"/>
       <c r="G51" s="65">
         <v>17</v>
       </c>
       <c r="I51" s="157"/>
-      <c r="K51" s="152"/>
+      <c r="K51" s="154"/>
       <c r="L51" s="49">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>34</v>
@@ -22546,7 +22547,7 @@
       <c r="M51" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="N51" s="152"/>
+      <c r="N51" s="154"/>
       <c r="P51" s="157"/>
       <c r="Q51" s="49">
         <v>17</v>
@@ -22554,7 +22555,7 @@
       <c r="S51" s="157"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="152"/>
+      <c r="A52" s="154"/>
       <c r="B52" s="49">
         <f>VLOOKUP(C52,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>85</v>
@@ -22562,13 +22563,13 @@
       <c r="C52" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="154"/>
+      <c r="D52" s="153"/>
       <c r="F52" s="161"/>
       <c r="G52" s="65">
         <v>18</v>
       </c>
       <c r="I52" s="157"/>
-      <c r="K52" s="152"/>
+      <c r="K52" s="154"/>
       <c r="L52" s="49">
         <f>VLOOKUP(M52,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>35</v>
@@ -22576,7 +22577,7 @@
       <c r="M52" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="N52" s="152"/>
+      <c r="N52" s="154"/>
       <c r="P52" s="157"/>
       <c r="Q52" s="49">
         <v>18</v>
@@ -22584,7 +22585,7 @@
       <c r="S52" s="157"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
+      <c r="A53" s="154"/>
       <c r="B53" s="49">
         <f>VLOOKUP(C53,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>86</v>
@@ -22592,13 +22593,13 @@
       <c r="C53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="154"/>
+      <c r="D53" s="153"/>
       <c r="F53" s="161"/>
       <c r="G53" s="65">
         <v>19</v>
       </c>
       <c r="I53" s="157"/>
-      <c r="K53" s="152"/>
+      <c r="K53" s="154"/>
       <c r="L53" s="49">
         <f>VLOOKUP(M53,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>36</v>
@@ -22606,7 +22607,7 @@
       <c r="M53" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N53" s="152"/>
+      <c r="N53" s="154"/>
       <c r="P53" s="157"/>
       <c r="Q53" s="49">
         <v>19</v>
@@ -22614,7 +22615,7 @@
       <c r="S53" s="157"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="152"/>
+      <c r="A54" s="154"/>
       <c r="B54" s="49">
         <f>VLOOKUP(C54,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>87</v>
@@ -22622,13 +22623,13 @@
       <c r="C54" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="154"/>
+      <c r="D54" s="153"/>
       <c r="F54" s="161"/>
       <c r="G54" s="65">
         <v>20</v>
       </c>
       <c r="I54" s="157"/>
-      <c r="K54" s="152"/>
+      <c r="K54" s="154"/>
       <c r="L54" s="49">
         <f>VLOOKUP(M54,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>37</v>
@@ -22636,7 +22637,7 @@
       <c r="M54" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="152"/>
+      <c r="N54" s="154"/>
       <c r="P54" s="157"/>
       <c r="Q54" s="49">
         <v>20</v>
@@ -22644,7 +22645,7 @@
       <c r="S54" s="157"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="152"/>
+      <c r="A55" s="154"/>
       <c r="B55" s="49">
         <f>VLOOKUP(C55,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>88</v>
@@ -22652,13 +22653,13 @@
       <c r="C55" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="154"/>
+      <c r="D55" s="153"/>
       <c r="F55" s="161"/>
       <c r="G55" s="67">
         <v>21</v>
       </c>
       <c r="I55" s="157"/>
-      <c r="K55" s="152"/>
+      <c r="K55" s="154"/>
       <c r="L55" s="49">
         <f>VLOOKUP(M55,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>38</v>
@@ -22666,7 +22667,7 @@
       <c r="M55" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N55" s="152"/>
+      <c r="N55" s="154"/>
       <c r="P55" s="157"/>
       <c r="Q55" s="49">
         <v>21</v>
@@ -22674,7 +22675,7 @@
       <c r="S55" s="157"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="152"/>
+      <c r="A56" s="154"/>
       <c r="B56" s="49">
         <f>VLOOKUP(C56,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>27</v>
@@ -22682,13 +22683,13 @@
       <c r="C56" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="154"/>
+      <c r="D56" s="153"/>
       <c r="F56" s="161"/>
       <c r="G56" s="67">
         <v>22</v>
       </c>
       <c r="I56" s="157"/>
-      <c r="K56" s="152"/>
+      <c r="K56" s="154"/>
       <c r="L56" s="49">
         <f>VLOOKUP(M56,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>56</v>
@@ -22696,7 +22697,7 @@
       <c r="M56" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="152"/>
+      <c r="N56" s="154"/>
       <c r="P56" s="157"/>
       <c r="Q56" s="49">
         <v>22</v>
@@ -22704,7 +22705,7 @@
       <c r="S56" s="157"/>
     </row>
     <row r="57" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="152"/>
+      <c r="A57" s="154"/>
       <c r="B57" s="49">
         <f>VLOOKUP(C57,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>98</v>
@@ -22712,13 +22713,13 @@
       <c r="C57" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="154"/>
+      <c r="D57" s="153"/>
       <c r="F57" s="161"/>
       <c r="G57" s="67">
         <v>23</v>
       </c>
       <c r="I57" s="157"/>
-      <c r="K57" s="152"/>
+      <c r="K57" s="154"/>
       <c r="L57" s="49">
         <f>VLOOKUP(M57,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>84</v>
@@ -22726,7 +22727,7 @@
       <c r="M57" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="N57" s="152"/>
+      <c r="N57" s="154"/>
       <c r="P57" s="157"/>
       <c r="Q57" s="49">
         <v>23</v>
@@ -22734,19 +22735,19 @@
       <c r="S57" s="157"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
-      <c r="D58" s="154"/>
+      <c r="A58" s="154"/>
+      <c r="D58" s="153"/>
       <c r="F58" s="161"/>
       <c r="G58" s="65">
         <v>24</v>
       </c>
       <c r="I58" s="157"/>
-      <c r="K58" s="152"/>
+      <c r="K58" s="154"/>
       <c r="L58" s="49" t="e">
         <f>VLOOKUP(M58,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N58" s="152"/>
+      <c r="N58" s="154"/>
       <c r="P58" s="157"/>
       <c r="Q58" s="49">
         <v>24</v>
@@ -22791,8 +22792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23046,7 +23047,7 @@
       <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="165" t="s">
         <v>431</v>
       </c>
       <c r="B10" s="31">
@@ -23056,11 +23057,11 @@
       <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="163" t="s">
         <v>463</v>
       </c>
       <c r="E10" s="76"/>
-      <c r="F10" s="164" t="s">
+      <c r="F10" s="162" t="s">
         <v>435</v>
       </c>
       <c r="G10" s="31">
@@ -23069,11 +23070,11 @@
       <c r="H10" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="I10" s="167" t="s">
+      <c r="I10" s="164" t="s">
         <v>446</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="163" t="s">
+      <c r="K10" s="167" t="s">
         <v>481</v>
       </c>
       <c r="L10" s="31">
@@ -23083,17 +23084,17 @@
       <c r="M10" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N10" s="162" t="s">
+      <c r="N10" s="165" t="s">
         <v>464</v>
       </c>
       <c r="O10" s="31"/>
-      <c r="P10" s="164" t="s">
+      <c r="P10" s="162" t="s">
         <v>437</v>
       </c>
       <c r="Q10" s="31">
         <v>1</v>
       </c>
-      <c r="S10" s="167" t="s">
+      <c r="S10" s="164" t="s">
         <v>440</v>
       </c>
       <c r="U10" s="87" t="s">
@@ -23101,7 +23102,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="31">
         <f>VLOOKUP(C11,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>11</v>
@@ -23109,18 +23110,18 @@
       <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="166"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="76"/>
-      <c r="F11" s="164"/>
+      <c r="F11" s="162"/>
       <c r="G11" s="31">
         <v>2</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="I11" s="167"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="162"/>
+      <c r="K11" s="165"/>
       <c r="L11" s="31">
         <f>VLOOKUP(M11,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -23128,19 +23129,19 @@
       <c r="M11" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="162"/>
+      <c r="N11" s="165"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="164"/>
+      <c r="P11" s="162"/>
       <c r="Q11" s="31">
         <v>2</v>
       </c>
-      <c r="S11" s="167"/>
+      <c r="S11" s="164"/>
       <c r="U11" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="31">
         <f>VLOOKUP(C12,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>12</v>
@@ -23148,18 +23149,18 @@
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="166"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="76"/>
-      <c r="F12" s="164"/>
+      <c r="F12" s="162"/>
       <c r="G12" s="31">
         <v>3</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="I12" s="167"/>
+      <c r="I12" s="164"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="162"/>
+      <c r="K12" s="165"/>
       <c r="L12" s="31">
         <f>VLOOKUP(M12,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -23167,19 +23168,19 @@
       <c r="M12" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="N12" s="162"/>
+      <c r="N12" s="165"/>
       <c r="O12" s="31"/>
-      <c r="P12" s="164"/>
+      <c r="P12" s="162"/>
       <c r="Q12" s="31">
         <v>3</v>
       </c>
-      <c r="S12" s="167"/>
+      <c r="S12" s="164"/>
       <c r="U12" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="31">
         <f>VLOOKUP(C13,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -23187,18 +23188,18 @@
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="166"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="164"/>
+      <c r="F13" s="162"/>
       <c r="G13" s="31">
         <v>4</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="I13" s="167"/>
+      <c r="I13" s="164"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="162"/>
+      <c r="K13" s="165"/>
       <c r="L13" s="31">
         <f>VLOOKUP(M13,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -23206,19 +23207,19 @@
       <c r="M13" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="162"/>
+      <c r="N13" s="165"/>
       <c r="O13" s="31"/>
-      <c r="P13" s="164"/>
+      <c r="P13" s="162"/>
       <c r="Q13" s="31">
         <v>4</v>
       </c>
-      <c r="S13" s="167"/>
+      <c r="S13" s="164"/>
       <c r="U13" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="31">
         <f>VLOOKUP(C14,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -23226,18 +23227,18 @@
       <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="76"/>
-      <c r="F14" s="164"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="31">
         <v>5</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="I14" s="167"/>
+      <c r="I14" s="164"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="162"/>
+      <c r="K14" s="165"/>
       <c r="L14" s="31">
         <f>VLOOKUP(M14,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -23245,19 +23246,19 @@
       <c r="M14" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="162"/>
+      <c r="N14" s="165"/>
       <c r="O14" s="31"/>
-      <c r="P14" s="164"/>
+      <c r="P14" s="162"/>
       <c r="Q14" s="31">
         <v>5</v>
       </c>
-      <c r="S14" s="167"/>
+      <c r="S14" s="164"/>
       <c r="U14" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="31">
         <f>VLOOKUP(C15,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>13</v>
@@ -23265,18 +23266,18 @@
       <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="164"/>
+      <c r="F15" s="162"/>
       <c r="G15" s="31">
         <v>6</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="I15" s="167"/>
+      <c r="I15" s="164"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="162"/>
+      <c r="K15" s="165"/>
       <c r="L15" s="31">
         <f>VLOOKUP(M15,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -23284,19 +23285,19 @@
       <c r="M15" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N15" s="162"/>
+      <c r="N15" s="165"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="164"/>
+      <c r="P15" s="162"/>
       <c r="Q15" s="31">
         <v>6</v>
       </c>
-      <c r="S15" s="167"/>
+      <c r="S15" s="164"/>
       <c r="U15" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="31">
         <f>VLOOKUP(C16,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>14</v>
@@ -23304,18 +23305,18 @@
       <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="164"/>
+      <c r="F16" s="162"/>
       <c r="G16" s="31">
         <v>7</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="I16" s="167"/>
+      <c r="I16" s="164"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="162"/>
+      <c r="K16" s="165"/>
       <c r="L16" s="31">
         <f>VLOOKUP(M16,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -23323,19 +23324,19 @@
       <c r="M16" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N16" s="162"/>
+      <c r="N16" s="165"/>
       <c r="O16" s="31"/>
-      <c r="P16" s="164"/>
+      <c r="P16" s="162"/>
       <c r="Q16" s="31">
         <v>7</v>
       </c>
-      <c r="S16" s="167"/>
+      <c r="S16" s="164"/>
       <c r="U16" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="31">
         <f>VLOOKUP(C17,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -23343,18 +23344,18 @@
       <c r="C17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="164"/>
+      <c r="F17" s="162"/>
       <c r="G17" s="31">
         <v>8</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="I17" s="167"/>
+      <c r="I17" s="164"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="162"/>
+      <c r="K17" s="165"/>
       <c r="L17" s="31">
         <f>VLOOKUP(M17,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -23362,19 +23363,19 @@
       <c r="M17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="162"/>
+      <c r="N17" s="165"/>
       <c r="O17" s="31"/>
-      <c r="P17" s="164"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="31">
         <v>8</v>
       </c>
-      <c r="S17" s="167"/>
+      <c r="S17" s="164"/>
       <c r="U17" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="31">
         <f>VLOOKUP(C18,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -23382,18 +23383,18 @@
       <c r="C18" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="166"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="164"/>
+      <c r="F18" s="162"/>
       <c r="G18" s="31">
         <v>9</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="I18" s="167"/>
+      <c r="I18" s="164"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="162"/>
+      <c r="K18" s="165"/>
       <c r="L18" s="31">
         <f>VLOOKUP(M18,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -23401,19 +23402,19 @@
       <c r="M18" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N18" s="162"/>
+      <c r="N18" s="165"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="164"/>
+      <c r="P18" s="162"/>
       <c r="Q18" s="31">
         <v>9</v>
       </c>
-      <c r="S18" s="167"/>
+      <c r="S18" s="164"/>
       <c r="U18" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="31">
         <f>VLOOKUP(C19,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -23421,18 +23422,18 @@
       <c r="C19" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="166"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="164"/>
+      <c r="F19" s="162"/>
       <c r="G19" s="31">
         <v>10</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="I19" s="167"/>
+      <c r="I19" s="164"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="162"/>
+      <c r="K19" s="165"/>
       <c r="L19" s="31">
         <f>VLOOKUP(M19,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -23440,19 +23441,19 @@
       <c r="M19" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N19" s="162"/>
+      <c r="N19" s="165"/>
       <c r="O19" s="31"/>
-      <c r="P19" s="164"/>
+      <c r="P19" s="162"/>
       <c r="Q19" s="31">
         <v>10</v>
       </c>
-      <c r="S19" s="167"/>
+      <c r="S19" s="164"/>
       <c r="U19" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="31">
         <f>VLOOKUP(C20,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -23460,18 +23461,18 @@
       <c r="C20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="166"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="164"/>
+      <c r="F20" s="162"/>
       <c r="G20" s="39">
         <v>11</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="I20" s="167"/>
+      <c r="I20" s="164"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="162"/>
+      <c r="K20" s="165"/>
       <c r="L20" s="39">
         <f>VLOOKUP(M20,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -23479,19 +23480,19 @@
       <c r="M20" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N20" s="162"/>
+      <c r="N20" s="165"/>
       <c r="O20" s="39"/>
-      <c r="P20" s="164"/>
+      <c r="P20" s="162"/>
       <c r="Q20" s="39">
         <v>11</v>
       </c>
-      <c r="S20" s="167"/>
+      <c r="S20" s="164"/>
       <c r="U20" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="31">
         <f>VLOOKUP(C21,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -23499,18 +23500,18 @@
       <c r="C21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="166"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="76"/>
-      <c r="F21" s="164"/>
+      <c r="F21" s="162"/>
       <c r="G21" s="39">
         <v>12</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="I21" s="167"/>
+      <c r="I21" s="164"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="162"/>
+      <c r="K21" s="165"/>
       <c r="L21" s="39">
         <f>VLOOKUP(M21,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -23518,19 +23519,19 @@
       <c r="M21" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N21" s="162"/>
+      <c r="N21" s="165"/>
       <c r="O21" s="39"/>
-      <c r="P21" s="164"/>
+      <c r="P21" s="162"/>
       <c r="Q21" s="39">
         <v>12</v>
       </c>
-      <c r="S21" s="167"/>
+      <c r="S21" s="164"/>
       <c r="U21" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="31">
         <f>VLOOKUP(C22,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -23538,18 +23539,18 @@
       <c r="C22" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="166"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="164"/>
+      <c r="F22" s="162"/>
       <c r="G22" s="39">
         <v>13</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="I22" s="167"/>
+      <c r="I22" s="164"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="162"/>
+      <c r="K22" s="165"/>
       <c r="L22" s="39">
         <f>VLOOKUP(M22,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -23557,19 +23558,19 @@
       <c r="M22" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="N22" s="162"/>
+      <c r="N22" s="165"/>
       <c r="O22" s="39"/>
-      <c r="P22" s="164"/>
+      <c r="P22" s="162"/>
       <c r="Q22" s="39">
         <v>13</v>
       </c>
-      <c r="S22" s="167"/>
+      <c r="S22" s="164"/>
       <c r="U22" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="31">
         <f>VLOOKUP(C23,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -23577,18 +23578,18 @@
       <c r="C23" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="166"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="164"/>
+      <c r="F23" s="162"/>
       <c r="G23" s="39">
         <v>14</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="167"/>
+      <c r="I23" s="164"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="162"/>
+      <c r="K23" s="165"/>
       <c r="L23" s="39">
         <f>VLOOKUP(M23,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -23596,19 +23597,19 @@
       <c r="M23" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="N23" s="162"/>
+      <c r="N23" s="165"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="164"/>
+      <c r="P23" s="162"/>
       <c r="Q23" s="39">
         <v>14</v>
       </c>
-      <c r="S23" s="167"/>
+      <c r="S23" s="164"/>
       <c r="U23" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="31">
         <f>VLOOKUP(C24,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -23616,18 +23617,18 @@
       <c r="C24" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="166"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="164"/>
+      <c r="F24" s="162"/>
       <c r="G24" s="39">
         <v>15</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="I24" s="167"/>
+      <c r="I24" s="164"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="162"/>
+      <c r="K24" s="165"/>
       <c r="L24" s="39">
         <f>VLOOKUP(M24,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -23635,19 +23636,19 @@
       <c r="M24" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N24" s="162"/>
+      <c r="N24" s="165"/>
       <c r="O24" s="39"/>
-      <c r="P24" s="164"/>
+      <c r="P24" s="162"/>
       <c r="Q24" s="39">
         <v>15</v>
       </c>
-      <c r="S24" s="167"/>
+      <c r="S24" s="164"/>
       <c r="U24" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="162"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="31">
         <f>VLOOKUP(C25,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -23655,18 +23656,18 @@
       <c r="C25" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="166"/>
+      <c r="D25" s="163"/>
       <c r="E25" s="76"/>
-      <c r="F25" s="164"/>
+      <c r="F25" s="162"/>
       <c r="G25" s="31">
         <v>16</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="I25" s="167"/>
+      <c r="I25" s="164"/>
       <c r="J25" s="31"/>
-      <c r="K25" s="162"/>
+      <c r="K25" s="165"/>
       <c r="L25" s="31">
         <f>VLOOKUP(M25,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -23674,19 +23675,19 @@
       <c r="M25" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N25" s="162"/>
+      <c r="N25" s="165"/>
       <c r="O25" s="31"/>
-      <c r="P25" s="164"/>
+      <c r="P25" s="162"/>
       <c r="Q25" s="31">
         <v>16</v>
       </c>
-      <c r="S25" s="167"/>
+      <c r="S25" s="164"/>
       <c r="U25" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="31">
         <f>VLOOKUP(C26,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -23694,18 +23695,18 @@
       <c r="C26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="166"/>
+      <c r="D26" s="163"/>
       <c r="E26" s="76"/>
-      <c r="F26" s="164"/>
+      <c r="F26" s="162"/>
       <c r="G26" s="31">
         <v>17</v>
       </c>
       <c r="H26" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="I26" s="167"/>
+      <c r="I26" s="164"/>
       <c r="J26" s="31"/>
-      <c r="K26" s="162"/>
+      <c r="K26" s="165"/>
       <c r="L26" s="31">
         <f>VLOOKUP(M26,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -23713,19 +23714,19 @@
       <c r="M26" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="162"/>
+      <c r="N26" s="165"/>
       <c r="O26" s="31"/>
-      <c r="P26" s="164"/>
+      <c r="P26" s="162"/>
       <c r="Q26" s="31">
         <v>17</v>
       </c>
-      <c r="S26" s="167"/>
+      <c r="S26" s="164"/>
       <c r="U26" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="162"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="31">
         <f>VLOOKUP(C27,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -23733,18 +23734,18 @@
       <c r="C27" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="D27" s="166"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="76"/>
-      <c r="F27" s="164"/>
+      <c r="F27" s="162"/>
       <c r="G27" s="31">
         <v>18</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I27" s="167"/>
+      <c r="I27" s="164"/>
       <c r="J27" s="31"/>
-      <c r="K27" s="162"/>
+      <c r="K27" s="165"/>
       <c r="L27" s="31">
         <f>VLOOKUP(M27,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -23752,17 +23753,17 @@
       <c r="M27" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="N27" s="162"/>
+      <c r="N27" s="165"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="164"/>
+      <c r="P27" s="162"/>
       <c r="Q27" s="31">
         <v>18</v>
       </c>
-      <c r="S27" s="167"/>
+      <c r="S27" s="164"/>
       <c r="U27" s="87"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="162"/>
+      <c r="A28" s="165"/>
       <c r="B28" s="148">
         <f>VLOOKUP(C28,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>61</v>
@@ -23770,18 +23771,18 @@
       <c r="C28" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="D28" s="166"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="76"/>
-      <c r="F28" s="164"/>
+      <c r="F28" s="162"/>
       <c r="G28" s="148">
         <v>19</v>
       </c>
       <c r="H28" s="151" t="s">
         <v>588</v>
       </c>
-      <c r="I28" s="167"/>
+      <c r="I28" s="164"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="162"/>
+      <c r="K28" s="165"/>
       <c r="L28" s="31">
         <f>VLOOKUP(M28,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -23789,19 +23790,19 @@
       <c r="M28" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="N28" s="162"/>
+      <c r="N28" s="165"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="164"/>
+      <c r="P28" s="162"/>
       <c r="Q28" s="31">
         <v>19</v>
       </c>
-      <c r="S28" s="167"/>
+      <c r="S28" s="164"/>
       <c r="U28" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
+      <c r="A29" s="165"/>
       <c r="B29" s="148">
         <f>VLOOKUP(C29,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -23809,18 +23810,18 @@
       <c r="C29" s="150" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="166"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="76"/>
-      <c r="F29" s="164"/>
+      <c r="F29" s="162"/>
       <c r="G29" s="148">
         <v>20</v>
       </c>
       <c r="H29" s="151" t="s">
         <v>547</v>
       </c>
-      <c r="I29" s="167"/>
+      <c r="I29" s="164"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="162"/>
+      <c r="K29" s="165"/>
       <c r="L29" s="31">
         <f>VLOOKUP(M29,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -23828,31 +23829,31 @@
       <c r="M29" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N29" s="162"/>
+      <c r="N29" s="165"/>
       <c r="O29" s="31"/>
-      <c r="P29" s="164"/>
+      <c r="P29" s="162"/>
       <c r="Q29" s="31">
         <v>20</v>
       </c>
-      <c r="S29" s="167"/>
+      <c r="S29" s="164"/>
       <c r="U29" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="165"/>
       <c r="B30" s="31"/>
-      <c r="D30" s="166"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="76"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="37"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="162"/>
+      <c r="K30" s="165"/>
       <c r="L30" s="31"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="162"/>
+      <c r="N30" s="165"/>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
@@ -23860,20 +23861,20 @@
       <c r="U30" s="87"/>
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="165"/>
       <c r="B31" s="31"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="166"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="76"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="37"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="162"/>
+      <c r="K31" s="165"/>
       <c r="L31" s="31"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="162"/>
+      <c r="N31" s="165"/>
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
       <c r="Q31" s="31"/>
@@ -23881,7 +23882,7 @@
       <c r="U31" s="87"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="165"/>
       <c r="B32" s="31">
         <f>VLOOKUP(C32,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>10</v>
@@ -23889,9 +23890,9 @@
       <c r="C32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="166"/>
+      <c r="D32" s="163"/>
       <c r="E32" s="76"/>
-      <c r="F32" s="164" t="s">
+      <c r="F32" s="162" t="s">
         <v>436</v>
       </c>
       <c r="G32" s="31">
@@ -23900,11 +23901,11 @@
       <c r="H32" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="I32" s="165" t="s">
+      <c r="I32" s="166" t="s">
         <v>445</v>
       </c>
       <c r="J32" s="31"/>
-      <c r="K32" s="162"/>
+      <c r="K32" s="165"/>
       <c r="L32" s="31">
         <f>VLOOKUP(M32,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>18</v>
@@ -23912,15 +23913,15 @@
       <c r="M32" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N32" s="162"/>
+      <c r="N32" s="165"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="164" t="s">
+      <c r="P32" s="162" t="s">
         <v>438</v>
       </c>
       <c r="Q32" s="31">
         <v>1</v>
       </c>
-      <c r="S32" s="164" t="s">
+      <c r="S32" s="162" t="s">
         <v>441</v>
       </c>
       <c r="U32" s="87" t="s">
@@ -23928,7 +23929,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="165"/>
       <c r="B33" s="31">
         <f>VLOOKUP(C33,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>11</v>
@@ -23936,18 +23937,18 @@
       <c r="C33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="166"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="76"/>
-      <c r="F33" s="164"/>
+      <c r="F33" s="162"/>
       <c r="G33" s="31">
         <v>2</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="I33" s="165"/>
+      <c r="I33" s="166"/>
       <c r="J33" s="31"/>
-      <c r="K33" s="162"/>
+      <c r="K33" s="165"/>
       <c r="L33" s="31">
         <f>VLOOKUP(M33,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>19</v>
@@ -23955,19 +23956,19 @@
       <c r="M33" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N33" s="162"/>
+      <c r="N33" s="165"/>
       <c r="O33" s="31"/>
-      <c r="P33" s="164"/>
+      <c r="P33" s="162"/>
       <c r="Q33" s="145">
         <v>2</v>
       </c>
-      <c r="S33" s="164"/>
+      <c r="S33" s="162"/>
       <c r="U33" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="165"/>
       <c r="B34" s="31">
         <f>VLOOKUP(C34,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>2</v>
@@ -23975,18 +23976,18 @@
       <c r="C34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="166"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="143"/>
-      <c r="F34" s="164"/>
+      <c r="F34" s="162"/>
       <c r="G34" s="31">
         <v>3</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="I34" s="165"/>
+      <c r="I34" s="166"/>
       <c r="J34" s="31"/>
-      <c r="K34" s="162"/>
+      <c r="K34" s="165"/>
       <c r="L34" s="31">
         <f>VLOOKUP(M34,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>2</v>
@@ -23994,18 +23995,18 @@
       <c r="M34" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="N34" s="162"/>
-      <c r="P34" s="164"/>
+      <c r="N34" s="165"/>
+      <c r="P34" s="162"/>
       <c r="Q34" s="145">
         <v>3</v>
       </c>
-      <c r="S34" s="164"/>
+      <c r="S34" s="162"/>
       <c r="U34" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
+      <c r="A35" s="165"/>
       <c r="B35" s="31">
         <f>VLOOKUP(C35,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>1</v>
@@ -24013,18 +24014,18 @@
       <c r="C35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="166"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="76"/>
-      <c r="F35" s="164"/>
+      <c r="F35" s="162"/>
       <c r="G35" s="31">
         <v>4</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="I35" s="165"/>
+      <c r="I35" s="166"/>
       <c r="J35" s="31"/>
-      <c r="K35" s="162"/>
+      <c r="K35" s="165"/>
       <c r="L35" s="31">
         <f>VLOOKUP(M35,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>1</v>
@@ -24032,19 +24033,19 @@
       <c r="M35" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="N35" s="162"/>
+      <c r="N35" s="165"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="164"/>
+      <c r="P35" s="162"/>
       <c r="Q35" s="145">
         <v>4</v>
       </c>
-      <c r="S35" s="164"/>
+      <c r="S35" s="162"/>
       <c r="U35" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="162"/>
+      <c r="A36" s="165"/>
       <c r="B36" s="31">
         <f>VLOOKUP(C36,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>12</v>
@@ -24052,18 +24053,18 @@
       <c r="C36" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="166"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="143"/>
-      <c r="F36" s="164"/>
+      <c r="F36" s="162"/>
       <c r="G36" s="31">
         <v>5</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="I36" s="165"/>
+      <c r="I36" s="166"/>
       <c r="J36" s="31"/>
-      <c r="K36" s="162"/>
+      <c r="K36" s="165"/>
       <c r="L36" s="31">
         <f>VLOOKUP(M36,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>20</v>
@@ -24071,19 +24072,19 @@
       <c r="M36" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="N36" s="162"/>
+      <c r="N36" s="165"/>
       <c r="O36" s="31"/>
-      <c r="P36" s="164"/>
+      <c r="P36" s="162"/>
       <c r="Q36" s="145">
         <v>5</v>
       </c>
-      <c r="S36" s="164"/>
+      <c r="S36" s="162"/>
       <c r="U36" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="162"/>
+      <c r="A37" s="165"/>
       <c r="B37" s="31">
         <f>VLOOKUP(C37,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>13</v>
@@ -24091,18 +24092,18 @@
       <c r="C37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="166"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="164"/>
+      <c r="F37" s="162"/>
       <c r="G37" s="31">
         <v>6</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="I37" s="165"/>
+      <c r="I37" s="166"/>
       <c r="J37" s="31"/>
-      <c r="K37" s="162"/>
+      <c r="K37" s="165"/>
       <c r="L37" s="31">
         <f>VLOOKUP(M37,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>21</v>
@@ -24110,19 +24111,19 @@
       <c r="M37" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N37" s="162"/>
+      <c r="N37" s="165"/>
       <c r="O37" s="31"/>
-      <c r="P37" s="164"/>
+      <c r="P37" s="162"/>
       <c r="Q37" s="145">
         <v>6</v>
       </c>
-      <c r="S37" s="164"/>
+      <c r="S37" s="162"/>
       <c r="U37" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="162"/>
+      <c r="A38" s="165"/>
       <c r="B38" s="31">
         <f>VLOOKUP(C38,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>14</v>
@@ -24130,18 +24131,18 @@
       <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="166"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="164"/>
+      <c r="F38" s="162"/>
       <c r="G38" s="31">
         <v>7</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="I38" s="165"/>
+      <c r="I38" s="166"/>
       <c r="J38" s="31"/>
-      <c r="K38" s="162"/>
+      <c r="K38" s="165"/>
       <c r="L38" s="31">
         <f>VLOOKUP(M38,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>22</v>
@@ -24149,19 +24150,19 @@
       <c r="M38" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N38" s="162"/>
+      <c r="N38" s="165"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="164"/>
+      <c r="P38" s="162"/>
       <c r="Q38" s="31">
         <v>7</v>
       </c>
-      <c r="S38" s="164"/>
+      <c r="S38" s="162"/>
       <c r="U38" s="87" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
+      <c r="A39" s="165"/>
       <c r="B39" s="31">
         <f>VLOOKUP(C39,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>49</v>
@@ -24169,18 +24170,18 @@
       <c r="C39" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="166"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="164"/>
+      <c r="F39" s="162"/>
       <c r="G39" s="31">
         <v>8</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="I39" s="165"/>
+      <c r="I39" s="166"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="162"/>
+      <c r="K39" s="165"/>
       <c r="L39" s="31">
         <f>VLOOKUP(M39,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>48</v>
@@ -24188,19 +24189,19 @@
       <c r="M39" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N39" s="162"/>
+      <c r="N39" s="165"/>
       <c r="O39" s="31"/>
-      <c r="P39" s="164"/>
+      <c r="P39" s="162"/>
       <c r="Q39" s="31">
         <v>8</v>
       </c>
-      <c r="S39" s="164"/>
+      <c r="S39" s="162"/>
       <c r="U39" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
+      <c r="A40" s="165"/>
       <c r="B40" s="31">
         <f>VLOOKUP(C40,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>54</v>
@@ -24208,18 +24209,18 @@
       <c r="C40" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="166"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="164"/>
+      <c r="F40" s="162"/>
       <c r="G40" s="31">
         <v>9</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="I40" s="165"/>
+      <c r="I40" s="166"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="162"/>
+      <c r="K40" s="165"/>
       <c r="L40" s="31">
         <f>VLOOKUP(M40,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>49</v>
@@ -24227,19 +24228,19 @@
       <c r="M40" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N40" s="162"/>
+      <c r="N40" s="165"/>
       <c r="O40" s="31"/>
-      <c r="P40" s="164"/>
+      <c r="P40" s="162"/>
       <c r="Q40" s="31">
         <v>9</v>
       </c>
-      <c r="S40" s="164"/>
+      <c r="S40" s="162"/>
       <c r="U40" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="162"/>
+      <c r="A41" s="165"/>
       <c r="B41" s="31">
         <f>VLOOKUP(C41,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>59</v>
@@ -24247,18 +24248,18 @@
       <c r="C41" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="166"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="164"/>
+      <c r="F41" s="162"/>
       <c r="G41" s="31">
         <v>10</v>
       </c>
       <c r="H41" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="I41" s="165"/>
+      <c r="I41" s="166"/>
       <c r="J41" s="31"/>
-      <c r="K41" s="162"/>
+      <c r="K41" s="165"/>
       <c r="L41" s="31">
         <f>VLOOKUP(M41,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>50</v>
@@ -24266,19 +24267,19 @@
       <c r="M41" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N41" s="162"/>
+      <c r="N41" s="165"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="164"/>
+      <c r="P41" s="162"/>
       <c r="Q41" s="31">
         <v>10</v>
       </c>
-      <c r="S41" s="164"/>
+      <c r="S41" s="162"/>
       <c r="U41" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="162"/>
+      <c r="A42" s="165"/>
       <c r="B42" s="31">
         <f>VLOOKUP(C42,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>19</v>
@@ -24286,18 +24287,18 @@
       <c r="C42" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="166"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="164"/>
+      <c r="F42" s="162"/>
       <c r="G42" s="39">
         <v>11</v>
       </c>
       <c r="H42" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="I42" s="165"/>
+      <c r="I42" s="166"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="162"/>
+      <c r="K42" s="165"/>
       <c r="L42" s="31">
         <f>VLOOKUP(M42,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>51</v>
@@ -24305,19 +24306,19 @@
       <c r="M42" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N42" s="162"/>
+      <c r="N42" s="165"/>
       <c r="O42" s="39"/>
-      <c r="P42" s="164"/>
+      <c r="P42" s="162"/>
       <c r="Q42" s="39">
         <v>11</v>
       </c>
-      <c r="S42" s="164"/>
+      <c r="S42" s="162"/>
       <c r="U42" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="162"/>
+      <c r="A43" s="165"/>
       <c r="B43" s="31">
         <f>VLOOKUP(C43,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>20</v>
@@ -24325,18 +24326,18 @@
       <c r="C43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="166"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="164"/>
+      <c r="F43" s="162"/>
       <c r="G43" s="39">
         <v>12</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="I43" s="165"/>
+      <c r="I43" s="166"/>
       <c r="J43" s="31"/>
-      <c r="K43" s="162"/>
+      <c r="K43" s="165"/>
       <c r="L43" s="31">
         <f>VLOOKUP(M43,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>52</v>
@@ -24344,19 +24345,19 @@
       <c r="M43" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="N43" s="162"/>
+      <c r="N43" s="165"/>
       <c r="O43" s="39"/>
-      <c r="P43" s="164"/>
+      <c r="P43" s="162"/>
       <c r="Q43" s="39">
         <v>12</v>
       </c>
-      <c r="S43" s="164"/>
+      <c r="S43" s="162"/>
       <c r="U43" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="162"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="31">
         <f>VLOOKUP(C44,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>21</v>
@@ -24364,18 +24365,18 @@
       <c r="C44" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="166"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="164"/>
+      <c r="F44" s="162"/>
       <c r="G44" s="39">
         <v>13</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="I44" s="165"/>
+      <c r="I44" s="166"/>
       <c r="J44" s="31"/>
-      <c r="K44" s="162"/>
+      <c r="K44" s="165"/>
       <c r="L44" s="31">
         <f>VLOOKUP(M44,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>53</v>
@@ -24383,19 +24384,19 @@
       <c r="M44" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="N44" s="162"/>
+      <c r="N44" s="165"/>
       <c r="O44" s="39"/>
-      <c r="P44" s="164"/>
+      <c r="P44" s="162"/>
       <c r="Q44" s="39">
         <v>13</v>
       </c>
-      <c r="S44" s="164"/>
+      <c r="S44" s="162"/>
       <c r="U44" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="162"/>
+      <c r="A45" s="165"/>
       <c r="B45" s="31">
         <f>VLOOKUP(C45,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>60</v>
@@ -24403,18 +24404,18 @@
       <c r="C45" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="166"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="164"/>
+      <c r="F45" s="162"/>
       <c r="G45" s="39">
         <v>14</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="I45" s="165"/>
+      <c r="I45" s="166"/>
       <c r="J45" s="31"/>
-      <c r="K45" s="162"/>
+      <c r="K45" s="165"/>
       <c r="L45" s="31">
         <f>VLOOKUP(M45,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>26</v>
@@ -24422,19 +24423,19 @@
       <c r="M45" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="N45" s="162"/>
+      <c r="N45" s="165"/>
       <c r="O45" s="39"/>
-      <c r="P45" s="164"/>
+      <c r="P45" s="162"/>
       <c r="Q45" s="39">
         <v>14</v>
       </c>
-      <c r="S45" s="164"/>
+      <c r="S45" s="162"/>
       <c r="U45" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="165"/>
       <c r="B46" s="31">
         <f>VLOOKUP(C46,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>50</v>
@@ -24442,18 +24443,18 @@
       <c r="C46" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="166"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="164"/>
+      <c r="F46" s="162"/>
       <c r="G46" s="39">
         <v>15</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="I46" s="165"/>
+      <c r="I46" s="166"/>
       <c r="J46" s="31"/>
-      <c r="K46" s="162"/>
+      <c r="K46" s="165"/>
       <c r="L46" s="31">
         <f>VLOOKUP(M46,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>27</v>
@@ -24461,19 +24462,19 @@
       <c r="M46" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="N46" s="162"/>
+      <c r="N46" s="165"/>
       <c r="O46" s="39"/>
-      <c r="P46" s="164"/>
+      <c r="P46" s="162"/>
       <c r="Q46" s="39">
         <v>15</v>
       </c>
-      <c r="S46" s="164"/>
+      <c r="S46" s="162"/>
       <c r="U46" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="162"/>
+      <c r="A47" s="165"/>
       <c r="B47" s="31">
         <f>VLOOKUP(C47,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>55</v>
@@ -24481,18 +24482,18 @@
       <c r="C47" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="166"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="164"/>
+      <c r="F47" s="162"/>
       <c r="G47" s="31">
         <v>16</v>
       </c>
       <c r="H47" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="I47" s="165"/>
+      <c r="I47" s="166"/>
       <c r="J47" s="31"/>
-      <c r="K47" s="162"/>
+      <c r="K47" s="165"/>
       <c r="L47" s="31">
         <f>VLOOKUP(M47,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>28</v>
@@ -24500,19 +24501,19 @@
       <c r="M47" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="N47" s="162"/>
+      <c r="N47" s="165"/>
       <c r="O47" s="31"/>
-      <c r="P47" s="164"/>
+      <c r="P47" s="162"/>
       <c r="Q47" s="31">
         <v>16</v>
       </c>
-      <c r="S47" s="164"/>
+      <c r="S47" s="162"/>
       <c r="U47" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="162"/>
+      <c r="A48" s="165"/>
       <c r="B48" s="31">
         <f>VLOOKUP(C48,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>51</v>
@@ -24520,18 +24521,18 @@
       <c r="C48" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="166"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="164"/>
+      <c r="F48" s="162"/>
       <c r="G48" s="31">
         <v>17</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="I48" s="165"/>
+      <c r="I48" s="166"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="162"/>
+      <c r="K48" s="165"/>
       <c r="L48" s="31">
         <f>VLOOKUP(M48,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>29</v>
@@ -24539,19 +24540,19 @@
       <c r="M48" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N48" s="162"/>
+      <c r="N48" s="165"/>
       <c r="O48" s="31"/>
-      <c r="P48" s="164"/>
+      <c r="P48" s="162"/>
       <c r="Q48" s="31">
         <v>17</v>
       </c>
-      <c r="S48" s="164"/>
+      <c r="S48" s="162"/>
       <c r="U48" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="31">
         <f>VLOOKUP(C49,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>61</v>
@@ -24559,18 +24560,18 @@
       <c r="C49" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="166"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="164"/>
+      <c r="F49" s="162"/>
       <c r="G49" s="31">
         <v>18</v>
       </c>
       <c r="H49" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="I49" s="165"/>
+      <c r="I49" s="166"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="162"/>
+      <c r="K49" s="165"/>
       <c r="L49" s="31">
         <f>VLOOKUP(M49,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>30</v>
@@ -24578,19 +24579,19 @@
       <c r="M49" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="N49" s="162"/>
+      <c r="N49" s="165"/>
       <c r="O49" s="31"/>
-      <c r="P49" s="164"/>
+      <c r="P49" s="162"/>
       <c r="Q49" s="31">
         <v>18</v>
       </c>
-      <c r="S49" s="164"/>
+      <c r="S49" s="162"/>
       <c r="U49" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
+      <c r="A50" s="165"/>
       <c r="B50" s="31">
         <f>VLOOKUP(C50,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>22</v>
@@ -24598,18 +24599,18 @@
       <c r="C50" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="166"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="164"/>
+      <c r="F50" s="162"/>
       <c r="G50" s="31">
         <v>19</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="I50" s="165"/>
+      <c r="I50" s="166"/>
       <c r="J50" s="31"/>
-      <c r="K50" s="162"/>
+      <c r="K50" s="165"/>
       <c r="L50" s="31">
         <f>VLOOKUP(M50,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>54</v>
@@ -24617,37 +24618,37 @@
       <c r="M50" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="N50" s="162"/>
+      <c r="N50" s="165"/>
       <c r="O50" s="31"/>
-      <c r="P50" s="164"/>
+      <c r="P50" s="162"/>
       <c r="Q50" s="31">
         <v>19</v>
       </c>
-      <c r="S50" s="164"/>
+      <c r="S50" s="162"/>
       <c r="U50" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
+      <c r="A51" s="165"/>
       <c r="B51" s="31">
         <f>VLOOKUP(C51,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="166"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="164"/>
+      <c r="F51" s="162"/>
       <c r="G51" s="31">
         <v>20</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="168" t="s">
         <v>576</v>
       </c>
-      <c r="I51" s="165"/>
-      <c r="K51" s="162"/>
+      <c r="I51" s="166"/>
+      <c r="K51" s="165"/>
       <c r="L51" s="31">
         <f>VLOOKUP(M51,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>55</v>
@@ -24655,19 +24656,19 @@
       <c r="M51" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="N51" s="162"/>
+      <c r="N51" s="165"/>
       <c r="O51" s="31"/>
-      <c r="P51" s="164"/>
+      <c r="P51" s="162"/>
       <c r="Q51" s="31">
         <v>20</v>
       </c>
-      <c r="S51" s="164"/>
+      <c r="S51" s="162"/>
       <c r="U51" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
+      <c r="A52" s="165"/>
       <c r="B52" s="31">
         <f>VLOOKUP(C52,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>9</v>
@@ -24675,17 +24676,17 @@
       <c r="C52" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="D52" s="166"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="164"/>
+      <c r="F52" s="162"/>
       <c r="G52" s="31">
         <v>21</v>
       </c>
       <c r="H52" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="I52" s="165"/>
-      <c r="K52" s="162"/>
+      <c r="I52" s="166"/>
+      <c r="K52" s="165"/>
       <c r="L52" s="31">
         <f>VLOOKUP(M52,'Connectors Pinout'!H:I,2,FALSE)</f>
         <v>17</v>
@@ -24693,107 +24694,107 @@
       <c r="M52" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="N52" s="162"/>
+      <c r="N52" s="165"/>
       <c r="O52" s="31"/>
-      <c r="P52" s="164"/>
+      <c r="P52" s="162"/>
       <c r="Q52" s="31">
         <v>21</v>
       </c>
-      <c r="S52" s="164"/>
+      <c r="S52" s="162"/>
       <c r="U52" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
+      <c r="A53" s="165"/>
       <c r="B53" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="D53" s="166"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="164"/>
+      <c r="F53" s="162"/>
       <c r="G53" s="31">
         <v>22</v>
       </c>
       <c r="H53" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="I53" s="165"/>
-      <c r="K53" s="162"/>
+      <c r="I53" s="166"/>
+      <c r="K53" s="165"/>
       <c r="L53" s="31" t="s">
         <v>442</v>
       </c>
       <c r="M53" s="17"/>
-      <c r="N53" s="162"/>
+      <c r="N53" s="165"/>
       <c r="O53" s="31"/>
-      <c r="P53" s="164"/>
+      <c r="P53" s="162"/>
       <c r="Q53" s="31">
         <v>22</v>
       </c>
-      <c r="S53" s="164"/>
+      <c r="S53" s="162"/>
       <c r="U53" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
+      <c r="A54" s="165"/>
       <c r="B54" s="31"/>
-      <c r="D54" s="166"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="164"/>
+      <c r="F54" s="162"/>
       <c r="G54" s="31">
         <v>23</v>
       </c>
       <c r="H54" s="37"/>
-      <c r="I54" s="165"/>
-      <c r="K54" s="162"/>
+      <c r="I54" s="166"/>
+      <c r="K54" s="165"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="162"/>
+      <c r="N54" s="165"/>
       <c r="O54" s="31"/>
-      <c r="P54" s="164"/>
+      <c r="P54" s="162"/>
       <c r="Q54" s="31">
         <v>23</v>
       </c>
-      <c r="S54" s="164"/>
+      <c r="S54" s="162"/>
       <c r="U54" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
+      <c r="A55" s="165"/>
       <c r="B55" s="31"/>
-      <c r="D55" s="166"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="76"/>
-      <c r="F55" s="164"/>
+      <c r="F55" s="162"/>
       <c r="G55" s="31">
         <v>24</v>
       </c>
       <c r="H55" s="37"/>
-      <c r="I55" s="165"/>
-      <c r="K55" s="162"/>
-      <c r="N55" s="162"/>
+      <c r="I55" s="166"/>
+      <c r="K55" s="165"/>
+      <c r="N55" s="165"/>
       <c r="O55" s="31"/>
-      <c r="P55" s="164"/>
+      <c r="P55" s="162"/>
       <c r="Q55" s="31">
         <v>24</v>
       </c>
-      <c r="S55" s="164"/>
+      <c r="S55" s="162"/>
       <c r="U55" s="87" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
-      <c r="D56" s="166"/>
+      <c r="A56" s="165"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="76"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="162"/>
-      <c r="D57" s="166"/>
+      <c r="A57" s="165"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="76"/>
     </row>
     <row r="58" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="162"/>
+      <c r="A58" s="165"/>
       <c r="B58" s="31">
         <f>VLOOKUP(C58,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>76</v>
@@ -24801,9 +24802,9 @@
       <c r="C58" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="166"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="76"/>
-      <c r="F58" s="162" t="s">
+      <c r="F58" s="165" t="s">
         <v>431</v>
       </c>
       <c r="G58" s="39">
@@ -24812,7 +24813,7 @@
       <c r="H58" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="I58" s="162" t="s">
+      <c r="I58" s="165" t="s">
         <v>462</v>
       </c>
       <c r="J58" s="31"/>
@@ -24826,7 +24827,7 @@
       <c r="S58" s="41"/>
     </row>
     <row r="59" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="162"/>
+      <c r="A59" s="165"/>
       <c r="B59" s="31">
         <f>VLOOKUP(C59,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>77</v>
@@ -24834,16 +24835,16 @@
       <c r="C59" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="166"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="76"/>
-      <c r="F59" s="162"/>
+      <c r="F59" s="165"/>
       <c r="G59" s="39">
         <v>11</v>
       </c>
       <c r="H59" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="I59" s="165"/>
+      <c r="I59" s="166"/>
       <c r="J59" s="31"/>
       <c r="K59" s="38"/>
       <c r="L59" s="31"/>
@@ -24855,7 +24856,7 @@
       <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="162"/>
+      <c r="A60" s="165"/>
       <c r="B60" s="31">
         <f>VLOOKUP(C60,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>78</v>
@@ -24863,16 +24864,16 @@
       <c r="C60" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="166"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="76"/>
-      <c r="F60" s="162"/>
+      <c r="F60" s="165"/>
       <c r="G60" s="39">
         <v>12</v>
       </c>
       <c r="H60" s="37" t="s">
         <v>586</v>
       </c>
-      <c r="I60" s="165"/>
+      <c r="I60" s="166"/>
       <c r="J60" s="39"/>
       <c r="K60" s="38"/>
       <c r="L60" s="31"/>
@@ -24883,7 +24884,7 @@
       <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="162"/>
+      <c r="A61" s="165"/>
       <c r="B61" s="31">
         <f>VLOOKUP(C61,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>79</v>
@@ -24891,16 +24892,16 @@
       <c r="C61" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="166"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="76"/>
-      <c r="F61" s="162"/>
+      <c r="F61" s="165"/>
       <c r="G61" s="39">
         <v>13</v>
       </c>
       <c r="H61" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="I61" s="165"/>
+      <c r="I61" s="166"/>
       <c r="J61" s="31"/>
       <c r="K61" s="38"/>
       <c r="L61" s="31"/>
@@ -24911,7 +24912,7 @@
       <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="162"/>
+      <c r="A62" s="165"/>
       <c r="B62" s="31">
         <f>VLOOKUP(C62,'Connectors Pinout'!B:C,2,FALSE)</f>
         <v>80</v>
@@ -24919,16 +24920,16 @@
       <c r="C62" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="166"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="76"/>
-      <c r="F62" s="162"/>
+      <c r="F62" s="165"/>
       <c r="G62" s="39">
         <v>14</v>
       </c>
       <c r="H62" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="I62" s="165"/>
+      <c r="I62" s="166"/>
       <c r="J62" s="31"/>
       <c r="K62" s="38"/>
       <c r="L62" s="31"/>
@@ -24939,7 +24940,7 @@
       <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="162"/>
+      <c r="A63" s="165"/>
       <c r="E63" s="76"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
@@ -24969,6 +24970,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:A63"/>
+    <mergeCell ref="K10:K55"/>
+    <mergeCell ref="N10:N55"/>
+    <mergeCell ref="F10:F29"/>
+    <mergeCell ref="F32:F55"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="I32:I55"/>
     <mergeCell ref="S32:S55"/>
     <mergeCell ref="D10:D62"/>
     <mergeCell ref="P10:P29"/>
@@ -24976,13 +24984,6 @@
     <mergeCell ref="I10:I29"/>
     <mergeCell ref="S10:S29"/>
     <mergeCell ref="I58:I62"/>
-    <mergeCell ref="A10:A63"/>
-    <mergeCell ref="K10:K55"/>
-    <mergeCell ref="N10:N55"/>
-    <mergeCell ref="F10:F29"/>
-    <mergeCell ref="F32:F55"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="I32:I55"/>
   </mergeCells>
   <conditionalFormatting sqref="M1:N7 M9:N9 M8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
